--- a/Melon-Crawler/Video_with_Emotional_Words_Melon.xlsx
+++ b/Melon-Crawler/Video_with_Emotional_Words_Melon.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'좋다', '많다니', '아쉽고', '좋으시고', '싫어하는', '미쳤다', '그리워요', '찰짐', '미친듯이', '미쳐가는', '좋아하는', '좋은', '좋음', '좋았던', '미쳐', '멋져지는', '착한게', '있을것', '아니였음', '미친', '좋고', '미치게', '강력함', '미친줄', '슬프니', '세련되고', '좋아했는데', '좋은데', '강렬해서'}</t>
+          <t>['미쳐가는', '미친', '미쳐가는', '미친', '미쳐가는', '미친', '찰짐', '세련되고', '좋다', '좋은데', '있을것', '좋은', '좋은데', '미쳐', '싫어하는', '그리워요', '슬프니', '많다니', '미친', '강렬해서', '좋음', '강력함', '좋다', '미쳤다', '미치게', '좋음', '미친듯이', '좋아하는', '좋아했는데', '좋았던', '아니였음', '아쉽고', '미친줄', '좋다', '멋져지는', '좋으시고', '좋고']</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'계시는군요', '부족한게', '짧아요', '있지만', '새로운', '좋게', '예쁨', '고급스러운', '기쁩니다', '좋아야', '독특해서', '차분한', '똑같아요', '분하기전에', '높으니깐', '엄청나요', '엄청나지만이', '좋다요', '있는건', '조아용', '아프지', '풍부해서', '식상할', '이상하다', '많거', '같기도', '방심하면', '힘들꺼', '좋았어요', '있으니까', '좋았다', '고급스럽다', '아니었어도', '슬픈', '있는지', '놀라워', '멋져', '같은거', '좋아해요', '설렌다', '기대해도', '칠하지말고', '참신한', '아니에요', '같당', '유치한', '없니', '조아요', '좋아하는', '좋아도', '좋겠어요', '미쳐', '어렵다', '안됩니다', '노래안', '식상하고', '좋에', '먼가', '좋아했던', '예뻐요', '위대하다', '특별한', '대단함', '유일하게', '예쁘구', '아니냐', '이쁘게', '미쳤어요', '완벽했는데', '흔해', '비슷한게', '한심하지', '안전하게', '완벽하다', '죄송해요', '높은', '성공했으니까', '신비롭다', '없었음', '당했습니다', '아까운', '많으시겠지만', '이상한', '쎈듯', '같지만', '착한게', '슬프다', '간단함', '고마워', '미친', '자세히', '있으세요', '새롭다', '있당', '차분하면서도', '주도해서', '그렇네요', '예뻐서', '좋아서', '뒤늦게', '길었으면', '예쁜데', '신나는듯', '성숙해진것', '미묘하게', '유일한듯', '세련되면서', '신나고', '세련됨', '힘들어요', '좋았을', '반해서', '힘들것', '다르니까', '좋은', '멋있는', '있기엔', '있지', '다양하게', '좋아하서', '유치하지', '아리송했는데', '참신하네요', '미쳤는데', '어려운', '어김없시', '미침', '노래였구나', '뿐이이니까', '있어용', '싫다', '어렵지', '그렇겠죠', '안되는건', '고급스러워지고', '이뻐', '좋다', '부족한', '있으니깐', '그런게', '멋있다', '미친것', '고급스럽', '대단해서', '완벽한', '간드러지고', '시기해서', '기대했는데', '없으니깐', '좋으', '힘들어', '고맙', '기특하다', '좋아하거든요', '예쁜', '같긴하지', '짧아서', '좋음', '망했다', '좋네요', '새로워', '아니던', '방심하며는', '순수한', '신선한', '좋은지', '안됨', '힘들텐데', '아쉽', '아쉬운데', '유일한', '놀라워서', '정당하다고', '좋아하는데', '부드러운', '필요하겠어', '부들부들해서', '애매합니다', '칠하지말자', '이렇게만', '좋앗던', '발랄해서', '행복하다', '화하러', '미친거', '안되나', '좋았을거', '적절히', '그러냐', '더라구요', '흔하게', '행복해지는거', '이쁘다', '아프고', '같담', '이상하게', '부족하긴', '피곤해', '높다', '나빠도', '깊숙히', '이쁘구', '비슷한것', '예쁘시고', '신선함이', '좋다고', '있어줘', '흠잡을', '약해요', '안되네', '같네요', '그래요', '짧은거', '좋았지만', '안타깝네요', '안되나요', '좋구만', '부드러운데', '한심하다', '없네요', '이쁘네', '쏠쏠한', '휩쓸자', '같네', '더내줘라', '익숙함에', '세련되구', '참신해서', '좋겠당', '노래네요', '미쳤음', '이쁘기까지', '고급스럽고', '작은', '귀엽네', '좋아요', '부자되', '성장하면서', '섹시하다', '무리여도', '좋네', '부럽나', '황홀하고', '입니다요', '없구', '신남', '좋아하더라', '예쁠', '무리하지는', '좋아함', '충분히', '아쉬웠는데', '망했네', '미랑', '높게', '빠를듯', '세련됬지', '완벽했을텐데', '고맙다', '도도하고', '신나', '좋아해주세요', '같아여', '많던데', '안타깝지만', '후회되네', '심각하게', '재미없잖아', '좋구먼', '좋아하고', '섭섭해', '아리송하지', '힘들었던', '아닌거', '넘치는', '없었으면', '잔잔하니', '평범해지네', '고마워요', '어두컴컴한', '적당히', '있었던가', '좋겠는데', '야하냐', '나쁘지', '이뻐요', '특별함이', '좋을듯', '쌀쌀해지면', '설레이는', '조하', '행복하시구', '당연한데', '좋았는데', '변함', '작게', '나쁜', '꾸준하게', '아쉽지만', '좋았고', '싫은', '낭비하지말아요', '좋은데', '무사히', '불가능하려나', '대단한', '싫다고', '미쳤네', '당연한것', '대단하네', '세련된', '꾸준히', '힘든', '멋있어요', '아쉬운건', '어떤지', '이쁘더라구요', '완벽하게', '아쉽게', '다르다니까', '지루했을듯', '당당하게', '평범하네', '섹시하고', '불편한', '성공하는것', '확실해서', '재밌네', '왠만하게', '아쉬운게', '짧았네요', '좋아한다고', '지저분해', '좋다니까', '신기하고', '강하게만', '좋겠고', '있네요', '미는거', '도도한', '있을까', '세련되어서', '넘친다', '그러셨음', '좋겠네요', '인해서', '쌀쌀해질', '힘들게', '안좋고를', '행복합니다', '신선하네용', '좋잖아', '지겹게', '착한', '죄송하지만', '풍부해', '추워', '좋았으면', '예쁜듯', '없으', '덤덤했는데', '수많은', '성공했다고', '강해서', '같다라는', '미쳐서', '좋다아', '안되서', '어마어마한듯', '쎔이라', '괜찮을것', '세련되고', '있는듯', '안좋아요', '아니었어', '비슷하거나', '섹시하네', '좋아하는지', '괜찮아요', '편한', '반할듯', '반해', '엄청나게', '좋기만', '역시네요', '미칠듯', '좋아하지만', '있답니다', '귀엽게', '좋당', '무리하지', '편하고', '좋지만', '좋던데', '미쳤나', '힘나네요', '확실하지', '좋았던', '기대하셨으면', '세련된거', '짧은지', '가볍게', '멋있음', '미치게', '특이하다', '편하게', '색달라서', '뻔했으나', '고급스러워', '연연하지', '쎄게', '신기함', '좋겠다', '꿋꿋하게', '천하면', '슬퍼', '어땠을까', '아닌것', '비슷해져요', '색다른', '같은것', '신선하고', '있긴한데', '구린것도', '미쳤어', '예쁜것', '좋으면', '좋겟다', '중요한건', '놀램', '재밌지', '착하고', '성한', '예쁘고', '편안하게', '진하게', '비슷해요', '멋있어', '같습니다', '이상해', '빠르고', '조으다', '다정한', '특이한듯', '많아서', '좋아했는데', '짧고', '이상해말로', '익숙한것', '미쳤다니까', '원합니다', '바빠서', '대단하고', '이쁜거아니냐', '설레고', '낮고', '굉장히', '괜찮네', '이뻐서', '아니예요', '있었다고', '싫어요', '같나', '좋으네요', '딱좋다', '궁금해', '그럴', '없는거지', '딱히', '좋나요', '허전해', '선명하게', '재밌다', '좋더라', '좋아용', '아쉽네요', '미쳤', '좋다는', '아까', '예쁘시지만', '같죠', '아니라고', '많으신', '심심한', '힘들듯', '영원하길', '좋았나', '고급스러우면서도', '노래였나', '세련됬고', '특이한데', '비슷한', '귀엽고', '있다는', '그러는고야', '있던데', '뿌듯해', '무심히', '높았나', '많습니다', '아니잖아', '빨간', '세련됬다', '그랬어요', '강한데', '대단하다', '오묘한', '비슷한데', '좋아한다', '좋더라구요', '색다른데', '같더라니', '예쁘다', '흔한', '완전히', '높은데', '고맙고', '쌀쌀한', '아름답고', '궁금해서요', '나쁘진', '이런게', '신선해요', '좋겠지만', '괜찮아', '나쁘게', '야해요', '당연히', '좋냐', '신나는', '아닌듯', '예뻤고', '비슷하네', '밉다', '있을거', '다양한', '예뻐', '성장하는', '멋지고', '익숙하네요', '멋질', '길지', '좋지', '그렇겠지', '좋겠습니다', '없게', '확실하고', '미쳤습니다', '부드럽고', '강한', '익숙한가요', '재밌는', '자랑스럽다', '이쁜지', '대단한듯', '무심한', '완벽했어요', '설렜었지', '다르게', '없으니까', '아쉬울', '노래인듯', '강렬함이', '같아용', '같았네요', '좋고', '미칠것', '설레는', '있었을까', '찰져', '흔하지', '안되다가', '어때요', '이쁘고', '치열한', '좋아할줄은', '미쳤당', '있었다', '이쁨', '있는것', '안좋을', '높고', '이상할줄', '짜릿해', '멋있게', '같군', '담하건데', '미쳤다', '좋아여', '가능하다니', '좋았음', '미친듯이', '가능한데', '좋습니다', '예쁘', '안되네요', '아까우면', '있더군요', '멍하게', '깊어졌다', '있다니', '아쉽다', '부끄럽다', '안되는게', '힘드네', '같고', '신기한게', '좋긴', '섹시한'}</t>
+          <t>['미쳐', '좋음', '미치게', '미친', '좋고', '좋았음', '예쁨', '미쳐', '좋음', '미치게', '미친', '좋고', '좋았음', '예쁨', '미쳐', '좋음', '미치게', '미친', '좋고', '좋았음', '예쁨', '미쳐', '괜찮을것', '같은거', '흔해', '흔해', '흔해', '무리여도', '충분히', '아쉽다', '계시는군요', '좋은', '아프고', '많아서', '빠를듯', '흔해', '흔해', '흔해', '무리여도', '충분히', '아쉽다', '계시는군요', '좋은', '아프고', '많아서', '빠를듯', '완벽한', '좋고', '세련됨', '좋음', '새로운', '완벽한', '좋고', '세련됨', '좋음', '새로운', '완벽한', '좋고', '세련됨', '좋음', '새로운', '담하건데', '좋아하는', '좋지만', '좋아하는', '좋아하더라', '좋아함', '좋구만', '쌀쌀해지면', '좋지만', '좋아하는', '좋아하더라', '좋아함', '좋구만', '쌀쌀해지면', '좋지만', '좋아하는', '좋아하더라', '좋아함', '좋구만', '쌀쌀해지면', '좋아하는', '좋음', '좋아하는', '좋음', '좋아하는', '좋음', '없는거지', '노래인듯', '예쁘다', '좋아하는', '좋다', '좋음', '좋긴', '좋은데', '노래였구나', '미쳤다', '좋다', '멋있다', '멋져', '노래였구나', '미쳤다', '좋다', '멋있다', '멋져', '노래였구나', '미쳤다', '좋다', '멋있다', '멋져', '노래였구나', '미쳤다', '좋다', '멋있다', '멋져', '기특하다', '완벽했을텐데', '조아요', '좋아하는', '기특하다', '완벽했을텐데', '조아요', '좋아하는', '좋음', '좋아서', '힘들듯', '좋다', '힘들었던', '좋다', '오묘한', '힘들었던', '좋다', '오묘한', '힘들었던', '좋다', '오묘한', '미쳐서', '빨간', '좋은데', '좋았으면', '섹시하고', '고급스러운', '대단한듯', '좋아하는데', '미쳐서', '빨간', '좋은데', '좋았으면', '섹시하고', '고급스러운', '대단한듯', '좋아하는데', '미쳐서', '빨간', '좋은데', '좋았으면', '섹시하고', '고급스러운', '대단한듯', '좋아하는데', '더내줘라', '좋긴', '좋아하는데', '구린것도', '세련된', '뿌듯해', '넘치는', '화하러', '미친', '좋네요', '좋아하는', '오묘한', '좋아서', '세련된', '좋다', '좋은', '피곤해', '유일하게', '편안하게', '좋음', '고급스럽', '빨간', '많으시겠지만', '좋음', '편하게', '좋음', '꾸준하게', '좋음', '설렌다', '피곤해', '유일하게', '편안하게', '좋음', '고급스럽', '빨간', '많으시겠지만', '좋음', '편하게', '좋음', '꾸준하게', '좋음', '설렌다', '멋있는', '도도하고', '멋있다', '새로워', '좋아함', '좋다', '좋음', '좋아함', '대단한', '나쁜', '좋은', '설레는', '설렜었지', '좋아요', '다정한', '착한', '좋음', '좋다', '좋아요', '좋아했던', '좋던데', '좋은', '같고', '좋았음', '좋지', '무심한', '슬픈', '세련된', '좋지만', '좋음', '미쳤나', '완벽한', '좋은', '안되나', '미쳤음', '좋아서', '신선하고', '좋았다', '좋음', '좋았다', '빨간', '좋당', '좋아하는', '좋에', '좋고', '좋고', '좋았는데', '좋은', '그러냐', '있답니다', '좋아서', '좋은데', '안됨', '좋지만', '좋음', '나쁜', '나쁜', '있던데', '기대해도', '예쁜데', '그럴', '황홀하고', '아름답고', '나쁜', '좋아해주세요', '좋음', '있었다', '미칠것', '깊숙히', '좋은데', '좋아서', '좋지만', '좋다', '좋지만', '좋네요', '뒤늦게', '강렬함이', '미칠듯', '지겹게', '흠잡을', '고급스럽다', '식상하고', '좋다', '좋은데', '좋아요', '좋았고', '좋겠다', '있는건', '무심히', '미친듯이', '좋다', '미쳤다', '있어줘', '좋겠다', '빨간', '좋지만', '완벽한', '좋음', '안전하게', '좋아요', '세련됨', '빨간', '좋았고', '빨간', '좋네요', '이상해', '이상해말로', '힘들어', '세련되고', '차분하면서도', '이런게', '무심한', '좋음', '좋아서', '차분한', '특별한', '좋아할줄은', '어렵다', '설레는', '좋아요', '안타깝지만', '미랑', '노래안', '좋아서', '심각하게', '고급스럽', '빨간', '흔하지', '좋고', '좋음', '아까', '좋았을', '다르다니까', '비슷한게', '예쁘고', '영원하길', '빨간', '꾸준히', '특별한', '인해서', '세련됬지', '미쳤다', '좋음', '굉장히', '세련된거', '인해서', '세련됬지', '미쳤다', '좋음', '굉장히', '세련된거', '풍부해', '좋다', '작은', '도도한', '풍부해', '좋다', '작은', '도도한', '좋은', '재미없잖아', '망했다', '좋네요', '분하기전에', '좋음', '새로운', '안됨', '좋아도', '안되네요', '좋은', '안전하게', '이상한', '좋아한다', '좋아하는', '좋다', '좋다', '고맙다', '노래였나', '놀라워서', '좋아한다', '좋아하는', '좋다', '좋다', '고맙다', '노래였나', '놀라워서', '이쁘고', '나쁜', '있더군요', '빨간', '나쁜', '참신하네요', '좋은', '좋긴', '좋아요', '좋앗던', '힘들텐데', '망했네', '좋아요', '아쉽', '좋습니다', '변함', '좋다', '좋겠다', '좋앗던', '힘들텐데', '망했네', '좋아요', '아쉽', '좋습니다', '변함', '좋다', '좋겠다', '좋네요', '좋은', '같네요', '꾸준히', '좋다', '조하', '귀엽네', '반해', '좋음', '빨간', '좋은데', '없으니깐', '좋다', '행복해지는거', '없었음', '지루했을듯', '아까운', '완벽한', '좋은데', '없으니깐', '좋다', '행복해지는거', '없었음', '지루했을듯', '아까운', '완벽한', '있기엔', '아까운', '있으니깐', '아쉽다', '있기엔', '아까운', '있으니깐', '아쉽다', '있기엔', '아까운', '있으니깐', '아쉽다', '신비롭다', '좋냐', '밉다', '다르게', '재밌다', '이뻐요', '좋다', '엄청나요', '미친', '아까우면', '미친', '싫어요', '높게', '좋아하서', '고급스럽다', '좋은', '예뻐', '좋다', '엄청나요', '미친', '아까우면', '미친', '싫어요', '높게', '좋아하서', '고급스럽다', '좋은', '예뻐', '좋은', '안좋아요', '성공했으니까', '연연하지', '좋겠습니다', '좋아서', '좋다', '강하게만', '대단하다', '멋있어', '멋있음', '싫어요', '높게', '좋아요', '좋다', '좋다', '좋아서', '짧아서', '아쉽다', '예뻐서', '좋아하는', '노래인듯', '특이하다', '부끄럽다', '섭섭해', '나쁘게', '죄송하지만', '그래요', '그러셨음', '정당하다고', '없니', '칠하지말고', '칠하지말자', '좋다', '새로운', '좋다', '새로운', '싫다', '좋아요', '성공했다고', '좋은데', '좋아하거든요', '싫은', '좋다', '안좋아요', '확실하지', '불편한', '그렇네요', '좋겠다', '아쉬운게', '가능한데', '좋아도', '낭비하지말아요', '뿐이이니까', '애매합니다', '좋아하고', '그랬어요', '빨간', '그렇네요', '좋으면', '좋은데', '안타깝네요', '야해요', '예쁜', '빨간', '있긴한데', '아니었어도', '좋아요', '조아요', '예뻐요', '좋겠는데', '좋아요', '방심하며는', '약해요', '좋겠는데', '좋아요', '방심하며는', '약해요', '좋아해요', '좋아여', '그런게', '좋아용', '좋아서', '좋아요', '무심한', '좋아요', '쎄게', '예뻐', '같네', '있당', '좋다', '좋은', '있어용', '좋음', '그렇겠죠', '높다', '좋은', '딱히', '좋은', '좋아하는지', '발랄해서', '좋다', '무심한', '익숙하네요', '예쁜', '좋아요', '좋아서', '좋은', '고마워요', '빨간', '좋네요', '좋네', '좋은', '같긴하지', '미쳤네', '좋다', '미친', '이쁘구', '좋다', '비슷한데', '좋음', '좋지', '아프지', '천하면', '좋다', '비슷한데', '좋음', '좋지', '아프지', '천하면', '이상하게', '어려운', '죄송하지만', '힘들어요', '예쁘다', '같고', '좋네요', '아닌거', '좋음', '좋다', '좋네요', '미쳤습니다', '예쁜듯', '좋은데', '평범해지네', '좋아요', '당했습니다', '좋아여', '이쁘게', '미쳤습니다', '예쁜듯', '좋은데', '평범해지네', '좋아요', '당했습니다', '좋아여', '이쁘게', '미쳤습니다', '예쁜듯', '좋은데', '평범해지네', '좋아요', '당했습니다', '좋아여', '이쁘게', '무사히', '좋다', '예쁘시고', '완벽했어요', '넘치는', '예뻐요', '좋네', '좋아요', '좋네', '좋아요', '빨간', '아쉬웠었는데', '좋다', '좋아요', '비슷한것', '같아용', '짧았네요', '빠르고', '부드럽고', '좋은', '빨간', '좋을듯', '나쁘지', '좋았어요', '빨간', '좋네요', '좋고', '완벽하게', '이뻐서', '그러는고야', '안되다가', '좋았을거', '좋음', '좋겠네요', '적당히', '많던데', '짧은거', '많거', '시기해서', '빨간', '좋을듯', '좋다', '덤덤했는데', '좋은데', '좋다', '좋겠다', '좋은', '좋아서', '편하고', '좋은', '이쁘고', '착하고', '이쁘다', '좋지', '반해', '좋네', '신나는듯', '노래네요', '있어용', '짜릿해', '빨간', '좋아요', '불가능하려나', '완벽하다', '행복하시구', '부자되', '빨간', '새로운', '같네요', '대단한', '신선한', '있는듯', '좋음', '좋았음', '좋다', '좋다', '좋다', '어때요', '좋다', '부족하긴', '좋음', '재밌네', '예뻐', '높으니깐', '쎔이라', '부족하긴', '좋음', '재밌네', '예뻐', '높으니깐', '쎔이라', '부족하긴', '좋음', '재밌네', '예뻐', '높으니깐', '쎔이라', '좋아서', '다양한', '좋아여', '이상한', '좋은', '좋기만', '편하고', '좋음', '좋더라구요', '좋은', '같아용', '고맙', '좋아하지만', '좋아서', '다양한', '좋아여', '이상한', '좋은', '좋기만', '편하고', '좋음', '좋더라구요', '좋은', '같아용', '고맙', '좋아하지만', '고급스러우면서도', '있을까', '좋아요', '좋네요', '좋아서', '좋은', '좋고', '예쁘고', '좋고', '미침', '좋아서', '좋음', '좋아서', '좋아요', '야해요', '신나고', '좋네요', '좋은', '대단하고', '대단하다', '좋다', '좋다', '길었으면', '좋겠다', '예쁨', '도도한', '좋다', '어마어마한듯', '고마워', '야해요', '신나고', '좋네요', '좋은', '대단하고', '대단하다', '좋다', '좋다', '길었으면', '좋겠다', '예쁨', '도도한', '좋다', '어마어마한듯', '고마워', '미쳤어', '좋다', '좋은', '고급스러워지고', '좋은데', '좋고', '안좋고를', '간단함', '있었을까', '빨간', '좋았는데', '좋다', '세련된', '미쳤어', '좋다', '좋은', '고급스러워지고', '좋은데', '좋고', '안좋고를', '간단함', '있었을까', '빨간', '좋았는데', '좋다', '세련된', '좋다', '안좋을', '안좋을', '좋은데', '짧아요', '좋음', '세련된', '신나는', '강한', '좋다', '나쁜', '나빠도', '좋아서', '좋음', '미친', '이쁘고', '좋아서', '신나는', '강한', '좋다', '나쁜', '나빠도', '좋아서', '좋음', '미친', '이쁘고', '좋아서', '좋다', '좋다', '좋네요', '예쁘', '좋음', '무심한', '예쁘시지만', '좋고', '예쁘고', '높은데', '미쳤어', '좋은데', '같더라니', '이쁜거아니냐', '미쳤어', '좋은데', '같더라니', '이쁜거아니냐', '유일하게', '좋네요', '미쳤다', '비슷해요', '방심하면', '더라구요', '좋다', '같다라는', '좋아요', '좋아요', '적절히', '세련되고', '귀엽게', '예뻐요', '좋다', '좋네요', '참신해서', '미쳤어요', '대단해서', '좋음', '좋다', '다양한', '유일한듯', '좋지', '좋음', '좋은', '넘친다', '없으', '좋으', '많아서', '좋았나', '좋은데', '빨간', '좋아서', '수많은', '이렇게만', '좋네요', '좋아요', '선명하게', '성한', '부럽나', '높으니깐', '좋다', '안되서', '좋은데', '좋아요', '한심하지', '익숙한가요', '있었던가', '익숙한것', '좋네요', '빨간', '빨간', '밉다', '짧은지', '싫다고', '좋아하는', '없으니까', '좋아하고', '좋은데', '이뻐서', '좋아요', '좋아요', '미쳤네', '빨간', '좋아하는', '예쁜', '있지만', '새로운', '높고', '흔하게', '유치하지', '세련되어서', '좋다', '좋아요', '이쁘더라구요', '좋다', '간드러지고', '좋네요', '있는듯', '유치한', '멋있음', '좋다', '좋다', '좋고', '좋고', '좋고', '좋고', '이쁘기까지', '좋아용', '힘드네', '좋은', '있으니까', '좋다는', '신선하네용', '좋음', '빨간', '좋아했는데', '좋네요', '좋다', '좋고', '좋고', '좋고', '좋고', '이쁘기까지', '좋아용', '힘드네', '좋은', '있으니까', '좋다는', '신선하네용', '좋음', '빨간', '좋아했는데', '좋네요', '한심하다', '예쁜것', '좋다고', '아까운', '완벽한', '좋다', '좋음', '좋다', '좋아요', '괜찮아요', '괜찮아', '괜찮아', '좋다', '좋다', '좋겠다', '좋아요', '오묘한', '좋다', '좋다', '색다른', '좋다', '좋은데', '좋은데', '나쁘진', '궁금해', '좋다', '좋은', '비슷해져요', '좋은', '좋다', '좋던데', '그렇겠지', '고마워', '좋아요', '오묘한', '확실해서', '좋아요', '좋다', '비슷해져요', '좋아요', '같네', '신선하고', '새로운', '무리하지는', '좋다', '좋은지', '같네요', '좋네요', '미쳤다', '미쳤다', '좋은데', '멋있음', '좋다', '다양한', '빨간', '아쉬웠는데', '미쳤다', '좋다', '좋아서', '좋고', '행복하다', '먼가', '좋다', '좋음', '평범하네', '흔한', '같네', '특별함이', '좋아요', '좋네요', '좋아요', '좋으네요', '좋은', '좋네', '좋다', '좋은', '미쳤다', '좋다', '어렵지', '새로운', '성공하는것', '같담', '같죠', '반해', '미쳤다', '쎈듯', '이쁘다', '좋다', '많으신', '좋다', '좋아요', '좋아서', '강한데', '있는것', '대단함', '좋다', '반해서', '좋은지', '당연히', '좋겠지만', '빨간', '높은', '깊어졌다', '세련됨', '짧고', '부드러운', '길지', '심심한', '자랑스럽다', '세련되고', '좋다', '독특해서', '좋음', '새로운', '같군', '새로운', '기쁩니다', '좋지만', '힘들꺼', '좋다', '좋겠다', '신선하고', '좋아요', '세련되구', '신선해요', '재밌는', '미쳤네', '좋다', '좋네', '좋다', '좋다', '좋다', '좋아요', '좋고', '이쁨', '좋겠다', '좋다', '좋다', '찰져', '빨간', '쏠쏠한', '당연한것', '좋아하는', '다르니까', '좋았던', '아닌것', '수많은', '기대하셨으면', '좋겠어요', '있는건', '좋다', '빨간', '좋겠당', '빨간', '빨간', '미쳤어', '좋다', '이쁘고', '좋아서', '빨간', '빨간', '아쉽지만', '세련됬다', '어김없시', '좋다', '좋고', '좋았는데', '좋네요', '좋네요', '미쳐', '미쳤당', '좋아요', '참신한', '좋다', '좋지만', '빨간', '뻔했으나', '좋아서', '좋아서', '좋냐', '좋나요', '좋아요', '아리송했는데', '좋은', '있을까', '원합니다', '힘나네요', '이쁘다', '새롭다', '아리송하지', '신남', '이쁘다', '좋다', '멋지고', '고맙고', '좋고', '슬퍼', '좋음', '좋다', '좋아요', '좋다', '휩쓸자', '좋다', '자랑스럽다', '미친', '좋음', '좋아요', '미친', '좋았는데', '미는거', '같네', '좋네', '좋음', '진하게', '좋아요', '놀램', '좋다', '좋음', '있는듯', '당연한데', '예쁘고', '좋은', '재미없잖아', '좋음', '좋아요', '이뻐', '좋아요', '좋다', '좋다', '좋다아', '미쳤', '좋당', '좋다', '완전히', '완벽한', '조으다', '높게', '다양하게', '좋은', '좋다', '멋져', '예뻐요', '신나고', '귀엽고', '당연히', '낮고', '편한', '성장하면서', '다양한', '예쁠', '야하냐', '나쁜', '좋아여', '좋다', '미침', '좋습니다', '예쁘다', '좋다', '멍하게', '특이한데', '이상하게', '좋음', '아쉽', '높았나', '안되네', '좋음', '좋잖아', '좋은', '같네요', '좋네요', '아니던', '가볍게', '좋네요', '왠만하게', '좋다는', '무리하지', '좋겠네요', '잔잔하니', '가볍게', '딱좋다', '좋을듯', '좋다', '가능하다니', '같나', '슬프다', '좋다', '미친', '좋다', '미친', '예뻐', '좋다', '이뻐서', '좋아서', '신나고', '귀엽고', '당연히', '낮고', '편한', '다양한', '좋다', '이상할줄', '이쁘네', '있다니', '미쳤어', '좋아요', '아쉽게', '다양한', '신기하고', '미쳤다', '좋다', '이쁘네', '있다니', '미쳤어', '좋아요', '아쉽게', '다양한', '신기하고', '미쳤다', '좋다', '좋겟다', '빨간', '중요한건', '색달라서', '좋았는데', '좋아요', '좋아용', '좋아요', '좋네', '좋네요', '빨간', '좋구먼', '좋은', '놀라워', '짜릿해', '미쳤', '좋은', '미쳤다', '이쁨', '좋은', '힘들것', '좋겠어요', '있는것', '좋겠네요', '성숙해진것', '같은것', '이쁘더라구요', '엄청나게', '좋다', '미쳤', '미쳤나', '이쁘다', '좋네요', '좋은', '많습니다', '좋고', '괜찮네', '좋게', '좋고', '좋아서', '행복합니다', '좋은', '고마워요', '예뻐서', '미쳤는데', '추워', '좋다', '부드러운데', '미묘하게', '없구', '지저분해', '빨간', '좋다', '똑같아요', '이쁘다', '좋은', '좋긴', '좋아요', '좋다', '좋다', '좋다', '빨간', '고맙고', '좋고', '좋고', '좋다', '바빠서', '힘들텐데', '좋겠어요', '필요하겠어', '좋다', '좋아하는', '좋음', '좋네요', '좋아요', '역시네요', '좋다', '색다른데', '좋아요', '성장하는', '대단한', '완벽하다', '빨간', '좋당', '다양한', '좋아요', '미쳤다', '좋다', '미쳐', '빨간', '풍부해서', '좋은', '좋다', '좋당', '미쳤어', '조아용', '고맙고', '미친', '미쳤다']</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'행복하고', '신기하게도', '새로운', '좋게', '미쳤다는', '좋을', '빡친다', '좋다요', '자랑스러운', '아프지', '좋디', '아까울', '괜찮을거', '아니였음', '아플텐데', '가득하길', '무심함', '같기도', '있으니까', '좋았어요', '심히', '아니었나용', '놀라워', '멋져', '화려한데', '좋아해서', '야함', '같은거', '있는곤', '미쳐요', '좋은걸', '넘치니까', '아니에요', '미쳤고', '많으셨어요', '있자', '좋아하는', '좋겠어요', '많았어요', '지저분하게', '같은데요', '미쳐', '예쁜거', '리드미컬한', '조은데', '당했다', '어떡하냐', '많았어', '강하다', '멋있어용', '유일하게', '좋으신', '미쳤어요', '완벽했는데', '비슷하면서도', '비슷한게', '만족한다', '미테지', '어려워요', '이상한', '대단해', '슬프다', '장하다', '고마워', '노래내줘서', '시원하네', '미친', '좋아서', '피곤하지만', '좋군', '없었어용', '신나고', '재밌고', '힘드시겠지만', '반해서', '좋은', '좋게요', '멋있는', '있지', '멋있고', '심했으면', '힘차게', '미쳤는데', '행복하게', '그렇다구요', '좋다면', '미침', '당연한거지', '웬만해', '신난데요', '이뻐', '좋다', '진부하지가', '멋있다', '노래이거면', '실패했', '좋아하는안', '완벽한', '없었던', '신나는데', '느려', '예쁜', '아니어도', '좋음', '망했다', '새로우면서도', '멋지십니다', '좋네요', '새로워', '미치는', '좋다야', '든든하게', '그랬냐', '좋아하는데', '싫어하는', '당했어요', '빠르게', '많으면', '좋았을거', '무서운게', '분명히', '이상한가', '안남았어요', '아프고', '이상하게', '좋다고', '흥겨워', '있어줘', '좋았으니', '좋아하는거하', '그래요', '같네요', '곧있으면', '신나서', '같네', '좋겠당', '미쳤음', '미치겠어', '노래긴', '새롭게', '좋으니까', '좋아요', '영원한', '좋네', '간지러', '신남', '느린건', '깨끗해', '충분히', '곧있음', '고급스러', '옳아요', '성장해서', '곱니다', '노래내는', '아름다운', '짜증나', '아쉬워', '좋데요', '신나', '노래였군', '재수없었는데', '지겨웠는데', '세련되게', '멋있오', '있구', '좋아했습니다', '좋아하고', '안녕하세용', '신나네', '답답한게', '고마워요', '적당히', '안되도록', '잘맞는', '나쁘지', '멋있습니다', '무더', '새로워서', '평정할것', '좋았는데', '강해지려고', '좋냐니까', '시원시원해요', '좋았어', '좋은데', '강하네', '그랬던거구', '가능해요', '없는거죠', '아녔어도', '미쳤네', '신난당', '괜찮아진', '대단하네', '반했음', '꾸준히', '세련된', '단조로운', '멋있어요', '당당함이', '좋겠다는', '미쳤네요', '아쉽게', '당당하게', '좋어', '노래오졌다', '아닌데도', '있네요', '같잖은', '미치', '있을까', '있어야지', '멋짐', '소중한', '엄청나다', '특이해서', '대단하다고', '좋겠네요', '행복하지만', '반했었지만', '그러나요', '좋자', '저래', '장난없다', '있을것', '싫으면', '쎈데', '안되서', '끝내주네요', '세련되고', '기대하겠습니다', '활기차게', '괜찮아요', '멋지더라구요', '불편해하셨던', '화려해서', '뜨끈한', '달콤해', '귀엽게', '좋당', '영원했으면', '인했으면', '멋진', '있는데마', '맛깔난다', '미치겟다', '좋아했어서', '미치게', '아프지말고', '특이하다', '궁금해서', '좋습니까', '좋겠다', '대단한거', '비슷하네요', '있으시', '반했었는데', '느리게', '신선함', '미쳤어', '원해', '가능할지도', '미안할', '조용히', '시원한', '예쁘고', '멋있어', '그러는데', '계셨어', '많아서', '상관없긴', '좋아했는데', '미쳤노', '씬나네', '따끈따끈해', '단단히', '아쉬웠지만', '싫어요', '없는지', '싫어했는데도', '시원해', '궁금해', '신나게', '많을듯', '가능한건', '완벽하면', '비슷하다는', '미쳤', '좋잖어', '아까', '멋지다', '멋져요', '착하신거', '비슷한', '다른데', '있다는', '신나게해', '있던데', '무건', '다행히', '찰짐', '멋있네', '안전해요', '높은걸', '대단하다', '쎄져서', '비슷한데', '지루하고', '계시는지', '좋아합니다', '예쁘다', '이상한가요', '당당해지는', '많아요', '고맙고', '안남았', '비슷하기만', '이런게', '아닙니까', '괜찮아', '신난다', '좋냐', '반했다', '신나는', '행복해요', '멋있더라구요', '없는데도', '궁금했는데', '평범한', '멋지고', '매운', '좋지', '좋겠습니다', '강한', '자랑스럽다', '재밌어요', '어떡해요', '노래인듯', '없었어도', '좋고', '신선하다', '찰지게', '세련된것', '미쳤당', '그리운데', '안좋을', '아깝게', '그러고', '미쳤다', '좋아여', '미쳤더라', '대단한데', '아닐텐데', '좋습니다', '힘없을', '있다니', '아쉽다', '오래된', '불편해요', '당당하고', '같고', '뿌듯하다', '신기한게', '좋긴', '시급하다'}</t>
+          <t>['좋다', '좋다', '미쳤어', '좋다', '좋다', '미쳤어', '좋다', '좋다', '미쳤어', '재밌고', '리드미컬한', '좋음', '재밌고', '리드미컬한', '좋음', '재밌고', '리드미컬한', '좋음', '재밌고', '리드미컬한', '좋음', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '많았어', '안남았어요', '시급하다', '대단하다', '많아서', '신난다', '힘드시겠지만', '힘드시겠지만', '강한', '많아요', '아까울', '아닐텐데', '있으니까', '가능해요', '곧있으면', '좋게요', '있을것', '달콤해', '옳아요', '멋지십니다', '멋있어요', '멋져요', '그래요', '달콤해', '옳아요', '멋지십니다', '멋있어요', '멋져요', '그래요', '좋아요', '좋아여', '곧있으면', '좋다', '좋아해서', '인했으면', '좋겠다', '있을까', '신기한게', '대단하다고', '신난다', '좋다', '좋음', '힘없을', '노래내줘서', '고마워요', '평정할것', '아까', '좋네요', '기대하겠습니다', '좋은', '계시는지', '좋은', '좋으신', '충분히', '안녕하세용', '좋아요', '좋다', '빠르게', '행복하게', '좋아요', '예쁜', '좋아하는', '좋겠습니다', '좋은', '좋아서', '좋겠어요', '다행히', '신나고', '좋겠네요', '좋음', '반했음', '반했었지만', '있구', '그렇다구요', '신나는', '좋다고', '좋다', '많아서', '좋은', '장하다', '싫어요', '비슷한데', '좋다', '좋다', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다요', '좋았어요', '따끈따끈해', '좋다', '좋다', '좋다', '좋다', '이상한', '같네', '예쁘고', '좋고', '상관없긴', '좋아했어서', '이상한', '같네', '예쁘고', '좋고', '상관없긴', '좋아했어서', '이상한', '같네', '예쁘고', '좋고', '상관없긴', '좋아했어서', '이상한', '같네', '예쁘고', '좋고', '상관없긴', '좋아했어서', '좋냐', '놀라워', '좋고', '멋지다', '멋지고', '좋은', '아프지', '안남았', '좋겠어요', '오래된', '나쁘지', '좋고', '괜찮아요', '좋아요', '평범한', '멋져', '미쳤고', '자랑스럽다', '행복해요', '뿌듯하다', '행복해요', '뿌듯하다', '당당하게', '멋짐', '싫으면', '조용히', '싫어하는', '싫어하는', '아깝게', '좋아하는거하', '소중한', '좋냐', '행복하게', '좋아요', '그러나요', '그러는데', '멋있는', '같잖은', '좋았는데', '좋아요', '그러나요', '그러는데', '멋있는', '같잖은', '좋았는데', '좋아요', '그러나요', '그러는데', '멋있는', '같잖은', '좋았는데', '좋아요', '그러나요', '그러는데', '멋있는', '같잖은', '좋았는데', '좋아요', '그러나요', '그러는데', '멋있는', '같잖은', '좋았는데', '좋아요', '그러나요', '그러는데', '멋있는', '같잖은', '좋았는데', '좋아요', '그러나요', '그러는데', '멋있는', '같잖은', '좋았는데', '좋아요', '그러나요', '그러는데', '멋있는', '같잖은', '좋았는데', '좋고', '무건', '이뻐', '좋잖어', '좋음', '좋음', '멋있습니다', '힘차게', '좋다', '실패했', '아쉽다', '좋아요', '신나고', '좋아서', '좋다', '실패했', '아쉽다', '좋아요', '신나고', '좋아서', '좋다', '실패했', '아쉽다', '좋아요', '신나고', '좋아서', '좋다', '실패했', '아쉽다', '좋아요', '신나고', '좋아서', '무더', '좋은', '무더', '좋은', '멋지고', '좋아서', '멋진', '새로운', '좋은', '멋져요', '좋은데', '짜증나', '아프지말고', '좋은', '좋당', '좋음', '좋은', '멋있어', '좋다', '좋은데', '짜증나', '아프지말고', '좋은', '좋당', '좋음', '좋은', '멋있어', '좋다', '좋은데', '짜증나', '아프지말고', '좋은', '좋당', '좋음', '좋은', '멋있어', '좋다', '좋은데', '짜증나', '아프지말고', '좋은', '좋당', '좋음', '좋은', '멋있어', '좋다', '좋은데', '짜증나', '아프지말고', '좋은', '좋당', '좋음', '좋은', '멋있어', '좋다', '좋은데', '짜증나', '아프지말고', '좋은', '좋당', '좋음', '좋은', '멋있어', '좋다', '미침', '좋다', '좋디', '좋아요', '멋있더라구요', '신나는', '좋다', '좋고', '좋아요', '좋다', '좋아합니다', '좋냐니까', '좋데요', '신난데요', '미쳤음', '좋아요', '장하다', '미쳤네', '멋지고', '새로워서', '좋아요', '미쳤다는', '좋음', '미쳤네', '좋네', '좋아요', '신난당', '미치는', '멋있어요', '미치겠어', '있으시', '좋을', '화려한데', '좋을', '화려한데', '좋고', '좋아요', '특이해서', '좋았는데', '좋아하고', '좋아요', '좋다', '좋은', '좋음', '다른데', '심히', '좋은', '좋다', '신남', '좋음', '미쳤다', '미쳐', '재밌고', '좋다', '비슷하다는', '좋당', '흥겨워', '좋아요', '비슷하기만', '지겨웠는데', '좋네', '좋다', '좋아서', '신나서', '좋은데', '좋은', '같네요', '좋자', '멋있어', '좋다', '멋지다', '씬나네', '좋아요', '미쳤노', '좋네', '만족한다', '만족한듯', '넓은', '같은거', '당당히', '한심한', '좋음', '좋으니', '좋을수밖에', '상관없', '지독한', '괴로울', '중요한', '좋은데', '좋겠다', '지저분하게', '화려해서', '좋음', '좋아요', '좋고', '조은데', '예쁜거', '같네요', '좋아서', '꾸준히', '답답한게', '시원한', '있을것', '아쉬웠지만', '궁금해', '좋고', '조은데', '예쁜거', '같네요', '좋아서', '꾸준히', '답답한게', '시원한', '있을것', '아쉬웠지만', '궁금해', '멋있어용', '미쳤네', '좋다', '신남', '멋있어용', '미쳤네', '좋다', '신남', '좋았을거', '아쉽다', '좋은데', '좋음', '당당하고', '좋아요', '좋네요', '노래긴', '좋아요', '좋지', '좋은', '좋고', '신나는데', '이상하게', '아닌데도', '좋아요', '어려워요', '좋다', '신남', '괜찮아진', '불편해하셨던', '강하다', '엄청나다', '좋은', '아닙니까', '좋아요', '좋겠다', '고마워', '좋음', '좋음', '미쳤는데', '미쳤다', '미쳤어', '미쳤네', '미쳤다', '끝내주네요', '멋져', '미쳤', '조용히', '좋습니까', '어떡하냐', '쎈데', '이런게', '좋어', '멋짐', '좋은', '강하네', '노래인듯', '좋아요', '좋아했는데', '예쁘고', '넘치니까', '좋은', '느린건', '좋다', '새로워', '좋고', '좋고', '좋고', '좋은', '좋아요', '좋아요', '특이하다', '좋은데', '좋겠당', '좋음', '고마워요', '멋있어요', '좋네요', '멋있오', '멋지다', '좋아요', '멋있어', '멋짐', '좋은데', '멋지다', '좋다', '미쳤당', '멋져요', '야함', '좋다', '싫어했는데도', '좋다', '시원해', '멋있어요', '신나고', '좋아요', '좋아요', '아니었나용', '없었던', '새로운', '좋았어', '좋아요', '좋음', '좋겠다', '멋있다', '이상한가요', '미쳤다', '미치겟다', '멋짐', '야함', '좋다', '신난다', '찰짐', '좋다', '반했었는데', '없는데도', '반했다', '새로워', '지루하고', '고맙고', '신나네', '신선함', '좋다', '신선하다', '멋있다', '미쳤어요', '이상한가', '느려', '느린건', '좋습니다', '좋아했는데', '좋네요', '좋다', '좋다', '미쳤네요', '미쳐요', '좋습니다', '좋아했는데', '좋네요', '좋다', '좋다', '미쳤네요', '미쳐요', '궁금했는데', '좋고', '좋고', '좋고', '좋다', '미쳤음', '좋고', '좋은걸', '고마워', '좋으니까', '새로운', '미침', '좋다', '신나서', '미쳤다', '미쳤어', '미친', '좋다야', '미쳤', '유일하게', '미쳤어', '좋다', '멋져', '좋다', '시원시원해요', '미쳐', '좋네요', '멋있어', '좋다', '미쳤다', '좋아서', '좋게', '귀엽게', '그랬냐', '쎄져서', '미쳤다', '멋있어요', '미쳤어', '재수없었는데', '좋아요', '좋다', '미쳤다', '미쳤다', '미쳤다', '미침', '좋은', '당연한거지', '좋다면', '멋있다']</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'좋다', '멋있다', '새로운', '신기할', '좋게', '아니었지만', '옳은', '교묘하게', '시끄럽게', '기대했는데', '놀래', '있다고', '좋아하는거', '똑같았고', '아쉬워용', '다르겠지만', '좋음', '섹시하구', '신나여', '안타깝다', '괜찮아서', '아쉬운게', '아니라고', '아녔음', '원한다면', '유명하지', '비슷한', '다른데', '같다는게', '던던은', '야하겠지만', '조아요', '비슷하긴한데', '좋아하는', '좋아도', '재미있', '안좋네', '진지해서', '좋다고', '똑같네', '좋을거', '찰지네', '안타깝네요', '멋있구', '없네요', '아니였지만', '같네', '아닌듯', '예쁘구', '아니냐', '비슷하네', '없나요', '같은거라고', '안타깝네', '비슷하다고', '좋기만', '중요한', '비슷한게', '좋아하지만', '아닌지는', '좋지', '좋진', '좋아요', '같다가', '좋당', '똑같은데', '좋네', '너무한거', '미쳤나', '완벽히', '정직하게', '노래있나요', '던던이랑', '똑같냐', '많은거', '다르게', '똑같네요', '충분히', '노래인듯', '엄청나나', '계신데', '좋고', '좋을텐데', '비슷할', '멋있음', '아니오', '가까운', '똑같지는', '미치게', '지겹고', '비슷한지', '비슷하길래', '좋아서', '신나', '좋겠다', '던던더러', '많던데', '있던거', '좋아했지만', '비슷하면', '야하네여', '던던으로', '미쳤다', '비슷하고', '아닌거', '비슷했어도', '있는것부터', '다르겠지', '좋은', '나쁘지', '스러워', '똑같음', '구리긴', '많은가', '똑같', '멋있어', '있지', '유사하고', '좋았는데', '같아도', '이런이랑', '어려운', '좋았고', '비슷하니까', '좋아했는데', '가능하지', '미야', '좋은데', '비슷한거라고'}</t>
+          <t>['좋네', '비슷하긴한데', '좋네', '비슷하긴한데', '좋네', '비슷하긴한데', '좋을텐데', '교묘하게', '가까운', '노래인듯', '같다는게', '있는것부터', '신기할', '좋음', '좋다', '야하네여', '아닌거', '좋다', '야하네여', '아닌거', '똑같은데', '던던은', '유명하지', '중요한', '똑같은데', '비슷한게', '많은거', '똑같네', '좋은데', '좋았고', '좋아서', '비슷하네', '좋아서', '엄청나나', '없나요', '좋아서', '안좋네', '좋은데', '좋은', '던던으로', '완벽히', '똑같지는', '미치게', '좋게', '좋아서', '좋아하는거', '좋음', '지겹고', '좋아하는', '좋아했는데', '좋은', '비슷하니까', '좋지', '좋고', '좋음', '이런이랑', '좋음', '너무한거', '아니오', '조아요', '비슷하길래', '괜찮아서', '좋겠다', '멋있음', '신나', '같다가', '예쁘구', '멋있구', '섹시하구', '멋있어', '신나여', '똑같', '찰지네', '좋아했는데', '던던이랑', '있던거', '좋은데', '아쉬운게', '시끄럽게', '좋네', '던던더러', '던던더러', '던던더러', '던던더러', '던던더러', '다른데', '똑같았고', '가능하지', '똑같음', '좋은데', '좋겠다', '좋다', '좋네', '좋은데', '좋진', '좋을거', '좋은', '노래있나요', '비슷한거라고', '비슷하다고', '같은거라고', '좋다', '재미있', '똑같음', '다르겠지', '비슷하면', '좋아서', '비슷했어도', '좋아서', '아쉬워용', '비슷하고', '미쳤나', '똑같냐', '좋다고', '어려운', '안타깝네', '아니냐', '똑같', '놀래', '구리긴', '멋있다', '아닌지는', '야하겠지만', '계신데', '나쁘지', '많던데', '좋아서', '기대했는데', '던던더러', '던던더러', '좋기만', '좋음', '진지해서', '아니었지만', '던던더러', '던던더러', '던던더러', '똑같', '아니였지만', '다르겠지만', '아닌거', '정직하게', '안타깝네요', '좋당', '유사하고', '나쁘지', '똑같네요', '좋아하는', '좋음', '좋아했지만', '같네', '던던더러', '던던더러', '좋음', '좋다', '미쳤다', '좋다', '미쳤다', '미야', '좋아요', '좋다']</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'무섭', '부족한게', '좋으니깐', '그리웠어', '있지만', '행복하고', '새로운', '좋게', '좋아하기도', '예쁨', '자랑스러워', '필요한', '있다는거고', '많구', '많기도', '꼬이고', '같더만', '야해써', '아프겠다', '아련하고', '추해요', '좋을', '아쉬운것은', '아파하지', '기대한거보다', '새침하고', '특이하게', '가득했으면', '힘들고여', '있는건', '괜찮음', '진해진', '자랑스러운', '미치겠네', '유리할거', '어색하다', '좋았지', '막연한', '무서워서', '아까울', '궁금하다', '비싸고', '저리는', '좋던데요', '기뻐서', '부족한거', '아쉬웠어서', '그만해라', '성장하고', '청아하면서', '찰지냐', '대단한거에요', '심심하거나', '탄탄하면서', '소중하니', '같기도', '없는듯', '너무해', '있으니까', '좋았어요', '좋은지는', '짧은것만', '있는지', '비상하자', '멋져', '주제넘다', '아닙니', '화려한데', '작아서', '특출남', '휩쓸겠네', '그러잖아', '야함', '좋아해서', '아니어서', '같은거', '이쁘더라', '안되겠다', '창피하다', '좋아해요', '이런것', '좋지도', '확실합니다', '있듯이', '추하네', '멋있었어요', '독특한', '아까워서', '미쳤고', '넘치네요', '있는거냐', '완벽한데', '안되고있는듯', '조아요', '회복할거', '편안하네요', '상관없이', '있자', '귀여워서', '좋아하는', '성실하기까지', '짜증날', '뿐임', '지겨워요', '힘들거든요', '좋겠어요', '높은듯', '추하다', '행복하자', '미쳐', '추해', '짜증난다', '있더라구요', '시러하는데', '더할까', '귀여워요', '싫어하지', '예쁜거', '어떨까', '안됩니다', '같던', '조은', '다양한듯', '야하냐고요', '많았어', '어떡하지', '힘드시더라도', '먼가', '좋더라고요', '없구만', '귀중함', '예뻐요', '좋아했던', '좋다지', '좋아할수밖에', '색다를수', '특별한', '좋는듯', '대단함', '섬세하다', '멋있는거', '유일하게', '좋은가', '민망할', '찌질해', '아니냐', '비슷하게', '아니까', '깔끔하게', '아쉽고', '미쳤어요', '이쁘게', '없나요', '비슷하다고', '중요한', '비슷한게', '완벽하다', '빨라지는거', '죄송해요', '이래야지', '단순히', '비슷할지언정', '높은', '드문', '어려워요', '영원하', '추해용', '이상한', '같다마', '여전하고', '같지만', '많았음에도', '대단해', '아쉬워서요', '많은거', '슬프다', '힘들고요', '웬만한', '예쁘게', '장하다', '타락한', '무섭다더니', '좋을려고', '창피하지도', '안좋을수가', '구리냐', '미친', '심함', '좋을까', '좋아합니당', '새롭다', '바빠', '확실하네', '대단해지는', '예뻐서', '아름다웠고', '좋아서', '부럽다', '칠하지말', '뒤늦게', '구린', '위험한거였음', '기대했던', '많은것', '미친거아니야', '좋으면서도', '찰지지', '이래가지고', '구리노', '노래내서', '그런건', '높기', '어려워', '신나고', '대단하긴', '기대한', '비슷하지', '방탕한', '귀여운', '촌스러운게', '재밌고', '야하는거나', '짧다', '좋아하네', '좋았을', '기대하고', '그만했음', '재미없어서', '좋은', '말라는건', '아련한', '많을텐데', '비슷하든', '그러실것', '낮아요', '스러워', '똑같음', '미쳤는데여', '없어여', '좋나', '멋있는', '있다하하', '있지', '멋있고', '있겠습니다', '멋있을', '많은가요', '겸손한', '미쳤는데', '부끄럽잖아요', '있는한', '어려운', '많은건', '없다는데', '좀내가', '궁금하네', '즐거운', '중요한게', '미침', '재밌으나', '길긴', '망해가는', '시끄럽고', '있어용', '비슷한거랑은', '어때로', '안되는건', '말라', '괜찮습니다', '이뻐', '좋다', '부족한', '그런게', '멋있다', '괜찮긴', '아쉽긴', '자신만만한것도', '시기하시는', '다양하고', '찬찬히', '기대함', '대단해서', '완벽한', '기대했는데', '뚜렷하네', '있다고', '좋으란', '신나는데', '좋아하는거', '못지않게', '풍부함', '시원해졌다', '조용히와', '안좋다는', '식겁해서', '박함이', '깊게', '좋음', '비슷하려나', '완벽한듯', '짧아서', '좋네요', '좋노', '충분할', '새로워', '그러네요', '없다는', '이럴꺼면', '아니길', '유치하게', '좋다는지', '미쳤구나', '성공한다', '이상하지', '필요없다', '좋다가도', '있진', '이뻤다', '아쉽', '안됨', '똑같다고', '있었을', '야했어', '강하게도', '기괴했는데', '있었구나', '있는데요', '대단하거니까', '스럽다가도', '궁금하는데', '강렬하다', '익숙한', '가능합니다', '같은걸', '안남았는데', '뛰어나고', '좋아하는데', '약한듯', '새롭네', '그러는', '자연스러울', '싫어하는', '아니꼬와', '같다도', '고마운', '행복하다', '없잖', '이상한거', '귀여웠구', '대단하구먼', '부러워서', '좋아했었는데', '넓은', '미친거', '안되나', '신선했음', '그래두', '가득해서', '그러세요', '무의미한', '이쁘다', '좋져', '아프고', '한심하네', '어수선하고', '아프답니다', '원해여', '이상하게', '심하잖아', '예쁘시고', '기대함다', '힘들었을텐데', '아니냐구', '좋다고', '똑같네', '세련됨과', '고픔', '어느덧', '있도록', '기대해야하는거', '좋죠', '고만하고', '같네요', '아니네요', '당당한', '좋을거', '어색하고', '없다는거', '안되나요', '좋구만', '짜릿하지', '추하느', '이뻤음', '안좋', '이렇게나', '이쁘네', '없네요', '새롭단', '곧있으면', '가능하니깐', '신나서', '아쉽네', '같네', '불쌍한', '예쁘지만', '빨라', '좋겠당', '허전한', '식상한다고', '미쳤음', '뛰어난것', '있다구', '뻔함', '미치겠어', '당해서', '뻔하긴', '있어라', '좋으니까', '없는거에요', '좋아요', '없나여', '싫테도', '힘들었다', '스러', '작작하고', '뻔히', '중요하니', '한심해하면서', '많으셨습니다', '좋네', '그만하세요', '많았을텐데', '기대했나', '좀주세요', '무섭다이게', '원하시는대로', '그랬음', '신남', '다름이', '괜찮네요', '위험해', '좋아하더라', '없으시겠죠', '약한데', '좋아함', '비슷하던데', '충분히', '미쳤지만', '곧다시', '만족합니다', '대단하지만', '비슷할', '많아용', '좋았다면', '아무런', '강력함', '없으시길', '불리한', '더워서', '불과한다는것', '쎄다', '솔직하게', '그랬나', '귀엽당', '아름다운', '짜증나', '자랑스럽고', '아쉬워', '아니였다고요', '신나', '계신가요', '많던데', '아닐것', '출중한데', '심각하게', '세련되게', '다르지', '힘들었던건', '좋아하고', '가벼우면서', '맛깔나게', '대단한게', '안좋지만', '스럽구', '컴컴한', '힘들었던', '아니잖아요', '귀엽다', '실패하지', '강하고', '좋아한', '왠만해서', '그럴수록', '어려운데', '좋아서요', '좋든', '조아여', '고마워요', '옳았고', '궁금한', '상관없어요', '귀여워', '다르긴', '없자', '궁금한데', '이뻐요', '힘듦', '고마웠어요', '좋아하긴', '신기해', '아쉽당', '완벽해', '조으당', '짜증나게', '아쉬워하지', '좋았는데', '안쓰러웠는데', '변함', '꾸준하게', '짜증나서', '나쁜', '멋진데', '아쉽지만', '아슬아슬해', '좋았고', '싫은', '없는게', '부러워용', '좋은데', '잘날수록', '참지', '복잡한', '탄탄하니까', '대단한', '가능해요', '심심하다고', '안쓰럽다', '미쳤네', '조아죠', '꾸준히', '세련된', '신기할', '답답하고', '많다', '미안한데', '멋있어요', '필요하단', '아쉬운건', '당당함이', '계실까', '좋겠다는', '미쳤네요', '화사하게', '조으네', '지겹다', '행복하네요', '그렇구', '당당하게', '짧아', '깔끔하고', '안되는거', '신비하고', '이쁜', '건강하게다시', '아니라는', '있을만한', '부탁드려용', '더하는거', '같내요', '필요하니', '없인', '기대하는', '좋아하실듯', '사악하다', '힘든데', '힘나게', '특이한게', '좋겠어여', '있네요', '같잖은', '그랬거든요', '싫어하는데', '있을까', '있어야지', '멋짐', '소중한', '넘친다', '강렬해서', '새로운데', '대단하다고', '좋을것', '빵터지지', '당당해지면서', '좋겠네요', '많으니', '안좋음', '고맙겠습니다', '안되겠습니까', '멋졌어서', '강함', '힘들게', '좋길', '야무지고', '부럽지', '먼데', '어이없을', '위대한', '좋잖아', '쎄한', '있으십니다', '젊고', '행복해', '있다는데', '있는것도', '이쁘니', '그래가지고', '완벽했음', '좋았으면', '있는거지', '필요없잖아', '좋구요', '단단함', '수많은', '강해서', '아녀도', '신비로운', '없어서요', '더합니다', '더럽고', '장난없다', '짜증나긴', '싫어서', '싫으면', '있을것', '미쳤잖아', '예뻐라', '중요하지만', '좋을지', '망한거지', '안되서', '끝내주네요', '빠를', '미친거지', '세련되고', '정신차려', '야할까', '있는듯', '안좋아요', '캄캄한', '잘난', '반하겠어요', '이런데도', '힘듬', '남다르네', '있으라고', '좋아하시는', '허전하다', '반해', '필요하겠냐', '같던데', '만만하긴', '기대할게요', '좋으려고', '자랑스럽네', '귀한', '청량한', '엄청나게', '쓸데없는말이니', '행복하', '서운해', '상당히', '싫테', '속상했는데', '좋당', '미쳤냐고', '없어하는', '진부하다', '똑같은데', '영원했으면', '좋지만', '아름다워서', '같은데이거에', '충분한', '미쳤나', '없죠', '값진', '멋진', '짧다는거', '없긴하네요', '두려워하지', '좋겠군', '가득한', '세련된거', '깔끔한', '어지간히', '약하지', '찰지군요', '뚜렷하고', '멋있음', '옳다', '짧다는것', '미치게', '미치겠는데', '없지만', '예쁘다는', '심심하게', '개운하게', '미쳤다라는', '좋아한지는', '실망하지', '멋지잖아', '편하게', '궁금해서', '안좋으면', '기대할께요', '쎄게', '있었다우', '없으니', '편해요', '힘들어도', '궁금하신', '역시구만', '귀엽잖아', '좋다구', '좋겠다', '대단한거', '쉬운게', '정확한듯', '맛깔나고', '아닌것', '싫어하면', '예뻤는데', '궁금하', '어느새부턴', '신선하고', '탄탄한', '독특하', '있었나', '이상했는데', '부탁드림', '서운해하지', '미쳤어', '미쳤다고', '좋으면', '원해', '중요한건', '재밌냐', '놀램', '조잡해', '아슬아슬해요', '대단한거랍니다', '멋있', '많다는건', '미치겠어요', '더해서', '조용히', '예쁘고', '따뜻한', '특이하고', '멋있어', '애매한', '미친말', '같습니다', '이상해', '그런거니', '그러는데', '인합시다', '답답하다', '많다는', '확실하게', '조으다', '좋을수가', '휩쓸듯', '망했음', '좋니', '부담스러웠는데', '많아서', '아쉬운것', '좋아했는데', '조졌다', '미쳤냐', '무의미해지잖아요', '사악한', '안타깝습니다', '미친듯', '많다고', '미쳤노', '멋지네요', '미쳤다니까', '원하시는', '계시는', '대단하고', '괜찮을까요', '건강하자', '가뿐히', '강렬함과', '같아서요', '기쁘시겠어요', '어지간하게', '부러워하는지', '실망해', '괜찮네', '안될', '좋아하는건', '엄청나', '부럽니', '이뻐서', '아쉬웠지만', '싫어요', '있을게', '미치겠다', '신나는것', '죄송합니다', '상당한', '일정하네', '없는지', '명확하면서도', '더내줘', '양한다', '기대해야', '촌스러운', '뜨거운', '미친거아냐', '뿌듯하고', '완벽한가', '힘든게', '어이없네', '많구나', '딱히', '좋나요', '망했을듯', '미친다', '강력함이', '짧네', '영원하자', '찜찜하던데', '비슷하다는', '좋더라', '좋아용', '멋있다고', '아쉽네요', '노래오지네', '멋지죠', '좋다는', '같잖아', '아까', '많더라구요', '미쳤', '안됬었나', '설렘', '다르구만', '있길래', '심각한', '많으신', '이상해요', '부탁드리며', '아니라고', '거북하다', '더라고요', '남다르고', '멋져요', '멋지다', '필요없음', '궁금해요', '짙은', '비슷한', '다망했어', '미쳤내', '귀엽고', '확실한', '있다는', '미쳤다거', '멋있는듯', '심하네요', '찰지네요', '많습니다', '잔잔한', '기대할수밖에', '빨간', '약해서', '다행히', '없는거', '그랬어요', '궁금해용', '성장하는듯', '많이하고', '작작해', '대단하다', '쎄져서', '불쌍하다', '비슷한데', '세련되거나', '자랑스러', '장난없음', '좋아합니다', '필요없이', '예쁘다', '스러웠는데', '미쳤다우와', '미쳤는데요', '있다고밖에', '대단하당', '많아요', '힘듭니다', '부러운', '어떠리', '있는자', '아름답고', '다르네', '아쉬워요', '우울할', '조용하게', '망한', '이런게', '유치하다', '안좋앗던', '아파', '아까워요', '어려운거', '더주세요', '좋았겠는데', '빡쳐서', '멋있지', '당연히', '이상한데', '야해요', '비슷한거랑', '안되는거면', '신나긴', '신난다', '좋냐', '부럽', '대단할까', '미안하지만', '아닌듯', '행복해요', '신기한', '비슷하네', '나쁠거', '안좋게', '탄탄함', '아닌게', '중요합니다', '있을거', '어설프게', '미친거가', '그런다던가', '불편한가요', '예뻐', '멋지고', '똑같아', '거뜬할듯', '매운', '신선하지', '아름다', '스럽네요', '좋지', '이런것이죠', '친해서', '정확해', '많냐', '당연한거에요', '강한', '아쉬운', '특유한', '자랑스럽다', '발광하고', '대단하신듯', '이쁘시고', '대단한듯', '높네', '어떡해요', '똑같냐', '아쉽다고', '다르게', '좋아할', '딱일', '깔끔해', '아쉬울', '완벽하네요', '놀랬네', '좋고', '아플', '좋을텐데', '미칠것', '아깝네요', '찰져', '어떻다고', '새롭네요', '찰지게', '추하네요', '멋졌어요', '미친거아니냐', '미친줄', '완벽하니', '이쁘고', '기대해서', '가능할지는', '조심스러운', '이쁨', '안좋을', '있었어', '불가능하게', '있었', '같았음', '높고', '짜릿해', '멋있게', '확고해서', '그렇네', '대단하네요', '미쳤다', '좋아여', '멋있어아', '비슷함', '안된다고', '행복한', '탄탄해서', '성공한', '많지', '좋았음', '그리워하며', '괜찮아용', '비슷하고', '중요해요', '미친듯이', '용했지만', '신기하다', '강렬해', '같은데도', '예쁘', '안되네요', '성했을듯', '좋앗는데', '영원해라', '없다니', '있다니', '좋다고는', '아쉽다', '싫어만', '만족하지', '대단하기', '무지한', '쎌거라고', '좋다어', '당당하고', '짱짱한', '같아도', '기대할게', '같고', '비슷하다는건데', '신기한게', '좋긴', '아쉬웠음', '있구요', '신나가지고', '넘치시는', '많어', '없잖아요'}</t>
+          <t>['좋음', '좋겠다는', '좋다', '미쳤냐', '좋음', '좋겠다는', '좋다', '미쳤냐', '좋음', '좋겠다는', '좋다', '미쳤냐', '좋으니까', '좋고', '없는듯', '원해', '좋음', '야함', '신남', '좋아하는거', '좋겠당', '타락한', '행복해', '대단하다', '강함', '좋다', '좋은데', '좋은데', '좋은데', '좋았는데', '좋은', '좋음', '조아죠', '찰지냐', '좋네', '세련되게', '단단함', '빵터지지', '잔잔한', '좋음', '조아죠', '찰지냐', '좋네', '세련되게', '단단함', '빵터지지', '잔잔한', '좋음', '조아죠', '찰지냐', '좋네', '세련되게', '단단함', '빵터지지', '잔잔한', '좋음', '조아죠', '찰지냐', '좋네', '세련되게', '단단함', '빵터지지', '잔잔한', '좋음', '조아죠', '찰지냐', '좋네', '세련되게', '단단함', '빵터지지', '잔잔한', '좋음', '조아죠', '찰지냐', '좋네', '세련되게', '단단함', '빵터지지', '잔잔한', '좋음', '조아죠', '찰지냐', '좋네', '세련되게', '단단함', '빵터지지', '잔잔한', '좋아요', '장하다', '높네', '좋아요', '장하다', '높네', '확실한', '같고', '완벽해', '찰지지', '확실한', '같고', '완벽해', '찰지지', '상관없이', '어색하다', '비슷함', '이렇게나', '미쳤다', '상관없이', '어색하다', '비슷함', '이렇게나', '미쳤다', '미쳤네', '다르네', '미친', '좋더라', '거뜬할듯', '좋음', '강렬하다', '좋고', '원해', '아까울', '좋아요', '좋은', '있다니', '행복하다', '좋지', '좋은데', '좋아요', '좋다', '미쳤는데', '미친말', '좋을', '좋을', '심각한', '특별한', '심각한', '특별한', '필요한', '좋은데', '아파하지', '그랬거든요', '필요한', '좋은데', '아파하지', '그랬거든요', '필요한', '좋은데', '아파하지', '그랬거든요', '필요한', '좋은데', '아파하지', '그랬거든요', '필요한', '좋은데', '아파하지', '그랬거든요', '필요한', '좋은데', '아파하지', '그랬거든요', '딱히', '작작하고', '사악하다', '사악한', '넘치네요', '안좋음', '추해', '좋아한', '추하다', '당당해지면서', '좋아합니다', '아프답니다', '그러는데', '새로운', '추하다', '당당해지면서', '좋아합니다', '아프답니다', '그러는데', '새로운', '추하다', '당당해지면서', '좋아합니다', '아프답니다', '그러는데', '새로운', '추하다', '당당해지면서', '좋아합니다', '아프답니다', '그러는데', '새로운', '추하다', '당당해지면서', '좋아합니다', '아프답니다', '그러는데', '새로운', '그러세요', '좋아요', '그러세요', '좋아요', '싫어요', '없으니', '행복하자', '좋아용', '좋아하는', '없지만', '귀엽잖아', '아니네요', '기대할게요', '아니네요', '좋아합니당', '아니네요', '기대할게요', '아니네요', '좋아합니당', '아니네요', '기대할게요', '아니네요', '좋아합니당', '아니네요', '기대할게요', '아니네요', '좋아합니당', '아니네요', '기대할게요', '아니네요', '좋아합니당', '아니네요', '기대할게요', '아니네요', '좋아합니당', '아니네요', '기대할게요', '아니네요', '좋아합니당', '아니네요', '기대할게요', '아니네요', '좋아합니당', '아니네요', '기대할게요', '아니네요', '좋아합니당', '행복하고', '건강하자', '행복하고', '건강하자', '행복하고', '건강하자', '행복하고', '건강하자', '행복하고', '건강하자', '행복하고', '건강하자', '안좋아요', '불편한가요', '안좋아요', '불편한가요', '좋앗는데', '같고', '뚜렷하네', '좋아요', '좋은', '고마웠어요', '안되겠습니까', '좋네요', '좋앗는데', '같고', '뚜렷하네', '좋아요', '좋은', '고마웠어요', '안되겠습니까', '좋네요', '좋네', '좋아서', '좋고', '좋고', '추하네', '추하네', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '세련된', '좋아요', '새로워', '짜릿해', '조잡해', '좋아요', '미친', '좋아요', '좋나요', '조잡해', '좋아요', '미친', '좋아요', '좋나요', '조잡해', '좋아요', '미친', '좋아요', '좋나요', '웬만한', '좋아하는데', '가능해요', '좋겠네요', '웬만한', '좋아하는데', '가능해요', '좋겠네요', '웬만한', '좋아하는데', '가능해요', '좋겠네요', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋은', '많은가요', '말라', '강하게도', '좋든', '싫어서', '꾸준하게', '좋으면', '좋으면', '좋으면', '궁금하네', '궁금하네', '궁금하네', '궁금하네', '멋짐', '쎄한', '만만하긴', '좋아요', '좋아요', '귀여운', '귀여운', '예뻐라', '같네요', '어이없네', '싫으면', '같네요', '어이없네', '싫으면', '같네요', '어이없네', '싫으면', '같네요', '어이없네', '싫으면', '당연한거에요', '중요합니다', '당연한거에요', '중요합니다', '궁금한', '궁금한', '좋아요', '좋아하는', '아쉬워요', '짱짱한', '좋아하긴', '기대하는', '소중하니', '좋다', '좋은데', '이상한', '저리는', '한심해하면서', '조심스러운', '비슷하네', '좋은데', '좋은데', '이상한', '저리는', '한심해하면서', '조심스러운', '비슷하네', '좋은데', '좋은데', '이상한', '저리는', '한심해하면서', '조심스러운', '비슷하네', '좋은데', '좋은데', '이상한', '저리는', '한심해하면서', '조심스러운', '비슷하네', '좋은데', '좋다', '좋다', '좋다', '좋다', '좋다', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '궁금한', '궁금한', '좋아서', '이쁘시고', '좋은데', '꾸준히', '이뻐요', '좋당', '원해', '좋당', '원해', '좋당', '원해', '좋당', '원해', '좋당', '원해', '좋당', '원해', '좋당', '원해', '좋당', '원해', '계시는', '없으시길', '필요없이', '강하고', '좋음', '정신차려', '비슷하지', '아쉽', '계시는', '없으시길', '필요없이', '강하고', '좋음', '정신차려', '비슷하지', '아쉽', '좋지도', '좋은', '좋네', '고맙겠습니다', '좋지도', '좋은', '좋네', '고맙겠습니다', '좋지도', '좋은', '좋네', '고맙겠습니다', '좋지도', '좋은', '좋네', '고맙겠습니다', '좋네', '좋아요', '아까워서', '곧있으면', '좋아요', '있는한', '멋있는듯', '아닌것', '좋아요', '야했어', '좋음', '구리냐', '필요하단', '야했어', '좋음', '구리냐', '필요하단', '야했어', '좋음', '구리냐', '필요하단', '야했어', '좋음', '구리냐', '필요하단', '좋은데', '유리할거', '같네요', '좋다는', '힘들고여', '좋은데', '유리할거', '같네요', '좋다는', '힘들고여', '대단하다', '깔끔한', '힘들었을텐데', '아니네요', '좋겠다', '대단하다', '깔끔한', '힘들었을텐데', '아니네요', '좋겠다', '대단하다', '깔끔한', '힘들었을텐데', '아니네요', '좋겠다', '대단하다', '깔끔한', '힘들었을텐데', '아니네요', '좋겠다', '대단하다', '깔끔한', '힘들었을텐데', '아니네요', '좋겠다', '그래두', '좋다', '그래두', '좋다', '그래두', '좋다', '아닌게', '아슬아슬해', '안되는거', '아닌게', '아슬아슬해', '안되는거', '아닌게', '아슬아슬해', '안되는거', '아닌게', '아슬아슬해', '안되는거', '궁금해서', '나쁠거', '궁금해서', '나쁠거', '궁금해서', '나쁠거', '궁금해서', '나쁠거', '확실합니다', '상관없이', '미쳤다', '더워서', '있다구', '확실합니다', '상관없이', '미쳤다', '더워서', '있다구', '확실합니다', '상관없이', '미쳤다', '더워서', '있다구', '확실합니다', '상관없이', '미쳤다', '더워서', '있다구', '좋아요', '좋을지', '좋은', '많아서', '멋졌어요', '좋은', '좋아서요', '좋고', '강해서', '좋아서', '좋아요', '좋을지', '좋은', '많아서', '멋졌어요', '좋은', '좋아서요', '좋고', '강해서', '좋아서', '좋아요', '좋을지', '좋은', '많아서', '멋졌어요', '좋은', '좋아서요', '좋고', '강해서', '좋아서', '좋아요', '좋을지', '좋은', '많아서', '멋졌어요', '좋은', '좋아서요', '좋고', '강해서', '좋아서', '좋아하시는', '좋아하실듯', '좋긴', '좋아서', '아쉽네요', '좋은데', '좋아하시는', '좋아하실듯', '좋긴', '좋아서', '아쉽네요', '좋은데', '좋아하는건', '좋아서', '어려워요', '높고', '힘듬', '조아여', '좋아하는건', '좋아서', '어려워요', '높고', '힘듬', '조아여', '기대했던', '좋다', '이쁘다', '드문', '좋네요', '좋네요', '좋은', '기대했던', '좋다', '이쁘다', '드문', '좋네요', '좋네요', '좋은', '기대했던', '좋다', '이쁘다', '드문', '좋네요', '좋네요', '좋은', '좋은가', '고마워요', '계신가요', '스러웠는데', '좋다', '좋은데', '없는게', '아쉽다', '좋아했는데', '괜찮을까요', '대단하거니까', '계신가요', '스러웠는데', '좋다', '좋은데', '없는게', '아쉽다', '좋아했는데', '괜찮을까요', '대단하거니까', '계신가요', '스러웠는데', '좋다', '좋은데', '없는게', '아쉽다', '좋아했는데', '괜찮을까요', '대단하거니까', '좋다', '아쉽긴', '미치겠네', '잔잔한', '더내줘', '좋아해서', '좋을텐데', '있다하하', '아니네요', '정신차려', '고만하고', '이상했는데', '좋음', '조아여', '조아여', '좋아요', '아니네요', '정신차려', '고만하고', '이상했는데', '좋음', '조아여', '조아여', '좋아요', '아니네요', '정신차려', '고만하고', '이상했는데', '좋음', '조아여', '조아여', '좋아요', '아니네요', '정신차려', '고만하고', '이상했는데', '좋음', '조아여', '조아여', '좋아요', '아니네요', '정신차려', '고만하고', '이상했는데', '좋음', '조아여', '조아여', '좋아요', '멋있어', '좋네', '끝내주네요', '없어여', '멋있어', '좋네', '끝내주네요', '없어여', '멋있어', '좋네', '끝내주네요', '없어여', '멋있어', '좋네', '끝내주네요', '없어여', '멋있어', '좋네', '끝내주네요', '없어여', '멋있어', '좋네', '끝내주네요', '없어여', '멋있어', '좋네', '끝내주네요', '없어여', '멋있어', '좋네', '끝내주네요', '없어여', '좋다', '좋음', '좋다는지', '궁금해서', '좋다', '좋음', '좋다는지', '궁금해서', '좋다', '좋음', '좋다는지', '궁금해서', '좋다', '좋음', '좋다는지', '궁금해서', '좋은', '꼬이고', '좋은', '서운해하지', '충분히', '가능해요', '좋다', '다름이', '있으니까', '대단하지만', '대단한', '같습니다', '좋은', '꼬이고', '좋은', '서운해하지', '충분히', '가능해요', '좋다', '다름이', '있으니까', '대단하지만', '대단한', '같습니다', '좋은', '꼬이고', '좋은', '서운해하지', '충분히', '가능해요', '좋다', '다름이', '있으니까', '대단하지만', '대단한', '같습니다', '좋은', '꼬이고', '좋은', '서운해하지', '충분히', '가능해요', '좋다', '다름이', '있으니까', '대단하지만', '대단한', '같습니다', '가능합니다', '좋아하네', '미쳤네', '좋다', '가능합니다', '좋아하네', '미쳤네', '좋다', '가능합니다', '좋아하네', '미쳤네', '좋다', '가능합니다', '좋아하네', '미쳤네', '좋다', '가능합니다', '좋아하네', '미쳤네', '좋다', '가능합니다', '좋아하네', '미쳤네', '좋다', '아니냐', '미쳤어', '좋다', '아니냐', '미쳤어', '좋다', '아니냐', '미쳤어', '좋다', '아니냐', '미쳤어', '좋다', '아니냐', '미쳤어', '좋다', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '미쳤네', '똑같아', '좋아요', '양한다', '자랑스러워', '멋있어', '특이한게', '같은걸', '개운하게', '좋아하는', '예뻐서', '조은', '좋다', '대단함', '만족하지', '좋은', '미쳤네', '좋겠다', '궁금해요', '좋다', '궁금해서', '그러는데', '좋은', '좋음', '완벽하다', '멋있다', '쉬운게', '좋은', '구리노', '정확한듯', '좋아서', '좋겠다', '예뻤는데', '좋네요', '미쳤네', '신기할', '대단하다', '아쉬워하지', '좋겠어요', '겸손한', '좋다', '비슷하네', '좋은', '비슷하든', '비슷하든', '좋음', '신기할', '대단하다', '아쉬워하지', '좋겠어요', '겸손한', '좋다', '비슷하네', '좋은', '비슷하든', '비슷하든', '좋음', '좋다', '좋게', '좋은', '없는듯', '좋다', '좋게', '좋은', '없는듯', '좋다', '좋게', '좋은', '없는듯', '예쁘고', '미치겠어요', '좋겠다', '완벽한데', '그러실것', '같네요', '아까', '좋을수가', '예쁘고', '미치겠어요', '좋겠다', '완벽한데', '그러실것', '같네요', '아까', '좋을수가', '좋다', '멋있었어요', '부럽', '부러워용', '부러워서', '부러워하는지', '좋은데', '많구', '힘듬', '어떠리', '좋아요', '미쳤네', '있으니까', '좋아서', '부러워서', '좋아해서', '좋지만', '미침', '미쳤다', '미쳤다', '좋을까', '있으니까', '좋아서', '부러워서', '좋아해서', '좋지만', '미침', '미쳤다', '미쳤다', '좋을까', '있으니까', '좋아서', '부러워서', '좋아해서', '좋지만', '미침', '미쳤다', '미쳤다', '좋을까', '꾸준히', '안남았는데', '아쉬운', '없다는', '좋은', '약한듯', '좋은데', '꾸준히', '안남았는데', '아쉬운', '없다는', '좋은', '약한듯', '좋은데', '꾸준히', '안남았는데', '아쉬운', '없다는', '좋은', '약한듯', '좋은데', '꾸준히', '안남았는데', '아쉬운', '없다는', '좋은', '약한듯', '좋은데', '꾸준히', '안남았는데', '아쉬운', '없다는', '좋은', '약한듯', '좋은데', '꾸준히', '안남았는데', '아쉬운', '없다는', '좋은', '약한듯', '좋은데', '미쳤고', '예뻐서', '좋아서', '좋음', '예뻐요', '같은거', '재미없어서', '안좋', '미쳤고', '예뻐서', '좋아서', '좋음', '예뻐요', '같은거', '재미없어서', '안좋', '미쳤고', '예뻐서', '좋아서', '좋음', '예뻐요', '같은거', '재미없어서', '안좋', '미쳤고', '예뻐서', '좋아서', '좋음', '예뻐요', '같은거', '재미없어서', '안좋', '아쉬운것', '기대해야', '좋음', '좋네', '좋아해서', '불쌍하다', '좋다', '아쉬운것', '기대해야', '좋음', '좋네', '좋아해서', '불쌍하다', '좋다', '멋진', '탄탄하면서', '좋아하는', '짧네', '아쉽', '같잖아', '좋으면서도', '이상한', '기대할게', '없는듯', '멋진', '탄탄하면서', '좋아하는', '짧네', '아쉽', '같잖아', '좋으면서도', '이상한', '기대할게', '없는듯', '멋진', '탄탄하면서', '좋아하는', '짧네', '아쉽', '같잖아', '좋으면서도', '이상한', '기대할게', '없는듯', '멋진', '탄탄하면서', '좋아하는', '짧네', '아쉽', '같잖아', '좋으면서도', '이상한', '기대할게', '없는듯', '멋진', '탄탄하면서', '좋아하는', '짧네', '아쉽', '같잖아', '좋으면서도', '이상한', '기대할게', '없는듯', '미쳤네요', '미친', '미쳤다', '좋아요', '좋다구', '완벽하니', '미쳤네요', '미친', '미쳤다', '좋아요', '좋다구', '완벽하니', '미쳤네요', '미친', '미쳤다', '좋아요', '좋다구', '완벽하니', '다망했어', '힘들었던', '좋으니까', '변함', '좋고', '좋고', '멋지고', '남다르네', '좋음', '있는데요', '좋네요', '다망했어', '힘들었던', '좋으니까', '변함', '좋고', '좋고', '멋지고', '남다르네', '좋음', '있는데요', '좋네요', '대단하고', '멋있다', '좋은데', '기대하고', '있겠습니다', '안되나요', '미쳤네', '미쳤다', '미쳤다', '실망해', '미쳤다', '옳다', '넘친다', '있자', '행복하', '멋져', '좋다', '미쳤다', '옳다', '넘친다', '있자', '행복하', '멋져', '좋다', '아쉽긴', '미침', '기대해서', '좋네', '추해요', '많다는건', '많다는', '많아용', '아쉽긴', '미침', '기대해서', '좋네', '추해요', '많다는건', '많다는', '많아용', '아쉽긴', '미침', '기대해서', '좋네', '추해요', '많다는건', '많다는', '많아용', '아쉽긴', '미침', '기대해서', '좋네', '추해요', '많다는건', '많다는', '많아용', '안되네요', '좋다', '좋다', '좋아서', '발광하고', '이상한', '좋은데', '방탕한', '그런다던가', '좋겠어요', '신나서', '쓸데없는말이니', '있으라고', '자신만만한것도', '자랑스러워', '미쳤는데요', '좋아요', '그만해라', '좋을거', '좋고', '많습니다', '멋지잖아', '강해서', '좋아요', '신나가지고', '좋은데', '좋은데', '아쉬워', '조은', '좋다', '아쉽네', '아쉽지만', '좋다', '멋있지', '똑같은데', '좋으니까', '미쳐', '어떡하지', '다르긴', '다르지', '좋아하는', '좋아요', '한심하네', '좋은데', '좋은데', '멋있다', '좋은데', '많어', '멋있다', '좋게', '좋은데', '좋다', '좋다는', '힘듦', '좋음', '좋지', '좋게', '좋은데', '좋다', '좋다는', '힘듦', '좋음', '좋지', '좋다', '미침', '미칠것', '좋다', '미침', '미칠것', '좋다', '미침', '미칠것', '아쉽네', '어수선하고', '좋은데', '아쉽고', '좋아서', '좋다', '좋아하는', '미쳤', '좋다고', '좋아요', '좋지만', '안됬었나', '좋은데', '좋은데', '좋은데', '좋은데', '좋은데', '미쳤', '좋다고', '좋아요', '좋지만', '안됬었나', '좋은데', '좋은데', '좋은데', '좋은데', '좋은데', '화려한데', '거북하다', '좋고', '예쁘고', '멋있음', '화려한데', '거북하다', '좋고', '예쁘고', '멋있음', '좋다', '미친', '좋더라', '좋음', '좋더라', '좋음', '아닌게', '탄탄함', '미쳤다', '좋네', '좋을것', '싫어요', '재밌냐', '좋져', '유일하게', '이런데도', '부족한거', '무지한', '없으시겠죠', '어설프게', '강해서', '신비하고', '멋져', '괜찮네요', '좋았으면', '좋겠네요', '편하게', '좋다', '많아서', '싫은', '그러는', '싫은', '미치겠어', '불과한다는것', '조아여', '비슷하던데', '궁금해용', '있어용', '좋아요', '불과한다는것', '조아여', '비슷하던데', '궁금해용', '있어용', '좋아요', '불과한다는것', '조아여', '비슷하던데', '궁금해용', '있어용', '좋아요', '불과한다는것', '조아여', '비슷하던데', '궁금해용', '있어용', '좋아요', '불과한다는것', '조아여', '비슷하던데', '궁금해용', '있어용', '좋아요', '좋네', '신선하고', '좋은데', '이뻤다', '좋아요', '이뻤다', '좋아요', '멋있는', '멋있어요', '싫어하지', '많기도', '아쉽네', '그런건', '싫어요', '미쳐', '좋다고', '예쁘다', '멋있고', '이쁘고', '계신가요', '싫어요', '좋다', '없는거', '안쓰럽다', '좋아서', '미쳤는데', '미친거가', '좋음', '먼가', '강한', '가능할지는', '좋다', '예쁘다', '예쁜거', '대단하다', '좋음', '많다', '예쁜거', '대단하다', '좋음', '많다', '예쁜거', '대단하다', '좋음', '많다', '예쁜거', '대단하다', '좋음', '많다', '예쁜거', '대단하다', '좋음', '많다', '예쁜거', '대단하다', '좋음', '많다', '예쁜거', '대단하다', '좋음', '많다', '예쁜거', '대단하다', '좋음', '많다', '좋다', '아쉽', '좋네요', '멋있다', '좋다', '대단할까', '좋다', '좋았고', '같고', '완벽했음', '찬찬히', '깊게', '좋음', '좋고', '안될', '좋음', '없는지', '궁금하', '있구요', '좋다', '아쉽', '좋네요', '멋있다', '좋다', '대단할까', '좋다', '좋았고', '같고', '완벽했음', '찬찬히', '깊게', '좋음', '좋고', '안될', '좋음', '없는지', '궁금하', '있구요', '좋다', '아쉽', '좋네요', '멋있다', '좋다', '대단할까', '좋다', '좋았고', '같고', '완벽했음', '찬찬히', '깊게', '좋음', '좋고', '안될', '좋음', '없는지', '궁금하', '있구요', '좋다', '아쉽', '좋네요', '멋있다', '좋다', '대단할까', '좋다', '좋았고', '같고', '완벽했음', '찬찬히', '깊게', '좋음', '좋고', '안될', '좋음', '없는지', '궁금하', '있구요', '좋다', '아쉽', '좋네요', '멋있다', '좋다', '대단할까', '좋다', '좋았고', '같고', '완벽했음', '찬찬히', '깊게', '좋음', '좋고', '안될', '좋음', '없는지', '궁금하', '있구요', '좋다', '아쉽', '좋네요', '멋있다', '좋다', '대단할까', '좋다', '좋았고', '같고', '완벽했음', '찬찬히', '깊게', '좋음', '좋고', '안될', '좋음', '없는지', '궁금하', '있구요', '좋다', '아쉽', '좋네요', '멋있다', '좋다', '대단할까', '좋다', '좋았고', '같고', '완벽했음', '찬찬히', '깊게', '좋음', '좋고', '안될', '좋음', '없는지', '궁금하', '있구요', '좋다', '아쉽', '좋네요', '멋있다', '좋다', '대단할까', '좋다', '좋았고', '같고', '완벽했음', '찬찬히', '깊게', '좋음', '좋고', '안될', '좋음', '없는지', '궁금하', '있구요', '쎄게', '좋다', '다르네', '아쉽다', '기대할게요', '이쁘다', '이럴꺼면', '그랬나', '좋고', '예쁘고', '세련된', '중요한게', '더주세요', '계신가요', '좋네', '독특한', '넓은', '있으십니다', '좋은데', '좋네', '좋다', '많았어', '예뻐요', '미친', '비슷할', '좋네', '좋다', '많았어', '예뻐요', '미친', '비슷할', '그래두', '기쁘시겠어요', '좋아요', '그래두', '기쁘시겠어요', '좋아요', '그래두', '기쁘시겠어요', '좋아요', '좋으려고', '확실하네', '멋있음', '좋다', '미쳤고', '미쳤고', '미쳤고', '미쳤고', '시원해졌다', '필요없다', '아니였다고요', '좋당', '좋지만', '아쉬운건', '없다는거', '성했을듯', '좋아요', '새롭네요', '좋은데', '이렇게나', '멋있게', '대단해서', '좋지만', '아쉬운건', '없다는거', '성했을듯', '좋아요', '새롭네요', '좋은데', '이렇게나', '멋있게', '대단해서', '좋다', '좋다', '비슷하네', '좋음', '성장할꺼냐', '좋다', '좋다', '좋다', '좋지만', '특이하게', '좋은데', '좋다고', '먼가', '많다고', '미쳤고', '좋은데', '좋을까', '특이하게', '좋은데', '좋다고', '먼가', '많다고', '미쳤고', '좋은데', '좋을까', '좋으니까', '이쁘고', '다행히', '아쉽다', '원해', '좋다', '좋을까', '좋네', '좋아요', '싫어요', '야해써', '미친', '좋으면', '좋네', '당당하게', '좋다', '미쳤음', '좋은', '좋아하는', '당당함이', '좋아요', '지겨워요', '미쳤음', '좋은', '좋아하는', '당당함이', '좋아요', '지겨워요', '좋아요', '탄탄하니까', '좋고', '추해', '멋있다', '무섭다이게', '무서워서', '힘들어도', '좋잖아', '싫어요', '여전하고', '싫어요', '부러워서', '좋긴', '좋음', '아녀도', '좋긴', '좋다', '기대했는데', '좋은', '좋은', '같고', '짜증날', '같고', '확실하게', '좋은', '좋아요', '노래오지네', '좋아요', '가능해요', '좋네요', '미쳤다라는', '미쳤다', '실패하지', '높기', '완벽한', '멋졌어서', '싫테', '유치하다', '좋아용', '조용히', '미쳤노', '미쳤고', '좋아요', '예뻐', '좋아요', '계신가요', '이런것이죠', '좋아요', '좋다', '멋져', '역시구만', '좋다', '좋다', '예뻐', '좋아하는', '있어라', '미친', '좋고', '좋아용', '새로운', '이쁘게', '좋아서', '좀내가', '좋아요', '좋다', '미쳤다', '좋다', '좋다', '좋은데', '좋아하는거', '좋다', '미쳤네', '망한', '미쳤네', '좋다', '좋다', '미친', '좋으니까', '좋은데', '좋을까', '아쉬워', '기대할게요', '좋은데', '아쉽네요', '좋다', '좋다', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '부탁드림', '좋아서', '좋다', '없나요', '복잡한', '가득한', '좋다', '청아하면서', '좋다', '미쳐', '좋다', '당연히', '작아서', '아쉽다', '좋길', '좋다', '좋음', '미쳤어', '아니냐구', '좋네요', '좋아요', '미침', '미쳤어', '좋은', '좋은', '좋다', '좋긴', '좋은데', '젊고', '명확하면서도', '미쳤다', '좋네', '미쳤어', '좋은', '좋은', '좋다', '좋긴', '좋은데', '젊고', '명확하면서도', '미쳤다', '좋네', '미쳤어', '좋은', '좋은', '좋다', '좋긴', '좋은데', '젊고', '명확하면서도', '미쳤다', '좋네', '미쳤어', '좋은', '좋은', '좋다', '좋긴', '좋은데', '젊고', '명확하면서도', '미쳤다', '좋네', '미쳤다', '좋음', '미쳤다', '좋아서', '좋고', '짧아']</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'안좋다고', '있지만', '새로운', '좋게', '기대한거보다', '싫어지네요', '사랑스럽고', '자랑스러운', '넘친하시고', '이쁘시더라구요', '같기도', '좋았어요', '너무해', '없는듯', '좋았다', '아프지마', '있으니까', '슬픈', '좋았을텐데', '아니더라구요', '좋아하지는', '설렌다', '있다는걸', '독특한', '안남았습니다', '발랄하고', '조아요', '있자', '좋아하는', '어떡합니까', '좋겠어요', '미있어여', '귀여워요', '예뻐진거', '안됩니다', '좋더라도', '그러지', '빠른', '예뻐요', '좋아했던', '즐겁네요', '저랬는데', '이상하다하', '대단함', '난해할지도', '귀엽', '아니까', '이쁘게', '잘맞아', '죄송해요', '어눌함', '너무한', '이상한', '대단해', '안될듯', '설레게', '구리냐', '안된다는', '재미있다', '좋아서', '많네요', '그런건', '신나고', '대단하긴', '귀여운', '기대하고', '괜찮은', '좋은', '낮아요', '있으', '순수한지', '있다지요', '즐거운', '길면', '달콤하면서', '어떨지', '이뻐', '좋다', '예쁨니다', '아쉽긴', '기대했는데', '부들부들하신', '우아하게를', '아니어도', '안좋다는', '좋음', '망했다', '좋네요', '좋앗음', '아플텐데요', '괜찮은데', '다르게도', '신선한', '좋은지', '아쉽', '우아하게', '좋았죠', '중요해', '자랑스럽구', '우울하여하지를', '이렇게만', '심각하다네요', '많이는안', '휩쓴다', '미친거', '안되나', '그래두', '편하기에', '강한거', '예쁘시고', '흥겨워', '좋다고', '고픔', '공정한', '좋을거', '같네요', '안타깝네요', '없다는거', '안좋', '같네', '많을까', '사랑스러운', '좋으니까', '좋아요', '이쁘더라고요', '영원한', '미치겠음', '뻔히', '좋네', '괜찮네요', '안좋다', '충분히', '무리하자', '미친게', '아름다운', '아쉬워', '같아여', '나잘하는데', '안됬어요', '대단한게', '좋아하고', '귀엽다', '좋내요', '좋아해', '고픈', '없었으면', '고마워요', '잘맞은', '좋겠는데', '귀여워', '속상해하지만', '당하지', '좋을듯', '좋았는데', '나쁜', '있었는듯', '아쉽지만', '그렇듯', '귀엽더라구요', '같군요', '좋은데', '많았음', '미쳤네', '대단하네', '이상해지네요', '힘든', '쉬운', '좋앗던거', '열광하던', '이쁜', '아깝', '괴로워도', '아프면', '패배했을', '특이한게', '귀여우세요', '이쁠수가', '있네요', '그러고선', '소중한', '좋겠네요', '좋운건', '강함', '힘들게', '같에', '있었네요', '신나는것과', '행복해', '사랑스러', '대단합니다', '강해서', '놀래서', '당연한', '좋다아', '안되서', '속상해', '괜찮을텐데', '좋아해용', '좋아야지', '없네여', '반해', '엄청나게', '좋기만', '아니라니', '좋을줄이야', '좋아하지만', '귀엽게', '없는거여', '상당히', '좋당', '좋지만', '어눌한건', '좋던데', '없죠', '우아하게나', '멋진', '가볍게', '미치게', '좀있다가', '아프지말고', '심하진', '슬프네', '신선하게', '좋겠다', '어땠을까', '높다고', '색다른', '많았죠', '귀여운데', '아름답다', '오묘한데', '나쁘지는', '이상했는데', '부탁드림', '대단해요', '좋으면', '좋겟다', '시원한', '예쁘고', '즐겁게', '같습니다', '귀여운것', '이쁘구요', '이상한디', '뻔했는데', '없는것', '많아서', '미안해요', '좋아했는데', '만족하는데', '예쁘아', '많다고', '굉장히', '강력하던데', '심각하네요', '이뻐서', '싫어요', '좋아하', '뿌듯하고', '그랬듯이', '부적절하다고', '미쳤단', '대단할', '죄송한데요', '영원하자', '좋아용', '기쁩니당', '아쉽네요', '좋다는', '그래수', '아니라고', '빠르다', '생소함이었는지', '멋져요', '미칠', '비슷한', '있다는', '예쁘시', '뿐인', '대단하다', '좋아합니다', '예쁘다', '허전해지게', '안좋다만', '아쉬워요', '우울할', '아닙니까', '좀아니다', '이쁜것', '반했다', '진지하게', '신나는', '아닌듯', '신기한', '비슷하네', '괜찮았는데', '아름다워', '뻔한', '있을거', '평범한', '다양한', '멋지고', '좋지', '힘들', '부드럽고', '아쉬운', '실망했다', '대단한듯', '특이함', '노래인듯', '그러니깐', '좋고', '설레는', '있었을까', '흔하지', '덜하지', '어때요', '이쁘고', '기대해서', '징그럽네요', '무섭네', '발랄한', '있었다', '있는것', '고맙네', '망해', '미칠듯이', '그랬을', '높고', '그러고', '대단하네요', '미쳤다', '이상하고', '좋아여', '비슷함', '많지', '좋았음', '평범할지', '대단한데', '더럽네요', '괜찮았을듯', '좋습니다', '있다니', '좋다고는', '없을것', '아쉽다', '없우면', '아쉽다는', '우울하다고만', '같고', '강력한', '부자연스럽지만'}</t>
+          <t>['열광하던', '열광하던', '열광하던', '설렌다', '신기한', '좋으니까', '괴로워도', '고픔', '귀엽', '좋네', '좋았음', '없을것', '좋은데', '좋겠다', '미쳤네', '신선하게', '우아하게', '빠르다', '좋아합니다', '설레는', '잘맞은', '이상했는데', '좋다', '미쳤단', '같아여', '좋아서', '좋다', '미쳤단', '같아여', '좋아서', '사랑스러', '아름다워', '미칠듯이', '너무해', '너무해', '흥겨워', '놀래서', '좋다아', '미치겠음', '대단하긴', '힘들', '평범한', '소중한', '평범할지', '아름다운', '좋아요', '좋음', '귀엽게', '좋은', '이상해지네요', '대단한게', '많지', '대단한데', '굉장히', '좋은데', '좋아요', '좋았다', '좋으면', '아름다워', '좋다', '좋지만', '영원한', '귀여워', '예쁘다', '좋운건', '넘친하시고', '이뻐', '좋아요', '좋아요', '패배했을', '망해', '좋아요', '많이는안', '그래수', '반해', '멋지고', '귀여운', '좋아요', '대단하네', '좋아하는', '고마워요', '반해', '멋지고', '귀여운', '좋아요', '대단하네', '좋아하는', '고마워요', '좋은', '좋은', '너무해', '너무해', '미칠', '좋아하는', '좋아요', '좋아요', '재미있다', '좋은', '재미있다', '좋아해용', '귀여우세요', '좋내요', '좋아요', '즐거운', '좋겠어요', '좋아요', '귀여워요', '예뻐요', '좋아요', '싫어지네요', '이상하고', '징그럽네요', '그러니깐', '좋았죠', '좋은데', '좋다', '좋아하는', '낮아요', '미있어여', '좋은', '좋아여', '좋은데', '어눌한건', '좋아요', '너무해', '너무해', '예쁘아', '공정한', '죄송한데요', '우울할', '좋음', '좋은', '좋음', '좋아요', '신나는', '좋다', '좋을거', '뿐인', '너무해', '너무해', '너무해', '너무해', '좋은데', '우아하게', '좋았어요', '부탁드림', '영원한', '비슷함', '영원하자', '귀엽다', '괜찮을텐데', '영원하자', '좋은', '저랬는데', '중요해', '안좋다', '좋은', '아닙니까', '좋아요', '예쁘고', '구리냐', '신나고', '발랄한', '있다지요', '좋아하고', '기쁩니당', '이쁘고', '사랑스럽고', '귀여워요', '좋겠네요', '좋았을텐데', '아프지마', '아프면', '귀여운것', '아프지마', '아프면', '귀여운것', '아프지말고', '좋아요', '좋아하는', '좋아하는', '좋겠어요', '좋아하지는', '좋네요', '아프지말고', '좋아요', '좋아하는', '좋아하는', '좋겠어요', '좋아하지는', '좋네요', '예쁘시', '어때요', '좋아서', '심각하다네요', '망했다', '있다니', '대단하네', '예쁘시', '어때요', '좋아서', '심각하다네요', '망했다', '있다니', '대단하네', '뿐인', '이뻐서', '멋진', '반했다', '좋아요', '좋다', '잘맞아', '반했다', '좋아요', '좋다', '잘맞아', '반했다', '좋아요', '좋다', '잘맞아', '있다는', '대단할', '안남았습니다', '속상해', '이렇게만', '설레게', '좋다', '좋다', '멋져요', '예쁨니다', '좋아요', '대단해', '좋은', '비슷하네', '너무해', '있지만', '있었을까', '좋아요', '강력하던데', '사랑스럽고', '좋겠다', '이뻐', '좋은', '좋기만', '좋게', '아니더라구요', '가볍게', '독특한', '좋은', '좋게', '대단한듯', '이쁘고', '좋으니까', '이쁘더라고요', '이쁘구요', '좋은', '좋은', '좋은', '멋진', '자랑스러운', '안좋', '너무해', '너무해', '나잘하는데', '좋네요', '죄송해요', '좋아서', '많을까', '자랑스럽구', '너무해', '너무해', '좋음', '좋겟다', '좋은', '좋음', '이쁜', '귀엽더라구요', '예뻐진거', '예쁘다', '어눌함', '그랬을', '없네여', '같에', '달콤하면서', '그랬을', '없네여', '같에', '달콤하면서', '안됬어요', '너무해', '너무해', '너무해', '너무해', '싫어요', '허전해지게', '예쁘고', '너무해', '너무해', '미치게', '귀여운데', '안됬어요', '너무해', '너무해', '너무해', '너무해', '싫어요', '허전해지게', '예쁘고', '너무해', '너무해', '미치게', '귀여운데', '이상했는데', '귀엽다', '좋아하', '아름답다', '없우면', '너무해', '너무해', '너무한', '귀여운데', '안된다는', '좋아했던', '심하진', '많았죠', '좋은데', '좋아요', '그래두', '좋은', '없는거여', '좋은데', '좋은', '좋네요', '아프지말고', '이상한', '새로운', '좋다고는', '좋아서', '당연한', '충분히', '다르게도', '빠른', '빠른', '신나는것과', '즐겁게', '같습니다', '즐겁네요', '좋네요', '같네요', '좋고', '나쁘지는', '기대해서', '색다른', '우아하게를', '좋습니다', '좋을줄이야', '영원한', '멋진', '같군요', '없는것', '같네', '좋은', '좋아하는', '좋아요', '좋은', '있지만', '대단하네요', '고맙네', '우아하게', '좋은', '좋네', '비슷하네', '그랬듯이', '안좋다', '좋습니다', '좋아하지만', '실망했다', '있다는걸', '좋아요', '아쉽네요', '좋은', '좋은데', '우아하게나', '아쉽다', '좋은지', '좋음', '귀여워', '더럽', '그만합시다', '그러한', '좋아요', '심각하네요', '좋은데', '부자연스럽지만', '같습니다', '좋네요', '좋은', '많지', '그렇듯', '기대하고', '생소함이었는지', '우아하게', '좋게', '강함', '없는듯', '덜하지', '좋은', '흔하지', '우아하게', '색다른', '신선한', '좋고', '좋다', '좋아요', '없죠', '그러고선', '좋아요', '귀여우세요', '좋겠어요', '시원한', '좋은', '같네요', '부들부들하신', '귀여워', '좋앗음', '힘들게', '아플텐데요', '특이함', '좋네요', '좋음', '좋은', '좋네요', '많네요', '순수한지', '있었네요', '좋은', '있자', '미안해요', '좋은', '이쁜것', '기대한거보다', '좋네요', '노래인듯', '좋은', '안좋다만', '싫어요', '좋다', '좀아니다', '안좋다는', '많아서', '좋아요', '좋은데', '좋은데', '아쉬워요', '우아하게나', '괜찮았는데', '우울하다고만', '우울하여하지를', '높다고', '좋음', '어떨지', '편하기에', '좋아요', '좋다', '아니어도', '강한거', '좋은데', '높고', '좋아하는', '귀엽게', '안되나', '좀있다가', '좋다는', '부드럽고', '안되서', '좀있다가', '좋다고', '좋은', '좀있다가', '괜찮은데', '괜찮았는데', '같네요', '망했다', '있었다', '엄청나게', '미친게', '아쉽긴', '기대하고', '있었는듯', '귀엽', '그런건', '아쉽지만', '부적절하다고', '특이한게', '좋은데', '있으니까', '있는것', '같고', '좋은데', '예쁘시고', '좋은데', '슬픈', '이상하다하', '좋아요', '안좋다고', '좋다', '좋은', '좋다', '좋은데', '강해서', '괜찮은', '좋다', '상당히', '많았음', '우아하게', '좋아했는데', '이상한디', '우아하게', '우아하게', '뻔한', '좋으니까', '속상해하지만', '좋겠네요', '이쁘시더라구요', '안좋다는', '만족하는데', '안될듯', '좋더라도', '좋아야지', '안타깝네요', '기대했는데', '괜찮았을듯', '아쉽', '좋앗던거', '망했다', '좋다', '난해할지도', '귀여운', '발랄하고', '이쁘게', '좋은', '좋아요', '좋다', '좋다', '오묘한데', '더럽네요', '좋은데', '진지하게', '좋당', '이쁘고', '좋다', '좋을듯', '좋다', '좋다', '좋네', '좋아요', '좋다', '좋다', '영원하자', '미쳤다', '좋다', '행복해', '이쁠수가', '미친거', '아닙니까', '어떡합니까', '이쁘게', '좋당', '좋다', '아쉽네요', '뻔했는데', '좋다', '좋습니다', '좋다', '좋다', '좋아용', '좋음', '아쉬운', '예쁘고', '좋은', '무리하자', '좋은', '영원하자', '우아하게', '좋다', '좋음']</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'있지만', '괜찮았을', '새로운', '좋게', '예쁨', '없다만', '망했어', '명확한', '있었겠냐', '당했다고', '뻔하다', '없구요', '좋을', '차분한', '똑같아요', '무심하다', '다르겠지만', '있는건', '괜찮음', '이런다고', '좋아라', '입니다이', '궁금하다', '기뻐서', '비슷하죠거의', '유사한', '있더만', '차가울', '관대하지', '떳떳하지', '있니', '짜증나니까', '어떻게나', '없는듯', '있는것은', '있는지', '같니', '그런다고', '싫은거', '속상하네요', '좋았을텐데', '안되냐고', '좋겠어', '작음', '좋아해서', '영원할', '좋아해요', '이쁘더라', '역겹네', '부끄러운줄', '애잔하다', '많나', '정당한', '아니에요', '같당', '좋을것도', '구릴텐데', '조아요', '똑같다는걸', '어색하다고', '싫음', '급하다', '좋아하는', '뿐임', '대단하시', '깔끔해서', '좋겠어요', '추하다', '미쳐', '귀여워요', '심하게까', '높은건', '불쌍하고', '조은', '어떡하냐', '순하게', '적합한', '어떡하지', '똑같긴', '빠른', '강하다', '궁금하다고', '좋아하는걸', '좋아했던', '예뻐요', '유일하게', '비슷하게', '좋은가', '희안하더니', '아니냐', '성공했네', '비슷하다고', '중요한', '많았구만', '높은', '없을뿐더러', '너무한', '이상한', '그러려니', '그런데도', '같지만', '아프겟니', '딱좋노', '웬만한', '예쁘게', '안좋네요', '고마워', '미친', '자세히', '부어가면서', '명확하게', '당해야', '예뻐서', '좋아서', '간단하게', '부럽다', '뒤늦게', '구린', '안타까워서', '집요하게', '그런건', '어마어마해', '신나고', '역겹', '궁금해지네요', '더럽다', '똑똑한', '비슷하지', '넘치구', '괜찮은', '그럽니다', '이쁜데', '야한', '좋은', '당히', '똑같음', '있지', '아까워', '안되게', '옳은거', '추워서', '그렇다구요', '높은거에는', '하얗고', '싫다', '안타까', '높냐', '이뻐', '좋다', '심하고', '부족한', '조졌고', '넘칠거야', '무식한', '있노', '좋아하겠지만', '완벽한', '등등하네', '있다고', '조켓다', '힘들어', '신나는데', '애잔하네', '느려', '아닐수도', '예쁜', '힘들구만', '좋음', '좋네요', '괜찮게', '없다는', '좋야', '날카로운', '괜찮은데', '있진', '아님말구요', '있긴하나', '안됨', '좋은지', '더럽게', '있었을', '좋아하는데', '그러는', '부들부들해서', '전화해서', '싫으신', '싫어하는', '달라네요', '당했어요', '있나싶네', '부러워서', '미친거', '신기하네', '그래두', '그러냐', '성공했구나', '무의미한', '이쁘다', '좁아지는거', '익숙하게', '높다', '아니었어서', '강해요', '예쁘시고', '그러죠', '높은거', '멀래', '좋다고', '똑같네', '가능한거다', '안되네', '있도록', '똑같다', '좋죠', '수상함', '같네요', '그래요', '안되나요', '한심하다', '없네요', '이쁘네', '애잔해', '신나서', '같네', '아니시라면', '적당한', '좋겠당', '없서', '없단다', '이뿐', '당하면', '싫어하는듯', '당해서', '작은', '귀엽네', '좋으니까', '좋아요', '굉장한', '어이없어서', '있는거죠', '싫어하지도', '대단하긴하다', '미치겟', '씬나고', '좋네', '그럴듯', '노래였어요', '신남', '미였군', '이쁘시다', '신난거랑', '힘든거지', '좋아함', '비슷하던데', '충분히', '필요함', '딱하면', '불편하다면', '비슷할', '싫은지', '아깝고', '어이없다', '좀있으면', '아무런', '쏠쏠할듯', '익숙하다', '똑같아서', '안타깝지만', '바쁘네', '심각하게', '비슷하면', '다르지', '저렴한데', '좋구먼', '없거든', '좋아하고', '강하고', '아닌거', '넘치는', '그럴수록', '신나네', '없었으면', '신나니까', '적당히', '재밌던데', '귀여워', '아닌것처럼', '다르', '안좋아', '변하는거', '이뻐요', '없다면', '똑같', '좋을듯', '미는', '신나네요', '부족하다고', '좋았는데', '곧고', '귀여워용', '아쉽지만', '싫은', '없는게', '좋았어', '비슷하다인데', '좋은데', '아니나', '충실한', '무거운', '아름다우셔요', '안쓰럽다', '꾸준히', '좋아한다던', '많다', '힘든', '멋있어요', '쉬운', '놀래', '같긴한데', '아니군', '좋아하지도', '깊은', '그러는지', '이쁜', '아니잖아여', '아니라는', '당하기를', '변하는', '아깝', '예쁘던데', '귀엽네요', '뻔하고', '그런거고', '지겨', '있네요', '작게나마', '있을까', '싫어하는데', '소중한', '다르구나', '높으니까', '좋겠네요', '많긴', '신납니다', '답답하긴', '힘들게', '어마어마해가', '높은게', '많은거지', '위대한', '행복해', '죄송하지만', '낮음', '비슷하긴한데', '있는거지', '수많은', '강해서', '이쁘당', '싫으면', '잠잠할', '필요해', '어떡하려고', '심하던데', '같다고도', '좋아하시는', '옳은말이지만', '있는거로', '기대할게요', '있겠네', '좋기만', '행복하', '익숙한데', '상당히', '망하게', '좋당', '많앗는데', '똑같은데', '좋지만', '비슷하다가', '좋던데', '재밌길래', '확실하지', '힘들던데', '아플게', '슬프네요', '높으면', '싫은게', '깔끔한', '존이었는데', '아니었으면', '없지만', '소중하게', '씁쓸하다', '다른거고', '궁금해서', '안좋으면', '안되니', '좋아하던', '없으니', '좋겠다', '없었다', '아닌것', '높다고', '가벼운', '대단해요', '그러면서', '싫으세요', '좋으면', '추할', '미흡하고', '필요하긴', '왠만해', '강한지', '조용히', '예쁘고', '따뜻한', '비슷해요', '많았', '확실하게', '그러는데', '많다는', '멍청한', '없는것', '없습니다', '많아서', '씬나', '아프다고', '좋아했는데', '안타깝습니다', '미친듯', '바빠서', '투명할', '뛰어나다', '역겹다', '고맙습니다', '아니란', '길었던', '굉장히', '괜찮네', '노래던데', '가능하겠냐', '이뻐서', '싫어요', '다를', '좋아하', '망하느니', '궁금해', '그럴', '신나게', '많구나', '딱히', '높은가', '있다지만', '성공하셨네', '강하기', '안타깝다', '비슷하다는', '좋아용', '좋더라', '아쉽네요', '같잖아', '아까', '설렘', '심각한', '아니라고', '빠르다', '있었고', '좋와', '불쌍해', '멋져요', '안좋잖아여', '비슷한', '징징대지말자', '다른데', '귀엽고', '있다는', '확실한', '있던데', '놀랬다', '아니잖아', '좋다는데', '같다잖아', '빨간', '약해서', '상쾌한', '그럴수있다고', '성공하던', '좋아하지', '대단하다', '불쌍하다', '비슷한데', '좋아한다', '재밌어서', '높은지를', '예쁘다', '비슷하다자', '어떠냐', '신나긴하더라', '많아요', '망하지', '높은데', '찌질하다', '아니니까', '망한', '어이없네요', '아파', '불쌍해서', '동떨어진', '아닙니까', '어려운거', '당연히', '신난다', '좋냐', '신나는', '아닌듯', '같더군요', '심한', '아닐', '안좋게', '귀찮아', '계시네요', '변하는데', '중요합니다', '평범한', '아깝다', '다를까', '예뻐', '똑같아', '같지도', '강한거도', '한심하자', '있겠지', '유명하지도', '좋지', '적당히하구', '좋진', '좋겠습니다', '쓸데없는', '귀엽다고', '안된다는건', '이쁘시고', '높네', '좋아할', '깨끗하고', '그러니깐', '이뻐졌다', '좋고', '발랄하다고', '미칠거', '있겠냐', '그랬', '이쁘고', '유사하던데', '무섭네', '이쁨', '있었다', '안좋을', '아니래', '있기', '있었어', '없으시잖아요', '많인지는건', '아픈', '높던말던', '대단하네요', '미쳤다', '좋아여', '궁금해지는', '비슷함', '같단', '적당히하시죠', '많지', '좋았음', '중요해요', '많잖음', '미친듯이', '신기하다', '대단한데', '아닐텐데', '떳떳하게', '강하답니다', '좋습니다', '예쁘', '귀하고', '심한것', '좋앗는데', '죄송하다', '똑같을거에요', '없다니', '있다니', '아쉽다', '높은건데', '오래된', '징징대지', '나쁜거잖아', '기대할게', '같고', '있는거다', '당연하지만', '좋긴', '미개하다', '발랄함', '떳떳하당', '예쁘당', '필요한가', '비슷한건', '아닌지'}</t>
+          <t>['신나는', '예뻐서', '좋아했던', '설렘', '좋음', '좋다', '좋고', '좋고', '신나는', '예뻐서', '좋아했던', '설렘', '좋음', '좋다', '좋고', '좋고', '신나는', '예뻐서', '좋아했던', '설렘', '좋음', '좋다', '좋고', '좋고', '안좋네요', '비슷함', '똑같은데', '비슷한데', '아깝다', '있던데', '느려', '빠른', '있진', '완벽한', '높네', '재밌어서', '대단하다', '조아요', '신나는', '똑같음', '신나서', '미쳐', '미치겟', '아니군', '비슷하게', '있던데', '좋은', '미친', '빠르다', '신나고', '신나고', '좋습니다', '좋습니다', '고맙습니다', '아쉽다', '좋아함', '좋아여', '씬나', '예뻐요', '귀엽고', '굉장히', '따뜻한', '차가울', '안됨', '이뿐', '예뻐서', '유일하게', '좋아서', '좋은데', '좋은', '좋아요', '강하답니다', '아니래', '쉬운', '뒤늦게', '강해요', '대단해요', '좋죠', '비슷함', '다르지', '달라네요', '좋지', '좋았을텐데', '슬프네요', '좋아요', '망하지', '좋고', '있는건', '투명할', '좋다', '좋아용', '좋았는데', '좋아요', '부끄러운줄', '괜찮은', '괜찮았을', '좋아요', '예쁘고', '좋아하고', '좋아하는데', '오래된', '아닌것', '같당', '새로운', '좋겠어요', '미쳐', '위대한', '깊은', '좋아요', '좋기만', '좋겠습니다', '조용히', '그럴듯', '좋아하는걸', '좋겠습니다', '조용히', '그럴듯', '좋아하는걸', '좋아요', '좋아요', '심하던데', '많다', '좋아해요', '좋아요', '좋은', '좋은지', '좋은지', '좋아요', '강한지', '많았', '심각하게', '똑같음', '이쁨', '좋은', '좋아요', '좋아요', '좋아하는', '대단하긴하다', '똑같음', '무거운', '평범한', '입니다이', '강한거도', '옳은말이지만', '옳은거', '그러죠', '좋은', '지겨', '좋은', '있지만', '좋겠다', '있는거죠', '좋아한다', '좋다', '신나고', '좋습니다', '높은건', '좋은', '좋겠습니다', '신나고', '같네요', '높은', '있다니', '좋아서', '높냐', '딱히', '궁금해서', '필요해', '비슷하긴한데', '없단다', '똑같네', '그래요', '이런다고', '변하는거', '싫으세요', '안타깝지만', '안되네', '그래두', '좋은가', '상당히', '있지만', '뛰어나다', '집요하게', '기대할게요', '상당히', '좋고', '괜찮은', '노래였어요', '꾸준히', '신납니다', '상당히', '좋고', '있지만', '안좋아', '좋아하지도', '싫어하지도', '이상한', '싫다', '괜찮은', '싫으면', '싫으면', '불쌍해서', '신나고', '좋긴', '좋은', '좋겠네요', '아니란', '약해서', '안타깝지만', '그러니깐', '높은거에는', '그럴', '있다는', '간단하게', '많다는', '비슷한건', '관대하지', '좋은데', '비슷해요', '싫다', '있노', '좋기만', '높은데', '높으니까', '좋으니까', '높은', '어이없다', '당해야', '높던말던', '있다는', '아무런', '어떡하냐', '좋아하지', '이뻐요', '높은건데', '높은지를', '이쁘다', '망했어', '귀엽네', '멀래', '멀래', '익숙하다', '떳떳하당', '평범한', '좋다고', '구린', '심한', '이뻐', '좋지', '부어가면서', '좋아하겠지만', '강하기', '수많은', '비슷할', '좋으면', '없거든', '적당히하구', '신나게', '신난거랑', '이상한', '좋게', '있긴하나', '구릴텐데', '같지도', '이상한', '멍청한', '영원할', '그럴', '충분히', '없는것', '싫은게', '나쁜거잖아', '신난다', '아님말구요', '좋게', '좋아할', '좋은', '많다', '신남', '신남', '신나는데', '재밌당', '속상하겠어요', '이상하다는것만으로', '다르게', '좋다', '좋아요', '좋노', '좋네요', '좋을', '좋아서', '좋다', '좋다는데', '안되나요', '좋네요', '좋을', '좋아서', '좋다', '좋다는데', '안되나요', '좋네요', '좋을', '좋아서', '좋다', '좋다는데', '안되나요', '있는거죠', '없다면', '싫어하는', '많앗는데', '좋앗는데', '좋네요', '더럽게', '있는거죠', '없다면', '싫어하는', '많앗는데', '좋앗는데', '좋네요', '더럽게', '있는거죠', '없다면', '싫어하는', '많앗는데', '좋앗는데', '좋네요', '더럽게', '있는거죠', '없다면', '싫어하는', '많앗는데', '좋앗는데', '좋네요', '더럽게', '똑같네', '똑같아', '좋냐', '어떡하지', '애잔하다', '애잔해', '싫으면', '떳떳하게', '익숙한데', '똑같다는걸', '똑같은데', '당연히', '똑같네', '똑같아', '좋냐', '어떡하지', '애잔하다', '애잔해', '싫으면', '떳떳하게', '익숙한데', '똑같다는걸', '똑같은데', '당연히', '싫어요', '좋은', '이쁘다', '있는거지', '싫어요', '좋은', '이쁘다', '있는거지', '싫은거', '아닌것처럼', '동떨어진', '부들부들해서', '너무한', '심하고', '그러는지', '높은거', '힘든거지', '그러는데', '궁금해서', '괜찮은데', '좋은데', '전화해서', '궁금하다고', '좋은데', '같네요', '있겠냐', '있는건', '확실하지', '떳떳하지', '없다는', '계시네요', '신나긴하더라', '좁아지는거', '충분히', '싫음', '있더만', '멍청한', '당하기를', '유사한', '부족하다고', '짜증나니까', '확실하게', '없었다', '같잖아', '다를', '좋은', '역겹', '추하다', '좋은', '역겹', '추하다', '아니었으면', '그런데도', '그래요', '어떻게나', '아깝고', '명확하게', '좋으면', '높은게', '당연하지만', '속상하네요', '어떡하냐', '안타깝다', '같단', '불편하다면', '그럴수록', '아니시라면', '좋습니다', '애잔하네', '어마어마해가', '아닙니까', '좋지만', '괜찮게', '소중하게', '힘들게', '좋다', '좋은데', '많긴', '안좋게', '아프다고', '무의미한', '딱좋노', '웬만한', '없는게', '깔끔한', '안된다는건', '좋지만', '좋아서', '명확한', '좋아요', '좋아요', '좋은데', '있을까', '높은가', '안좋게', '괜찮게', '소중하게', '힘들게', '좋야', '많은거지', '좋다', '좋다', '없으니', '안쓰럽다', '그럴', '있다지만', '그러는지', '어이없어서', '높다고', '그러는', '좋아서', '싫으면', '비슷하다고', '있나싶네', '똑같네', '많인지는건', '없는듯', '불쌍하다', '미흡하고', '비슷한데', '중요한', '중요해요', '날카로운', '재밌던데', '어색하다고', '좋은데', '적당히하시죠', '심각한', '안좋네요', '좋다', '무섭네', '부러워서', '추할', '가능하겠냐', '무섭네', '작은', '높으면', '쉬운', '그렇다구요', '좋겠어요', '유명하지도', '불쌍하고', '안타깝습니다', '신기하네', '안좋으면', '좋고', '조졌고', '아프다고', '무의미한', '싫으면', '안됨', '오래된', '좋고', '대단하네요', '변하는데', '좋네요', '좋을것도', '불쌍해', '발랄함', '더럽다', '좋구먼', '안되네', '아니라는', '어이없네요', '적당히', '좋았을텐데', '예쁘던데', '다르겠지만', '좋아요', '좋긴', '좋은데', '많아요', '좋았음', '다르', '똑같네', '이뻐요', '귀엽다고', '좋은', '좋진', '좋네', '같네', '아니잖아여', '심한것', '안좋잖아여', '좋아하시는', '수상함', '대단하다', '좋다고', '희안하더니', '딱하면', '그러냐', '아픈', '좋아요', '예뻐', '그런건', '아닐텐데', '궁금해서', '싫은지', '미친듯', '미는', '좋아하는', '그런거고', '신나는', '적합한', '좋음', '있겠지', '좋으면', '아닌거', '궁금해서', '좋아서', '정당한', '아쉽네요', '예뻐요', '싫으면', '높은', '신나는', '이쁘시다', '쓸데없는', '같고', '있는건', '있었겠냐', '많잖음', '아닌것', '같더군요', '좋네요', '예쁘다', '대단한데', '미친', '역겹다', '좋은데', '이쁘당', '좋은', '싫은', '싫은', '어려운거', '아니냐', '작음', '귀찮아', '멍청한', '같다잖아', '높은데', '궁금해지는', '미친듯이', '그런다고', '무식한', '있는거지', '힘들어', '대단하다', '좋다', '좋은', '대단하다', '대단하다', '딱히', '없다만', '확실한', '필요하긴', '불쌍하다', '그럴', '안타까', '없습니다', '없으시잖아요', '예뻐요', '똑같은데', '잠잠할', '좋은가', '좋아요', '같긴한데', '좋다고', '멋져요', '높으면', '무심하다', '비슷하던데', '좋은', '있도록', '비슷하다고', '없는듯', '같니', '당히', '싫으면', '좋음', '가벼운', '깔끔한', '싫어하는듯', '힘들던데', '힘들게', '비슷하다가', '비슷하다인데', '심하게까', '좋은', '좋겠다', '귀여워요', '같다고도', '있지만', '자세히', '비슷하죠거의', '필요함', '확실한', '아니니까', '좋은데', '좋으면', '망한', '길었던', '좋다', '멋있어요', '그러면서', '작은', '괜찮네', '같고', '예쁘게', '곧고', '깨끗하고', '하얗고', '귀엽고', '고마워', '당해서', '이쁜데', '이쁘다', '이쁘네', '많아서', '아쉽지만', '좋아요', '아니니까', '신남', '신나게', '좋은데', '예쁘고', '넘치는', '좋은데', '야한', '저렴한데', '작게나마', '다르구나', '예뻐요', '쏠쏠할듯', '바빠서', '빨간', '있다고', '좋긴', '똑같긴', '강하다', '대단하네요', '있는거지', '신기하다', '대단하시', '좋네', '아닐수도', '싫으면', '죄송하지만', '좋음', '충실한', '안타까워서', '똑같음', '성공했네', '발랄하다고', '좋아하', '신난다', '존이었는데', '예쁘당', '중요합니다', '아닐', '중요한', '좋은', '적당한', '넘칠거야', '좋으면', '당연히', '안좋을', '기대할게', '씁쓸하다', '미개하다', '없지만', '좋아요', '다른데', '귀여워서', '좋아서', '좋네요', '좋아서', '좋고', '신나고', '귀엽고', '대견한데', '행복하다', '신나고', '좋아요', '변하는', '똑같아서', '이뻐서', '괜찮음', '좋다', '아니었으면', '고마워', '있던데', '왠만해', '추워서', '부럽다', '이쁜', '이뻐', '좋다', '신남', '좋은데', '좋겠다', '똑같은데', '좋으니까', '조켓다', '좋네요', '많다', '싫으면', '예쁘게', '새로운', '괜찮은데', '좋아했는데', '좋음', '예뻐요', '예뻐요', '예뻐요', '좋아요', '이쁘고', '성공하셨네', '이쁘시고', '좋아한다던', '같긴한데', '깔끔해서', '같고', '예뻐', '좋은데', '불쌍하다', '좋네요', '놀래', '좋다', '좋아하는', '아파', '아플게', '아프겟니', '좋은데', '역겹네', '예쁘', '좋을듯', '행복해', '비슷하게', '비슷하면', '좋다', '재밌길래', '좋게', '답답하긴', '비슷하다고', '좋고', '예뻐요', '아름다우셔요', '예쁜', '좋은', '아니었으면', '아닐', '행복하', '귀엽고', '좋아하던', '비슷하다고', '예쁘다', '좋고', '좋고', '좋고', '예쁘고', '좋다', '좋은데', '비슷하면', '아닌거', '높다', '이쁘다', '미친', '이쁘다', '좀있으면', '궁금해지네요', '좋다', '똑같아요', '그럴수있다고', '있는것은', '좋기만', '힘들구만', '좋겠어', '궁금해', '좋아서', '예쁘고', '예쁘고', '싫으신', '귀하고', '소중한', '미칠거', '똑같', '어떠냐', '높으면', '똑똑한', '망한', '망하느니', '노래던데', '미였군', '신나네', '좋다', '비슷하다고', '기뻐서', '이쁜데', '좋겠다', '아니나', '다를까', '좋다', '예쁘시고', '비슷하다는', '좋더라', '성공하던', '좋고', '좋던데', '좋다고', '미쳤다', '아까', '신나는', '좋은데', '좋아요', '좋다고', '좋고', '이뻐요', '좋고', '많지', '좋고', '좋음', '신난다', '많지', '좋고', '좋음', '신난다', '예쁨', '귀여워요', '신나는', '신난다', '강해서', '좋음', '좋았어', '좋아서', '그랬', '예쁘고', '좋겠다', '예쁘다', '좋겠당', '예쁘다', '강하고', '좋아서', '그랬', '예쁘고', '좋겠다', '예쁘다', '좋겠당', '예쁘다', '강하고', '좋아서', '그랬', '예쁘고', '좋겠다', '예쁘다', '좋겠당', '예쁘다', '강하고', '예뻐서', '놀랬다', '순하게', '예쁘다', '귀여워', '좋음', '신나고', '이뻐졌다', '귀여워용', '신나고', '이뻐졌다', '귀여워용', '신나고', '이뻐졌다', '귀여워용', '신나고', '이뻐졌다', '귀여워용', '신나고', '이뻐졌다', '귀여워용', '신나고', '이뻐졌다', '귀여워용', '신나고', '이뻐졌다', '귀여워용']</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'행복해졌으면', '있다는건', '좋게', '필요한', '행복해지는', '저급해', '없었다구요', '얇나', '역겨우니까', '미치겠네', '어색하다', '좋던데요', '있자나', '노래다운', '좋았을텐데', '속상할', '아닌지요', '설렌다', '야했다', '역겹네', '이럴줄', '있다는걸', '반가워요', '장난없으', '가득하고', '빠르네', '가능하나', '조아요', '상관없이', '싫음', '열광하는', '좋겠어요', '아련한', '추하다', '어떨까', '좋앗을듯', '쓸모없는', '예뻐요', '즐겁네요', '비슷하게', '즐거워지고', '좋으신', '뻔했던', '불편했던', '없었음', '아니게', '야한다는', '많은던데', '대단하던데', '원하게', '어렵고', '성공했다', '고마워', '기쁜', '유명했을', '없던데', '짧어', '미개한', '좋아서', '한심한', '민망한데', '굳세어라', '높음', '특출나게', '조으네요', '힘들겠지', '힘들것', '많을텐데', '불편하면', '아까워', '아녔다면', '행복하게', '어마어마한것', '즐거운', '그만하고', '미침', '많은거여', '넓은거로', '맛있더라', '경쾌한', '높았을텐데', '빡칠', '무서운지', '절묘한', '있다고', '있군', '불타는', '이런거아니죠', '빠르', '인하자', '좋네요', '차가', '힘드셨을텐데', '불편해하네', '어마어마하네', '행복해하는게', '신선한', '아쉽', '더럽게', '기쁘네요', '우아하게', '성공했을텐데', '든든하고', '청량해', '중요해', '시원한거', '기쁘네', '좋았어도', '이상한거', '분명히', '안타까웠었는데', '없더만', '인했는데', '힘들었을텐데', '좋을거', '힘들고', '불가할', '많데서', '이쁘지', '아니였으면', '노래네요', '바쁜', '미쳤음', '유명해서', '작은', '좋아요', '뻔히', '싫어하지도', '좋네', '부럽나', '아늑한', '아닌거죠', '무심하도록', '괜찮네요', '기뻐요', '위험하다', '미치겠네요', '행복해하는', '딴다', '있다가', '노래인데전에는', '신난다는', '사이좋게', '넘치나이다', '짜증나', '아쉬워', '나쁘', '나쁘네요', '똑같아서', '어렵게', '있는건데', '있었다면', '아니잖아요', '마땅한', '청량한데', '같은데에', '유명하다고', '좋은가요', '없다면', '그러는걸', '장한', '없는게', '더하', '뭉클하냐', '가득하시길', '대단한', '신난당', '대단하네', '세련된', '마땅하고', '시끄럽게', '설렙니다', '신나냐', '검나게', '섹시하고', '안되는거', '어이없어', '필요하니', '좋구나', '있더라', '시원하고', '옳으신', '없당', '야하는데에', '두려웠는데', '똑똑해야', '좋아할거', '속상했었는데', '싫어하는데', '심심해서', '아니노', '강렬해서', '좋을것', '강렬한', '아프다', '좋겠네요', '설쳐', '인해서', '회복할꺼야', '아쉬웠었는데', '뻔했', '행복해', '신나기만', '예쁘시구', '싫어서', '좋겟어용', '당연한', '좋다아', '있네용', '있다는것은', '부족해서', '부족하네요', '고맙다고', '편히', '좋당', '휩쓸었으면', '신나신나', '못지않는', '지겨운', '좋았던', '슬프네요', '벅차오르고', '아니었으면', '높죠', '뭉클하면서', '그러시는지', '청량하게', '벅차네요', '아름답네요', '서러운', '있었답니다', '귀엽잖아', '그러냐고', '좋겠다', '좋다구', '대견함', '아니꼽다는게', '벅차', '청량했어도', '오묘하네요', '안되지', '뻔하잖아', '미치겠어요', '조용히', '따뜻한', '안좋았는데', '없다가', '많다는', '조으다', '칠하면', '그렇게도', '좋다구요', '미치겠다', '어색하지', '많으십니다', '그럴', '없는거지', '벅차다', '같으니까', '성공하셨네', '부럽네요', '필요없을거', '미쳤', '우울한', '뿌듯해져', '뻔함', '알량한', '성공해도', '조진다', '있다는', '원하는건', '청량하고', '있으시다면', '좋겠다싶어', '행복하게하는', '여전해', '좋으네', '놀랬다', '있잖아여', '다행히', '뿌듯했고', '찰짐', '그렇긴', '초라해지잖아', '좋아하지마', '좋더라구요', '같았던', '어둡고', '있겠다는', '다르네', '고픈건', '뿌듯한', '쎄네', '아까워요', '싫네요', '신났는데', '아깝다', '있더라고', '같지도', '힘든거', '스럽네요', '좋지', '착하디', '힘들', '좋아해주는', '강한', '안되던데', '휩쓸게', '있었지만', '희안한', '자랑스럽다', '그러네', '없으니까', '그러니깐', '신나게울려', '높아요', '이래야만', '어마어마한', '필요할', '멀었다', '유명해지는게', '이쁘고', '죄송하네요', '좋어요', '미칠듯이', '우울했는데', '같군', '정당하게', '안된다고', '망하고', '시원시원한', '많았었는데', '지겹지가', '안타까웠는데', '높아', '많은줄', '기뻐하는', '오래된', '허전할', '좋아했어용', '어줍잖은', '있는거다', '좋긴', '진실된', '섹시한', '달랐어도', '중요함', '훌륭함', '상관없나', '이쁘지도', '있지만', '새로운', '좋을', '즐거울줄이야', '있는건', '신나는노', '야합니다', '아니였음', '시려', '조은걸', '좋겠다고', '있으니까', '아플까', '있을걸', '좋으다', '싫은거', '싫든', '칙칙한', '좋겠어', '좋아해서', '같은거', '충분합니다', '있다는거', '헷갈리', '아니에요', '힘든가', '연연하지말고', '완벽한데', '신기하네요', '그만하자', '추해', '처참하던데', '조은데', '빠른', '강하다', '외로운', '아니까', '미쳤어요', '빡쳤었는데', '치열하다', '아니잖습니까', '없다를', '완벽하다', '아련하다', '평범하게', '아니었나', '같지는', '좋아해줄거고', '많은거', '높았는데', '미친', '허전해서', '편안하고', '치열해', '스럽군요', '뒤늦게', '끈질기네', '행복하면', '설레요', '신나고', '앙해서', '그럽니다', '그랬으면', '아닌디', '시원하다', '쎄서', '자연스러운', '있지', '멋있고', '시원하당', '노래였네요', '없었을듯', '힘차게', '드물긴', '궁금하네', '있으니깐', '만족하실거라고', '인하면', '성공해', '청량하구', '넘쳐서', '슬펐는데', '그런거잘', '기특하다', '약했는듯', '뿌듯함', '좋았을듯', '무능한거', '청량함', '있는거고', '간절함의', '역겨워', '추합니다', '있을테고', '피곤할', '좋은지', '많아도', '반갑', '같아서는', '안남았는데', '좋아하는데', '촌스러', '부끄럽겠다', '아슬아슬하네용', '안되나', '이쁘다', '섭섭하', '황홀한', '이상하게', '싫어지려고', '뻔했어요', '정중하게', '행복하기만', '좋다고', '가득했던', '같네요', '억울해요', '더가자', '안되나요', '푸근해', '한심하다', '간절히', '심심하다', '같네', '좋겠당', '행복했으면', '새롭게', '용감한', '야하네', '있어라', '벙벙하겠다', '뿌듯하면서도', '어색할것', '아니였을까', '완벽히', '영원해요', '이럴수가', '신선하구나', '안좋다', '아쉬웠는데', '딱인', '아쉬웠을', '청량해진', '좀있으면', '쎄다', '더워서', '부탁드린다', '노래내는', '아름다운', '뿌듯해지네', '청량하네', '신나', '유명해지다니', '헷갈렸어요', '같아여', '아니겠다', '바빠질', '길은', '냉정하게', '심각하게', '엉뚱한', '좋으시고', '청량한거에', '심하게', '좋내요', '순수하게', '아니겠지만', '찡해진다', '나쁘지', '아니이거', '다르', '그러시지', '이뻐요', '부족하다', '미는', '귀여', '좋았는데', '겸손합시다', '좋은데', '멀다', '그럽니까', '싫다고', '놀라운', '많았음', '미안한데', '실없는', '그러다말겠지', '쉬운', '없었을까', '좋겠다는', '무더운', '좋아하지도', '없었던것이냐', '야해서', '아니라는', '뿌듯하기도', '원한다면', '대단하다고', '신납니다', '아련함이', '강함', '설레이는데', '힘들게', '그러나요', '행복합니다', '지겹게', '사랑스러', '있는것도', '유명해져서', '대단합니다', '즐거워', '뒤늦게나마', '재밌었어요', '아쉽기까지', '있을것', '있었구', '안타까운', '청량한것', '대단하구', '좋앗다고', '속상했는데', '아니꼽다고', '미쳤지', '인했으면', '미쳤나', '없죠', '칙칙하게', '기대하겠', '가득한', '좋아할까', '안되는거에요', '시원시원하게', '역겨우면', '미치게', '없지만', '아프지말고', '많은지', '그렇게나', '기대할께요', '힘들어도', '없으니', '기쁘다', '있다는거에', '대단하다는', '쉬운게', '덥거나', '있었나', '좋겟다', '왠만해', '앙칼져서', '이상하진', '필요하지만', '추함', '좋겠어서', '즐겁게', '가득해요', '좋겠는', '그러는데', '멍청한', '없습니다', '휩쓸겠네요', '씬나', '좋으시', '미안해요', '가능하지', '구린데', '나쁘지만', '원합니다', '성해주세요', '안남았어', '단단하네', '힘들다고', '무서워', '아쉽지', '오죽할까', '다를', '인했는데요', '딱히', '시원하게', '성공했다는', '심했고', '설렘', '세련됬고', '변했어도', '훌륭한', '입니다만', '대견해서', '귀엽고', '빨간', '그랬어요', '정확히는', '높은데', '우울할', '망한', '기쁘냐', '멋있을듯', '아파', '아닙니까', '좋냐', '심하네', '쌈박하다', '평범한', '다양한', '예뻐', '야해', '힘나는', '소중할텐데', '좋겠습니다', '행복하세요', '많지만', '아쉬운', '좋았던거', '대단하시다', '변했어랑', '좋고', '좋을텐데', '몰상식한', '아깝네요', '좋아하시겠어', '스럽습니다', '치열한', '예뻐졌다', '있었다', '좋다만', '있는것', '달라거', '대단하네요', '이상하고', '그랬지', '많지', '기뻐', '중요해요', '원하는', '건강하고', '신기하다', '스럽겠다', '아닐텐데', '진정한', '더해요', '성실하게', '있다니', '있으실까', '궁금함', '이뻐다', '기대해용', '좋으니깐', '행복하고', '푸근하다', '예쁨', '기뻐용', '좋아야', '딱이군', '좋구', '섹시해서', '그만해라', '어마어마하지만', '너그러이', '부탁드리겠습니다', '간절하다', '좋으니', '멋져', '팍팍해서', '시원섭섭하면서도', '아니어서', '좋아해요', '좋은걸', '야할듯', '의해서도', '많을거라고', '청량해요', '행복함', '이상하네', '많으셨어요', '있든', '슬플것', '있었다니', '좋아하는', '많았을거고', '행복하자', '이상하다는', '좋이네요', '달랐음', '있오용', '신났어', '궁금하다고', '아녔어', '많은기', '안타깝다라는', '민망할', '수상하면서', '없나요', '휩쓸고', '시급한', '성공하세', '아까운', '많았을듯', '이상한', '노래였네', '중요하구나', '대단해', '이빠이', '예쁘게', '장하다', '안타까워', '좋을까', '입니꺼', '뻔했습니다', '좋아해주는게', '무의미하고', '그런건', '어려워', '엄청나네', '시원시원하고', '길고', '안타깝고', '노래라면', '청량하면', '반해서', '아녀', '좋아하니까', '필요합니다', '원하십니까', '좋은', '우수한', '있습니까', '대등하게', '있어주세요', '안되게', '재밌게', '의기소침한', '어려운', '이쁠거', '확실하네요', '노래였구나', '있구만', '넘쳐나는데', '싫다', '분한거냐', '어여쁘', '파랗고', '이뻐', '있을지', '좋다', '느리다', '힘들어', '신나는데', '아련하지', '깊게', '좋음', '너무하네요', '아니길', '무시무시하구나', '있었을', '익숙한', '아쉬워하셨었다는', '안좋거든요', '행복하다', '꾸준할듯', '빠르게', '빵터졌네', '안남았어요', '가능하다', '그러는건', '아니었음', '쎄고', '이쁘구', '망한거', '친하게', '안되네', '그래요', '신나용', '좋구만', '싱그럽다고', '없네요', '안좋은데', '곧있으면', '한심해', '신나서', '미치겠어', '유명한지', '당해서', '있는지도', '미다', '영원한', '많으셨습니다', '씬나고', '신남', '속상한', '좋아함', '정정당당하게', '없으시길', '안된다거나', '자랑스럽고', '많던데', '같은것도', '초라해지', '짜증났는데', '아니구만', '힘들었던', '좋아해', '신나네', '뜨거워지나요', '조아여', '고마워요', '귀여워', '신나한', '불가하지만', '괜찮던데', '고마웠어요', '가득해라', '완벽해', '대단한건데', '그렇기에', '조졌습니다', '저조하긴', '후련해요', '심각합니다', '행복할', '같군요', '만만하니', '가능해요', '미쳤네', '힘든', '평화롭게', '열악하겠음', '속상하지만', '깊은', '기대해', '귀여우셔서', '좋다질', '뿌듯해지', '깔끔하고', '재밌네', '힘든데', '간절했는데', '있네요', '같고요', '엄청나다', '무서운거구나', '덥네', '낮이건', '망할', '신속히', '많던게', '있었냐', '유명했던', '있는듯', '뻔해', '괜찮아요', '기대하게되', '원하지', '싫테', '반갑네요', '상쾌하네', '유명해', '좋지만', '특수한', '너무한거', '충분한', '이렇게라도', '미치겟다', '청량해지고', '좀마', '뿐일까', '연연하지', '좋아하던', '귀여운데', '희고', '많았던데', '미쳤어', '재밌겠다', '빨라진거', '힘들었을', '청량한거', '진하게', '심했을텐데도', '말라구', '확실하게', '필요하다', '망했음', '많아서', '예쁘세요', '좋아했는데', '대단하고', '시원해지는', '그럴거라고', '있네아니', '바쁠수록', '고맙습니다', '신기하게', '아니란', '심쿵해', '두렵다고', '안될', '있었다고', '싫어요', '좋니를', '뿌듯하고', '건강하게', '허전해', '안타깝다', '좋아용', '아쉽네요', '시원해서', '멋져요', '청량하다', '비슷한', '착해서', '칠하지', '그러는거지', '미질', '좋길래', '위험한', '많이하고', '유명해질', '비슷한데', '예쁘다', '완벽하군', '어떠냐', '많아요', '대단하다이', '같더라', '아쉬워요', '아니니까', '궁금해서요', '가능할까', '없어사', '유치하다', '당연히', '신난다', '야해요', '진지하게', '행복해요', '신기한', '궁금했는데', '뻔한', '멋지고', '힘나겠다', '청량함이', '무섭게', '미안하고', '정직하게', '대단한듯', '높네', '있냐고', '다르게', '있거든요', '당할줄이야', '부족했었음', '같으면서도', '망했던', '예쁘신', '인했네', '청량하게나', '행복했어요', '미치네요', '성공한', '미쳤다', '좋아여', '성공할', '묵묵히', '미친듯이', '있었던거고', '훌륭합니다', '따뜻해지면', '좋습니다', '있는거야', '같고', '더러운', '뿌듯하다', '그만하라는', '시급하다', '많어', '귀찮고', '아팠을까', '기쁩니다', '없구요', '신나면서도', '좋아라', '굳건', '시끄럽던데', '이쁘네요', '이상하다', '즐겁습니다', '다른길', '있는지', '동떨어지고', '암담할수록', '어렵데', '당하는거', '유명해지니까', '야함', '안되겠다', '재미있긴', '이뿌고', '속상해지네요', '촌스러워', '신기했는데', '힘들려나', '발랄하고', '멋있냐', '미쳐', '가능하며', '많았어', '행복하시구요', '좋아했던', '좋아하다니', '대단함', '유일하게', '아플듯', '아니냐', '귀엽', '성공했네', '중요한', '그랬던', '단순히', '높은', '뿌듯하네', '위대함', '있을께요', '입되', '아팠나요', '위험한데', '조아서', '부럽다', '많네요', '있겠구나', '귀여운', '반했는데', '좋았을', '들떠서', '야한', '정확한', '있으', '사납게', '설레이는데로', '성공했네요', '미쳤다구요', '변했어', '중요한게', '더울', '딱이다', '아팠어요', '넘치는데', '멋있다', '많았을', '시원함', '좋겠네', '있겠어요', '있울거여', '노래진', '저리꺼져라', '예쁜', '있다는게', '당했던', '파랐을텐데', '좋겠음', '없다는', '후련하실까', '편안한', '유일한', '안됨', '뿌듯하겠다', '가능합니다', '그러는', '괜찮으시다면', '청량해서', '많으니까', '이렇게만', '고마운', '적절히', '신기하네', '애절한', '야하게', '달라하는거구요', '아프고', '중요하군', '그만할', '좋았었음', '짜증나도', '없었나', '가능한거다', '있도록', '좋죠', '아니네요', '탁월한', '좋겟단', '아쉽네', '이쁘세요', '있었기', '좋으니까', '스러', '미치겠음', '그만하세요', '다름이', '역겨운게', '높던가', '같은가', '충분히', '필요함', '자유로운', '같을', '반가워', '스러워요', '신중하게', '왠만한', '다르지', '같운', '좋아하고', '자랑스럽네요', '귀엽다', '좋아한', '어렵다는', '좋든', '적당히', '이상한게', '좋겠는데', '슬프게', '멀다하고', '신나면서', '신나네요', '안타까워여', '옳았다', '미칩니다', '나쁜', '아쉽지만', '뭉클해져서', '성공해서', '싫은데', '재밌어질', '좋다아아', '꾸준히', '신기할', '시원하니', '좋으시겠어요', '딱인듯', '행복하네', '지겹다', '이쁜', '변하는', '초라해', '훈훈한', '신기하고', '같은가수', '귀엽게나', '있을까', '야하니', '많으니', '좋을수가있나', '가능함', '즐거울', '착한', '죄송하지만', '좋아하시면', '미지근한', '좋구요', '뒤늦게라도', '싫으면', '답답한', '계신거', '많을줄', '세련되고', '좋아하는지', '좋아하시는', '같던데', '있겠네', '청량한', '많겠지', '좋아하지만', '부족해', '좋던데', '기쁠', '가볍게', '넘쳐', '안됨에도', '소중하게', '신나있음', '궁금해서', '그렇지못한', '대단한거', '뛰어남에도', '슬퍼', '점잖은', '없었다', '뭉클하더라고', '신선하고', '좋겠어용', '좋으면', '착하고', '시원한', '예쁘고', '궁금하지도', '같습니다', '가능할거', '없는것', '야했는데', '유명해지길', '행복해하면', '바빠서', '없이도', '조으니깐', '굉장히', '단단히', '깊어서', '속상해하실', '죄송합니다', '있을게', '계시겠지만', '궁금해', '신나게', '뿐이네요', '미친다', '원했던', '힘들다는', '멍청해서', '좋더라', '좋다는', '아까', '아니라고', '멋지다', '발랄하게', '이상했지만', '힘나요', '있죠', '속상해하지', '가능하신', '많습니다', '헷갈리는', '머냐', '아펐나요', '대단하다', '좋아합니다', '완전히', '있었다구', '작든', '고맙고', '싫증나서', '이런게', '검있었음', '좋았겠는데', '있을까요', '괜찮아', '신나는', '아닌듯', '어떻고', '있을거', '대단하단', '힘들겠다', '성공하면', '당했', '뿌듯하네요', '없게', '당연한거에요', '대단하', '실망했다', '대견해서라도', '이쁘시고', '아쉬울', '놀랬네', '발광하는', '촌스럽지가', '급격하게', '있었을까', '안된다고하네요', '바쁘면', '있었는', '예쁘면서', '미쳤당', '행복하구만', '야한다고', '좀하자', '이쁨', '있기', '드러하는거', '높고', '짜릿해', '그러고', '행복한', '좋았음', '비슷하고', '있었거든요', '가능한데', '삭막한', '그만해야', '기쁘고', '귀하고', '없나보다', '알차서', '씁쓸하네', '아쉽다', '커다란', '높은건데', '많았던것', '균등하군', '있어여', '힘드네', '기대할게', '신성한', '좋아해주시면', '아닌지', '없잖아요'}</t>
+          <t>['좋아라', '좋아할거', '싫어요', '좋음', '좋아라', '좋아할거', '싫어요', '좋음', '좋아라', '좋아할거', '싫어요', '좋음', '높네', '있다는', '벅차', '좋음', '있다는', '벅차', '좋음', '있다는', '벅차', '좋음', '좋네', '무서워', '좋네', '무서워', '가능한데', '좋네', '많은거', '가능하며', '필요하니', '좋은', '가득하시길', '신나고', '시원하고', '좋다', '시원하다', '미쳤네', '기뻐요', '미안한데', '궁금해', '멀다하고', '설레이는데', '부족하네요', '좋긴', '행복하자', '좋지만', '익숙한', '좋다', '신나게', '좋아서', '좋으니까', '아까', '있도록', '안되지', '싫어요', '조진다', '있도록', '안되지', '싫어요', '조진다', '아니노', '촌스러', '어마어마한', '심하네', '아니노', '촌스러', '어마어마한', '심하네', '아니노', '촌스러', '어마어마한', '심하네', '아니노', '촌스러', '어마어마한', '심하네', '아니노', '촌스러', '어마어마한', '심하네', '아니노', '촌스러', '어마어마한', '심하네', '아니노', '촌스러', '어마어마한', '심하네', '아니노', '촌스러', '어마어마한', '심하네', '아니노', '촌스러', '어마어마한', '심하네', '많은거', '많은줄', '딱이다', '뿐이네요', '힘들게', '좋아하시는', '아녔어', '좋다', '많은거', '많은줄', '딱이다', '뿐이네요', '힘들게', '좋아하시는', '아녔어', '좋다', '많은거', '많은줄', '딱이다', '뿐이네요', '힘들게', '좋아하시는', '아녔어', '좋다', '많은거', '많은줄', '딱이다', '뿐이네요', '힘들게', '좋아하시는', '아녔어', '좋다', '묵묵히', '작은', '미칠듯이', '좋아하고', '진정한', '꾸준히', '성공했다', '부럽나', '즐겁게', '좋겠음', '착하디', '착한', '좋아요', '묵묵히', '작은', '미칠듯이', '좋아하고', '진정한', '꾸준히', '성공했다', '부럽나', '즐겁게', '좋겠음', '착하디', '착한', '좋아요', '묵묵히', '작은', '미칠듯이', '좋아하고', '진정한', '꾸준히', '성공했다', '부럽나', '즐겁게', '좋겠음', '착하디', '착한', '좋아요', '미쳤음', '좋은데', '편안한', '즐거운', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋으니까', '좋아용', '들떠서', '몰상식한', '좋아하는', '아쉽지만', '성공했다는', '좋을거', '좋아하는', '좋아요', '추하다', '추하다', '좋겠음', '아니냐', '뻔하잖아', '실망했다', '피곤할', '좋구나', '좋고', '좋아하는', '좋아요', '추하다', '추하다', '좋겠음', '아니냐', '뻔하잖아', '실망했다', '피곤할', '좋구나', '좋고', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '꾸준히', '신남', '안타까워서', '좋은', '심쿵해', '죄송합니다', '즐거워', '대단하네요', '죄송합니다', '즐거워', '대단하네요', '죄송합니다', '즐거워', '대단하네요', '죄송합니다', '즐거워', '대단하네요', '신성한', '실없는', '재밌네', '넘쳐나는데', '있다는게', '더해요', '짜증나도', '예쁘다', '좋겠다', '적당히', '엉뚱한', '높은', '빠른', '적절히', '아니까', '같지도', '좀마', '많아서', '계신거', '위험하다', '대단한듯', '영원한', '같네', '든든하고', '좋네', '좋다', '귀엽고', '사랑스러', '맛있더라', '힘차게', '강한', '좋음', '우울할', '기쁠', '헷갈렸어요', '좋겠어서', '설렙니다', '당해서', '아팠나요', '아팠어요', '좋다', '당해서', '아팠나요', '아팠어요', '좋다', '구린데', '불가하지만', '열악하겠음', '가능하신', '즐겁게', '필요할', '좋아요', '낮이건', '없죠', '낮이건', '없죠', '좋아요', '좋다', '좋다', '좋아요', '좋다', '좋다', '좋아요', '좋다', '좋다', '좋다', '많을텐데', '다를', '좋다', '많을텐데', '다를', '좋다', '많을텐데', '다를', '신나네요', '신남', '좋음', '무섭게', '암담할수록', '아펐나요', '바쁘면', '바쁠수록', '추합니다', '시원해서', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '즐거운', '기쁩니다', '기쁜', '두려웠는데', '충분히', '좋겠다', '의해서도', '좋은', '고마운', '조아요', '조아요', '조아요', '조아요', '조아요', '조아요', '신나고', '좋다', '멋져요', '멀다', '행복함', '신난다는', '괜찮으시다면', '있으실까', '불편하면', '씬나', '씬나', '어렵고', '많지만', '좋아하고', '진정한', '진정한', '좋아요', '신나고', '좋다', '멋져요', '멀다', '행복함', '신난다는', '괜찮으시다면', '있으실까', '불편하면', '씬나', '씬나', '어렵고', '많지만', '좋아하고', '진정한', '진정한', '좋아요', '고맙습니다', '좋아요', '진정한', '아니냐', '노래다운', '어려운', '좋은', '야하니', '바쁜', '좋은', '다르', '강한', '그랬지', '좋겠어요', '그럽니다', '안좋은데', '좋았던', '싫어지려고', '싫어요', '좋으시', '좋다', '깊게', '힘들어', '진정한', '싫증나서', '좋음', '신나있음', '좋은', '좋아서', '좋으네', '있는거고', '있는건데', '대단하다', '자랑스럽고', '대견해서', '대단해', '미쳤다', '그럴', '휩쓸겠네요', '좋아요', '아까운', '신난당', '아슬아슬하네용', '신나는', '벅차네요', '좋음', '행복하세요', '안되던데', '좋더라', '유명하다고', '안되던데', '좋더라', '유명하다고', '어이없어', '좋던데', '좋으다', '가득해요', '좋아서', '좋당', '좋은데', '이상한', '심했고', '많이하고', '청량한', '변하는', '있다는', '있다는게', '다행히', '좋아요', '신나는', '애절한', '좋네', '좋고', '좋으면', '좋은데', '필요하지만', '그렇기에', '달라하는거구요', '좋네', '좋고', '좋으면', '좋은데', '필요하지만', '그렇기에', '달라하는거구요', '좋네', '좋고', '좋으면', '좋은데', '필요하지만', '그렇기에', '달라하는거구요', '빨라진거', '청량하게나', '좋구요', '좋아서', '새로운', '좋겠어요', '좋고', '좋은데', '빨라진거', '청량하게나', '좋구요', '좋아서', '새로운', '좋겠어요', '좋고', '좋은데', '빨라진거', '청량하게나', '좋구요', '좋아서', '새로운', '좋겠어요', '좋고', '좋은데', '좋게', '좋겠다', '좋음', '야해요', '멀다하고', '깊게', '착하고', '야해서', '대등하게', '멋져', '미쳤지', '미쳤어', '있을까', '성공할', '있는거다', '멋있냐', '굳건', '미안하고', '있도록', '고마워', '많았어', '예쁜', '굳건', '미안하고', '있도록', '고마워', '많았어', '예쁜', '굳건', '미안하고', '있도록', '고마워', '많았어', '예쁜', '굳건', '미안하고', '있도록', '고마워', '많았어', '예쁜', '굳건', '미안하고', '있도록', '고마워', '많았어', '예쁜', '굳건', '미안하고', '있도록', '고마워', '많았어', '예쁜', '굳건', '미안하고', '있도록', '고마워', '많았어', '예쁜', '굳건', '미안하고', '있도록', '고마워', '많았어', '예쁜', '좋다', '좋은데', '좋아요', '없죠', '좋아요', '어마어마한', '좋고', '아쉽지', '좋아요', '꾸준히', '이뻐', '신나네', '넘치나이다', '설레이는데', '이뻐', '신나네', '넘치나이다', '설레이는데', '좋은', '좋은', '없으니까', '허전해', '성공했네', '좋아요', '안됨에도', '멋지다', '좋은걸', '좋아요', '좋아요', '좋아요', '미쳤다', '아니냐', '드물긴', '좋아해주시면', '멀다', '설레이는데', '멀다', '영원한', '뜨거워지나요', '아닌줄', '청량함', '좋아요', '좋아서', '있는노', '좋아요', '계신다면', '싫어요', '좋은데', '그러세요', '역겹다', '고맙고', '대단하단', '좋아용', '좋고', '있으니까', '그러나요', '깊어서', '없는것', '대단하시다', '비슷하고', '어마어마한것', '좋아하는', '좋아하고', '좋아하는', '좋아합니다', '좋은', '좋은데', '좋고', '좋으니까', '좋아하는데', '싫네요', '멋있고', '속상해하지', '좋아서', '중요해요', '순수하게', '좋아하는', '행복함', '좋아하는', '아플듯', '좋아하는', '좋네', '초라해', '좋아하는', '좋아했어요', '노래네요', '좋다는', '좋다', '좋은', '이뻐다', '노래라면', '어렵다는', '빡칠', '좋아요', '행복해지는', '행복했으면', '좋겠다', '아닐텐데', '싫다', '가능합니다', '좋아서', '좋아요', '있다고', '이런거아니죠', '좋아요', '작은', '좋겠다', '기쁘고', '신나게', '좋던데', '좋고', '우수한', '좋다고', '행복하고', '성공하세', '이런거아니죠', '좋아요', '작은', '좋겠다', '기쁘고', '신나게', '좋던데', '좋고', '우수한', '좋다고', '행복하고', '성공하세', '죄송하지만', '가득해라', '미쳤다', '미안해요', '저조하긴', '충분히', '뒤늦게', '같습니다', '냉정하게', '꾸준히', '좋아서', '미쳤네', '꾸준히', '좋네요', '좋네요', '꾸준히', '좋게', '같네용', '좋다', '흐뭇한', '좋지만', '좋고', '좋다', '신나고', '신나서', '커다란', '꾸준히', '고마워요', '신나고', '좋네요', '세련된', '멀다하고', '설레이는데', '좋아요', '다름이아니라', '좋겠네요', '더있구요', '그럽니다', '좋지만', '좋고', '멀다하고', '설레이는데로', '설레이는데로', '다름이아니라', '좋겠네요', '더있구요', '그럽니다', '좋지만', '좋고', '멀다하고', '설레이는데로', '설레이는데로', '심하네요', '뻔했습니다', '행복하게', '심각하네요', '좋은', '노래군요', '좋아할', '좋아했었는데', '좋다', '심하네요', '뻔했습니다', '행복하게', '심각하네요', '좋은', '노래군요', '좋아할', '좋아했었는데', '좋다', '좋아서', '미쳐', '좋다', '좋지만', '좋고', '좋지만', '좋고', '신나고', '시원하고', '좋다', '좋지만', '좋고', '대단합니다', '좋겠어요', '상쾌하고', '시원하면서', '좋은', '아쉽게', '청량하고', '좋아요', '있군', '변했어도', '좋아요', '변했어', '변했어', '좋지만', '좋고', '대단한거', '같지는', '좋지만', '좋고', '무서운거구나', '용감한', '좋은', '좋아했는데', '좋아요', '멋있을듯', '푸근하다', '푸근해', '인하자', '신나는', '즐겁게', '좋지만', '좋고', '심심해서', '신나', '좋아하는데', '고맙고', '고마워', '고마워', '좋지만', '좋고', '많았네', '좋아할만', '좋아했음', '왠만한', '있고만', '꾸준히', '좋지만', '좋고', '신났는데', '가득하고', '단순히', '조으네요', '좋지만', '좋고', '설레이는데로', '좋은', '높은', '특수한', '높은', '재미있긴', '좋은', '높은', '특수한', '높은', '재미있긴', '미치겠다', '신기하다', '좋네', '좋아요', '좋아요', '유명해서', '같고', '같네', '좋음', '좋아요', '좋겠다', '좋아요', '좋아요', '많을줄', '궁금함', '좋네', '좋겠다싶어', '좋아요', '좋아해요', '좋은', '좋아요', '좋다', '좋구', '좋다', '좋아요', '좋아요', '좋지만', '좋고', '좋아요', '뭉클하더라고', '좋다', '좋다', '좋습니다', '신기하다', '좋겠다', '좋겠어요', '기쁘네요', '좋겠네요', '뿌듯하네요', '그랬던', '좋고', '좋고', '이쁘지', '좋지만', '좋고', '힘나는', '꾸준히', '벅차다', '좋지만', '좋고', '좋겠어요', '미쳐', '아까운', '신기하다', '고마워요', '좋은', '뻔했습니다', '기특하다', '신나고', '좋다', '좋네요', '흐뭇하고', '이쁨', '수많은', '있다고는', '없었다', '좋은데', '안타까웠다', '있었는지', '불확실한', '아낌없는', '좋다', '좋다고', '있자나', '좋지만', '좋고', '좋은', '좋네요', '기뻐요', '싫어요', '좋다고', '궁금함', '궁금해', '역겨우니까', '알차서', '좋당', '좋지만', '좋고', '좋네요', '좋아여', '나쁘네요', '좋네요', '강렬해서', '많았던데', '시원한', '좋겠어요', '좋음', '나쁘네요', '좋네요', '강렬해서', '많았던데', '시원한', '좋겠어요', '좋음', '궁금하다', '새로운게', '좋지만', '좋고', '좋네요', '미안해요', '좋아요', '이뻐', '궁금하다', '새로운게', '좋지만', '좋고', '좋네요', '미안해요', '좋아요', '이뻐', '좋긴', '좋다', '야할듯', '좋네요', '미쳤다', '진정한', '좋지만', '좋고', '좋지만', '좋고', '좋아요', '좋다', '좋아요', '좋다', '많지만', '괜찮아요', '좋아요', '있겠어요', '신나는', '괜찮아요', '좋아요', '있겠어요', '신나는', '나쁘', '나쁘', '나쁘', '확실하게', '아까', '같더라구요', '용감한', '좋겠어요', '좋다고', '좋은지', '이쁨', '이럴줄', '좋다', '아팠을까', '멋지고', '아름답네요', '신나게', '슬프게', '귀여워', '신기하네요', '어색하지', '좋아서', '좋지만', '좋고', '좋아해', '좋지만', '좋네', '신나게', '슬프게', '귀여워', '신기하네요', '어색하지', '좋아서', '좋지만', '좋고', '좋아해', '좋지만', '좋네', '좋아서', '좋음', '좋아야', '좋아요', '대단한게', '아닌거', '필요하네요', '좋다', '좋네요', '노래였나', '좋아서', '좋아했는데', '고마워', '뻔했어요', '좋지만', '좋고', '야해', '좋어요', '있습니까', '야합니다', '좋다', '좋을수가있나', '없었다', '좋지만', '좋고', '같고', '좋지만', '좋고', '좋아요', '청량하게', '좋다', '미치겠어요', '어떡하져', '미치겠네', '있다던데', '청량함이', '같더라', '좋지만', '좋고', '좋다', '귀엽잖아', '청량함이', '같더라', '좋지만', '좋고', '좋다', '귀엽잖아', '아름다운', '좋다', '좋아하는', '좋다', '쓸모없는', '쓸모없는', '귀여워', '없지만', '예쁘지만', '좋네', '좋아요', '좋지만', '좋고', '좋지만', '좋고', '용감한', '신나고', '그러냐고', '좋아용', '뿌듯함', '좋아요', '가볍게', '시원하고', '좋은데', '좋다', '좋아요', '좋아하시면', '좋아하실거에요', '슬퍼요', '멋있다', '그러긴', '좋고', '있었던것', '간절한', '간절함이', '용감한', '소용없지', '좋지만', '좋고', '그러긴', '좋고', '있었던것', '간절한', '간절함이', '용감한', '소용없지', '좋지만', '좋고', '좋아요', '좋아요', '좋지만', '좋고', '좋다구요', '귀여워', '미치겠어', '좋아하는', '바쁜데', '조아용', '특별한', '좋아요', '좋나', '좋아여', '좋겠어요', '좋고', '좋고', '좋아하면서', '좋은', '좋겠', '카랑카랑한', '좋다', '쓸모없는', '쓸모없는', '기뻐요', '같고', '좋아요', '좋네', '좋아하지마', '말라구', '무서운지', '쓸모없는', '쓸모없는', '수상하면서', '신남', '마땅한', '미치겠음', '없는게', '그러는데', '새로운', '좋아요', '이뻐요', '좋아요', '좋다', '좋은', '기대할게요', '지겨워질', '따뜻해지고', '기대해도', '값진', '좋아요', '이쁘세요', '행복한', '알량한', '새로운', '좋은', '좋은', '기쁘고', '많았어요', '건강하게', '행복한', '강해서', '충분히', '미쳤다', '좋아했는데', '유명해지다니', '길고', '같아도', '묵묵히', '이쁘지', '어렵지', '좋다', '있자나', '좋다', '좋아요', '좋겠다', '좋음', '좋겠어요', '좋아하는데', '심한', '가능하겠죠', '많네요', '어떨까', '신기하다', '치열하다', '좋아요', '미묘하게', '조아여', '가능하다', '소중하니까', '어떨까', '좋지', '미안해요', '좋고', '좋은', '조아여', '가능하다', '소중하니까', '어떨까', '좋지', '미안해요', '좋고', '좋은', '좋아하면', '미쳤다', '좋아했는데', '고마워요', '영원해요', '가득했던', '야한다는', '두렵다고', '괜찮아', '야한다는', '미치겟다', '실망했다', '있었기', '오래된', '좋다', '있었기', '오래된', '좋다', '힘든게', '당연한거지', '아니었으면', '우울할', '좋은', '좋다', '아니게', '좋아했는데', '좋은', '미쳤나', '실패해서', '시원하고', '변했어도', '미쳐', '좋아했었는데', '필요합니다', '유명해져서', '기쁘다', '깊은', '아프고', '아련하다', '좋은', '좋네요', '꾸준히', '좋아요', '신나기만', '아련하다', '대단함', '힘들었을텐데', '신나는', '필요해', '좋아했었는데', '없지만', '좋아요', '계시려나', '좋다', '행복할', '좋겠다', '좋겠다는', '행복하고', '좋아했는데', '좋다', '좋으니까', '청량한', '간절히', '신나', '신나', '좋은', '성공하긴', '가볍고', '신나는', '힘든데', '좋겠어요', '뿌듯해', '좋음', '청량하게', '실망하지', '꾸준히', '가능할거', '좋은', '좋아하시는', '신난다', '좋다', '이쁘고', '신나는데', '원하는', '힘들었던거', '부러워서', '청량해', '좋음', '좋은', '좋다', '좋아요', '못지않는', '필요합니다', '있도록', '뿌듯하고', '행복하고', '좋겠다', '좋다', '뒤늦게', '좋다', '좋은데', '아까웠는데', '신나고', '청량한', '아련하고', '벅차는', '안되잖아요', '좋겠어요', '안남았습니다', '좋아서', '미쳤어요', '좋다', '기대하게되', '기뻐용', '좋아하다니', '좋은데', '고마워', '고마워', '괜찮은', '청량한', '비슷한듯', '좋당', '좋긴', '같아여', '귀찮고', '어떨까', '아쉬웠었는데', '뿌듯하기도', '좋아하는', '답답한', '시원시원하고', '청량한', '힘들것', '기대해', '좋아함', '좋겠다', '좋아요', '허전해서', '빨간', '청량하게', '좋아여', '궁금해서', '같군', '좋음', '아니었나', '쎄다', '반가워요', '좋아요', '좋다', '좋음', '이뻐', '좋은데', '좋은데', '좋음', '유명해지는게', '좋겠다', '좋겠다', '그러는데', '좋아요', '엄청나다', '미친', '좋냐', '아슬아슬하게', '좋은', '행복하겠다', '예쁘다', '좋겠다', '좋은', '좋아서', '예쁘네', '미치는', '그러다말겠지', '멀다하고', '좋네', '희안한', '청량한', '아니이거', '좋네', '좋네요', '좋아요', '칙칙하게', '이쁘네요', '좋네', '힘들다고', '예쁘세요', '반갑네요', '아쉽다', '그랬으면', '친하게', '기대할게요', '예뻐서', '좋다', '좋아요', '좋아요', '신남', '좋은', '좋겠다', '미쳐', '좋아요', '많으셨어요', '많으', '스럽냐', '무식한', '좋다', '중요한', '좋겠다', '멋있는', '좋은', '좋아요', '좁고', '깊게하는', '행복했으면', '좋겠어요', '미안하고', '탄탄한', '없는걸', '소중해요', '우울해지면', '좋아서', '좋네요', '좋아서', '아니였', '좋다', '좋다', '좋다', '미쳐', '좋았음', '많던게', '많다는', '좋은', '좋은', '같네용', '좋아요', '좋네', '좋다', '청량한', '좋아요', '안남았는데', '꾸준할듯', '그랬지', '좋아요', '기쁘다', '좋네', '소중할텐데', '계시겠지만', '속상해하실', '많아요', '좋다', '야한', '속상했는데', '무심하도록', '좋네요', '어렵데', '좋겠다', '지겹다', '가능함', '좋아요', '신기하고', '뿌듯함', '좋겠음', '좋아요', '좋네', '좋겠음', '좋게', '좋아요', '신나는데', '비슷한데', '성공한', '기쁘고', '새로운', '행복한', '뿌듯하네', '청량하다', '좋네', '힘든데', '많았어요', '안좋았는데', '가능할', '기쁘다', '신나', '힘든데', '많았어요', '안좋았는데', '가능할', '기쁘다', '신나', '좋다', '좋으면', '아닙니까', '아니였음', '슬펐는데', '반가워', '좋아요', '예쁘다', '예뻐', '즐거웠어요', '좋아요', '고마워요', '좋겠어요', '대단하던데', '미쳤네', '좋은', '좋겠어요', '억울해요', '좋음', '좋다', '좋습니다', '좋음', '미쳤다', '들뜨게', '좋다', '좋음', '짜릿해', '신나고', '행복해', '좋다', '착하고', '성실하게', '대단하다', '좋은', '많지만', '중요하군', '청량하고', '시원하게', '좋다', '완벽했다', '귀여운데', '기쁘다', '좋겠습니다', '정직하게', '그럽니까', '좋네', '좋고', '좋다구', '칠하지', '따뜻한', '좋을', '높으니', '좋음', '빨간', '좋은', '촌스러워', '대단한건데', '좋은', '좋아요', '고마워요', '좋아요', '변하지', '소중합니다', '좋지만', '좋음', '수많', '대단한', '예쁘면서', '좋으면', '아니냐', '좋아하는지', '좋겠다', '같았던', '진정한', '예쁘다', '좋아서', '좋은', '아쉽다', '좋다', '좋겠어요', '예쁜', '그럴거에요', '미쳤다', '진정한', '스러워요', '미쳤다', '미쳤다', '진정한', '곧있으면', '많네요', '좋아여', '좋음', '좋게', '멋지다', '무섭다고', '야하는거', '아니냐', '행복하지', '기쁘다', '착해서', '짜릿해', '좋아요', '좋음', '좋니를', '많지', '좋은', '기쁘다', '행복하기만', '미쳤다', '완벽하다', '좋네', '싫테', '귀엽다', '어떠세요', '좋으니', '좋고', '좋은데', '완벽해', '대단하다', '힘든거', '뭉클하면서', '미쳤다', '이렇게나', '있었나', '좋아서', '설레이는데', '좋습니다', '자랑스럽다', '좋아요', '추하다', '성공했으면', '좋겠어요', '미친', '미쳤다', '고마워', '예쁜', '뭉클하더라', '좋은', '휩쓸고', '좋겠습니다', '좋아요', '좋네요', '미안할', '고맙고', '기쁘다', '좋겠다', '대단한데', '뿌듯해하실듯', '좋다', '힘들다는', '아쉬웠는데', '힘들어', '대견해서라도', '좋아하고', '좋지만', '대단하다', '뿌듯하구만', '좋겠지만', '아니였으면', '신나서', '좋아요', '미쳤다', '미쳤다', '당해서', '좋길래', '좋다', '뭉클해지네요', '좋은', '있구', '좋으니', '망하고', '안되서', '힘들다던데', '미치겠다', '시려', '이런게', '좋고', '신나용', '시원하고', '좋음', '좋음', '아름답게', '넘치도록', '시원할', '있겠군', '노래내줘요', '좋게', '신나는', '자랑스럽다', '대단해', '미쳤다', '미치게', '청량하고', '행복하지게', '아름다우시고', '없다를', '당합니다', '행복하다', '행복하다', '있길래', '좋네요', '미안할', '신납니다', '좋아서', '노래네요', '좋아요', '행복해요', '좋네요', '좋습니다', '좋네요', '안좋은데', '슬펐는데', '휩쓸고', '미쳤어요', '성장하고', '휩쓸고', '좋겠다', '없인', '있거든', '있다고', '열광하는거겠지', '좋은', '있을텐데', '안타깝다', '좋아했는데', '좋아하는', '좋지', '좋음', '좋은데', '좋은', '청량함이', '행복해요', '좋지', '좋음', '좋은데', '좋은', '청량함이', '행복해요', '없던데', '미치겠네', '낮이라면', '가능해요', '행복하게', '상쾌한', '없던데', '미치겠네', '낮이라면', '가능해요', '행복하게', '상쾌한', '없던데', '미치겠네', '낮이라면', '가능해요', '행복하게', '상쾌한', '미쳤어', '만만하니', '없으니까', '미치겠어', '심쿵해', '미치겠어', '많아서', '청량하니', '좋아요', '좋겟다', '굳건', '미쳤어', '만만하니', '없으니까', '미치겠어', '심쿵해', '미치겠어', '많아서', '청량하니', '좋아요', '좋겟다', '굳건', '달라던데', '좋아요', '멀다하고', '있을까', '스럽군요', '가능합니다', '좋아요', '빠르다', '가능합니다', '좋아요', '빠르다', '시원시원하게', '아니었으면', '좋아요', '좋아서', '좋은데', '좋아요', '좋아요', '좋아요', '힘차게', '신나는', '거대한', '좋아요', '좋은가요', '좋아하던', '좋아했는데', '좋아요', '좋아요', '좋은가요', '좋아하던', '좋아했는데', '좋아요', '좋겟네요', '좋은', '좋겠네요', '신기하다', '같네요', '행복합니다', '좋았는데', '좋아요', '시원하게', '조아요', '놀랬당', '좋고', '좋아요', '좋네요', '좋은', '신속히', '필요하다', '성공해서', '기쁩니다', '기쁘네요', '좋겠습니다', '좋다', '뒤늦게', '좋아요', '좋겠어', '힘나는', '노래네요', '좋아요', '아프다', '기쁘냐', '좋다', '많지만', '좋겠다', '비슷하게', '이쁘지도', '이쁜', '좋고', '좋고', '있을까', '같으면서도', '있다는거', '행복함', '좋겠다', '많던데', '청량한', '탁월한', '좋은', '대단하구나', '아깝다', '힘들고', '불안하셨을까', '행복한', '가득하길', '신나네', '뿌듯함', '필요없을거', '같고', '좋아서', '가능할거', '아니었으면', '좋아한', '좋은데', '좋겠다', '좋아하는데', '진하게', '용감한', '좋음', '시원하게', '좋고', '예뻐서', '좋은', '반가웠어요', '좋겠다', '좋다', '예뻐', '좋음', '있을까', '대단하다', '좋겠어', '좋구만', '있겠네', '높았는데', '미쳤다', '좋던데요', '미쳤다', '좋던데요', '찡해진다', '좋겠는데', '안타까웠는데', '좋은', '있었냐', '좋은', '있다는건', '좋아서', '찡해진다', '좋겠는데', '안타까웠는데', '좋은', '있었냐', '좋은', '있다는건', '좋아서', '찡해진다', '좋겠는데', '안타까웠는데', '좋은', '있었냐', '좋은', '있다는건', '좋아서', '좋은', '안된다거나', '좋아서', '많으셨습니다', '용감한', '좋다', '길은', '신난다', '청량하다', '행복하세요', '좋아요', '좋은', '그만해야', '굳건', '좋음', '아니네요', '청량하고', '좋네', '싫으면', '좋겠다', '좋아요', '그랬을테지만', '행복하다', '원하러', '신난다', '같네요', '행복한', '행복해지는', '좋다', '좋아요', '신나신나', '시원시원하고', '좋다', '망할', '좋다', '좋아요', '좋다', '좋은', '이상한거', '좋아하는데', '넘쳐서', '좋겠어요', '좋네요', '덥거나', '좋아요', '이쁘고', '좋아요', '변했어랑', '좋겠어요', '좋네요', '좋아요', '고마워요', '다양한', '신나네요', '노래네요', '뒤늦게나마', '좋다', '아까운', '좋다', '다르게', '신나', '좋다구', '좋겠다', '좋아서', '좋다', '신나면서', '후련하실까', '좋다는', '좋다', '청량한', '좋아했는데', '행복해요', '달라거', '좋은데', '신기하다', '멀다', '좋다', '신기하다', '멀다', '좋다', '이뻤어요', '좋네요', '없습니까', '즐거운', '좋다', '설레인다', '힘드', '싫어서', '좋고', '입니꺼', '좋아요', '좋겠어요', '좋습니다', '좋아요', '청량한', '쉬운게', '좋아요', '미안해요', '좋아서', '좋아요', '좀있으면', '좋다', '좋지만', '미쳐', '대단하다고', '있었는', '대단한', '아쉬워', '귀여', '좋아용', '좋은데', '좋음', '아니냐', '미쳤음', '기쁘네요', '좋당', '장난없으', '높고', '좋은데', '가능한가', '좋아했는데', '좋아서', '기쁘다', '시원시원하게', '좋은데', '가능한가', '좋아했는데', '좋아서', '기쁘다', '시원시원하게', '좋네요', '있을까요', '좋네요', '있을까요', '용감한', '좋네요', '망했어', '좋은데', '있었구', '힘나겠다', '짜증났는데', '좋네요', '있어주세요', '좋아서', '좋은', '같고', '딱히', '좋네요', '스럽습니다', '있었다면', '좋아하는', '행복하게하는', '좋은', '좋아서', '좋은', '같고', '딱히', '좋네요', '스럽습니다', '있었다면', '좋아하는', '행복하게하는', '좋은', '좋다질', '좋으신', '좋아요', '없는거지', '좋다질', '좋으신', '좋아요', '없는거지', '좋다질', '좋으신', '좋아요', '없는거지', '상쾌하네', '단단하네', '상쾌하네', '단단하네', '미치겠다', '좋은', '싫은', '아까워', '강하네', '엄청나게', '유명해지니까', '비참한지', '좋아요', '좋아했었는데', '청량한데요', '신나', '귀엽', '좋아요', '좋으니', '성공해서', '미치겠네요', '미쳤음', '장하다', '신나', '귀엽', '좋아요', '좋으니', '성공해서', '미치겠네요', '미쳤음', '장하다', '좋습니다', '미치겠어', '먼데', '좋습니다', '미치겠어', '먼데', '멍청한', '아녔다면', '없었을듯', '신났어', '좋음', '멍청한', '아녔다면', '없었을듯', '신났어', '좋음', '좋아서', '같네', '신나고', '좋다', '좋네요', '미칠거', '힘들구나', '대단해요', '좋아서', '같네', '신나고', '좋다', '좋네요', '미칠거', '힘들구나', '대단해요', '좋았는데', '좋다', '좋겠네요', '완벽하다', '좋다', '연연하지말고', '꾸준히', '아쉽네요', '좋은데', '아쉬웠는데', '예쁜', '이상하게', '좋겠다', '좋겠다', '좋음', '힘들어', '멋져요', '세련된', '좋아해요', '좋아요', '좋다', '이런건', '궁금한', '넘치는', '있으면서', '많았음', '시원시원한', '야할텐데', '좋네', '아니겠다', '궁금한거', '좋아하고', '같습니다', '더해진', '좋네요', '힘드네', '상쾌한', '아쉬운', '허전함', '그러는데', '좋겠는데', '미친듯', '보석같은', '있었다니', '좋습니다', '상쾌한', '이상했지', '예뻐요', '높아', '좋음', '좋아서', '좋아요', '힘나게', '좋을듯', '좋아하지만', '꾸준히', '좋어', '좋겠어요', '엄청나게', '엄청나게', '좋다라고', '좋네', '안좋았는데', '노래네요', '신나고', '좋아요', '좋아하던', '좋은데', '좋다', '좋은', '부족하다', '좋겠네', '좋다', '많습니다', '길고', '똑똑해야', '더러운', '없지만', '우아하게', '좋겠다', '확실한', '좋은', '좋았고', '높길래', '좋은', '있는줄', '딱일거', '미쳤네', '놀랬다', '좋아요', '멀다하고', '청량하다', '좋겠어요', '고마워요', '힘드네', '없으니까', '어색해져', '귀엽', '안타깝다', '뿌듯하다', '좋아요', '좋네', '심함', '있었다구', '영롱하네', '있었다', '변했어도', '좋아요', '시끄럽게', '나쁜', '속상해하실', '속상해지네요', '속상해하지', '좋겠어요', '많으니까', '대단하다', '좋음', '좋다', '좋음', '유일하게', '아니니까', '좋아서', '뻔했', '멀다하고', '설레이는데', '좋은데', '노래내는', '좋지', '없으시길', '미치겠어', '있었다', '기뻐하는', '좋아서', '아니길', '힘드네', '대단하다이', '미치겠어', '있었다', '기뻐하는', '좋아서', '아니길', '힘드네', '대단하다이', '높던가', '좋아서', '이상한', '좋아했던', '이상한', '설쳐', '아프고', '망했던', '그럴', '좋다', '있었나', '입니다만', '없었나', '많았던것', '같던데', '좋겠어요', '좋아하시면', '만족하실거라고', '아니란', '있어라', '역겨우면', '불편해하네', '좋은', '좋네요', '궁금해서요', '확실하네요', '좋으시겠어요', '많아서', '멍청해서', '자연스러운', '그런건', '역겨운게', '자연스러운', '자연스러운', '자연스러운', '좋아용', '성공하셨네', '아니꼽다는게', '좋음', '자연스러운', '아니꼽다고', '안좋다', '자연스러운', '역겨', '좋네', '좋은데', '아까운', '후련해', '계실까봐', '좋음', '뒤늦게라도', '좋아요', '행복하셨으면', '좋겠어요', '좋다', '좋다', '귀엽다', '당했던', '예쁘다', '씬나고', '고마워요', '진지하게', '좋아하는', '좋음', '좋아서', '좋네요', '시원한', '좋음', '변했어', '변했어', '아련하지', '예쁘면', '멀다하고', '멀다하고', '설레이는데', '신나네', '안타까웠는데', '미안하지만', '좋겠어요', '뿌듯하겠다', '아닌지요', '벙벙하겠다', '좋네', '가능할까', '좋다', '좋다', '좋으니까', '좋다', '지겨운', '시원한', '좋다', '있는것', '좋겠네요', '오죽할까', '완벽히', '지겹게', '드러하는거', '청량해', '급격하게', '좋네', '좋음', '있는것', '같으니까', '좋다는', '딱히', '좋다는', '많아서', '아플듯', '익숙한', '좋냐', '좋다', '좋은', '좋네요', '기뻐요', '좋음', '없이도', '심심하다', '없으니', '좋겠다', '있오용', '없이도', '심심하다', '없으니', '좋겠다', '있오용', '그리웠다', '궁금해서', '좋당', '가능할수도', '성공했으면', '좋겠다', '좋당', '가능할수도', '성공했으면', '좋겠다', '좋당', '가능할수도', '성공했으면', '좋겠다', '안타까웠었는데', '궁금하다고', '싫은데', '안타까웠었는데', '궁금하다고', '싫은데', '안타까웠었는데', '궁금하다고', '싫은데', '안타까웠었는데', '궁금하다고', '싫은데', '안타까웠었는데', '궁금하다고', '싫은데', '꾸준하게', '좋은', '어렵고', '힘든시기', '연하데여', '묵묵히', '벅찬', '꾸준하게', '좋은', '어렵고', '힘든시기', '연하데여', '묵묵히', '벅찬', '좋은', '부탁드린다', '좋다', '좋아용', '좋아하는', '좋음', '고마워요', '좋아서', '힘들', '즐거울', '스럽네요', '있군', '미친', '좋음', '아쉽다', '좋겠는데', '좋다', '좋아한', '좋은', '신기하네', '좋을것', '아쉽다', '있는거야', '좋겠다', '행복하게', '좋다', '좋아했던', '그러는데', '초라해지', '좀하자', '좋으니깐', '신나고', '힘나요', '많았어', '초라해지', '좀하자', '좋으니깐', '신나고', '힘나요', '많았어', '초라해지', '좀하자', '좋으니깐', '신나고', '힘나요', '많았어', '좋은', '이런게', '미친', '충분히', '많았고', '있으려나', '있는듯', '위대함', '좋아하는', '예쁨', '좋네', '미쳤다', '있었다구', '미쳤다', '있었다구', '미치겠음', '좋아하는', '유명해지길', '많을거라고', '좋겠다', '좋아했는데', '변했어', '좋아요', '용감한', '가능하다', '좋음', '힘들었던', '간절함의', '궁금했는데', '좋겠다', '좋아했는데', '변했어', '좋아요', '용감한', '가능하다', '좋음', '힘들었던', '간절함의', '궁금했는데', '좋네요', '좋다', '좋아하겠어요', '설레이는데', '좋다', '놀랬다', '좋겠어', '좋겠다', '좋아요', '좋아해서', '없으니', '중요해', '있울거여', '신남', '좋겠어', '좋겠다', '좋아요', '좋아해서', '없으니', '중요해', '있울거여', '신남', '정신차리고', '좋아여', '있는것', '많다는', '뿌듯하네', '유명해질', '있었을까', '좋은데', '좋아했는데', '좋네요', '많았을거고', '힘들었을텐데', '좋은', '이런게', '좋아서', '청량하고', '좋음', '원합니다', '좋겠다', '이런게', '있다니', '좋은', '좋아요', '좋다', '좋아서', '청량하고', '좋음', '원합니다', '좋겠다', '이런게', '있다니', '좋은', '좋아요', '좋다', '좋아했는데', '좋네요', '좋아함', '좋아했는데', '좋다아아', '진정한', '뻔한', '좋다', '미쳤다', '청량하고', '좋아요', '미쳤다', '신나겠다', '좋겠다아아아', '좋다', '좋네요', '좋고', '신나고', '행복해', '쌀쌀하지만', '좋겠다', '미쳤다', '좋다', '좋아서', '좋겠다', '좋네', '착한', '상관없나', '놀랬네', '재밌게', '행복해하는데', '청량한', '기쁘지', '재밌게', '행복해하는데', '청량한', '기쁘지', '좋은', '같고', '좋음', '청량한', '딱임', '좋겠다', '좋더라', '좋은', '같고', '좋음', '청량한', '딱임', '좋겠다', '좋더라', '좋은', '같고', '좋음', '청량한', '딱임', '좋겠다', '좋더라', '작은', '놀랬다', '신중하게', '있다고', '좋다고', '아쉽지만', '작은', '놀랬다', '신중하게', '있다고', '좋다고', '아쉽지만', '저리꺼져라', '저리꺼져라', '저리꺼져라', '좋아하는', '좋겠는', '좋네', '좋다', '있자나', '좋음', '좋겠다', '같던데', '무지한지라', '같던데', '무지한지라', '같던데', '무지한지라', '신중하게', '있다고', '있으니까', '뿌듯하다', '대단하다', '좋다', '좋다', '힘들었을', '힘들었을', '좋아서', '좋아요', '행복하세요', '행복해져', '좋다', '행복하세요', '착하게', '기대해도', '설레네', '이런게', '좋게', '진정한', '좋은', '좋아서', '꾸준히', '진정한', '좋은', '좋아서', '꾸준히', '야했는데', '있을테고', '멀다', '좋겠다고', '좋겠다', '강함', '즐겁게', '이렇게라도', '기쁘네요', '있었던듯', '좋아요', '좋겠어요', '궁금해서요', '시원섭섭하면서도', '좋아요', '심각합니다', '시원하고', '좋음', '좋았음', '좋다', '없니', '없을수가', '있니', '궁금하네', '좋은데', '좋은데', '좋다', '좋당', '좋냐', '좋다', '먼가요', '안남았어', '안타깝다라는', '힘드셨을텐데', '좋은', '있었다니', '예쁜', '이렇게라도', '좋다', '좋다', '좋겠다', '좋네요', '좋겠다', '미쳤다', '좋아하는데', '간절히', '원했던', '좋겠습니다', '새롭게', '아닐줄', '좋았을거', '좋다', '좋겠습니다', '흐뭇', '좋다고', '더가자', '넘쳐서', '이상하다', '그러는데', '성공했다', '좋다', '강한', '없었다', '뿌듯하다', '좋다고', '좋네', '예뻐요', '좋은데', '좋아요', '좋아요', '없으니까', '허전할', '있죠', '너무한거', '좋아서', '좋네요', '좋은', '상관없이', '차가', '아쉽', '좋아서', '좋네요', '좋은', '상관없이', '차가', '아쉽', '좋습니다', '좋다아', '높은건데', '멀다', '미쳤나', '예쁘고', '기쁘네', '좋겠는', '미쳤', '순수하게', '궁금해서', '그러는데', '있을까요', '좋은', '좋은', '좋아요', '미친', '신기한거', '빡치면서', '좋네', '좋고', '좋음', '멀다하고', '설레인듯', '아닌거', '좋겠다', '좋던데', '아까', '좋아요', '미친', '좋아요', '유명해지니까', '좋다는', '미치겠다', '진정한', '좋당', '멀다하고', '설레이는데', '멀다하고', '좋아서', '좋음', '좋겠다', '그렇게나', '청량해요', '좋음', '반가워', '좋지만', '상관없이', '좋다', '미친', '이런게', '정당하게', '좋아서', '행복하다구', '좋음', '신나', '진정한', '좋아요', '좋겠어요', '좋겠다', '좋음', '아닐수가', '대단하지만', '어려운데', '확고한', '행복함', '좋음', '좋네', '작게', '꾸준히', '안타까웠는데', '좋다고', '뿌듯함', '청량하고', '이런건', '좋고', '시원시원하고', '좋음', '신나서', '미쳐', '좋아서', '없는줄', '딱좋은', '좋았는데', '좋아요', '좋음', '좋고', '행복해하는', '행복해하는', '삭막한', '놀라운', '좋아서', '좋다는', '뿌듯하네', '좋겠음', '힘든시기', '좋다', '즐겁게', '행복하다', '좋은', '너무하네요', '좋겠다는', '좋겠다', '속상했는데', '있으세요', '있은게', '좋아요', '추워', '좋다', '좋아서', '청량함에', '좋다', '어떡하면', '좋네요', '딱좋을듯', '빠른듯', '좋다', '미쳐', '좋겠는', '좋다', '좋았던', '굉장히', '좋았었는데', '있다는', '좋은', '세련되고', '좋은', '이쁘다', '없으니', '어색하다', '좋겠음', '좋겠다', '기뻐요', '고달파지는거야', '좋아하나', '유명해졌죠', '좋음', '진정한', '나쁘지만', '검있었음', '이뻐요', '좋네', '좋으면', '있든', '중요한', '좋음', '고맙다고', '좋겠어요', '아파', '뻔해', '이쁘다', '용감한', '좋다', '청량하고', '좋음', '위험한', '좋당', '청량하니', '이쁘고', '좋아요', '험난하네', '많은거야', '미친', '좋아요', '좋습니다', '좋겠다', '없었죠', '좋다', '좋은', '노래인듯', '미치겠다', '청량한', '청량한것', '부족했었음', '옳으신', '행복하게', '그만하고', '좋은', '청량하고', '좋아요', '좋다', '좋다', '행복하게', '있도록', '부탁드리겠습니다', '조졌습니다', '좋은', '좋아하니까', '좋당', '옳았다', '계시는군요', '좋겠어요', '좋겠다', '대단하시다', '좋음', '좋은', '힘들었던', '같았던', '싫어하는데', '행복하네', '계시는군요', '좋겠어요', '좋겠다', '대단하시다', '좋음', '좋은', '힘들었던', '같았던', '싫어하는데', '행복하네', '좋은데', '진정한', '좋아요', '좋겠다', '좋다', '역겨워', '좋은', '흐뭇하고', '당연한', '좋아해', '좋네요', '청량하고', '좋겠네요', '후련하네', '멋진', '가능하길', '좋아했다', '차가', '예쁘다', '청량하면', '노래인데전에는', '좋네요', '미쳐', '좋네', '미쳤다', '이쁜', '있었다니', '필요함', '아름다운', '좋다고', '좋음', '없는듯', '미쳤나', '예쁘게', '위험한', '신나는', '쉬운', '좀용', '좋냐', '좋다', '예쁘다', '좋을거', '좋은', '어줍잖은', '시뻘건', '빨간게', '없길래', '자세히', '가득한', '신나', '좋네요', '좋은', '거지같았는데', '없었음', '예쁘다', '좋겟어용', '좋네', '좋아서', '좋아서', '있지만', '있네용', '좋으시고', '뿌듯해지', '청량해진', '미쳤다', '예뻐졌다', '뿌듯한', '중요하구나', '미쳐', '좋은', '변했어', '좋아서', '좋겠다', '좋아요', '아니냐', '좋다', '꾸준히', '슬펐는데', '좋다', '힘들고', '서러운', '좋다', '좋은', '좋은', '속상했었는데', '좋고', '뿌듯하네', '예쁜', '좋겠다', '편히', '좋아요', '빠르게', '좋겠다', '좋음', '유일하게', '신선해서', '좋아요', '슬플', '좋을', '좋음', '좋다', '청량해서', '좋겠어', '좋다', '좋네', '이쁘다', '좋다고', '좋다', '미친', '민망해', '청량한', '예뻐요', '딱히', '좋은', '좋당', '이뻐요', '미친', '미쳤다', '미쳤다', '행복해', '시원하게', '좋다', '꾸준히', '좋네', '좋다', '딱이다', '예쁘다', '좋은', '좋다', '좋다', '좋아서', '없어사', '허전해', '좋다', '예쁘다', '좋겠다', '이쁘다', '미친', '이쁘다', '이쁘고', '좋은데', '없다는', '씁쓸하네', '이쁘다', '좋다', '이뻐', '좋다', '좋겠어요', '예뻐', '좋다', '우울한', '많아도', '이뿌고', '좋아해줄거고', '다르지', '싫음', '환장했는데', '미쳤네', '이쁘다', '환장했는데', '미쳤네', '이쁘다', '시원한거', '같네요', '예쁘다', '좋다', '기쁘다', '청량한것', '좋네', '좋네', '설레이는데로', '꾸준히', '좋겠어요', '슬플', '좋겠다', '많데서', '좋다', '좋당', '예쁨', '답답한', '이쁘다', '좋다', '아름다운', '묵묵히', '좋은', '기쁘다', '이쁘다', '그런거라면', '확실하고', '좋다', '좋아했는데', '좋아했는데', '행복하다', '청량한', '잘맞아서', '미친', '청량한', '아쉽', '당연히', '예쁘다', '충분히', '힘들고', '좋냐', '좋음', '좋은', '많았음', '당연히', '좋으니', '원하는건', '없었다구요', '없으니까', '좋겠당', '미쳤다', '망했음', '미쳤다', '좋아한', '쉬운', '좋은데', '미쳤다', '좋다', '청량한', '흔하지', '아쉽', '당연한', '청순하게', '망하고', '섹시하게', '망하고', '뿐이', '아쉽', '상쾌하네', '좋아서', '진지하게', '좋겠다', '좋은', '좋음', '쎄서', '아련한', '소중하게', '좋겠다', '좋은데', '좋겠음', '좋은', '좋음', '쎄서', '아련한', '소중하게', '좋겠다', '좋은데', '좋겠음', '좋아하는', '좋음', '심하네', '그만하라는', '이상하다는', '힘들겠다', '좋네', '조으다', '망하고', '미질', '그만해라', '신나게울려', '좋다', '좋았는데', '유명해서', '있네용', '좋아요', '좋앗다고', '좋아했는데', '이상한건', '좋은데', '좋네요', '있지만', '좋은데', '좋은', '좋아여', '미쳤다', '대단합니다', '좋겠다', '좋아하는', '좋고', '좋고', '좋겠네요', '좋다', '좋은데', '좋은', '좋아여', '미쳤다', '대단합니다', '좋겠다', '좋아하는', '좋고', '좋고', '좋겠네요', '좋다', '좋다', '야할듯', '좋겠네요', '좋을것', '좋음', '유명해지시면', '좋겠어요', '좋음', '유명해지시면', '좋겠어요', '좋음', '유명해지시면', '좋겠어요', '미쳤음', '좋다', '청량한', '미치는', '좋음', '좋네요', '미쳐', '좋아하던', '야무지다', '좋긴', '좋음', '좋네', '힘든데', '좋아해요', '좋음', '부럽고', '치사함', '신나서', '노래였던게', '예쁨', '귀여운', '예쁨', '차가운', '예쁨', '화려한', '예쁨', '예쁨', '그지같아서', '좋은', '아쉬웠었는데', '좋겠다', '미쳤음', '답답했던', '좋다', '후회될', '청량하당', '이런게', '안됩니다', '예뻤어', '예뻐', '청량하니까', '청량한', '좋았을듯', '시원하구', '좋다', '좋아서', '좋다', '더웠었는데', '시원한', '그래요', '시원하니', '기뻐', '미쳤다', '좋고', '좋음', '좋다', '있었던거야', '좋은', '미쳤다', '좋아요', '높은', '좋은', '중요하구나', '좋다', '행복하네', '신기하다', '이런게', '진정한', '괜찮네요', '좋네', '이런게', '진정한', '괜찮네요', '좋네', '안되나', '뿌듯하네', '좋음', '좋다', '꾸준히', '시급한듯', '이상해', '중요한', '좋은데', '없으니까', '허전해', '좋은데', '유명한지', '팍팍해서', '좋은데', '아쉽네', '좋은', '야할듯', '좋아야', '안되는거', '노래였구나', '좋다고', '좋고', '행복한', '좋겠어요', '이런게', '좋겠어요', '이상하게', '민망할', '유명했던', '시원한', '바빠질', '민망할', '유명했던', '시원한', '바빠질', '좋음', '굳건', '미친', '인했어요', '답답해서', '미친', '좋음', '굳건', '미친', '인했어요', '답답해서', '미친', '없었던것이냐', '부럽다', '고픈건', '미친', '기쁘다', '빠르네', '이상하지', '인했다', '좋은', '아닙니꺼', '좋다', '신기하고', '뿌듯하면서도', '찜찜하네', '이런게', '인함', '좋다', '아니었네', '같긴하다', '좋겠던데', '그지같네', '미친', '뻔했다고', '이상한', '미치도록', '이런게', '좋았음', '미쳤다', '좀있으면', '있었지만', '좋네요', '좋아요', '좋다', '높은', '궁금해서', '좋아요', '좋아요', '좋겠다', '많으십니다', '편히', '청량한', '좋다', '좋네요', '예쁘고', '행복해하는게', '좋음', '넓은거로', '이렇게만', '좋아여', '진정한', '좋네요', '예쁘고', '행복해하는게', '좋음', '넓은거로', '이렇게만', '좋아여', '진정한', '좋네요', '예쁘고', '행복해하는게', '좋음', '넓은거로', '이렇게만', '좋아여', '진정한', '청량하고', '좋음', '좋겠다', '많았다며', '좋은', '발랄하게', '많았을', '없당', '섭섭하', '행복하다', '좋아요', '없당', '섭섭하', '행복하다', '좋아요', '없당', '섭섭하', '행복하다', '좋아요', '행복했습니다', '꾸준히', '좋습니다', '위험한', '뻔한', '식겁했어요', '좋은데', '행복했습니다', '꾸준히', '좋습니다', '위험한', '뻔한', '식겁했어요', '좋은데', '간절했는데', '좋아서', '간절했는데', '좋아서', '깔끔하게', '이쁠듯', '허전해', '필요하다', '깔끔하게', '이쁠듯', '허전해', '필요하다', '재밌던', '청량한', '좋겠습니다', '좋아요', '기쁘네요', '많으니', '있을걸', '좋다', '미쳤다', '좋다고', '인하면', '좋겠습니다', '좋지만', '있었구나', '스러워서', '벅찬다', '기이할', '부럽지', '좋아하던', '있당', '좋아해야하는', '없나여', '좋아요', '좋아했는데', '많았었는데', '좋다', '어색할것', '청량한데', '뒤늦게', '충분히', '그럴', '좋다', '옳았다', '있었고', '뒤늦게', '충분히', '그럴', '좋다', '옳았다', '있었고', '뒤늦게', '충분히', '그럴', '좋다', '옳았다', '있었고', '같았다', '좋아요', '같네', '좋겠다', '좋단', '재밌음', '좋겠다', '심각하게', '신나고', '좋은데', '신남', '미쳤네', '신남', '미쳤네', '좋음', '다르게', '안되나요', '좋음', '좋겠어요', '섹시한', '희고', '파랗고', '이상한', '진정한', '필요없고', '멀었다', '부족해', '다름없는', '있지만', '좋겠다', '기쁘네요', '좋은', '좋겠어요', '좋겠네요', '좋은데', '좋을까', '좋네', '확실하게', '좋다', '신남', '좋아서', '좋을거', '좋아서', '미쳤다', '인하자', '이상하긴', '좋아요', '행복해', '많았다는데', '좋다는', '좋아하는', '안타까워', '당했으면', '좋아서', '대단한', '미쳤네', '어떡하죠', '같네', '많은기', '좋은', '좋겠다', '좋네', '미쳤다', '좋앗을듯', '예뻐요', '미침', '힘든데', '나쁘지', '휩쓸게', '단단히', '좋은', '좋겠다', '좋겠다', '좋겠다', '좋았음', '이쁜', '예쁘고', '좋고', '안되나요', '좋은데', '당하는거', '이뻐요', '좋아했는데', '좋아서', '없으니', '미지근한', '좋겠다', '좋다고', '행복했습니다', '예쁘고', '시원하고', '신남', '좋아요', '파랐을텐데', '아쉽네', '좋아해서', '좋다', '좋은', '많으니', '신납니다', '야합니다', '죄송하네요', '좋다', '좋아요', '이뻐요', '좋아요', '청량하게', '아쉬워요', '멀다하고', '찰짐', '좋아해서', '좋다', '좋은', '많으니', '신납니다', '야합니다', '죄송하네요', '좋다', '좋아요', '이뻐요', '좋아요', '청량하게', '아쉬워요', '멀다하고', '찰짐', '좋아서', '좋음', '좋아요', '좋아서', '좋겠어요', '좋겠다', '시원하다', '좋다', '좋겠다', '좋다고', '좋아서', '좋다', '아깝다', '시원하당', '속상했는데', '설렌다', '좋음', '평범한', '좋다', '좋당', '좋음', '좋아하고', '심하게', '청량함', '좋당', '청량함', '같네', '청량하게', '좋고', '있는것', '좋다', '미친', '좋다구', '신나는', '좋은', '성공했을텐데', '좋은데', '좋아했는데', '좋은데', '좋다', '아쉽다', '용감한', '씬나', '시급하다', '완전히', '똑같아서', '신기했는데', '같은가', '좋다', '설레이는데로', '좋다', '좋아하시면', '좋아요', '아니냐', '좋음', '신남', '좋겠다', '민망한데', '신나', '야한', '좋네', '좋아서', '좋긴', '좋아요', '아까운', '좋겠다', '청량하고', '신나고', '좋음', '안될', '같은데에', '가능합니다', '좋아여', '청량하고', '신나는', '좋겠다', '가능합니다', '좋아여', '청량하고', '신나는', '좋겠다', '뻔했던', '신난당', '뻔했던', '신난당', '좋아해요', '좋아서', '좋아함', '좋아요', '달랐어도', '안타깝다', '시급한', '좋다', '그럴', '좋아요', '청량함이', '좋음', '좋네', '느리다', '좋다', '좋아서', '아까워', '좋다', '싫어서', '즐거운', '신나고', '좋음', '있다는것은', '좋은데', '촌스럽지가', '청량한', '좋다', '좋아요', '좋다고', '좋아서', '있다고', '망한거', '미치게', '좋은', '유명해질', '있겠구나', '망한', '좋음', '신나고', '섹시해서', '아쉽', '좋겠다', '꾸준히', '좋다', '좋다고', '좋은', '발랄하고', '신나', '좋은데', '안타깝다', '좋은데', '앙칼져서', '멀다하고', '좋아요', '성공하면', '좋음', '평범하게', '이상하진', '아쉽다', '좋은데', '안타깝고', '좋은', '발랄하게', '좋았을텐데', '많았을듯', '속상한', '좋다', '좋아요', '좋다', '신나는', '좋아하는', '좋당', '좋음', '좋다', '청량한', '안타까운', '아까워요', '있잖아여', '좋고', '좋은데', '안타까워여', '아까', '좋다', '귀엽게나', '좋아요', '좋음', '좋다', '좋네', '아니냐', '좋다', '좋아요', '좋고', '좋아서', '좋아요', '조아요', '좋은데', '훌륭합니다', '청량하게', '좋다', '좋겠다', '좋은데', '좋아서', '좋은', '좋아서', '아쉬운', '좋은데', '좋이네요', '아쉽다', '좋은데', '아니였으면', '좋았을', '좋아서', '같은거', '조아요', '신나고', '좋다', '미치네요', '재밌겠다', '세련되고', '좋음', '많아서', '꾸준히', '안되네', '좋아서', '높은', '세련됬고', '좋음', '높았을텐데', '시원하고', '좋음', '아쉬운', '좋아요', '좋은데', '청량한', '청량한', '좋을텐데', '좋아요', '예쁘다', '청량했어도', '좋아서', '이빠이', '좋다고', '아쉬웠던', '신나네요', '좋아요', '좋아요', '안타깝다', '좋네', '없다니', '좋아요', '좋다는건데', '좋아서', '신남', '얇나', '좋은데', '신나고', '신선하고', '신기한', '좋은데', '좋은', '좋겟다', '신나는', '아까운', '좋아서', '신남', '얇나', '좋은데', '신나고', '신선하고', '신기한', '좋은데', '좋은', '좋겟다', '신나는', '아까운', '좋은데', '좋은', '멀다하고', '좋네요', '좋겠어요', '역주해', '맑아서', '좋고', '좋겠다', '좋다', '아련함', '발랄함으로', '아쉽다', '대단한데요', '좋다', '이상하고', '좋은', '좋겠네요', '</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'빡치네', '시원함이다', '안좋다고', '있지만', '새로운', '좋게', '예쁨', '씬나는디', '견고한', '생소하지만', '삼삼한', '행복해지는', '나른하면서도', '아련하고', '좋을', '구린거', '차분한', '좋구', '기대하긴', '똑같아요', '심한듯', '화사한', '만족했으면', '사랑스럽고', '있으려나', '성장한', '좋아라', '잔잔하면서', '굳건', '느슨해진', '예쁘지', '신나는거', '같기도', '안되겠네', '신남이여서', '너무해', '있으니까', '좋았다', '산뜻하답니다', '좋으니', '좋았을텐데', '차분하지도', '빡침', '좋겠어', '나른하다', '야함', '아니어서', '선선해진다', '좋아해서', '망함', '참신한', '낮은건', '아까워서', '낮아서', '밋밋하게', '만족해야', '이상하네', '많으셨어요', '완벽한데', '발랄하고', '잔잔하지', '조아요', '상관없이', '싫음', '신나지가', '좋겠어요', '벅차오르는', '행복하자', '추하다', '아련한', '미쳐', '노련하고', '시러하는데', '좋으면서', '조은데', '조은', '당했다', '필요없는', '많았어', '올바른', '먼가', '예뻐요', '퇴보하네', '중요하지', '따가지고', '특별한', '유일하게', '편해', '좋은가', '아니냐', '귀엽', '깔끔하게', '아쉽구만', '아쉽고', '지루한', '깔끔히', '야할꺼', '잘맞아', '느긋하게', '그랬겠지', '완벽하다', '죄송해요', '단순히', '높은', '나른함', '망한건', '낯설고', '잔잔하면', '멀었는데에', '이상한', '노래구나', '어렵고', '슬프다', '많은거', '편안해', '웬만한', '예쁘게', '괜찮았음', '고마워', '각박한', '성장해서오래', '설레게', '미친', '편해진다', '조아서', '편안하고', '탄탄하구', '좋겠다난', '정신차리는거랑', '있었겠지', '예뻐서', '낮이라면', '좋아서', '지루하다고', '예쁜데', '미까지', '팍팍한', '재밌음', '낮든', '많네요', '신나고', '기대한', '있지에서', '있지도', '화려하고', '귀여운', '좋았을', '좋아하네', '불안해지게', '괜찮은', '덥네요', '좋은', '참신함', '차분하고', '시원하다', '좋나', '있지', '편해져요', '애매하네요', '나쁘다는게', '행복하게', '아닌가용', '궁금하네', '더울', '미침', '있구만', '안타까', '속상해서', '단단해졌어', '이뻐', '좋다', '부족한', '그런게', '아쉽긴', '그래용', '무서운', '기대하면', '불안한', '완벽한', '기대했는데', '좋으', '약하다', '있다고', '아련함', '신나는데', '유치하다고', '자리수', '예쁜', '계셔서', '좋음', '망했다', '좋았을듯', '청량함', '좋네요', '모호해지다가', '싱거운', '그러네요', '심심하고', '좋겠음', '나른하네', '부드럽게', '아니길', '부진하다는', '괜찮아서', '미를', '편안한', '안될거다', '미치는', '괜찮은데', '사랑스럽다', '다양한시도', '힘드네요', '신선한', '안됨', '아쉽', '짜증나고', '우아하게', '가능하겠다', '연연해하지', '그랬냐', '있는데요', '청량해', '예뻐져', '좋아하는데', '나른하고', '엉뚱하게', '싫어하는', '이렇게만', '높지도', '행복하다', '싫다면서', '있겠네요', '많으면', '넓은', '좋았을거', '안되나', '아련함을', '그래두', '신기하네', '황홀해서', '부족하네', '이쁘다', '아프고', '아니었음', '그렇나요', '이상하게', '멋져서', '아니었어서', '좋다고', '피곤함이', '안되네', '없는데에', '똑같다', '좋을거', '같네요', '좋았지만', '그래요', '성숙해진', '은은한', '구리니', '안좋', '이쁘네', '없네요', '이쁘지', '예쁘시다', '사랑스럽단', '정신차려야', '더한', '예쁘더라', '아쉽네', '같네', '심심하다', '무겁지도', '뻔하죠', '아깝네', '많이나는듯', '안타깝네', '노래긴', '사랑스러운', '좋다곤', '잔잔하게', '좋으니까', '좋겟당', '미다', '좋아요', '아니겠지', '간지럽게', '스러', '부러워', '미치겠음', '많았을텐데', '좋네', '싫테하고', '완벽히', '많았고', '신남', '속상한', '있었던거야', '좋아함', '낮죠', '심심하네', '화려하지만은', '아쉬웠는데', '아니라고요', '망했네', '딱인', '높게', '아깝고', '좋았다면', '어이없다', '아무런', '더워서', '원하던', '발랄한거', '완벽했을텐데', '행복하니까', '성숙해지고', '같아여', '익숙하다', '같데', '기대해인줄이히래', '세련되게', '있구', '맛깔나게', '좋아하고', '넓고', '아니잖아요', '귀엽다', '좋아해', '아닌거', '딱좋은', '싱그러운', '인하는', '조용한', '산뜻한', '청량한데', '불안했는데', '잔잔하니', '고마워요', '적당히', '어눌한', '궁금한', '딱이네요', '좋겠는데', '편함', '귀여워', '나쁘지', '작작해라', '이뿌지', '그러시지', '탄탄했으면', '좋은가요', '좋을듯', '고프다', '아쉬울것', '조하', '예쁘다고', '더운데', '변함', '좋았는데', '작게', '아쉽지만', '기대하게', '없는게', '탄탄하고', '멀쩡해서', '좋은데', '좋아한다면', '복잡한', '아니나', '좋다고요', '대단한', '심심하다고', '싫다고', '신난당', '안쓰럽다', '미쳤네', '행복했음', '이쁘다고', '예쁘네요', '꾸준히', '세련된', '가볍고', '많다', '멋있어요', '쉬운', '이뻐져서', '느려서', '밋밋한가', '완벽하게', '노래였냐', '기대해인줄', '행복하네요', '속상하지만', '중요해졌어요', '명랑하고', '나쁠', '기대해', '안되는거', '몽글몽글한', '그리워지는', '사랑스러워', '유연한', '정신차렸나', '쿨한', '편한듯', '좋구나', '시원하고', '예쁘던데', '나른한', '힘든데', '노래잖아', '담백해서', '싫을', '저조하네', '궁금해지더라구요', '좋겠고', '있네요', '같잖은', '싫어하는데', '있을까', '노래아니면', '있어야지', '좋을것', '강렬한', '높으니까', '기대했어서', '많으니', '좋겠네요', '잔잔하다', '적당하게', '생소했는데', '신나거나', '좋인데', '건강히', '행복해', '사랑스러', '좋나용', '낮음', '즐거워', '시러하는거', '좋았으면', '없으', '재밌었어요', '딱일듯', '이쁘당', '망해가네', '저래', '가볍지도', '싫으면', '새롭지만', '좋다아', '망한거지', '필요해', '잔잔해서', '안타까운', '뻔할거라', '중요할듯', '그렇다면', '행복해질', '세련되고', '있는듯', '편히', '아니었어', '편한', '괜찮아요', '잔잔하고', '좋아하시는', '같던데', '없으셨음', '엄청나게', '청량한', '역시네요', '미칠듯', '좋아하지만', '같긴하지만', '원하지', '있기를', '확실함', '나른하면서', '좋당', '무리하지', '편하고', '똑같은데', '빠르면', '깨끗해서', '좋지만', '너무한거', '좋던데', '더운', '우아하게까지', '멋진', '아쉬울수도', '조화롭게', '가득한', '가볍게', '약하지', '좋아에', '좋아했어서', '미치게', '청량하게', '없지만', '편하게', '안조', '필요없고', '궁금해서', '강렬하고', '찬란한', '예쁘셔', '기쁘다', '없으니', '편해요', '연연하지', '있었던거지', '좋다구', '좋겠다', '대단한거', '좋았을것', '구리다고', '없었다', '아닌것', '쉬워서', '색다른', '망했다고', '탄탄한', '있었나', '특별히', '부드럽다', '미쳤어', '아닌데요', '좋으면', '좋겟다', '완벽하고', '시원해여', '노래인것', '많다는건', '좋아하면서', '없을거', '중요한데', '낮지', '조용히', '시원한', '예쁘고', '편안하게', '행복할듯', '따뜻한', '약하다고', '애매한', '색다르고', '같습니다', '이상해', '낮았지만', '많아서', '많잖아', '좋아했는데', '딱이야', '그렇게도', '시원해지는', '가뿐히', '성숙한', '설레고', '그러든', '신나지도', '이쁘구나', '안졸려', '굉장히', '괜찮네', '이뻐서', '잔잔한데', '싫어요', '미치겠다', '회복하면', '은은하게', '성장합시다', '촌스러운', '좋아해주시니까', '시원해', '건강하게', '궁금해', '신나게', '뿐이네요', '좋나요', '시원하게', '딱히', '원했던', '이쁘니까', '단순한', '안타깝다', '소소한', '좋아용', '좋더라', '아쉽네요', '좋다는', '아까', '잔잔하면서도', '아니라고', '심심한', '당하겠지만', '힘들듯', '요란한', '시끄럽지', '달콤하면서도', '밋밋한', '비슷한', '좋아아', '다른데', '있다는', '청량하고', '높든', '그리웠다', '잔잔한', '빨간', '가능한거지', '상관없음', '없는거', '다행히', '나열하는', '밋밋한거', '좋았는데어', '신나는게', '괜찮구', '청순한', '불쌍하다', '좋더라구요', '비슷한데', '색다른데', '평화로워서', '회복하는', '예쁘다', '미쳤는데요', '같다이', '흔한', '은은해서', '무리한', '가능해여', '높은데', '깐깐한', '많았다', '아쉬워요', '망한', '나쁘진', '이런게', '미에서', '있을까요', '당연히', '싫네요', '답답했는데', '진지하게', '신나는', '아닌듯', '행복해요', '심하네', '비슷하네', '심한', '아닐', '신기한', '궁금했는데', '뻔한', '힘들겠다', '다를까', '다양한', '있을거', '예뻐', '성장하는', '던던이', '부드러운이', '좋지', '사랑스러운건', '아니었고', '이상해지는', '좋겠습니다', '뿌듯하네요', '예뻐용', '부드럽고', '아쉬운', '똑똑하게', '어떠냐라고', '다르게', '딱일', '없으니까', '아쉬울', '노래인듯', '강렬함이', '피곤하게', '좋아할', '없었어도', '산뜻하게', '힘차고', '좋고', '높았을텐', '많았지만', '설레는', '신선하다', '쉬워져', '성숙해진듯', '미칠거', '없지도', '같으면서도', '이쁘고', '많은것도', '가능해서', '완벽함', '기대했던거보다', '있었다던데', '이쁨', '심해서지', '편할', '있기', '망해', '아픈', '높고', '아쉬웠었는데이', '오묘해서', '짜릿해', '그렇네', '미쳤다', '있져', '행복한', '좋았음', '느긋하고', '그랬듯', '미친듯이', '원하는', '청량하면서도', '신기하다', '가능한데', '좋습니다', '아쉽다', '심심한가', '이랬던거', '적절한', '심심하네요', '있어여', '힘드네', '궁금함', '독특하고', '기대할게', '같고', '달콤한', '지겨워', '뿌듯하다', '당연하지만', '좋긴', '어른스러워진', '지루해도', '예쁘구요', '아닌지'}</t>
+          <t>['많은것도', '사랑스러운건', '좋아서', '예쁨', '궁금한', '좋은데', '부드럽게', '좋았을텐데', '많은것도', '사랑스러운건', '좋아서', '예쁨', '궁금한', '좋은데', '부드럽게', '좋았을텐데', '많은것도', '사랑스러운건', '좋아서', '예쁨', '궁금한', '좋은데', '부드럽게', '좋았을텐데', '좋음', '시원하게', '좋아요', '그러진', '좋은', '꾸준히', '아름답길', '안되나', '좋은', '망했다고', '좋다', '좋네', '신기한게', '동일한', '아프거나', '피곤해', '빠르지도', '망한건', '변함', '대단한거', '우아하게', '상관없음', '안됨', '꾸준히', '망한거지', '망함', '있는거죠', '좋다', '없는데에', '시원한', '싫어요', '시원한', '좋다', '잔잔한', '같으면서도', '신나는', '좋다는', '좋아요', '좋은데', '좋음', '좋음', '신나는', '아니어서', '당연하지만', '좋겠고', '좋아요', '좋아요', '새롭지만', '사랑스러운', '좋겠다', '아까', '좋으면', '좋은', '사랑스러운', '이쁘네', '좋아요', '노래구나', '좋네', '사랑스럽다', '좋다', '잔잔해서', '좋은', '좋아요', '고마워', '좋지', '좋다', '좋고', '명랑하고', '부드럽다', '은은하게', '세련된', '중요해졌어요', '예쁨', '꾸준히', '좋음', '꾸준히', '좋더라구요', '이렇게만', '적당히', '찬란한', '좋다', '귀여워', '똑같은데', '좋다', '좋은데', '좋다', '웬만한', '예뻐', '적당하게', '좋다', '좋다', '성장하는', '좋음', '좋다', '좋다', '좋을', '아쉽', '굉장히', '산뜻하게', '심심하다고', '좋지', '좋나', '좋지만', '좋아서', '좋은데', '싫음', '좋음', '좋다구', '답답했는데', '산뜻하답니다', '좋은데', '좋은데', '시원해', '더워서', '미쳤다', '좋다', '미쳤어', '더운', '선선해진다', '덥네요', '좋은데', '낮죠', '안졸려', '좋음', '좋다', '좋당', '좋음', '편해', '같다이', '중요할듯', '웬만한', '있는듯', '이쁘다', '좋다', '좋나요', '궁금해서', '좋은데', '좋다', '좋음', '이쁨', '좋다', '좋음', '담백해서', '은은하게', '청량해', '좋음', '좋다', '좋다곤', '엉뚱하게', '좋다', '시원하게', '좋아요', '좋아요', '시원하게', '좋아요', '좋아요', '좋은', '잔잔한데', '신남', '좋아요', '좋아요', '좋아서', '사랑스럽단', '사랑스럽고', '좋음', '좋다', '좋아해', '사랑스러운', '좋당', '쉬워져', '좋다', '좋다고', '좋다고', '구리니', '가능해여', '야함', '좋다', '좋음', '강렬함이', '좋음', '강렬한', '많으니', '필요해', '미친', '좋음', '편한', '좋은', '좋다', '좋겠다', '잔잔한', '좋을', '좋은', '좋네요', '좋다', '아깝네', '힘든데', '좋네', '좋음', '대단한', '좋겠다', '같네요', '같으면서도', '미까지', '좋음', '신나는', '뻔할거라', '잔잔하면서도', '시원한', '좋은', '익숙하다', '나쁘다는게', '좋은데', '가능한거지', '먼가', '빨간', '좋음', '좋음', '잔잔하면서', '신나는게', '좋은', '단순한', '아쉽고', '적당히', '좋음', '좋다', '예뻐', '좋음', '약하다', '밋밋한가', '좋음', '좋고', '편하게', '좋으면서', '원하던', '좋게', '같네요', '좋고', '좋음', '낮음', '좋음', '죄송해요', '좋음', '많으면', '좋겠어요', '완벽한데', '예쁜', '좋음', '넓고', '예쁜', '좋다', '예뻐서', '성숙해진', '좋다', '좋은데', '좋다', '좋겠다', '좋다', '더운', '딱이네요', '싫을', '좋겠다', '짜릿해', '재밌음', '좋은', '좋겠는데', '미침', '완벽하다', '안되네', '즐거워', '좋습니다', '좋은데', '심한', '힘드네', '있지에서', '예쁘고', '좋음', '안졸려', '좋은', '좋아요', '좋은', '좋은', '좋음', '좋던데', '좋음', '간지럽게', '좋았을', '좋은', '신선한', '그러네요', '기대해', '좋당', '비슷한데', '좋다', '미치게', '은은해서', '차분하지도', '잔잔하게', '좋은', '좋음', '좋음', '행복해지는', '사랑스러운', '예쁘게', '좋아서', '좋아요', '익숙하다', '비슷하네', '높았을텐', '그래두', '신나거나', '있다고', '나른하면서', '청량한', '좋음', '설레게', '좋아요', '조용한', '좋고', '좋아요', '그러든', '약하다고', '저조하네', '이상하네', '좋다', '좋지만', '좋다', '아쉽네', '좋았는데', '좋으면', '망해가네', '좋았다', '기대해인줄이히래', '기대해인줄', '그렇게도', '없으', '좋은데', '심심하네요', '좋음', '더운데', '무서운', '미쳤다', '강렬하고', '가능한데', '약하다', '이뻐', '잔잔하게', '좋아하는', '좋다', '좋아요', '좋아서', '아쉽다', '좋은', '좋은', '좋다', '편안한', '좋음', '좋고', '좋은', '좋은', '있었나', '참신함', '안조', '좋음', '행복해질', '좋아요', '좋다', '편안하게', '좋고', '꾸준히', '좋은데', '좋음', '좋지만', '이뻐서', '좋음', '좋은', '건강히', '좋음', '좋은', '좋겠다', '좋은', '예쁘고', '조용히', '좋지', '좋아하는데', '좋네요', '밋밋한거', '아쉬웠는데', '잔잔한', '좋구', '새로운', '아까워서', '좋아서', '이랬던거', '좋음', '많았고', '성장합시다', '아쉽', '좋은', '그렇다면', '예뻐요', '좋음', '좋은', '좋네', '좋아요', '좋아요', '좋은', '좋으면', '미친', '미쳤다', '청순한', '좋음', '좋은데', '좋네요', '좋은', '그리워지는', '좋음', '넓은', '이상하게', '있다는', '좋아요', '좋은', '좋음', '좋아함', '사랑스러', '좋아하지만', '발랄하고', '신나는', '새로운', '좋음', '좋다고요', '속상한', '좋은데', '어이없다', '좋음', '아닐', '가득한', '각박한', '단순히', '유치하다고', '좋음', '미친', '빡침', '좋아요', '부진하다는', '아니냐', '좋다', '좋아요', '좋아요', '조은', '청량한', '좋네요', '예쁘고', '멋진', '가능하겠다', '아쉽지만', '좋다', '좋당', '좋고', '예쁨', '꾸준히', '있구', '좋다', '좋다', '팍팍한', '익숙하다', '같네', '많았지만', '그리웠다', '좋네', '좋당', '좋다', '예쁜', '많았을텐데', '아쉽구만', '좋다', '좋다', '좋다', '좋아용', '아니냐', '심심하네', '심심한', '싱거운', '편하게', '좋고', '조은데', '심심한', '심심한', '좋은', '좋은', '좋았을', '높은데', '잔잔하게', '잔잔해서', '좋음', '아픈', '많아서', '예쁘셔', '좋으니', '좋다', '괜찮구', '높지도', '좋다', '같고', '부족하네', '뻔한', '아련함을', '더한', '따뜻한', '인하는', '좋겠다', '좋음', '예쁜데', '미에서', '좋아서', '좋아요', '좋다고', '좋으면', '좋았으면', '있었겠지', '좋다는', '아니냐', '좋아요', '좋다', '좋아요', '같습니다', '좋다', '행복했음', '좋겠다', '같긴하지만', '아닌것', '다양한시도', '좋음', '좋아서', '좋아하는데', '좋겠다', '굳건', '멋있어요', '멋있어요', '없으니까', '좋은데', '편하고', '좋음', '좋아서', '기쁘다', '청량한', '좋다', '좋은데', '완벽하게', '좋았을', '좋았는데', '궁금해', '약하다고', '같네', '가볍게', '좋아서', '연연해하지', '좋겠어요', '아니었고', '높으니까', '만족했으면', '좋겠습니다', '있지만', '무리하지', '좋을', '좋겠네요', '좋아요', '미칠거', '산뜻한', '좋은', '좋은데', '좋음', '좋다', '좋은', '굉장히', '중요한데', '가능해서', '이런게', '밋밋하게', '있었다던데', '정신차리는거랑', '좋은', '좋음', '좋다', '좋은', '굉장히', '중요한데', '가능해서', '이런게', '밋밋하게', '있었다던데', '정신차리는거랑', '좋은', '좋으면', '좋은', '좋음', '좋고', '예쁘다', '좋은데', '좋았지만', '안좋', '좋다', '청량함', '좋네요', '세련되고', '좋아요', '좋고', '좋다', '좋당', '좋은데', '노래긴', '미쳤다', '좋아요', '행복할듯', '좋다', '생소했는데', '좋아서', '예뻐서', '좋다', '성숙한', '쿨한', '좋아용', '좋다', '좋네요', '신남', '예쁘더라', '많으셨어요', '많잖아', '좋아하는데', '완벽히', '좋게', '좋고', '좋다', '아쉽', '좋긴', '좋구나', '조아요', '좋아요', '좋아요', '좋아요', '고마워', '좋다', '좋다', '좋다', '좋은', '좋음', '예뻐서', '잔잔하니', '좋아용', '좋아용', '예뻐용', '좋아함', '당연히', '좋았음', '좋음', '딱일듯', '아쉽네', '신기한', '좋네', '없었다', '편하고', '좋다', '필요없고', '좋아요', '좋다', '좋음', '망했다', '참신한', '신나는데', '편하고', '탄탄하고', '짜릿함', '좋은', '만만하게', '좋네요', '좋다', '재밌었어요', '좋은데', '아깝고', '아쉬운', '좋음', '좋나', '노래인듯', '아닌데요', '좋은', '좋은데', '시원하게', '많이나는듯', '유일하게', '좋네', '좋아요', '완벽했을텐데', '뿌듯하다', '우아하게까지', '좋아요', '좋음', '달콤한', '좋다', '신나게', '나른하면서도', '좋은', '좋아서', '아쉬워요', '좋다', '은은한', '좋네요', '좋아요', '행복하게', '건강하게', '좋고용', '평범한데', '좋다', '좋은데', '노래였냐', '좋다', '좋은데', '좋지', '이쁘다는', '신나는', '좋다', '좋다', '행복하게', '고마워요', '좋당', '아련함', '청량하게', '신나는거', '잔잔한', '색다른데', '좋다', '좋다', '좋다', '행복해요', '행복하게', '좋다', '좋다', '좋당', '안졸려', '전화하는', '좋을거', '좋다', '딱일', '좋네', '좋아요', '잔잔한데', '좋아요', '좋다', '편하게', '편함', '좋은', '좋음', '좋음', '딱이야', '좋을', '좋은', '잔잔한', '쉬워서', '잔잔해서', '궁금해서', '좋고', '적절한', '없는게', '편안하게', '조은데', '좋다고', '너무한거', '아니냐', '좋아요', '가볍게', '좋네요', '너무한거', '아니냐', '좋아요', '가볍게', '좋네요', '좋은', '행복하세요', '좋다', '영원한', '행복한', '좋다', '궁금해', '완벽한', '좋다는', '많아서', '좋아요', '강렬한', '좋은', '은은한', '좋은', '이상한', '좋아서', '약하지', '편안한', '새로운', '좋음', '좋당', '좋아요', '나른한', '좋다', '예쁜', '나른하고', '섹시해', '약한가', '좋네요', '좋겠다', '많았어요', '무사히', '바쁜', '고마워', '소중해', '행복한', '좋다', '좋음', '좋다', '좋은', '더운', '좋네요', '좋음', '이뻐', '좋은', '좋은', '벅차오르는', '똑같다', '귀여워', '좋다', '견고한', '탄탄한', '이뿌지', '사랑스러워', '망했네', '미쳤다', '좋다', '좋다', '좋음', '좋다', '좋음', '좋은가', '좋은데', '가볍고', '좋지만', '아쉽다', '예쁘네요', '높든', '낮든', '좋음', '좋은데', '부드럽고', '달콤한', '좋은데', '좋음', '편하게', '좋다', '있구만', '조하', '복잡한', '그래두', '좋네요', '좋은', '딱이네요', '좋은데', '좋다', '좋다', '좋아서', '좋은데', '좋다', '좋다', '좋았을거', '좋은데', '좋네', '좋고', '이쁨', '좋은', '많습니다', '좋다', '예뻐서', '좋으네요', '새로운', '멋지기까지', '많다', '많다', '많다', '고맙다', '좋음', '더워', '시원해지다사', '그런게', '시원함', '같지만은', '시원함', '편해', '이상한', '좋은', '많습니다', '좋다', '예뻐서', '좋으네요', '새로운', '멋지기까지', '많다', '많다', '많다', '고맙다', '좋음', '더워', '시원해지다사', '그런게', '시원함', '같지만은', '시원함', '편해', '이상한', '좋음', '싫어하는', '계시겠지만', '느긋한', '좋은지', '좋다', '좋겠다', '같고', '편하고', '좋다', '가뿐히', '신나는', '잔잔하게', '좋아서', '잔잔하고', '평화로워서', '좋음', '생소하지만', '좋은', '편하게', '좋네요', '잔잔하게', '가볍게', '좋음', '좋음', '이쁘지', '좋겠다', '좋다', '좋은', '좋음', '좋아요', '좋고', '아까', '좋은데', '좋다고', '예뻐', '지루해도', '좋음', '고마워', '건강하게', '좋아요', '꾸준히', '구린거', '좋음', '이상해', '쉬워져', '미쳤다', '나른한', '예쁨', '시원해', '좋아서', '뿌듯하네요', '좋다', '신기한', '소소한', '좋으니', '좋겠습니다', '좋지만', '아쉽다', '망한', '망한', '완벽함', '좋다고', '좋인데', '좋겠다난', '좋았는데', '좋고', '좋네요', '안쓰럽다', '좋지', '좋은', '속상해서', '좋아해서', '좋다', '뻔한', '좋음', '슬프다', '미쳤어', '유치함', '특별해하고', '좋음', '좋다', '망한', '망한', '미치겠다', '좋지', '좋겠다', '행복하자', '좋음', '좋겠음', '잔잔한', '엄청나게', '좋은가', '청량한', '시원해여', '가볍게', '좋음', '좋음', '예뻐', '좋은데', '좋은데', '좋네', '신나게', '같고', '아쉽다', '지루하다고', '좋은', '성장한', '아쉽다', '있겠네요', '아쉽긴', '새로운', '시러하는거', '좋음', '나른한', '이상해지는', '조아서', '아쉽다', '안타까운', '좋은', '좋겠다', '똑똑하게', '같습니다', '성장해서오래', '밋밋한', '좋아서', '좋네', '고프다', '좋아서', '좋다', '미친', '좋다', '좋은', '좋아요', '힘차고', '좋았다면', '청량하게', '좋게', '행복하네요', '좋네요', '심심하다고', '깔끔하게', '좋았음', '추하다', '안타까', '이쁨', '조은', '좋다', '예뻐', '싫네요', '좋당', '좋아요', '시원한', '행복한', '행복한', '아프고', '좋은', '안되는거', '좋은데', '예쁜', '좋음', '애매한', '좋다', '유연한', '잘맞아', '좋은', '다양한', '좋은데', '잔잔하고', '없는거', '좋았는데', '이뻐져서', '궁금했는데', '당했다', '성숙해진', '좋은', '좋다', '삼삼한', '이쁘고', '편하게', '좋음', '좋아한다면', '좋은', '가득한', '쉬운', '있져', '나열하는', '좋다', '어눌한', '귀엽', '좋아아', '짜증나고', '좋겠다', '깔끔히', '상관없이', '신나게', '좋지만', '좋다', '좋네요', '안되겠네', '좋다', '신나고', '짜증나고', '좋겠다', '깔끔히', '상관없이', '신나게', '좋지만', '좋다', '좋네요', '안되겠네', '좋다', '신나고', '쉬운', '좋다', '잔잔해서', '좋은데', '높아서', '좋고', '좋아요', '좋은데', '좋음', '성숙해진듯', '예쁘다', '좋음', '적당하게', '잔잔한', '좋네요', '좋음', '성숙한', '좋음', '신기하다', '좋다', '나른한', '좋아해주시니까', '좋다', '좋다', '좋아서', '심심하다', '좋음', '좋다', '화려하지만은', '멋진', '있었던거야', '좋음', '잔잔한', '잔잔한데', '힘드네요', '좋아요', '딱히', '좋다', '좋던데', '좋구', '좋구', '올바른', '좋네요', '좋다', '좋음', '좋음', '예뻐', '좋아에', '아련한', '높고', '깐깐한', '아닌것', '좋다고', '좋아요', '좋다', '좋은', '신나지도', '귀여운', '무리한', '모호해지다가', '아니나', '다를까', '좋다', '좋은', '힘들겠다', '좋네', '좋은데', '좋은데', '좋겠다', '같던데', '좋음', '높은', '아니어서', '편하게', '좋아서', '좋아요', '맛깔나게', '시원하고', '좋다', '힘드네', '없는거', '없을거', '시원해지는', '예쁘지', '설레는', '좋다고', '잔잔한', '신남이여서', '행복해', '좋은데', '좋다', '좋습니다', '좋은데', '좋다', '편해요', '좋다', '잔잔한', '좋아용', '좋던데', '좋은', '편하고', '괜찮은', '자리수', '기대하면', '만족해야', '연연하지', '좋은데', '그러시지', '구리다고', '심해서지', '당하겠지만', '다르게', '좋네', '예쁘게', '쉬워져', '좋은데', '아니냐', '행복하다', '좋은', '편안하게', '흔한', '피곤함이', '좋은', '요란한', '싫어하는', '좋음', '괜찮은데', '좋음', '몽글몽글한', '좋음', '발랄한거', '원했던', '아쉬울수도', '좋음', '좋다', '좋은데', '무겁지도', '가볍지도', '조용한', '기대했는데', '잔잔한', '신나고', '기대한', '아쉬울것', '원하는', '원하지', '있지만', '좋음', '편안하고', '신나는', '안타깝다', '신나는', '잔잔한', '신나지가', '좋은데', '좋다', '똑같아요', '좋다', '좋음', '예쁘다', '좋다', '똑같아요', '좋다', '좋음', '예쁘다', '좋기만', '예뻐', '먼가', '어려워', '좋았어', '좋았다고', '좋아서', '좋을거', '아쉽네요', '없었다', '예쁘고', '달랐다', '같네', '좋은데', '씬나는디', '망해', '좋을것', '좋은데', '좋아요', '좋은', '좋은데', '애매하네요', '비슷하네', '좋음', '잔잔해서', '편안해', '색다른', '다른데', '특별한', '좋을것', '좋은데', '좋아요', '좋은', '좋은데', '애매하네요', '비슷하네', '좋음', '잔잔해서', '편안해', '색다른', '다른데', '특별한', '낮은건', '아니겠지', '잔잔한', '좋다', '예쁘고', '좋아서', '낮아서', '흔한', '독특하고', '새로운', '심심한가', '좋아했는데', '좋다', '싫어요', '싫어요', '좋아하면서', '느긋하고', '예뻐', '좋은데', '좋음', '그랬듯', '좋고', '탄탄하고', '나쁠', '좋아해서', '좋은데', '그렇나요', '많네요', '싫으면', '좋은데', '멋져서', '싫으면', '중요하지', '이쁨', '좋은데', '그래용', '던던이', '좋음', '예쁘고', '청량하고', '좋아요', '많네요', '좋은데', '심하네', '같잖은', '많은거', '좋겟당', '좋다고', '그래요', '좋음', '있을까요', '그랬냐', '좋으면', '좋고', '싫다고', '피곤하게', '좋음', '같고', '좋은데', '싫테하고', '싫다면서', '좋네요', '좋음', '확실함', '산뜻한', '좋아요', '뻔하죠', '낮아서', '신선하다', '좋다', '잔잔하니', '같아여', '청량한', '좋다', '좋았는데어', '안좋다고', '안타깝네', '좋아요', '좋은가', '잔잔하면서', '좋네요', '탄탄하구', '이쁘고', '이쁘니까', '좋아할', '청량한', '아련하고', '좋다', '이쁘다', '지겨워', '느려서', '빠르면', '좋긴', '좋아요', '시원한', '나른한', '설레고', '화사한', '좋다', '좋으니까', '미쳐', '불쌍하다', '좋아하면서', '행복하니까', '좋은', '좋아서', '좋아하는데', '편안하고', '시원하고', '노래인듯', '새로운', '있을까', '이상한', '속상하지만', '딱좋은', '뿐이네요', '좋당', '예뻐져', '미친', '예뻐', '좋다', '좋긴', '좋은데', '올바른', '시원하고', '좋다', '행복해요', '시원하게', '예쁘다고', '좋네', '좋다', '좋다', '좋다', '정신차렸나', '편하게', '좋은', '이뻐', '좋네', '편하고', '있는데요', '좋다', '신기한', '좋다구', '신기하네', '기대할게', '있으려나', '퇴보하네', '많다는건', '있다는', '아니었어서', '아무런', '좋지', '이쁨', '좋다', '망했네', '행복한', '좋다', '좋은데', '진지하게', '좋다고', '정신차려야', '아쉽다', '안될거다', '어떠냐라고', '아니라고요', '좋음', '좋고', '청량한', '좋은', '달콤하면서도', '노래인것', '신나는', '좋아했어서', '아쉽긴', '높게', '좋아하고', '없으셨음', '좋겠어요', '기대했는데', '불안한', '불안해지게', '그런게', '잔잔한', '좋아요', '좋은', '궁금해지더라구요', '청량한데', '미를', '궁금했는데', '역시네요', '노련하고', '좋다', '괜찮네', '좋은데', '기대했는데', '이뻐', '나쁘진', '편하게', '좋은데', '아쉬운', '이상한', '아니냐', '당연히', '기대했는데', '낮아서', '좋을', '청량한', '좋아요', '잔잔하고', '청량하고', '좋은데', '힘들듯', '낮았지만', '좋아서', '회복하는', '좋다', '심심하고', '같데', '신나고', '좋고', '좋다', '좋고', '좋다', '좋아용', '좋고', '이뻐서', '좋은', '싫어요', '예뻐', '좋을것', '좋나용', '좋다', '좋음', '좋다', '심심하다', '좋다', '지루한', '좋지', '미쳤다', '청량한', '좋네', '좋음', '시원하게', '좋아요', '잔잔하지', '좋더라구요', '예쁘구요', '편하게', '좋은', '좋다', '좋음', '같네요', '좋음', '먼가', '좋더라', '좋은데', '아쉽다', '미쳤다', '높은', '있지도', '없는거', '나른한', '황홀해서', '미치는', '이뻐', '좋다', '좋아요', '좋다', '싫어하는데', '좋다', '미친듯이', '이쁘구나', '부드럽다', '좋을듯', '좋아요', '좋은', '고마워요', '좋다', '좋은데', '좋은', '차분한', '나쁘지', '좋음', '좋다', '이쁘당', '좋다', '신나는거', '기대했어서', '중요한', '좋은', '잔잔한', '성숙하지만', '이쁨', '시원시원하', '좋은', '이뻐서', '이뻐', '신선한', '좋음', '좋은', '좋겠다', '다르게', '좋음', '이쁨', '좋다', '좋다', '편해', '궁금함', '너무해', '너무해', '좋다아', '좋음', '차분하고', '좋아용', '편하게', '좋네요', '좋은', '좋은', '좋다고', '많았으면', '좋겠음', '나긋나긋해', '좋아요', '좋다', '편하게', '좋을듯', '많아서', '있는것', '좋겠당', '상쾌한', '시원함이라면', '잔잔한', '청량함이다', '예쁘네요', '성숙해지고', '어른스러워진', '좋다', '청량하고', '좋당', '미쳤다', '이쁘고', '여리', '여리하고', '좋아하네', '달콤하고', '청량한', '청량하고', '좋다', '건강하게', '안되겠네', '좋다', '좋아여', '좋음', '좋당', '좋아하네', '좋은데', '좋겠다', '낮이라면', '좋은데', '좋고', '좋고', '같고', '좋고', '좋은데', '좋고', '좋고', '이뻐', '신나고', '똑같다', '그랬겠지', '많았어', '행복하게', '좋아요', '이쁘다', '단단해졌어', '계셔서', '좋겠음', '좋아요', '좋다', '좋아요', '멀었는데에', '좋다', '좋아요', '예뻐', '좋음', '심한듯', '완벽한', '좋아요', '조화롭게', '좋다는', '적절히', '좋아하는데', '좋다', '싫음', '좋다', '좋음', '잔잔한', '더한', '좋자', '좋아요', '좋아요', '없지만', '좋다', '필요없는', '좋다', '괜찮은데', '설레게', '좋습니다', '같네요', '불안했는데', '괜찮아서', '좋은', '시원한', '좋은', '가볍게', '좋네요', '좋아요', '가볍게', '좋은데', '시원하다', '시원한', '편안하게', '좋은데', '예쁘고', '좋다', '편안한', '좋았을듯', '싱그러운', '높은', '편할', '같고', '편해진다', '괜찮네', '좋다', '신나게', '좋을거', '좋지만', '예쁜', '예쁘던데', '예쁜', '예쁜', '아쉽네요', '좋긴', '야할꺼', '좋다', '좋고', '좋은', '미쳤다', '귀엽다', '낮아서', '좋겠다', '좋겠음', '아쉬운', '좋은가요', '좋아라', '좋네', '좋음', '아닌가용', '좋다', '새로운', '새로운', '예쁜', '나른한', '좋은데', '나른함', '촌스러운', '좋다', '신나는데', '엄청나게', '좋음', '좋음', '미쳤어', '좋다', '좋다', '좋다', '좋다', '회복하면', '좋겠다', '좋은데', '잔잔하게', '좋다', '이쁘다고', '좋은', '좋다', '다양한', '좋다', '미치겠음', '좋다', '좋은데', '소소한', '잔잔하다', '신나고', '딱일', '좋네요', '좋다', '좋은데', '잔잔하게', '귀엽다', '작작해라', '시러하는데', '좋다', '안좋다고', '좋은', '좋다', '좋은데', '신나는', '색다르다', '잔잔한듯', '설레는', '같네요', '아프지말고', '좋은', '신나는', '좋겠어요', '좋네요', '좋음', '편하게', '좋은', '노래인듯', '아쉽지만', '좋은', '세련되게', '좋당', '나쁘진', '좋은데', '있으니까', '좋당', '예쁜데', '좋아하시는', '좋다', '기대하게', '낮은건', '아니길', '편안하게', '좋네', '느긋하게', '청량하면서도', '좋다', '예뻐서', '좋다', '좋네', '이쁘지', '사랑스럽다', '예쁘시다', '좋게', '궁금해서', '좋은데', '좋아용', '좋다', '미칠듯', '아쉬웠었는데이', '좋다', '좋은', '노래인듯', '좋다', '더울', '시원해지는', '시원한', '은은한', '시원함이다', '잔잔한', '편한듯', '궁금하네', '있다고', '청량한', '좋을', '시끄럽지', '좋당', '다행히', '좋은', '화려하고', '아쉽긴', '나른하고', '부드러운이', '좋은', '좋다', '좋다', '좋다', '잔잔하니', '좋네요', '좋은', '좋고', '좋음', '좋네', '예뻐요', '좋겠어', '나른하네', '좋당', '좋다', '좋은데', '신나는', '좋았을것', '좋은데', '좋다', '좋은데', '오묘해서', '좋을', '괜찮았음', '특별히', '예쁘다', '좋음', '느슨해진', '좋은', '미쳤다', '그렇네', '좋다', '좋다', '좋음', '색다르고', '좋음', '없었어도', '괜찮아요', '신나는', '잔잔한', '좋다', '좋다', '잔잔하고', '좋음', '적당히', '좋은', '좋다', '좋다', '좋아요', '가볍고', '사랑스러운', '좋은', '좋다', '사랑스러운', '좋다', '깨끗해서', '좋다', '멀쩡해서', '좋다', '완전히', '좋다', '미쳤다', '미쳤다', '고맙고', '좋네요', '청량하고', '좋다', '좋네요', '좋네', '좋다', '신나는', '기대하긴', '좋음', '좋다', '좋다는', '좋으', '좋아요', '좋음', '잔잔한', '편히', '많았다', '고마워', '좋으', '좋아요', '좋음', '잔잔한', '편히', '많았다', '고마워', '잔잔하게', '좋다', '신난당', '좋아용', '좋은데', '좋을듯', '좋은데', '어렵고', '높고', '좋은데', '좋을', '있으니까', '좋당', '쉬워져', '좋다', '좋고', '완벽하고', '좋음', '좋다', '좋은데', '좋다', '좋을', '미쳤네', '미쳤다', '미쳤다', '미쳤어', '미쳤다', '잔잔하게', '편안하게', '같네요', '좋은데', '좋네', '아쉽', '좋아요', '좋음', '좋은데', '잔잔하면', '좋겠다', '아쉽지만', '작게', '나른하다', '좋다', '편안하게', '노래잖아', '좋다', '좋은', '잔잔한', '좋다', '덥네요', '있었던거지', '좋네', '좋네', '좋다', '미쳤는데요', '좋은']</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'아쉬웠습니다', '있지만', '노래였음', '행복하고', '좋게', '새로운', '있는데오', '예쁨', '망했어', '저조한', '필요한', '신나기도', '아련하고', '딱이군', '좋을', '차분한', '부족하면', '사랑스럽고', '어렵지만', '헷갈려서', '있는건', '성장한', '방심하지', '신나면서도', '조아용', '설렜어에', '아프지', '성장하는오', '미치는줄', '기뻐서', '좋답니다', '강해졌음', '괜찮을거', '야합니다', '또렷한데', '느린', '같기도', '답답해서요', '있으니까', '가능한거', '좋았다', '슬픈', '있는지', '좋으니', '이상함', '작아서', '야함', '좋아해서', '설렜어는', '같은거', '안되겠다', '안될까봐', '높을텐데', '아니에요', '행복함', '미쳤고', '연연해', '밋밋하게', '부탁드립니당', '던던은', '완벽한데', '발랄하고', '그럴까', '조아요', '있었을텐데', '있자', '좋아하는', '좋아도', '성공했잖아', '사랑스러요', '아련한', '많았어요', '좋겠어요', '미쳐', '벅차오르는', '건강하세용', '귀여워요', '안됩니다', '앙해', '많앗어', '좋았습니다', '조은', '설렜어던던', '필요없는', '많았어', '맑고', '어떡하지', '좋에', '강하다', '먼가', '힘들긴', '예뻐요', '화창한', '대단함', '많은듯', '맑으면', '미쳤어요', '아쉽구만', '이쁘게', '지루한', '완벽하다', '좋다는걸', '뭉클하고', '높은', '아련하다', '만족한다', '아까운', '궁금했어요', '뿌듯하네', '벅차는', '귀엽구', '있네여', '자린데', '이상한', '엄청나네요', '약한', '같지만', '대단해', '슬프다', '많은거', '편안해', '딱좋노', '예쁘게', '장하다', '안될듯', '두렵다', '고마워', '설레게', '힘들었어요', '미친', '자세히', '습하고', '조아서', '던던이지', '편안하고', '짱짱할', '안전한', '완벽합니다', '있었겠지', '불쌍한것', '예뻐서', '좋아서', '가능해용', '설레게한', '던던던던던던던', '더웠는데', '덥다', '그런건', '구리노', '조하아', '신났으면', '시원하면서도', '신나고', '단단해지는구나', '탄탄한거', '청량하당', '엄청나네', '귀여운', '맑아서', '엄청나지', '좋을수', '힘들겠지', '있을거에요', '아녀', '가련한', '좋아하니까', '필요합니다', '좋은', '시원하다', '낮아요', '스러워', '신나자나', '높아서', '있지', '경쾌해', '멋있는', '던던아', '성공했네요', '설렜어가', '노래였네요', '높나요', '미쳤는데', '대단하신', '시끄럽', '어려운', '청량함이지', '던던이를', '행복하게', '아까우', '중요한게', '좋아했어요', '미침', '오죽하면', '뻔했다', '있어용', '딱이다', '그렇겠죠', '이뻐', '좋다', '이쁜거예요', '힘들면', '불안한', '탄탄하게', '경쾌한', '완벽한', '기대했는데', '빠르네요', '뻔해서', '없으니깐', '더웠잖아', '아련함', '있다고', '아까운줄도', '신나는데', '고맙', '실망하신', '자리수', '예쁜', '아니어도', '따뜻해지는', '뿌듯함', '싫었는데', '좋음', '서늘하게', '청량함', '좋네요', '차가', '애매하다는', '좋아했을꺼에요', '좋겠음', '없다는', '위험합니다', '날카로운', '가능한가요', '추합니다', '즐겁고', '사랑스럽다', '가까웠던', '한적한', '유일한', '없었을', '뻔했네요', '안됨', '설렜어만큼', '평범한데', '신나져서', '야할텐데', '연한다', '청량해', '설렜어보다', '가능합니다', '약한듯', '멋지게', '좋아하는데', '연연하셔야', '청량해서', '많으니까', '연연할게', '가능하면', '행복하다', '고마운', '부러워서', '빠르게', '넓은', '적절히', '미친거', '안되나', '그래두', '분명히', '더워라', '흥분함', '잘생겼어', '가능하다', '이쁘다', '그러는건', '좋져', '설렐수가', '아쉬워서', '당연한거니까', '이상하게', '높다', '달콤하다', '행복하기만', '좋다고', '어느덧', '있도록', '약해요', '친하게', '좋죠', '많다는거겠', '같네요', '그래요', '좋았지만', '힘들고', '아니네요', '신나용', '이뻤음', '이쁘지', '쏠쏠한', '드러요', '신나서', '불쌍한', '같네', '아프지말아요', '이쁘세요', '예뻤지만', '좋겠당', '적당한', '노래네요', '바쁜', '노래였으면', '미쳤음', '괜찮겠지', '쎄긴하다', '단조롭', '안타깝네', '던던던', '아린이니', '슬픔던던', '작은', '흠잡을데', '아니냐는', '좋으니까', '좋아요', '높지', '미치겠음', '성장하면서', '아까부터', '신남이다', '좋네', '없구', '굵고', '신남', '청량한게', '높지가', '예쁠', '화하시고', '방대하고', '약한데', '발랄해', '기뻐요', '충분히', '필요함', '미친다고', '소중해', '딱인', '행복해하는', '자유로운', '높게', '던던단', '행복하시든지', '선한', '빠를듯', '성장해서', '더워서', '원하던', '사이좋게', '아름다운', '고맙다', '자랑스럽고', '신나', '뚜렷하다', '던던이가', '좋잖니', '같아여', '독특하거', '눈부셔', '왠만한', '어색하게', '약하다는', '상쾌하게', '부탁드릴게요', '특이한', '맛깔나게', '좋아하고', '탁해', '심하게', '귀엽다', '좋아해', '아닌거', '안녕하세용', '신나네', '좋아서요', '조아여', '고마워요', '부탁드립니', '적당히', '어려웠는데', '좋겠는데', '더하면', '좀있음', '귀여워', '잘맞는', '나쁘지', '습할', '노래아니', '작작해라', '이뻐요', '화한듯', '슬픈데', '없을거에요', '신나네요', '조하', '성공하자', '미안하다고', '있겠', '좋았는데', '작게', '느리지만', '꾸준하게', '신나진', '급하게', '아쉽지만', '신날', '박한거', '싫은', '힘들수', '행복할', '좋은데', '복잡한', '대단한', '미쳤네', '행복했음', '달콤하고', '대단하네', '꾸준히', '좋아하게', '세련된', '많다', '힘든', '나쁜것만은', '부구', '안된데요', '있겠다', '부탁드립니다아', '아쉽게', '신나는거야', '무더운', '있겠죠', '당당하게', '명랑하고', '깔끔하고', '어뜩할꺼야', '궁금한거', '인할', '휩쓸', '사랑스러워', '이쁜', '유명할', '아니라는', '어이없어', '시원하고', '계신지', '아쉬운게', '나빠요', '힘나게', '입니다던던', '싫을', '있네요', '기쁠까', '그랬거든요', '있을까', '많더라고요', '필요했어', '좋겠네요', '완벽할', '힘들겠당', '가능할것', '좋거든', '아린인가', '아련함이', '힘들게', '조그마한', '좋겠다아', '건강히', '분주합시다', '좋잖아', '더워', '행복해', '사랑스러', '반듯한', '착한', '좋자', '더운줄', '신나기만', '칠하는건', '달라서요', '시끄럽다', '꼬이는구나', '맑을', '신비로운', '이롭다', '싫으면', '있을것', '예뻐라', '좋다아', '아련하네', '없다는게', '미쳤가', '중요한거죠', '좋아해용', '안되는거야', '세련되고', '대견하고', '있는듯', '행복하구', '완벽해요', '좋을수도', '던단', '좋아하는지', '딱이고', '아득해질', '가능하려나요', '기대할게요', '청량한', '좋기만', '좋아하지만', '있답니다', '행복해져요', '작다', '상당히', '확실함', '속상했는데', '좋당', '원할게요', '저래놓고', '강한가요', '편하고', '좋지만', '신나신나', '따스한', '미쳤나', '좋던데', '더운', '확실하지', '더우니까', '좋았던', '끊임없이', '즐거우면서도', '예쁘죠', '청량하니', '좋아한다는건', '조화롭게', '자잘하게', '가득한', '가볍게', '미치겟다', '멋있음', '아니었으면', '미치게', '조켓서', '없지만', '예쁘더라고요', '착한거', '힘들만큼', '아프지말고', '미묘한', '편하게', '만족해', '던던대', '필요없고', '궁금해서', '찬란한', '기쁘다', '없으니', '힘든건데', '신선하게', '복잡하네요', '좋단', '신기함', '좋겠다', '대단한거', '하찮은', '딱임', '아닐거', '귀찮으시더라도', '아린말고', '없었다', '설렜어', '높다고', '색다른', '아린이가', '몽글몽글하고', '대단해요', '신선함', '미쳤어', '상쾌하고', '설렌답', '좋으면', '좋겟다', '귀여우면서도', '노래인것', '화창해져', '성장할줄', '미치겠어요', '없을거', '조용히', '시원한', '예쁘고', '뿐이었', '따뜻한', '비슷해요', '아기자기한', '신난', '있답', '즐겁게', '같습니다', '이상해', '확실하게', '빠르고', '답답하다', '조으다', '찐득한', '많다는', '몽글하고', '거지같은', '아름답게', '슬퍼하진', '또렷함', '미안하다', '없습니다', '좋니', '예쁘세요', '많아서', '좋아했는데', '위대하다고', '망했다나', '계신거에요', '미친듯', '딱이야', '망하겠어요', '대단하고', '잘생김', '덥고', '성공한다에', '굉장히', '괜찮네', '행복한데', '안될', '싫어요', '죄송합니다', '미치겠다', '두드러지지', '아까워용', '이뻐졌네요', '뿌듯하고', '약하네', '딱좋다', '건강하게', '신나게', '많구나', '시원하게', '짜릿하다', '성공했다는', '미쳤구요', '조하요', '보석같은', '좋아용', '미쳤', '좋다는', '있었죠', '아까', '좋잖어', '아깝지', '아니라고', '시원해서', '심각한', '같죠', '미쳤냐고', '행복해서', '섹시함', '멋져요', '청량하다', '던던도', '분명합니다', '비슷한', '이렇지', '입니다만', '다른데', '있다는', '확실한', '기특해', '귀엽고', '있죠', '청량하고', '예쁘냐', '비슷하진', '변했구나', '어떡하니', '기쁘당', '잔잔한', '빨간', '가능한거지', '다행히', '없는거', '좋길래', '신나는게', '불안하네요', '대단하다', '좋겠', '자랑스러', '비슷한데', '좋더라구요', '드러', '순수하고', '좋아합니다', '예쁘다', '안쓰럽게', '산뜻함', '맑아지면', '반짝반짝해', '편안하면서', '낭비할', '높은데', '변하진', '연연해야', '아쉬워요', '망한', '갑갑한', '많을거', '이런게', '장난없어서', '아파', '아쉬웠', '아닙니까', '있을까요', '통쾌해하고', '완벽해졌다', '당연히', '괜찮아', '신난다', '야해요', '신나기보단', '좋냐', '진지하게', '신나는', '아닌듯', '행복해요', '심한', '아닌게', '설렜어랑', '아름다워', '던던이', '심심하지', '화창해지니까', '예뻐', '평범한', '멋지고', '성장하는', '던던이도', '미안하면', '같지도', '힘든거', '좋지', '힘나는', '좋겠습니다', '행복하세요', '뿌듯하네요', '아쉬운', '자랑스럽다', '그러네', '높혀', '던던이랑', '없군', '뽀얀', '위험했다', '좋아할', '없으니까', '깔끔해', '더워도', '허전하네', '좋고', '좋을텐데', '아련하면서도', '신선하다', '강하구나', '고마워용', '아련하면서', '이쁘고', '치열한', '낮다고', '완벽함', '발랄한', '시원하', '있었다', '이쁨', '안좋을', '좋아하는줄', '행복했어요', '작으나마', '휩쓸었을텐데', '아까우니', '가득하다', '울적해서', '드런', '짜릿해', '우울했는데', '상관없는', '색다르게', '사랑스런', '미쳤다', '좋아여', '행복한', '탄탄해서', '원하는', '아린이', '기쁘고', '예쁘', '진정한', '더해요', '좋습니다', '잘나서', '없었어서', '더던던던', '아린이는', '벅차고', '있다니', '아쉽다', '심심하네요', '있는거야', '궁금함', '뽀송해지는', '나쁘신', '있기에는', '무거워져서', '실한', '같고', '뿌듯하다', '좋긴', '잠잠하게', '예쁘당'}</t>
+          <t>['좋아요', '경쾌해', '완벽해요', '사랑스러요', '좋네요', '미쳤어', '미쳤어', '좋아요', '경쾌해', '완벽해요', '사랑스러요', '좋네요', '미쳤어', '미쳤어', '좋아요', '경쾌해', '완벽해요', '사랑스러요', '좋네요', '미쳤어', '미쳤어', '아련한', '좋음', '던던이', '귀여워', '맛깔나게', '어느덧', '던던이가', '귀여워', '맛깔나게', '어느덧', '던던이가', '답답하다', '미친', '좋은', '시끄럽', '오죽하면', '행복하세요', '찬란한', '귀엽다', '좋아요', '좋아서', '먼가', '던던이도', '있자', '싫은', '설렜어랑', '있을까', '즐겁게', '귀엽다', '좋아요', '좋아서', '먼가', '던던이도', '있자', '싫은', '설렜어랑', '있을까', '즐겁게', '청량한', '힘들만큼', '좋을수도', '있다는', '좋은', '예뻐요', '같아여', '좋고', '좋아요', '있었다', '기뻐서', '설렜어던던', '대단한', '아쉽게', '아쉬워요', '던던이를', '기쁘고', '좋은', '속상했는데', '기쁠까', '조으다', '설렜어던던', '대단한', '아쉽게', '아쉬워요', '던던이를', '기쁘고', '좋은', '속상했는데', '기쁠까', '조으다', '작게', '궁금했어요', '찬란한', '부탁드릴게요', '작게', '궁금했어요', '찬란한', '부탁드릴게요', '작게', '궁금했어요', '찬란한', '부탁드릴게요', '작게', '궁금했어요', '찬란한', '부탁드릴게요', '좋아서', '이쁘세요', '이쁜거예요', '자유로운', '사랑스런', '기특해', '좋아서', '이쁘세요', '이쁜거예요', '자유로운', '사랑스런', '기특해', '던던이', '던던이', '편안해', '분명히', '던던이', '던던이', '편안해', '분명히', '던던이', '던던이', '편안해', '분명히', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '덥다', '좋네', '던던아', '딱좋다', '던던대', '던던이', '두렵다', '던던대', '던던이', '두렵다', '던던대', '던던이', '두렵다', '이렇지', '예쁘다', '던던이', '야할텐데', '예쁜', '아쉬워서', '예쁜', '설레게', '위험합니다', '신나는', '좋다', '아린인가', '예쁜', '설레게', '위험합니다', '신나는', '좋다', '아린인가', '좋네', '아기자기한', '조아요', '좋음', '던던이', '왠만한', '청량하고', '좋다', '좋음', '좋네', '아기자기한', '조아요', '좋음', '던던이', '왠만한', '청량하고', '좋다', '좋음', '좋네', '아기자기한', '조아요', '좋음', '던던이', '왠만한', '청량하고', '좋다', '좋음', '좋네', '아기자기한', '조아요', '좋음', '던던이', '왠만한', '청량하고', '좋다', '좋음', '신나는', '진정한', '청량하고', '시원해서', '더운', '귀여워', '분주합시다', '신나고', '좋아하는', '좋아요', '분주합시다', '신나고', '좋아하는', '좋아요', '분주합시다', '신나고', '좋아하는', '좋아요', '분주합시다', '신나고', '좋아하는', '좋아요', '예쁘다', '예쁜', '예쁘다', '예쁜', '예쁘다', '예쁜', '예쁘다', '예쁜', '예쁘다', '예쁜', '예쁘다', '예쁜', '높나요', '휩쓸었을텐데', '아쉽다', '무더운', '좋은', '좋은', '높나요', '휩쓸었을텐데', '아쉽다', '무더운', '좋은', '좋은', '높나요', '휩쓸었을텐데', '아쉽다', '무더운', '좋은', '좋은', '높나요', '휩쓸었을텐데', '아쉽다', '무더운', '좋은', '좋은', '자랑스럽다', '보석같은', '작은', '가득한', '자유로운', '사랑스런', '좋잖니', '좋을텐데', '좋다', '던던이가', '좋아하는', '이상해', '평범한데', '신선하게', '좋지만', '더워서', '맑으면', '빨간', '같네', '좋네요', '좋다', '잘생겼어', '좋네요', '좋다', '잘생겼어', '좋네요', '좋다', '잘생겼어', '좋네요', '좋다', '잘생겼어', '좋다', '예쁜', '화창한', '신나면서도', '아련함이', '좋을', '아까워용', '가볍게', '가볍게', '더운', '청량하고', '좋답니다', '미쳤어요', '눈부셔', '더운', '좋답니다', '조용히', '세련되고', '좋네', '설렜어', '좋겠네요', '좋고', '좋음', '세련되고', '좋네', '설렜어', '좋겠네요', '좋고', '좋음', '세련되고', '좋네', '설렜어', '좋겠네요', '좋고', '좋음', '세련되고', '좋네', '설렜어', '좋겠네요', '좋고', '좋음', '세련되고', '좋네', '설렜어', '좋겠네요', '좋고', '좋음', '세련되고', '좋네', '설렜어', '좋겠네요', '좋고', '좋음', '좋거든', '좋아서', '예쁜', '미치겠다', '좋거든', '좋아서', '예쁜', '미치겠다', '화창해지니까', '덥고', '좋다', '예뻐요', '화창해지니까', '덥고', '좋다', '예뻐요', '화창해지니까', '덥고', '좋다', '예뻐요', '청량하고', '신나고', '좋다', '꾸준히', '좋네요', '좋네', '미치겠음', '좋아요', '청량해서', '뽀얀', '있다니', '좋아요', '청량해서', '뽀얀', '있다니', '좋아요', '청량해서', '뽀얀', '있다니', '좋아요', '청량해서', '뽀얀', '있다니', '상당히', '던던이', '좋음', '이쁘다', '충분히', '이쁘고', '청량하고', '맑아지면', '무더운', '시원하게', '좋겠다', '좋당', '좋네', '많앗어', '좋네', '좋다', '미친', '행복했어요', '없을거에요', '좋아요', '좋은데', '귀여워', '미친', '행복했어요', '없을거에요', '좋아요', '좋은데', '귀여워', '미친', '행복했어요', '없을거에요', '좋아요', '좋은데', '귀여워', '던던이', '좋은데', '색다른', '좋겠는데', '좋겠다', '같네', '건강하게', '많았어요', '좋다', '아닐거', '좋은데', '사랑스러워', '사랑스러', '그래두', '좋아여', '좋은', '소중해', '고마워요', '좋긴', '눈부셔', '좋은데', '사랑스러워', '사랑스러', '그래두', '좋아여', '좋은', '소중해', '고마워요', '좋긴', '눈부셔', '좋은데', '사랑스러워', '사랑스러', '그래두', '좋아여', '좋은', '소중해', '고마워요', '좋긴', '눈부셔', '좋은데', '사랑스러워', '사랑스러', '그래두', '좋아여', '좋은', '소중해', '고마워요', '좋긴', '눈부셔', '좋은데', '사랑스러워', '사랑스러', '그래두', '좋아여', '좋은', '소중해', '고마워요', '좋긴', '눈부셔', '좋은데', '사랑스러워', '사랑스러', '그래두', '좋아여', '좋은', '소중해', '고마워요', '좋긴', '눈부셔', '좋은데', '사랑스러워', '사랑스러', '그래두', '좋아여', '좋은', '소중해', '고마워요', '좋긴', '눈부셔', '귀찮으시더라도', '안타깝네', '없군', '던던이도', '설렜어보다', '설렜어', '좋다', '발랄해', '던던던', '던던던던던던던', '좋냐', '좋아서', '미치겟다', '좋지만', '조켓서', '좋음', '좋아했어요', '신나는', '노래네요', '있다는', '대단하고', '좋다', '좋아서', '좋다', '신나는', '신나는', '좋고', '미쳤다', '박한거', '아쉽다', '좋아여', '괜찮아', '많았어', '좋겠다', '있다는', '대단하고', '좋다', '좋아서', '좋다', '신나는', '신나는', '좋고', '미쳤다', '박한거', '아쉽다', '좋아여', '괜찮아', '많았어', '좋겠다', '있다는', '대단하고', '좋다', '좋아서', '좋다', '신나는', '신나는', '좋고', '미쳤다', '박한거', '아쉽다', '좋아여', '괜찮아', '많았어', '좋겠다', '있는거야', '하찮은', '대단한', '기뻐요', '던단', '어떡하지', '있는거야', '하찮은', '대단한', '기뻐요', '던단', '어떡하지', '있는거야', '하찮은', '대단한', '기뻐요', '던단', '어떡하지', '있는거야', '하찮은', '대단한', '기뻐요', '던단', '어떡하지', '있는거야', '하찮은', '대단한', '기뻐요', '던단', '어떡하지', '부탁드립니', '좋아서', '꾸준히', '좋아서', '좋은', '좋다는', '좋다', '장하다', '아쉽구만', '미쳤어', '좋고', '좋으니', '좋게', '좋다', '미쳤네', '치열한', '뿌듯하고', '자랑스럽다', '장하다', '던던이', '자랑스럽다', '대단해', '대단해', '미쳤다', '장하다', '던던이', '대단하다', '자랑스럽다', '대단해', '대단해', '미쳤다', '장하다', '던던이', '대단하다', '자랑스럽다', '대단해', '대단해', '미쳤다', '장하다', '던던이', '대단하다', '좋은', '청량하다', '좋은', '청량하다', '화창한', '좋은', '청량한', '청량하고', '이쁨', '행복해', '화창한', '좋은', '청량한', '청량하고', '이쁨', '행복해', '좋아요', '아쉬운', '좋은데', '좋다', '좋아서', '좋아요', '아쉬운', '좋은데', '좋다', '좋아서', '좋아요', '아쉬운', '좋은데', '좋다', '좋아서', '좋아요', '아쉬운', '좋은데', '좋다', '좋아서', '좋아요', '아쉬운', '좋은데', '좋다', '좋아서', '좋음', '좋아해서', '귀여워요', '귀여워', '좋다', '좋음', '좋아해서', '귀여워요', '귀여워', '좋다', '좋음', '좋아해서', '귀여워요', '귀여워', '좋다', '좋음', '좋아해서', '귀여워요', '귀여워', '좋다', '나쁘지', '던던대', '없지만', '대단하네', '좋아서', '착한거', '이쁘게', '없지만', '많은듯', '나쁘지', '던던대', '없지만', '대단하네', '좋아서', '착한거', '이쁘게', '없지만', '많은듯', '아까', '넓은', '안쓰럽게', '던던대', '아까', '넓은', '안쓰럽게', '던던대', '신나서', '좋음', '안되나', '좋게', '좋다', '예쁘고', '청량해서', '있도록', '좋네요', '좋아요', '장하다', '던던이', '예쁘고', '아쉽다', '끊임없이', '저조한', '높다고', '나쁜것만은', '아닌게', '있다는', '불안한', '아쉽다', '끊임없이', '저조한', '높다고', '나쁜것만은', '아닌게', '있다는', '불안한', '좋은', '미쳤가', '좋은', '미쳤가', '힘들었어요', '기쁘다', '미쳤다', '미쳐', '미쳤나', '계신거에요', '좋아요', '계신거에요', '좋아요', '계신거에요', '좋아요', '좋아요', '미침', '뿌듯하네요', '느리지만', '탄탄하게', '완벽해졌다', '대단하다', '확실한', '아깝지', '충분히', '자랑스럽고', '뿌듯하다', '더운', '필요한', '싫어요', '좋네', '좋아요', '미침', '뿌듯하네요', '느리지만', '탄탄하게', '완벽해졌다', '대단하다', '확실한', '아깝지', '충분히', '자랑스럽고', '뿌듯하다', '더운', '필요한', '싫어요', '좋네', '좋아요', '미침', '뿌듯하네요', '느리지만', '탄탄하게', '완벽해졌다', '대단하다', '확실한', '아깝지', '충분히', '자랑스럽고', '뿌듯하다', '더운', '필요한', '싫어요', '좋네', '좋아요', '미침', '뿌듯하네요', '느리지만', '탄탄하게', '완벽해졌다', '대단하다', '확실한', '아깝지', '충분히', '자랑스럽고', '뿌듯하다', '더운', '필요한', '싫어요', '좋네', '좋아요', '미침', '뿌듯하네요', '느리지만', '탄탄하게', '완벽해졌다', '대단하다', '확실한', '아깝지', '충분히', '자랑스럽고', '뿌듯하다', '더운', '필요한', '싫어요', '좋네', '괜찮아', '좋은', '고마워용', '필요없는', '발랄하고', '신나고', '행복해요', '입니다만', '엄청나지', '미쳤어', '괜찮아', '좋은', '고마워용', '필요없는', '발랄하고', '신나고', '행복해요', '입니다만', '엄청나지', '미쳤어', '괜찮아', '좋은', '고마워용', '필요없는', '발랄하고', '신나고', '행복해요', '입니다만', '엄청나지', '미쳤어', '좋다', '좋아했는데', '좋다', '좋아서', '사이좋게', '좋겠어요', '예뻐서', '좋다', '좋아했는데', '좋다', '좋아서', '사이좋게', '좋겠어요', '예뻐서', '좋다', '애매하다는', '속상했는데', '미쳤음', '좋당', '좋다', '좋다', '좋다', '애매하다는', '속상했는데', '미쳤음', '좋당', '좋다', '좋다', '좋다', '좋고', '좋다', '경쾌한', '편안하면서', '신나는', '좋다', '가득하다', '귀여워', '좋지', '이런게', '청량함이지', '좋다', '좋고', '좋다', '경쾌한', '편안하면서', '신나는', '좋다', '가득하다', '귀여워', '좋지', '이런게', '청량함이지', '좋다', '꾸준하게', '가능합니다', '멋있는', '뿌듯하고', '좋당', '좋고', '좋음', '중요한게', '중요한거죠', '뭉클하고', '좋네요', '대단해요', '좋아하고', '미쳐', '미쳤나', '그래요', '미쳐', '미쳤나', '그래요', '조아서', '미쳤네', '같은거', '아름다운', '신나고', '좋아요', '울적해서', '대단한', '많을거', '대단한거', '장하다', '미쳤다', '아름다워', '많을거', '대단한거', '장하다', '미쳤다', '아름다워', '미친거', '좋다', '미쳤다', '미쳤어', '성장하는오', '같네', '설렌답', '더워도', '괜찮을거', '미쳤음', '장하다', '뿌듯하네', '좋은데', '같네요', '귀엽고', '좋음', '예쁘다', '좋음', '좋음', '같네요', '귀엽고', '좋음', '예쁘다', '좋음', '좋음', '같네요', '귀엽고', '좋음', '예쁘다', '좋음', '좋음', '좋긴', '좋음', '좋다', '좋아서', '발랄한', '조하', '좋아요', '좋아요', '야해요', '좋긴', '좋음', '좋다', '좋아서', '발랄한', '조하', '좋아요', '좋아요', '야해요', '좋아합니다', '좋아요', '좋아여', '좋음', '좋음', '좋아요', '미쳐', '없는거', '빠를듯', '귀엽다', '좋네요', '좋음', '좋아요', '미쳐', '없는거', '빠를듯', '귀엽다', '좋네요', '좋다', '약한', '좋음', '미쳤어', '좋겠다', '좋네요', '좋음', '더하면', '신났으면', '좋겠는데', '좋아서', '좋다', '약한', '좋음', '미쳤어', '좋겠다', '좋네요', '좋음', '더하면', '신났으면', '좋겠는데', '좋아서', '입니다던던', '좋아요', '습하고', '덥고', '좋네요', '좋아하는', '이롭다', '좋아서', '미친거', '같네요', '좋아요', '힘들었어요', '다행히', '힘들었어요', '다행히', '예쁘고', '예쁘다', '예뻤지만', '고마워', '좋으면', '좋다', '선한', '명랑하고', '반듯한', '좋게', '좋아서', '좋겟다', '좋아요', '귀여운', '좋은', '좋았는데', '조아용', '더운', '분명합니다', '있을까요', '가능하려나요', '좋았는데', '조아용', '더운', '분명합니다', '있을까요', '가능하려나요', '좋아서', '좋아서', '이상함', '대단하다', '좋다는', '청량하다', '좋다', '좋을텐데', '좋고', '미쳤다', '좋다', '신나고', '좋음', '좋다', '좋다', '좋지', '아린이가', '좋아했을꺼에요', '좋은', '아닙니까', '좋아서', '좋아서', '이상함', '대단하다', '좋다는', '청량하다', '좋다', '좋을텐데', '좋고', '미쳤다', '좋다', '신나고', '좋음', '좋다', '좋다', '좋지', '아린이가', '좋아했을꺼에요', '좋은', '아닙니까', '설렜어', '약하다는', '좋아서', '편하고', '귀여운', '완벽한', '평범한데', '좋냐', '같네요', '딱이고', '아까', '미쳤다', '설렜어', '약하다는', '좋아서', '편하고', '귀여운', '완벽한', '평범한데', '좋냐', '같네요', '딱이고', '아까', '미쳤다', '설렜어', '약하다는', '좋아서', '편하고', '귀여운', '완벽한', '평범한데', '좋냐', '같네요', '딱이고', '아까', '미쳤다', '설렜어', '약하다는', '좋아서', '편하고', '귀여운', '완벽한', '평범한데', '좋냐', '같네요', '딱이고', '아까', '미쳤다', '좋음', '신나', '귀엽고', '좋다', '좋네요', '좋아서', '던던대', '던던대', '좋다', '좋게', '좋다', '좋지', '좋다', '부탁드립니당', '야합니다', '괜찮네', '자리수', '좋아요', '짜릿해', '좋다', '따뜻해지는', '좋아요', '약한', '미쳤다', '좋음', '설렜어에', '설레게', '좋아서', '충분히', '가능하다', '설렜어', '좋아서', '좋다', '좋아서', '충분히', '가능하다', '설렜어', '좋아서', '좋다', '좋아서', '충분히', '가능하다', '설렜어', '좋아서', '좋다', '더웠잖아', '더운줄', '더워서', '꾸준히', '있는건', '귀여워요', '좋다', '좋음', '예쁘다', '좋은데', '있겠죠', '앙해', '세련된', '미쳤', '좋아하는데', '더운', '예쁘고', '예쁘고', '청량해', '좋은데', '있겠죠', '앙해', '세련된', '미쳤', '좋아하는데', '더운', '예쁘고', '예쁘고', '청량해', '신나는데', '아련하네', '좋다', '부탁드립니다아', '좋다', '좋다', '신나기도', '좋음', '신나는데', '아련하네', '좋다', '부탁드립니다아', '좋다', '좋다', '신나기도', '좋음', '신나는데', '아련하네', '좋다', '부탁드립니다아', '좋다', '좋다', '신나기도', '좋음', '심심하지', '심심하네요', '없으니까', '아니었으면', '있었겠지', '있었다', '던던대', '좋다', '이상하게', '느린', '노래였음', '굉장히', '있을것', '좋음', '다른데', '꾸준히', '신기함', '좋은', '싫어요', '고마워요', '좋아요', '강하구나', '좋다', '위대하다고', '신나', '좋아요', '이상해', '안될까봐', '좋다', '좋다', '귀여워', '아린이', '설렜어', '좋다', '귀여워', '아린이', '설렜어', '좋고', '미쳤음', '귀엽고', '이뻤음', '좋은데', '좋겠어요', '귀여워요', '건강하게', '행복하게', '아프지말고', '건강히', '행복해하는', '미쳤다', '행복해하는', '미쳤다', '좋다', '좋다', '불안하네요', '좋자', '지루한', '힘나는', '망했다나', '엄청나네요', '미쳤다', '딱좋노', '좋음', '완벽합니다', '두드러지지', '확실하게', '굉장히', '아쉬운', '좋다', '좋음', '좋지만', '조화롭게', '있죠', '짜릿하다', '미쳤네', '좋다', '좋다', '좋다', '좋네', '미쳤네', '좋다', '좋다', '좋다', '좋네', '행복함', '신나게', '던던대', '좋아서', '좋다', '야합니다', '좋지만', '심각한', '좋더라구요', '좋다', '행복해', '좋겠다', '신나져서', '연연해', '색다르게', '아니네요', '없다는', '있는듯', '좋네', '신나는', '슬픈데', '던던이', '좋음', '좋음', '멋있음', '좋당', '안좋을', '미쳤다', '던던이', '좋음', '좋음', '멋있음', '좋당', '안좋을', '미쳤다', '시원하고', '반짝반짝해', '좋아요', '가능한가요', '좋네요', '좋음', '좋아하고', '좋아하는데', '성공하자', '예쁘게', '좋음', '좋아하고', '좋아하는데', '성공하자', '예쁘게', '아린이', '좋네요', '위험했다', '벅차는', '새로운', '좋아해', '행복해서', '벅차고', '아린이', '좋네요', '위험했다', '벅차는', '새로운', '좋아해', '행복해서', '벅차고', '좋다', '예쁘고', '미쳤다', '좋음', '던던대', '좋다는', '좋다', '이쁘고', '미친듯', '신나용', '좋다', '미안하다', '미친다고', '좋고', '좋고', '미침', '좋다', '이상한', '비슷하진', '가볍게', '좋아하는줄', '귀여워', '미쳐', '좋아요', '좋아서', '같네요', '좋음', '좋았다', '청량해', '드러요', '괜찮겠지', '좋아하니까', '좋았지만', '드러요', '괜찮겠지', '좋아하니까', '좋았지만', '드러요', '괜찮겠지', '좋아하니까', '좋았지만', '드러요', '괜찮겠지', '좋아하니까', '좋았지만', '드러요', '괜찮겠지', '좋아하니까', '좋았지만', '청량하고', '좋아요', '작은', '고마워', '자랑스럽다', '좋겠음', '좋은데', '예뻐라', '청량하고', '좋아요', '작은', '고마워', '자랑스럽다', '좋겠음', '좋은데', '예뻐라', '청량하고', '안녕하세용', '부탁드립니당', '필요없고', '좋아요', '예쁘고', '노래인것', '좋다', '미쳤고', '미쳤고', '높을텐데', '미쳤고', '미쳤는데', '청량하고', '안녕하세용', '부탁드립니당', '필요없고', '좋아요', '예쁘고', '노래인것', '좋다', '미쳤고', '미쳤고', '높을텐데', '미쳤고', '미쳤는데', '방심하지', '좋다', '쎄긴하다', '좋음', '적당히', '신나는데', '아련하고', '방심하지', '좋다', '쎄긴하다', '좋음', '적당히', '신나는데', '아련하고', '신나기보단', '아련하면서', '청량하고', '실한', '좋겠다', '신나고', '좋아요', '있기에는', '아까운', '신나기보단', '아련하면서', '청량하고', '실한', '좋겠다', '신나고', '좋아요', '있기에는', '아까운', '좋아서', '좋아요', '예쁠', '서늘하게', '좋다', '평범한', '슬픈', '궁금해서', '이쁘고', '야해요', '좋아서', '좋아요', '예쁠', '서늘하게', '좋다', '평범한', '슬픈', '궁금해서', '이쁘고', '야해요', '좋아서', '좋아요', '예쁠', '서늘하게', '좋다', '평범한', '슬픈', '궁금해서', '이쁘고', '야해요', '없구', '당연히', '그런건', '당연히', '비슷한데', '미쳤다', '좋아요', '좋아요', '작작해라', '칠하는건', '좋네', '시원하고', '즐겁고', '싫어요', '행복한', '빠르고', '신나기만', '아련함', '설렜어', '미묘한', '좋다', '진지하게', '좋은데', '고마워요', '아프지말아요', '딱임', '아까', '시원하고', '즐겁고', '싫어요', '행복한', '빠르고', '신나기만', '아련함', '설렜어', '미묘한', '좋다', '진지하게', '좋은데', '고마워요', '아프지말아요', '딱임', '아까', '신나게', '아프지', '신나서', '미친듯', '좋다', '성장해서', '고마워', '예쁘고', '좋고', '좋으면', '조은', '좋은', '아쉬운게', '잠잠하게', '아닌거', '좋은데', '편안하고', '확실함', '좋은', '좋겠네요', '예쁘당', '좋아요', '미치겠어요', '좋다는', '좋네요', '미쳤어', '예쁘당', '좋아요', '미치겠어요', '좋다는', '좋네요', '미쳤어', '좋니', '좋다', '좋습니다', '야합니다', '설렜어는', '뻔해서', '싫었는데', '친하게', '몽글하고', '좋다', '약한데', '좋다', '같죠', '미쳤어', '신선하다', '던던대', '아프지', '던던대', '아프지', '던던대', '아프지', '던던대', '아프지', '좋음', '좋다', '좋다', '복잡하네요', '실망하신', '많은거', '어색하게', '같고', '같습니다', '좋다', '많으니까', '신나고', '좋아용', '좋아요', '예쁨', '좋긴', '좋지만', '좋아하는데', '시원하면서도', '아련한', '아쉬워요', '좋아서', '없습니다', '좋을', '좋다', '미쳤네', '좋은데', '청량하고', '변했구나', '단조롭', '힘나게', '아파', '미치는줄', '미침', '좋은데', '시원하고', '청량해서', '행복하다', '연연할게', '건강하게', '확실하게', '만족한다', '신나는', '같네요', '멋지고', '미쳤냐고', '좋은', '좋아요', '연연할게', '건강하게', '확실하게', '만족한다', '신나는', '같네요', '멋지고', '미쳤냐고', '좋은', '좋아요', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '높은데', '같고', '미쳤음', '좋겠당', '시원한', '좋다는걸', '좋아하는', '좋음', '좋아요', '좋아하는', '좋음', '좋아요', '좋네요', '좋다', '좋아요', '미쳤다', '사랑스러워', '높은', '없었다', '심하게', '좋다', '좋다', '좋아요', '미쳤다', '사랑스러워', '높은', '없었다', '심하게', '좋다', '좋다', '좋아요', '미쳤다', '사랑스러워', '높은', '없었다', '심하게', '좋다', '좋아요', '좋아요', '좋다', '좋다', '신나는거야', '청량해', '신나면서도', '아련한', '세련되고', '좋을수', '없을거', '미친거', '아녀', '좋네', '좋아서', '조하요', '신난', '탄탄해서', '좋아요', '좋은', '연연하셔야', '좋다', '좋다', '좋은데', '좋아요', '잘맞는', '미쳐', '연연하셔야', '좋다', '좋다', '좋은데', '좋아요', '잘맞는', '미쳐', '연연하셔야', '좋다', '좋다', '좋은데', '좋아요', '잘맞는', '미쳐', '좋네요', '좋다', '좋다', '완벽하다', '좋아요', '좋네', '좋아서', '좋은', '좋네요', '좋다', '좋다', '완벽하다', '좋아요', '좋네', '좋아서', '좋은', '좋아해용', '원하던', '미쳤다', '이뻐졌네요', '좋아요', '좋아요', '미쳤다', '좋아서', '어이없어', '충분히', '성공했잖아', '좋다', '좋다', '좋네', '좋네요', '좋았던', '없으니', '있었죠', '좋음', '화한듯', '충분히', '성공했잖아', '좋다', '좋다', '좋네', '좋네요', '좋았던', '없으니', '있었죠', '좋음', '화한듯', '좋은데', '좋네요', '좋다', '좋다', '좋다', '귀엽다', '미쳤다', '좋단', '좋아요', '미쳤어', '예뻐', '좋고', '좋아서', '좋다', '고마워요', '좋다', '좋은', '신나고', '아련하고', '좋다', '좋아요', '좋다']</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'기대해요', '좋아했던게', '소중히', '행복하고', '새로운', '좋게', '대단했긴', '있지만', '짜릿하당', '있는거겠죠', '자랑스러워', '망했어', '기쁩니다', '답답할', '있어줘요', '좋을', '구린거', '좋구', '잘생긴', '없었니', '어렵지만', '사랑스럽고', '야리', '성장한', '아닌데에도', '좋았던것', '미치겠네', '자랑스러운', '아프지', '가능했습니다', '기뻤다고', '생생한데', '짜릿함', '좋다다', '가득하길', '이상하다', '찡하네', '기대하고있었는데', '있니', '방심하면', '안좋다고', '있으니까', '너무해', '없는듯', '좋았다', '찡하냐', '고급스럽다', '더사', '시급해요', '심히', '아니었어도', '든든한', '슬픈', '슬프다워', '아프지만', '설레던', '부족할', '멋져', '좋겠어', '좋아해서', '영원할', '설렌다', '있다는거', '좋아해요', '같은거', '촌스럽고', '미쳐요', '잘생기고', '그리워하는', '있다는걸', '있듯이', '독특한', '많나', '좋아해여', '그리워요', '아니에요', '미쳤고', '안남았습니다', '조아요', '상관없이', '좋아하는', '열광하는', '그만하자', '괜찮', '좋아도', '시원하구나', '좋겠어요', '많았어요', '행복하자', '미쳐', '행복했다', '벅차오르는', '어렵다', '안됩니다', '앙해', '어떨까', '예쁜말만', '같던', '대단하신거', '잘생겼고', '그만해주세요', '청량하지', '성공하세요', '미칠꺼', '그러지', '영원하고', '많았어', '뜨겁게', '넘쳤던', '좋으시네요', '빠른', '좋더라고요', '우월한', '먼가', '힘들긴', '좋이다', '좋아했던', '아팠지만', '설레인', '유일하게', '편해', '뭉클해지는', '아니냐', '찌질해', '좋으신', '재미없어요', '아쉽고', '풋풋하다', '흔해', '속상한거', '설레이면서', '아닌지는', '성장하길', '완벽하다', '많으셔사', '특별해', '넘쳤다', '아니게', '드문', '위험해요', '아까운', '영원하', '귀엽구', '이상한', '없어엔', '저릿한', '풋풋함은', '달랐다고', '인함', '그러려니', '같지만', '대단해', '안됬었나요', '멋진다', '슬프다', '성공했다', '많은거', '예쁘게', '장하다', '고마워', '안좋네요', '미친', '소중함을', '기쁜', '있을수는', '좋을까', '성공하고', '있당', '그러는거', '신난다에', '환하게', '그렇네요', '좋아서', '원히워', '뒤늦게', '좋아하는거라서', '나쁜거죠', '영원하다', '안되니까', '많네요', '어려워', '시원하면서도', '신나고', '대단하긴', '방심하지말구', '깔끔하', '어리숙한', '힘들어요', '기쁘고요', '귀여운', '시원시원하고', '설레니', '계실거구요', '몽글몽글해져', '부럽냐', '안타깝고', '원망했네', '보야', '좋았을', '좋아하네', '뜨거웠던', '없었을것', '기대하고', '괜찮은', '좀있다', '아파서요', '기쁘더라', '다름이아니라', '좋은', '정확한', '많을텐데', '슬프지만', '낮아요', '스러워', '똑같음', '많았어서', '고싶', '있을수도', '영원하겠다는', '시원하다못해', '있지', '아련하기도', '멋있는', '엄청났던', '있겠습니다', '안되게', '멋있고', '유치해', '재밌게', '있어줘서', '대단하신', '행복하게', '어려운', '멋지당', '즐거운', '미침', '노래였구나', '아까워서요', '싫다', '경쾌하고', '좋아했었어야', '이뻐', '있을지', '좋다', '부족한', '있으니깐', '그런게', '멋있다', '잘생기', '좋겠네', '아쉽긴', '슬펐을듯', '가능하게', '대단해서', '행복해라', '완벽한', '기대했는데', '원하는게', '바쁘겠지만', '좋으', '벅차오른다', '멋지네', '예쁜', '아니어도', '훈훈하이', '좋음', '싫어한다고', '청량함', '좋네요', '인하자', '오래됬는데', '너무하네요', '망하는', '높은거아시죠', '야한가사', '대단했고', '뿐이였다', '있어줄게', '멋지니까', '이상하지', '안되도', '필요없다', '사랑스럽다', '괜찮은데', '순수함', '위대함을', '힘들텐데', '안됨', '든든하게', '뻔했네요', '좋은지', '아쉽', '자랑스러워여', '풋풋하고', '시원시원하네요', '벅차오름이', '빨라요', '청량해', '익숙한', '멋지게', '뛰어나고', '좋아하는데', '실망하게', '고마웠어', '덥던', '찬란히', '청량해서', '많으니까', '고마운', '행복하다', '좋아했었는데', '안되나', '그래두', '분명히', '분명해', '야속하네', '그러냐', '안남았어요', '잘생겼어', '성공해요', '이쁘다', '간절했던것만큼', '두근거렸고', '잘생겼', '이쁘구', '행복하기만', '아니냐구', '좋다고', '똑같네', '설렜던', '그래줘', '어느덧', '있도록', '친하게', '같네요', '그래요', '아니네요', '힘들고', '안되나요', '힘들어하지말았', '노래라며', '좋구만', '쓸데없지만', '한심하다', '없네요', '좋았었고', '고마워우리', '좋아하는게', '아니였으면', '좋다고말', '탁월한', '강력할것으로', '신나서', '아쉽네', '간절히', '설레는데', '좋겠당', '행복했고', '노래네요', '안된다고요', '아까울거', '행복했으면', '미쳤음', '노래아니냐', '미치겠어', '드문것', '새롭게', '궁금한거있는데', '출중한데다', '당해서', '영원해', '선명해진다', '고급스럽고', '작은', '흠잡을데', '좋으니까', '빨랐나', '열악한데', '미다', '좋아요', '있으시고', '깜찍해워', '영원한', '미치겠음', '섹시하다', '짜증나겠다', '열광했다', '좋네', '위험하니까', '그만하세요', '행복했어', '투명하고', '충분해요', '고마웠고', '좋아할지', '많았고', '신남', '가득하자', '괜찮네요', '고마울거야', '영원해요', '위험해', '뭉클하는데', '기뻐요', '대단한거이까', '아깝잖아요', '곧있음', '없었던것', '답답해', '소중해', '행복하자내', '미랑', '행복해야해', '던거처럼', '스러워요', '칠하고', '좀있으면', '있에요', '성장해서', '안좋아서', '정정당당하게', '멋졌어', '멋있었어', '원하던', '아름다운', '고맙다', '자랑스럽고', '좋으셔요', '신나', '같아여', '괜찮다고', '길은', '짧고도', '세련되게', '허탈하네', '좋아하고', '있구', '대단한게', '느긋한데도', '심하게', '자랑스럽네요', '맛깔나게', '힘들었던', '아니잖아요', '좋아해도', '귀엽다', '좋아해', '강하고', '고픈', '좋아한', '미안하네', '넘치는', '좋내요', '순수하게', '좋든', '고마워요', '궁금한', '이쁜말만', '슬프게', '싱숭생숭하다', '귀여워', '나쁘지', '유명하던', '미에', '귀여운지워', '좋을듯', '고프다', '완벽해', '신나네요', '설레이는', '엄청났는데', '대단했다', '좋아할수가', '기대하고있어', '좋겠어워', '대단한건데', '좋았는데', '변함', '더운데', '나쁜', '가능할줄', '급하게', '아쉽지만', '중요하잖아요', '원하세요', '싫은', '없는게', '좋았어', '미안한', '좋은데', '이상하든', '안타까웠', '힘들거', '있어야겠지요', '무사히', '그러시더니', '대단한', '많았음', '싱숭생숭했었는데', '미쳤으면', '신난당', '행복했음', '대단하네', '꾸준히', '독한', '좋다아아', '세련된', '많다', '힘든', '잘생겼서', '놀래', '아쉬운건', '피곤하고', '같긴한데', '완벽하게', '미쳤네요', '무서울수', '행복하네', '따뜻하고', '있겠죠', '귀여운거다해', '깊은', '원하길래', '섹시하고', '깔끔하고', '시원시원하구', '그리워지는', '사랑스러워', '이쁜', '야해서', '행복했어워', '아니라는', '신기하기도', '깔깔하니', '그럴만', '싫으니까', '아니였고', '벅차하던', '좋구나', '시원하고', '없인', '계신지', '귀엽네요', '아프면', '힘든데', '좋이여', '좋겠고', '미쳤니', '있을까', '아름다울', '싫잖아요', '있던것', '멋짐', '소중한', '같고요', '안남았지만', '좋을것', '아프다', '좋겠네요', '지루해', '인해서', '미안했어', '힘들게', '같에', '두근거린다', '좋아해주셔서', '아름다웠던', '행복합니다', '있었네요', '거창하고', '좋아할거야', '쎄용', '좋잖아', '더워', '행복해', '사랑스러', '행복하게만', '착한', '슬플', '좋니가', '가득하면', '더지서', '좋았으면', '아닌건', '행복했던', '좋구요', '영원히워', '더웠었는데', '있을꺼란', '장난없다', '싫어서', '싫으면', '있을것', '좋을지', '있었구', '없다는게', '야하네요', '미친거지', '멋있지만', '세련되고', '있는듯', '잠잠했다', '미치고', '드물도', '죄송하고', '붉히고', '아니였지만', '고맙다고', '편히', '없으시니까', '좋아하는지', '유치하니까', '청량한것', '괜찮아요', '굳게', '같던데', '풋풋했고', '행복하잖아', '두근거리고', '청량한', '아련해서', '좋기만', '신나하고', '부족해', '깨끗하네요', '그리워하고', '젊었고', '있기를', '있으여', '있기에', '행복하길', '좋당', '휩쓸었으면', '심각한거', '좋지만', '인했으면', '생생해서', '더운', '멋진', '더우니까', '좋았던', '화합시다', '슬프네요', '미치도록', '야하나', '짧음', '잘생긴거', '좋아해줘라', '가득한', '기쁠', '대단하시고', '아렸고', '깔끔한', '아쉬울듯', '찬란했던', '기뻐하겠다', '설레기만', '벅차오르고', '아니구요', '좋아했어서', '넘쳐', '설레', '미치게', '없지만', '아프지말고', '소중한우리', '많으시면', '미묘한', '같았어', '두렵고', '좋아하시던데', '궁금해서', '환장했던', '없을꺼다', '행복하냐', '안좋으면', '찬란한', '힘들어도', '영원한워', '풋풋함이', '좋겠다', '짜증나네요', '없었다', '슬퍼', '괜찮을지', '쉬워서', '싫어하면', '있긴한데', '짧다면', '아니라면서', '대단해요', '가능할', '미쳤어', '좋으면', '좋겟다', '재밌냐', '좋겠구', '피곤하겠지만', '착하고', '좋아하면서', '같다고한', '없었어', '잘생겼어요', '반갑고', '예쁘고', '따뜻한', '특이하고', '멋있어', '세련됨', '있답', '즐겁게', '같습니다', '확실하게', '인합시다', '좋겠는', '휩쓸던', '없을텐데', '많다는', '답답하다', '좋을수가', '좋다가', '아름답게', '없습니다', '묵직하게', '없는것', '많아서', '좋아했는데', '청량하구만', '좋아할거고', '많으니깐', '시원시원하니', '스러워서', '짧고', '미친듯', '원합니다', '이뿐이', '바빠서', '대단하고', '잘생김', '두둑히', '가뿐히', '설레고', '그러구', '있으실꺼에요', '좋다구요', '슬프긴', '역겹다', '놀랬음', '멋있으', '아니란', '슬퍼요', '굉장히', '괜찮네', '아쉬워하는', '아니예요', '싫어요', '있을게', '미치겠다', '완벽하다고', '죄송합니다', '대단했지', '다를', '좋아했었어', '뜨거운', '시원해', '뿌듯하고', '슬퍼하고', '즐거워요', '같을까', '그랬듯이', '그리운', '적합해요', '그럴', '짜증나는', '신나게', '많구나', '좋나요', '시원하게', '어이없네', '대단할', '없도록', '짜릿하다', '생생해요', '딱히', '미친다', '그리워졌어', '잘생기면', '영원하자', '좋아용', '미쳤', '좋다는', '같잖아', '많았으면', '설렘', '고맙구', '아깝지', '아니라고', '빠르다', '반갑다', '멋지다', '미쳤었지', '행복해서', '행복했었는데', '멋져요', '청량하면서', '미안했고', '청량하다', '화려했던', '같게', '잘생겼다', '불쌍해', '설레면서', '슬퍼여', '비슷한', '궁금해요', '훌륭한', '계신지요', '인한게', '있어야죠', '귀찮을듯', '있다는', '힘나', '귀엽고', '노래디', '뿌듯해', '청량하고', '기쁘', '미쳤죠', '가능하신', '편하네', '많습니다', '충분해', '빨간', '생생하네', '있을만큼', '대단한거고', '없는거', '잘생기셨고', '뭉클하다', '멋있더라', '멋진거', '대단하다', '좋겠', '불쌍하다', '같았던', '장난없음', '짠하고', '예쁘다', '청량함을', '흔한', '그리워서', '있든지', '고맙고', '이럴거면', '많았다', '시러요', '슬프당', '아쉬워요', '우울할', '반갑게', '아파', '멋있구', '기쁘게', '화끈하게', '있을만', '어려운거', '없으면서', '활기차네요', '아닙니까', '당연히', '괜찮아', '야해요', '신난다', '이쁜말', '멍청하게', '좋냐', '부럽', '신나는', '진지하게', '아닌듯', '행복해요', '중요한지', '신기한', '심한', '미치겠다에', '싫어졌다', '예뻐', '원하네요', '섹시해지는거야', '멋지고', '이럽', '대단했구나', '멋지고요', '성장하는', '꼬이는', '좋지', '야하다', '힘들었잖아요', '괜찮으면', '맑다고', '좋겠습니다', '많았는지를', '행복하세요', '많냐', '없게', '힘들', '강한', '힘난다', '있었지만', '많지만', '없는지도', '자랑스럽다', '미안하고', '대단하', '대단한듯', '재밌어요', '있냐고', '그리워', '다르게', '좋아할', '깔끔해', '노래인듯', '더웠던', '성장했던', '좋고', '신나기', '설레는', '많았지만', '미칠것', '아플', '멋져대', '있을테니까', '흔하지', '반하고다시', '원하면', '가득해야', '찰지게', '많았구', '어때요', '같은지', '공평하게', '있었다', '있기', '있었어', '실망하지말고', '지루하지도', '같은거로', '열광했단다', '아픈', '어려워도', '상관없는', '짜릿해', '멋있게', '사랑스런', '대단하네요', '좋아여', '미쳤다', '행복한', '많지', '좋았음', '기뻐', '소중하고', '미친듯이', '아파요', '건강하고', '좋아했고', '아닐텐데', '기쁘고', '좋습니다', '진정한', '잘나서', '특별하게', '고마워워', '미안할거야', '없을만큼', '없나보다', '벅차고', '아쉬워여', '있다니', '아쉽다', '탄탄해', '짧았어', '커다란', '없셔', '섹시해', '좋을꺼', '오래된', '대단하게', '힘드네', '궁금함', '없오', '기대할게', '좋아했어', '천하고', '같고', '가득하기를', '뿌듯하다', '많았던', '좋긴', '진실된', '두근거리는', '들뜬것', '필요한가', '없잖아요'}</t>
+          <t>['좋아요', '좋아요', '좋아요', '청량한', '행복했어', '없을텐데', '자랑스러워', '좋음', '신남', '자랑스럽다', '좋았다', '좋아해', '좋아했었는데', '멋진', '몽글몽글해져', '익숙한', '신나고', '즐거운', '같을까', '좋게', '확실하게', '좋아서', '좋겠다', '좋아했던', '좋아했는데', '대단하다', '이렇게나', '좋겠다', '비슷했음', '아련해서', '반가웠고', '좋아한다고', '불안정해서', '미안하지만', '미안해요', '미안하지만', '신나고', '신기할', '아쉽더라', '설렜던거', '필요했는데', '유일하게', '미쳤다', '대단하다', '있다는', '더우니까', '없었다', '아름다운', '고마워', '청량한', '좋아해', '고마워', '그리워지는', '짜릿하다', '좋아하면서', '좋아하는', '있었을텐데', '재밌었는데', '휩쓸던', '없을꺼다', '많으니까', '있으니까', '뭉클해지는', '아니였지만', '많았지만', '좋았는데', '뜨거운', '투명하고', '아련해서', '좋겠다', '좋아했던', '좋아해도', '안됨', '그리워', '반갑고', '순수하게', '좋아했던', '좋아했었어야', '그리워서', '좋네요', '소중해', '좋아했던', '그리워하는', '많구나', '좋아했는데', '좋음', '짜릿함', '미쳐', '열광했단다', '열광했다', '청량함', '아쉽다', '엄청났던', '엄청났는데', '분명해', '아까운', '그리워', '있을수도', '엄청났던', '엄청났는데', '분명해', '아까운', '그리워', '있을수도', '같은지', '어렵지만', '어려워도', '가능할', '설렌다', '좋아했는데', '미안하네', '좋았어', '심한', '행복했었는데', '미쳤었지', '좋아했는데', '슬퍼요', '신나네요', '이뻐', '고마워', '영원하자', '고맙고', '고마워', '영원하자', '고맙고', '좋아했었어', '새로운', '좋겠다', '미안했고', '고마웠어', '변함', '영원하자', '소중함을', '있니', '그리워', '그리워', '뜨거운', '뜨거운', '빨간', '더웠었는데', '그리워', '좋지', '많았음', '있었지만', '대단했구나', '좋아하네', '달랐다고', '순수함', '좋았던', '생생하네', '청량하다', '청량해', '당연히', '좋아여', '넘치는', '좋아요', '생생해', '똑같을', '없지만', '설렘이', '없다는', '슬프고', '미안하다', '변함', '있다는', '든든하게', '고마워', '고마워요', '있기에', '그리워', '변함', '찬란한', '고맙고', '미안한', '있으니깐', '고마웠어', '저릿한', '오래된', '좋았던것', '괜찮아', '충분해', '화려했던', '좋은데', '슬퍼', '설렘', '멋진', '좋아했어', '많지', '힘들', '있으니까', '좋겠다', '있을테니까', '반갑게', '고마웠고', '행복했고', '대단했지', '좋아하게', '좋아하는', '좋은', '좋아하게', '좋아하는', '좋은', '그리워서', '좋음', '좋다', '새로운', '원하면', '좋네', '반갑고', '그리운워', '고마웠고', '고픈워', '좋은', '고마워', '고마워', '아름다워줘서', '행복했어지', '있을거니까', '고맙고', '행복한', '행복하길', '자랑스러워', '영원하자', '인함', '고마워', '있기에', '고맙고', '고마워', '길은', '좋겠다', '좋다', '좋아했어', '좋아할거야', '훌륭한', '좋아했던게', '좋아했고', '좋아해', '영원하자', '미친듯이', '좋아했던', '없으면서', '환장했던', '더운', '이상하다', '설레는', '좋아요', '고맙고', '고마워', '대단해', '작은', '잘생기고', '그랬듯이', '예쁘고', '자랑스러워', '좋아할지', '고맙고', '대단해서', '가능할줄', '그리운', '좋다', '그리워졌어', '슬프게', '궁금한', '없는지도', '궁금함', '시원해', '좋다', '그래요', '좋다', '빠르다', '대단했긴', '좋네요', '미치겠네', '안남았습니다', '새롭게', '그리워요', '좋은', '대단했지', '구린거', '좋다', '있을까', '새롭게', '그리워요', '좋은', '대단했지', '구린거', '좋다', '있을까', '좋당', '좋고', '뛰어나고', '좋네', '좋네요', '청량해서', '좋아서', '똑같음', '좋다', '대단하긴', '고마웠어', '성장했던', '힘들거', '좋고', '신나는', '신나기', '아니란', '행복했고', '아렸고', '영원한워', '행복하길', '많지만', '있어줘서', '고마워요', '영원해요', '미안하고', '고맙고', '두근거렸고', '설렜던', '좋겠다', '있다는', '슬프다워', '찡하냐', '고마워', '슬프다', '들뜬것', '설레고', '아니라는', '좋았는데', '실망하게', '기대하고', '스러워요', '빠르다', '시급해요', '행복하자', '그래줘', '행복한', '깊은', '행복하게', '영원하자', '좋은', '좋은', '있다는거', '어려운거', '고맙다고', '아니였지만', '있다는걸', '시원하고', '좋은', '기뻐', '없도록', '어때요', '힘들었잖아요', '야해요', '슬퍼여', '고마워', '행복하길', '그리워하고', '좋으니까', '소중해', '부족할', '좋아해', '좋다', '고마워', '고마워', '고마워', '고마워', '고마워', '좋은', '흔하지', '좋았었고', '고마워', '고마워', '고마워', '신나고', '좋음', '영원하자', '자랑스러운', '아파', '사랑스런', '자랑스러워', '벅차오름이', '설레기만', '없었을것', '같았던', '고마워', '고마워', '고맙고', '고맙고', '고마워', '설레이면서', '빠르다', '고마워', '영원하겠다는', '기쁘', '있었네요', '미쳤', '대단한', '있어줘요', '그리워요', '뿌듯하고', '더운', '시원하게', '행복하자', '좋다', '행복하자', '기쁜', '슬픈', '많았던', '없다는게', '힘들긴', '미묘한', '없어엔', '영원하자', '멋진거', '멋있어', '행복하자', '힘들고', '있다는거', '아프지만', '행복해요', '찡하네', '좋다', '소중하고', '청량함을', '노래네요', '원하네요', '시원하다못해', '원합니다', '소중히', '행복하자', '영원한', '고맙고', '좋겠어', '좋은', '좋겠어요', '영원한', '행복했다', '가득한', '좋다', '영원하자', '영원하', '행복해', '뭉클하다', '좋은', '가득해야', '소중해', '영원히워', '원히워', '영원히워', '원히워', '영원히워', '원히워', '바빠서', '기쁘게', '행복하길', '자랑스러워', '행복하자', '좋으니까', '보야', '있지만', '그리워', '대단해요', '성공했다', '행복해', '반갑다', '행복해', '고맙고', '야해요', '야해요', '행복하게', '성공해요', '인해서', '인합시다', '안남았어요', '곧있음', '있을지', '기쁠', '대단했다', '대단해', '고마워', '더운', '미친', '곧있음', '재밌게', '좋겠다', '화끈하게', '신나는', '아쉽다', '고마워', '소중한', '고마워', '진실된', '고마워', '고마워', '짜릿하당', '좋아요', '대단하다', '좋아요', '대단하다', '어때요', '어떨까', '바쁘겠지만', '아프지말고', '멋지게', '성장해서', '영원하다', '대단했고', '대단하고', '대단할', '있을까', '그리워서', '필요한가', '좋음', '스러워서', '강한', '좋아요', '좋음', '재밌게', '좋다', '설레', '청량하고', '좋다', '좋은', '심하게', '아니냐구', '독한', '영원한', '영원한', '영원할', '영원할', '영원한', '있겠죠', '있을까', '아름다운', '아쉽고', '행복하자', '영원한', '뿐이였다', '있었다', '미안했고', '미안하고', '미안할거야', '고마웠고', '고맙고', '고마울거야', '힘들텐데', '좋아해서', '좋아했어서', '많아서', '아쉽지만', '넘쳤다', '고마워', '죄송하고', '많았어서', '슬프네요', '인했으면', '좋겠당', '좋을까', '따뜻한', '그리워', '허탈하네', '찬란했던', '뜨거운', '설레이는', '어느덧', '설레고', '두근거린다', '아름다웠던', '좋으셔요', '너무하네요', '있으니까', '그리워하고', '미안하고', '고마워우리', '너무해', '아깝지', '좋다', '슬퍼', '영원한', '빠른', '힘들어요', '그리워', '야해요', '중요한지', '있을수는', '안됬었나요', '고맙고', '많았어', '있긴한데', '계신지요', '좋겠다', '많았어', '위험하니까', '벅차오르고', '안된다고요', '없습니다', '없다는', '좋겠어요', '뜨겁게', '설레었던', '있을지', '청량한', '소중한', '신나네요', '이쁘다', '이뻐', '안됩니다', '소중한', '좋은', '설레는', '깔끔한', '자랑스러워', '뜨겁게', '고맙고', '좋아요', '좋아요', '있어야죠', '좋겠어', '좋다', '그리워', '좋다', '새로운', '무서울수', '있지만', '좋아용', '영원히워', '영원히워', '뭉클하는데', '영원하자', '영원하자', '괜찮다고', '괜찮', '아니였고', '괜찮은', '괜찮을지', '장하다', '괜찮아요', '자랑스러워', '야한가사', '안남았어요', '고마워', '영원해', '있다는걸', '많았어', '고마웠어', '있을만큼', '많았어요', '새로운', '영원해요', '고마워', '영원해', '아프다', '고맙고', '빠르다', '행복했고', '좋아하는게', '같았어', '환하게', '아름답게', '고마워', '슬플', '많았고', '고맙고', '미안하고', '고마워', '좋아할거고', '좋음', '빠르다', '설레', '좋아할거야', '좋아했고', '좋아한', '고맙고', '영원하자', '더웠던', '선명해진다', '슬프지만', '많았어요', '있기에', '가능했습니다', '행복했어워', '고마워', '고맙고', '고마워', '행복하고', '행복해야해', '고마워워', '거창하고', '기대할게', '멋진', '많았어요', '고마워', '고마워', '행복했어', '고마웠고', '미안했어', '고마웠고', '미안했어', '고맙고', '있어줘서', '행복했어', '있도록', '어렵다', '힘든데', '좋아서', '많았어', '고마웠어', '좋지만', '그래두', '야하나', '생생해요', '신나하고', '두근거리는', '새로운', '두근거리고', '설레던', '좋지만', '풋풋함이', '행복한', '좋겠고', '행복한', '좋겠다', '고마워', '빠르다', '좋다', '좋았다', '그리워', '풋풋하고', '짧고도', '고마웠고', '두렵고', '싫다', '행복하고', '가득하면', '좋겠어', '좋다', '좋고', '좋고', '상관없이', '좋은', '진정한', '원하면', '생생한데', '좋다', '좋아서', '좋음', '벅차고', '설렜던', '특별하게', '고마워', '좋다', '좋아하는', '같다고한', '설레', '행복했어', '있지만', '따뜻한', '굳게', '좋아요', '즐겁게', '고프다', '이쁜', '신나서', '앙해', '영원해', '아름답게', '설레', '힘나', '신나고', '좋았는데', '슬픈', '유일하게', '좋은데', '아쉽네', '좋나요', '좋았음', '좋다', '좋음', '설레', '빨랐나', '좋아요', '급하게', '있겠습니다', '좋은', '좋음', '설레는데', '있다는', '슬프긴', '좋은', '좋음', '좋겠다', '좋아서', '좋음', '이상한', '좋음', '좋다', '아니어도', '없는게', '대단하다', '좋아해', '같은거로', '대단한듯', '좋고', '좋다', '좋아해요', '있는듯', '좋고', '드문것', '좋네', '아련하기도', '설레는', '고마워', '재밌냐', '흠잡을데', '완벽한', '좀있다', '행복한', '소중한우리', '있당', '좋아서', '고마워', '낮아요', '예쁜', '짧다면', '짧고', '행복했고', '기쁜', '영원하자', '행복해', '대단하네요', '행복한', '가득하길', '행복해', '빠르다', '성장한', '좋은', '아프지말고', '좋겠어워', '기쁘', '슬픈', '고마워', '아름다울', '아니게', '행복하자', '행복하자', '좋은', '고맙고', '행복하게', '고마워', '있기에', '있기에', '있다는걸', '있기에', '소중한', '소중한', '고마워', '고맙고', '고마워요', '안남았지만', '많았던', '생생해서', '싱숭생숭하다', '좋다', '좀있으면', '대단하네요', '좋아요', '자랑스러워', '시원해', '청량하고', '시원하고', '신나는', '노래인듯', '좋다', '청량한', '뜨거웠던', '빠르다', '좋다', '싱숭생숭했었는데', '그럴만', '미치도록', '야속하네', '좋은데', '좋아하는거라서', '설레고', '야리', '좋은', '편히', '좋아했고', '행복한', '고맙고', '행복해서', '짠하고', '슬픈', '고마워', '설렜던', '풋풋했고', '젊었고', '같았던', '넘쳤던', '멋있지만', '행복했던', '풋풋하다', '좋아하는', '좋고', '벅차오르는', '좋은', '좋음', '설레면서', '벅차오르는', '놀래', '좋아요', '더운', '설렘', '그런게', '좋아하는', '좋아할수가', '완벽한', '완벽한', '좋을수가', '좋아요', '풋풋함은', '더워', '같던', '좋았던', '좋으면', '아니냐', '좋은', '미침', '설레고', '좋아하고', '미쳤다', '좋아요', '성공하세요', '좋은데', '없는듯', '신남', '신기하기도', '좋다', '좋지만', '좋다', '좋은', '좋음', '좋다', '섹시하다', '좋아요', '설렐까', '귀여워', '좋아하는데', '설레', '있지만', '좋아서', '있는듯', '좋은', '좋지', '좋은', '사랑스럽다', '굉장히', '설레인', '완벽하다고', '신나고', '신나고', '좋다', '힘들', '힘난다', '좋고', '오래됬는데', '꾸준히', '좋아요', '멋져요', '좋아요', '잘생겼서', '좋다', '좋다', '섹시하고', '강하고', '좋고', '좋은', '싫다', '아닐텐데', '좋네', '청량하지', '좋은', '더웠던', '설렌다', '좋다', '기대해요', '좋긴', '완벽한', '좋다', '답답할', '고급스럽다', '미치겠다', '야하다', '좋은', '잘생겼어', '덥던', '좋다', '이상한', '좋당', '이쁜', '좋은', '행복해', '좋아하는', '좋음', '청량한', '행복하다', '시원하면서도', '잘생기', '있에요', '많았어', '좋다', '좋고', '좋고', '아까울거', '좋다', '좋아요', '좋음', '좋아요', '좋아하는', '좋다', '좋아해', '좋아서', '대단하시고', '좋아하고', '아쉬울듯', '좋을듯', '있구', '아쉬워여', '좋겠다', '완벽하게', '아닌건', '좋은', '고마워', '좋음', '대단하네', '세련되게', '좋음', '장하다', '좋은', '아름다운', '좋아요', '대단한게', '좋은', '고마워', '있으니까', '설렘', '좋은데', '좋으면', '새로운', '좋고', '좋다', '좋고', '신난다', '신나', '좋음', '기대하고있어', '멋지니까', '멋진거', '잘생긴거', '귀여운거다해', '안되도', '행복하자', '신난다에', '좋다', '행복하자', '행복하다', '고맙고', '고마워', '힘들텐데', '고마워요', '좋아서', '미칠꺼', '같아여', '좋다', '설레고', '신나고', '우울할', '대단해', '멋지다', '있어줄게', '행복해', '고마워', '아프지', '좋아요', '있는거겠죠', '고싶', '좋아요', '멋짐', '좋은', '자랑스럽다', '예쁘고', '멋있고', '귀엽고', '잘생겼고', '섹시하고', '착하고', '좋고', '따뜻하고', '좋다', '좋다', '고마워', '자랑스럽다', '예뻐', '있당', '멋짐', '잘생겼고', '넘치는', '잘생김', '신나고', '좋아서', '좋음', '좋음', '지루하지도', '좋다', '청량한', '좋아용', '바빠서', '좋다', '좋은', '뒤늦게', '열악한데', '심하게', '좋겠다', '좋은', '기쁩니다', '좋은', '드문', '아니었어도', '좋은데', '귀여운지워', '좋다', '좋다', '좋다', '좋음', '좋다고', '좋네', '좋아하는지', '좋아요', '좋아서', '잠잠했다', '천하고', '유치하니까', '좋아하는', '깔끔하', '이럽', '좋다', '좋아요', '좋다', '멋있으', '좋더라고요', '예쁜', '고마워요', '대단하', '깨끗하네요', '천하고', '그러는거', '유치하니까', '좋아하는', '미쳤다', '좋아서', '미치겠음', '멋있다', '좋은', '좋겠네요', '쓸데없지만', '좋아여', '좋고', '좋고', '신기한', '좋아하는', '재밌게', '좋다', '청량하면서', '섹시하다', '좋겠어', '조아요', '맑다고', '좋으시네요', '좋다', '있다니', '좋고', '좋네', '넘쳐', '어려워', '좋네요', '좋다', '있는듯', '시러요', '장난없다', '좋지만', '필요없다', '좋은', '노래였구나', '좋다', '똑같네', '뻔했네요', '안좋다고', '좋고', '멋지네', '좋다', '고마워', '고마워', '있구', '좋겠어요', '좋네', '있지만', '고마워', '행복해', '좋다', '좋아하는', '좋을지', '많으시면', '좋겠다', '아니였으면', '예쁜', '궁금해서', '분명히', '있으시고', '친하게', '깔끔하고', '멋있게', '좋냐', '좋고', '섹시하고', '미쳤다', '높은거아시죠', '좋은', '귀찮을듯', '싫으면', '싫은', '독특한', '우월한', '두둑히', '이상하지', '어려운', '드물도', '어려워', '아픈', '좋기만', '많은거', '부럽냐', '어이없네', '좋은', '싫어졌다', '좋아요', '좋은데', '출중한데다', '든든한', '좋은', '섹시해지는거야', '대단한건데', '자랑스러운', '좋다', '미칠것', '같고요', '미쳤으면', '좋아해여', '미쳤죠', '좋아서', '좋다', '좋구', '열광하는', '괜찮으면', '멋진다', '좋네', '좋네요', '괜찮네요', '놀랬음', '흔한', '노래아니냐', '좋네요', '좋고', '행복했으면', '좋겠다', '편히', '좋은', '행복하기만', '좋겠어', '아플', '없게', '좋다', '망할', '좋기만', '좋아하는', '좋아하는', '있듯이', '좋은데', '노래라며', '적합해요', '싫으면', '다를', '안좋아서', '예쁜말만', '좋음', '좋다', '좋은', '안되나요', '같게', '있는듯', '좋아요', '좋다', '좋다', '좋은', '부족해', '귀엽네요', '귀여워', '좋아서', '사랑스런', '장하다', '장하다', '가능하신', '좋고', '좋아요', '많았어', '강한', '완벽하다', '좋은', '좋니가', '실망하지말고', '피곤하고', '힘들어도', '아팠지만', '아파서요', '아니구요', '이쁜말만', '아프지', '고맙다고', '이쁜말', '이쁜말', '슬퍼하고', '대단한거고', '대단한거이까', '그래두', '있으니까', '좋네요', '좋다', '장하다', '노라', '미쳐', '장하다', '싫어요', '편하네', '편해', '잘생겼어요', '나쁜거죠', '많다는', '싫으니까', '싫으면', '좋아해줘라', '많았다', '그러냐', '편하네', '쉬워서', '좋다', '좋다', '미치게', '좋다', '사랑스럽다', '좋아요', '좋아요', '청량하고', '좋을것', '같습니다', '좋다', '사랑스럽다', '좋아요', '좋아요', '청량하고', '좋을것', '같습니다', '좋아요', '좋다', '넘치는', '좋다', '다르게', '멋지고', '정정당당하게', '아니라면서', '좋은', '좋은', '행복하게', '행복하게', '던거처럼', '궁금해요', '좋은', '좋은', '고마워요', '좋네요', '좋다', '좋네요', '있겠죠', '좋다는', '좋다', '있을만', '행복하냐', '세련되고', '좋네요', '좋겠습니다', '좋아요', '찌질해', '역겹다', '흔해', '좋아요', '없게', '좋으신', '방심하지말구', '원하는게', '좋은', '청량하고', '좋당', '좋다', '좋아요', '없습니다', '좋을', '없으시니까', '그러려니', '좋아하시던데', '어떨까', '멍청하게', '붉히고', '좋지', '싫잖아요', '예쁘게', '많을텐데', '상관없는', '나쁜', '좋다', '그러시더니', '싫어서', '있도록', '좋겠습니다', '당하신', '있으실거고', '민감한', '있는한', '같습니다', '억울하고', '방심하지', '좋네', '좋와', '같아용', '좋아요', '필요한시기', '조아용', '좋겠습니다', '좋겠어요', '그러시는데', '좋지', '자랑스럽다', '좋다', '좋다', '좋아용', '좋아요', '좋네요', '좋당', '좋고', '잘생기고', '좋다', '좋다', '좋겠습니다', '좋은', '좋겠는', '조아요', '좋은', '좋네요', '좋아서', '자랑스럽다', '행복하잖아', '좋은', '특이하고', '좋네요', '좋겠어요', '소중한', '행복하게', '좋다', '좋다', '좋네', '기쁘고요', '좋네요', '좋은데', '안되니까', '꼬이는', '답답해', '그만하자', '좋은데', '좋은지', '좋아요', '같잖아', '행복하자', '좋다', '좋다', '답답하다', '좋은', '잘생김', '좋아요', '사랑스러', '좋아해', '좋아도', '좋은데', '좋아요', '좋아요', '깔끔하다', '같던데', '좋아요', '힘드네', '죄송합니다', '좋네요', '느긋한데도', '미친듯', '좋고', '멋진', '안타깝고', '아쉽고', '슬프네요', '좋다', '잘생기고', '좋은', '아깝잖아요', '중요하잖아요', '슬프당', '자랑스럽다', '좋은', '좋다', '고마워', '아프면', '아프지말고', '미쳤다', '넘친다', '고마워', '예쁜', '보석같은', '섹시했어', '좋은', '있도록', '예쁘면', '좋은', '있는듯', '잘생기고', '미치고', '탄탄해', '멋지당', '장난없음', '좋네', '좋은', '좋고', '어리숙한', '좋으니깐', '조아여', '비슷한데', '뻔했데', '높은', '심한거', '좋다', '좋고', '깔끔해', '좋아해', '좋겠네', '미치겠어', '괜찮은데', '아니게', '좋을', '심해서', '좋네요', '좋아요', '신난당', '시원하구나', '좋당', '좋다', '잘생겼다', '좋다', '좋은데', '좋아서', '좋다', '좋은데', '좋아서', '좋다', '대단해', '조아서', '좋아요', '짜릿해', '나쁘지', '활기차네요', '좋네요', '대단하게', '좋고', '좋고', '좋아용', '좋다', '좋아요', '좋은', '넘치는', '멋있구', '멋있고', '귀엽고', '예쁘다', '멋있는', '좋다', '없습니다', '있어야겠지요', '청량해', '아쉽긴', '좋네', '좋다', '좋다', '좋네', '대단한', '좋은', '대단한', '멋있다', '대단해', '궁금한거있는데', '좋은', '안좋네요', '좋네요', '좋은', '좋다', '청량함', '좋아해', '아닙니까', '좋아요', '미치겠어', '좋은', '싫어하면', '안됨', '싫어한다고', '좋아하는', '칠하고', '좋아하는', '좋겠다', '좋은데', '아니냐', '좋다고', '좋다가', '다르게', '좋은데', '이상하든', '좋든', '있으니깐', '미친듯', '없었니', '빨라요', '좋아요', '좋은데', '없인', '대단한', '좋네요', '이상한', '멋진', '멋지게', '심히', '좋은', '귀엽구', '괜찮은', '좋은', '좋다', '휩쓸었으면', '좋다', '좋다', '좋당', '좋음', '좋고', '좋다', '좋다', '고마워요', '좋고', '자랑스럽네요', '좋다', '좋당', '좋다', '미친', '좋은데', '야하네요', '좋음', '먼가', '고급스럽고', '좋은', '좋지만', '좋음', '좋습니다', '좋다', '좋다', '좋고', '좋다', '훈훈하이', '좋네', '굉장히', '강력할것으로', '좋은', '묵직하게', '좋다', '고마운', '좋다', '고맙구', '고마워', '좋다', '좋아요', '좋다', '좋다', '고마운', '좋다', '고맙구', '고마워', '좋다', '좋아요', '좋다', '좋다', '행복한', '좋겠다', '예쁜', '좋다', '좋은', '아닙니까', '좋다', '좋다', '좋다', '좋고', '멋지다', '좋아요', '좋다', '좋고', '좋은', '좋네요', '힘들게', '좋다고', '예쁘게', '많았으면', '좋다', '위험해요', '고마워', '경쾌하고', '좋겟다', '좋네요', '영원하고', '힘들어하지말았', '좋겠고', '행복했음', '좋겠어', '영원하자', '궁금해서', '좋고', '예쁘고', '잘생겼다', '완벽하다', '청량하구만', '반하고다시', '좋다', '잘생기셨고', '좋고', '좋은', '좋다', '멋있다', '미랑', '미쳤다', '좋네', '같은거', '좋겠다', '꾸준히', '같은거', '좋고', '좋고', '힘들게', '짜증나겠다', '좋은', '미쳤다', '섹시해', '좋다', '좋아서', '좋다', '좋다', '좋으', '좋아요', '좋지만', '좋은', '완벽해', '안좋으면', '좋잖아', '섹시해', '멋져대', '예뻐', '잘생겼', '청량해', '깜찍해워', '사랑스러워', '좋고', '멋있었어', '좋음', '완벽해', '심하네', '아까워서', '청량하잖아', '완벽해', '그만하고', '작작해', '좋은', '이뿐이', '좋네요', '귀여운', '좋음', '좋아서', '좋아서', '좋다', '좋아요', '좋당', '좋다', '좋다', '그럴', '좋았을', '좋다', '좋아요', '같네요', '미쳤다', '좋다', '좋아요', '좋다', '유치해', '좋구', '대단한', '위험해요', '좋구', '멋있다', '좋고', '미쳐', '좋다', '안되나', '화합시다', '좋은', '신난다', '좋다', '좋다고', '아쉽지만', '좋다아아', '아쉽', '야해서', '좋아요', '벅차하던', '기쁘고', '행복해서', '기쁘고', '행복한', '가득하자', '힘들게', '행복하자내', '좋다', '멋있다', '좋다', '좋다', '좋고', '좋다는게', '좋은', '좋아요', '좋고', '행복하자', '같더라', '좋은', '좋은', '안타까웠', '좋겠어요', '좋아하는', '좋고', '좋고', '좋아요', '행복해', '힘들', '좋고', '좋고', '좋아요', '좋아요', '미쳐요', '같은지', '불쌍하다', '불쌍해', '좋아하는', '한심하다', '좋네요', '좋겠어요', '좋다', '행복했고', '행복했어', '행복하네', '세련된', '아쉽네', '아쉽', '좋아요', '좋아해', '고마워', '좋네요', '그러구', '좋았으면', '좋겠어요', '장난없다', '멋지고', '시원하게', '뿌듯해', '기뻐하겠다', '많으니깐', '좋아서', '좋지만', '좋았는데', '벅차오른다', '야해요', '설레냐', '짜릿하네', '좋구먼', '좋네', '좋은데', '조용히', '좋다', '예쁜', '좋고', '멋지고요', '멋져요', '좋아요', '좋다', '좋다', '좋은지', '완벽한', '많습니다', '좋더라고요', '좋아요', '없지만', '좋아서', '좋네', '슬펐을듯', '좋은데', '아까운', '좋음', '좋다', '좋은', '짧았어', '신나는', '좋다', '좋다', '멋있었어', '좋은', '고마워', '찰지게', '좋네요', '멋졌어', '좋다', '좋은', '좋을', '좋고', '좋다', '괜찮은', '같던데', '유명하던', '좋네요', '좋다', '아쉬워하는', '맛깔나게', '속상한거', '좋아해요', '좋다', '망했어', '좋이여', '좋네요', '미쳤고', '잘생기고', '멋있고', '아까워서요', '좋겠습니다', '좋은', '좋은', '청량하고', '좋아요', '좋고', '좋고', '좋고', '좋아요', '좋다', '행복하게만', '좋겠다', '좋아요', '좋다', '좋아하고', '미쳤네요', '좋아요', '미친', '좋아요', '좋다', '좋아서', '맛깔나게', '멋있더라', '좋네요', '좋다', '계신지', '착한', '같고', '많았는지를', '커다란', '좋은데', '좋긴', '딱히', '같긴한데', '짧음', '좋긴', '좋다', '좋나요', '없오', '기쁘더라', '좋다', '대단하네', '좋네', '행복합니다', '위험해요', '좋고', '있으여', '좋다', '좋아서', '싫어요', '재밌어요', '싫어요', '아닌데에도', '좋다', '좋네', '좋다', '좋겠네요', '좋다', '원하세요', '좋은', '좋아요', '좋습니다', '미친거아니냐', '좋네', '고마워', '좋네요', '고맙다', '좋은', '죄송합니다', '좋아요', '영원하자', '좋아요', '섹시해', '재미없어요', '고마워', '당해서', '설레고', '좋다', '없을만큼', '멋있다', '좋고', '좋다', '좋은', '좋다', '좋은', '좋겠고', '좋겠어요', '기뻐요', '안되나', '무사히', '좋겠어요', '없셔', '좋다다', '섹시하다', '좋다', '좋고', '좋다', '좋다', '좋지만', '좋다', '많네요', '조아여', '좋아요', '친하게', '좋당', '있다고', '좋아요', '힘들게', '행복한', '가득하기를', '예쁜', '예쁜', '아프지', '좋다', '좋은데', '멋지게', '좋네요', '좋은', '가득하길', '있지만', '좋구나', '좋아요', '기뻐', '자랑스럽네요', '없는것', '좋네요', '있을것', '좋아요', '좋아요', '좋다', '좋아요', '많아서', '좋다', '멋있어', '좋겠어요', '있었구', '좋게', '계실거구요', '좋겠어요', '멋져요', '좋아요', '망하는', '다름이아니라', '좋겠어요', '아파요', '힘들게', '좋은', '좋겠구', '행복하세요', '아파', '좋당', '섹시하다', '좋은데', '좋네', '잘생기면', '많네요', '잘나서', '이쁘구', '좋다', '고마워', '좋아요', '좋다', '착하고', '사랑스럽고', '자랑스러워여', '원망했네', '좋다', '좋은', '좋은', '가능하게', '좋다', '있었지만', '좋아요', '좋겠습니다', '좋다', '소중하다는', '좋겠다', '좋다', '좋다', '좋은', '같고', '좋다', '좋아요', '좋다라는', '좋아요', '좋은데', '아니네요', '좋은', '좋아서', '기대하고있었는데', '좋아요', '좋내요', '좋다', '좋다', '이뻐', '방심하면', '좋은', '좋겠', '미친', '좋다', '좋다', '없지만', '멋있다', '좋다', '좋다', '좋은', '노래네요', '아닌지는', '그만해주세요', '좋은', '찬란한', '시원시원하고', '좋다', '부럽', '그렇네요', '힘들고', '그래요', '좋고', '좋을꺼', '좋다', '좋은', '충분해요', '좋음', '완벽한', '좋다', '좋은', '자랑스러', '좋다', '좋고', '이뻐요', '좋아요', '있는듯', '좋아요', '좋다', '행복해', '더운데', '멋져', '아쉽지만', '좋아요', '좋은데', '아쉬워요', '좋겠다', '좋다', '가뿐히', '좋은데', '공평하게', '좋아요', '좋아하는게', '자랑스러워', '힘들었던', '아름답게', '성장하는', '고맙고', '좋아요', '좋고', '좋고', '좋은', '좋네요', '좋아요', '좋다', '미쳤니', '좋다', '좋다', '미친', '좋아요', '고마워', '좋다', '좋다', '좋아요', '고마워', '좋아서', '있답', '방심하면', '좋은', '같에', '좋다', '촌스럽고', '지루해', '미친', '미쳤어', '좋다', '좋다', '좋아요', '미쳤어', '좋아도', '미에', '좋다', '섹시하고', '좋구만', '좋아요', '좋은', '기대했는데', '없나보다', '자랑스럽고', '멋지다', '피곤하겠지만', '좋잖아', '좋은', '더사', '귀여워', '더지서', '좋아여', '고마워', '미쳤다', '미쳤어', '행복하다', '멋있다', '섹시해', '좋다', '좋다', '기뻤다고', '많았어', '좋아요', '좋아요', '좋아요', '특별해', '좋은', '고마워', '좋냐', '멋있어', '좋다', '멋있어', '좋다', '좋아요', '좋다', '좋다', '많아서', '찬란한', '심각한거', '좋네요', '대단하고', '아쉬운건', '좋네', '좋다', '좋다', '행복해라', '좋다', '멋지다', '미쳤다', '좋은', '좋아요', '좋은', '예쁜', '좋다', '좋구', '시원시원하구', '시원시원하니', '설레니', '좋을', '좋아하는', '괜찮네', '시원시원하네요', '좋아요', '건강하고', '행복하게', '있든지', '미친다', '미쳐', '좋은', '좋다', '깔깔하니', '좋네요', '좋다', '좋다', '좋아요', '좋다', '많으셔사', '있을꺼란', '좋을', '좋은', '좋다', '탁월한', '좋다', '잘생겼어', '좋아요', '좋아요', '좋다', '원하던', '좋다', '좋아해', '많았어', '좋다구요', '행복하자', '좋다', '좋아해', '많았어', '좋다구요', '행복하자', '세련됨', '좋아하는', '좋다', '좋다', '고마워', '좋은', '좋다', '원하길래', '좋네요', '좋고', '좋아해주셔서', '아쉽다', '고맙고', '고마워', '미친거지', '좋아요', '미쳤음', '좋은데', '없는거', '이럴거면', '좋아요', '좋다', '간절했던것만큼', '벅차고', '좋은', '좋고', '많았다', '대단하다', '있던것', '미치겠다에', '뿌듯하다', '좋아서', '짜증나네요', '좋네요', '좋구요', '좋아요', '좋다', '좋다', '즐거워요', '대단하신', '좋은', '짜증나는', '좋다', '노래디', '좋은데', '좋아요', '고마워', '좋아요', '좋이다', '좋다', '좋다', '좋다', '좋다', '좋아요', '좋아요', '좋다', '좋다', '성공하고', '좋다', '좋다', '좋다', '좋다', '있니', '좋네요', '미쳤다', '미쳤어', '미쳤어', '좋다', '좋다', '찬란히', '멋져', '좋은', '아닙니까', '좋다', '좋다', '좋다', '좋다', '신나', '좋아요', '좋은', '좋아요', '완벽하다', '미쳤다', '좋다', '좋다', '좋다', '많다', '아쉽', '아쉽', '좋다', '미쳤다', '멋져', '미쳐', '좋네', '좋아요', '좋다', '좋아요', '좋아여', '위대함을', '좋다', '진지하게', '좋다', '청량한것', '좋아요', '좋다', '좋다', '예뻐', '좋다', '좋다', '좋네요', '미쳤다', '좋아요', '좋다', '청량함이야', '좋다', '좋은', '가득하자', '좋은', '가득하기를', '좋다', '좋다', '좋다', '좋다', '멋있고', '행복해', '멋있는', '좋은', '성장하길', '간절히', '영원하자', '멋있고', '행복해', '멋있는', '좋은', '성장하길', '간절히', '영원하자', '미쳤다', '좋다', '좋다', '미치겠어', '좋다', '찬란한', '좋다', '많았구', '좋아요', '좋다', '멋있고', '행복해', '멋있는', '좋은', '성장하길', '간절히', '영원하자']</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'좋으니깐', '다양했던', '귀찮고', '있지만', '행복하고', '괜찮았을', '새로운', '좋게', '아슬아슬하게', '저조한', '아프겠다', '희미하게', '좋을', '잘생긴', '붉히지', '있는거지만', '조아용', '많았을거에요', '옳구나', '섹시해서', '좋겠구요', '중요하다고', '대단한거에요', '너무하게', '섹시한것', '신나는거', '건강하시고', '섹시한데', '있니', '노래구만', '있으니까', '좋았어요', '좋았다', '미쳤다는거', '꾸준했는데', '슬픈', '있는지', '나쁘시잖아요', '좋으니', '놀랬', '망했다는', '안되지만', '좋겠어', '야함', '같은거', '좋아해요', '아니다라고', '잘생기고', '좋은걸', '야할듯', '신선해서', '아니에요', '솔직할듯', '곤란한데', '당해', '고상하신', '조아요', '있었음에도', '싫음', '좋아하는', '좋잖아요', '좋겠어요', '높은듯', '추하다', '미쳐', '행복했다', '추해', '행복하자', '성공한다', '노래는다', '조은데', '조은', '좋아하던데', '무서운것', '어떡하냐', '무섭다', '성공한거다', '진한', '성공하세요', '필요없는', '어떡하지', '좋아했던', '예뻐요', '같다고요', '후회된다', '밤늦게', '좋은가', '찌질해', '아니냐', '없나요', '미쳤어요', '찌질하게', '신비로워', '비슷하다고', '중요한', '가능하', '좋으어어어', '완벽하다', '성실함으로', '단순히', '높은', '나른함', '어려워요', '아까운', '괜찮으니까', '야하고', '미친거여', '엄청나고', '안남길', '독특하게', '이상한', '심하다', '만만한', '많았지', '그러려니', '그러지말고', '그런데도', '어렵고', '틀림없음', '멋있네요', '슬프다', '없었고', '대단해', '가득히', '고마워', '감미로우세요', '미친', '자세히', '간드러져', '기쁜', '많죠', '가까운', '조아서', '어이없고', '새롭다', '찌질하노', '장난없어', '미개한', '좋아서', '부럽다', '험한말', '뒤늦게', '있었는가', '섹시하더라고요', '섹시할', '아니겠어요', '허탈해서', '중요해서', '좋으면서도', '많네요', '좋군', '힘들었는데', '세련됨', '기대하고', '반해서', '아녀', '시급함', '좋은', '정확한', '있으', '부러워만', '스러워', '성공했을듯', '행복하옵니다', '자리는', '정확하지도', '있지', '멋있는', '멋있고', '있잖아용', '조급하지', '속상해요', '그러세용', '원치않잖아요', '미쳤는데', '기대하기', '행복하게', '좋아했어요', '미침', '있어용', '싫다', '어렵지', '속상하듯이', '좋다', '심하고', '섹시하게', '멋있다', '다양하고', '마른', '좋았잖아', '행복해야', '완벽한', '불공평해', '조마조마했는데', '불타는', '넘쳐서', '애잔하네', '못지않게', '예쁜', '딱이네', '좋음', '망했다', '있다는게', '예민하고', '차가', '좋네요', '싫고', '새로워', '뿌듯하네용', '고마운데', '짜릿한', '잘났길래', '아니길', '간절함은', '어떠', '있다가도', '고운', '미치는', '추합니다', '장난없네요', '괜찮은데', '필요없다', '거북해서', '뿐이라구요', '비슷하', '그런다', '신선한데', '유일한', '아쉽', '있을텐데', '더럽게', '비슷해지면', '불쾌함의', '뿌듯해지고', '귀엽긴', '반갑', '안남았는데', '멋지게', '좋아하는데', '나른하고', '그러는', '싫어하는', '많으니까', '당했어요', '행복하다', '많으면', '넓은', '미친거', '나쁘니', '그래두', '그러냐', '그러세요', '이쁘다', '억울하다고', '불안정해서', '강해요', '이쁘구', '좋다고', '무리가는', '바쁘신', '힘드니까', '공정한', '같네요', '아니네요', '옹졸하다', '그래요', '좋았지만', '행복하시면', '없네요', '있는거니까', '섹시한게', '아쉽네', '익숙함에', '노래였어', '없서', '노래네요', '어색하지도', '미쳤음', '지루하지', '멋져용', '귀엽네', '좋으니까', '잔잔하게', '좋아요', '역겹구', '영원한', '좋다면서', '미치겠음', '뻔히', '섹시하다', '불안해서여', '있나용', '좋네', '꾸준히가', '행복했어', '우울한데', '이쁘길래', '나른하니', '간단한', '아깝습니다', '충분히', '딱하게만', '미쳤지만', '답답해', '좋아했는데도', '많은게', '불쌍하당', '섬세하게', '소중해', '대단하지만', '같으세요', '높게', '아쉬웠는데', '어렵다고', '있다가', '스러워요', '좋았다면', '안조아요', '아무런', '불안정할텐데', '안되겠죠', '설레는거지', '계신가요', '아닐것', '멍청한거', '없으신', '심각하게', '있는건데', '세련되게', '있구', '가능하니', '좋아하고', '싫어한데요', '딱이지만', '많거나', '아니잖아요', '강하고', '아닌거', '좋아해', '좋아하는거냐', '가까이였는데', '가득하시고', '인하는', '고마워요', '가능해', '적당히', '더하면', '똑같나요', '성장하는구나', '궁금한데', '답답해서', '귀찮게', '굴려', '아프신', '좋을듯', '신나면서', '이쁜거야', '완벽해', '다양해서', '심각해요', '당할려고', '짜증남', '너무해요', '미칩니다', '변함', '좋았는데', '짜증나서', '나쁜', '멋진데', '같은데서', '급하게', '아쉽지만', '탄탄하고', '섹시하네요', '없기에', '가벼운거', '좋은데', '아니나', '없고요', '싫다고', '가능해요', '많았음', '대단한', '없는걸', '안쓰럽다', '미쳤네', '섹시함이', '불편하시면', '대단하네', '세련된', '꾸준히', '반했음', '좋아하게', '그러더라', '많다', '멋있어요', '느려서', '쉬운', '불리할지도', '불안정해', '아무렇지도', '미쳤네요', '있겠다', '따뜻해지네', '멋있다는', '불쌍하니까', '섹시한듯', '짧아', '깊은', '섹시하고', '안되는거', '부었다', '섹시한지', '사랑스러워', '차가운', '이쁜', '아니라는', '비싸서', '멋있죠', '정신차리고', '쿨하고', '힘든데', '아닌데도', '좋겠고', '있네요', '미는거', '싫어하는데', '있을까', '수월해요', '추한', '소중한', '대단하다고', '야하니', '좋겠네요', '안좋음', '아름다웠던', '좋잖아', '행복해', '죄송하지만', '대단합니다', '슬플', '완벽했음', '섹시해여', '섹시하나여', '미쳤군', '아니가아니가아니가아니가아니가아니가아니네', '당연하다고', '성공했다고', '재밌었어요', '없어서요', '놀래서', '이쁘당', '저래', '장난없다', '미쳤잖아', '이쁘잖아', '싫으면', '싫어서', '중요하지만', '세련되고', '있긴하지만', '그렇지라고', '가능하기에', '섹시하네', '좋아하시는', '반해', '같던데', '아련해서', '귀엽게', '싫테', '화하세요', '좋당', '싫지만', '던거보다', '좋지만', '따스한', '좋던데', '미쳤나', '멋진', '어마어마해졌고', '자랑스러우실듯', '좋았던', '나뻐', '아니잖와', '이상한거아니죠', '그랬고', '다르네요', '감미롭다', '완벽하네', '아니구요', '멋있음', '넘쳐', '미쳤으니', '미치게', '억울해', '아프지말고', '특이하다', '편하게', '존내리', '낭비하지말고', '고급스러워', '같다면', '연연하지', '힘들어도', '같네여', '좋다구', '신기함', '좋겠다', '비슷하네요', '슬퍼', '좀하세용', '어지간히도', '색다른', '신선하고', '추해서', '특별히', '신기해서', '아쉬웠던', '가능할', '신선함', '대단해요', '미쳤어', '미쳤다고', '중요한건', '귀하신', '멋진것', '조용히', '잘생겼어요', '꼬여서', '완벽한게', '예쁘고', '멋있어', '비슷한거는', '빠르고', '많다는', '노련함과', '좋을수가', '없습니다', '꼴사나워용', '많아서', '좋아했는데', '미친듯', '넘칠', '가뿐히', '같아서요', '고맙습니다', '위험했어요', '야할지', '한가하나', '차갑도록', '신속하게', '단단히', '이뻐서', '싫어요', '아쉽지', '그만한', '좋으네요', '뿌듯하고', '부탁드리고', '원하는거', '그럴', '신나게', '많구나', '씁쓸하네요', '미친다', '같아오', '명백히', '보석같은', '좋아용', '좋더라', '짧게는', '피곤했는데', '미쳤', '좋다는', '야한다구요', '아까', '설렘', '많으신', '아니라고', '빠르다', '멋지다', '시끌벅적한', '멋있어서', '섹시함', '좋았나', '필요없음', '궁금해요', '자랑스럽다는', '비슷한', '이렇지', '확실한', '있죠', '필요해요', '빨간', '없는거', '있어가', '멋있네', '좋아하지', '대단하다', '조화롭다', '비슷한데', '꼬이면', '좋아합니다', '예쁘다', '나른해서', '설치하거나', '미쳤는데요', '완전히', '길게여', '많아요', '고맙고', '부러운', '아니니까', '나쁘진', '이런게', '멋있을듯', '불쌍해서', '아닙니까', '아까워요', '없으면서', '슬퍼하지', '싫어가지고', '띵합시다', '당연히', '싫네요', '궁금하면', '유사한거', '아닌듯', '행복해요', '그러겠죠', '심한', '아닐', '많은걸', '중요합니다', '대단하단', '재밌다고', '아깝다', '다양한', '멋지고', '예뻐', '다를까', '같지도', '좋지', '친해서', '좋겠습니다', '행복하세요', '힘들', '강한', '단단하고', '있었지만', '미쳤다인데', '자랑스럽다', '높네', '반했습니다', '아쉽다고', '그래질', '다르게', '중요하냐며', '없으니까', '좋아해줘서', '없이다', '좋고', '미천한', '설레는', '굉장해요', '없듯이', '높아요', '좋지는', '미칠거', '어때요', '이쁘고', '알차고', '섹시하다고', '야한다고', '이쁨', '힘들어서', '아니래', '있기', '있었어', '좋아했지만', '짜릿해', '새롭냐', '멋있게', '편하게잘', '세련됬어', '미쳤다', '좋아여', '정당하게', '행복한', '없으시면', '좋았음', '소중하고', '중요해요', '있을수있어요', '없을까요', '섹시한거', '아파요', '두근거리게', '까말까', '좋습니다', '있어서요', '안되네요', '나른하지가', '좋앗는데', '하얗게', '자랑스럽다는걸', '아쉽다', '순수해서', '있으면서도', '미친거라', '섹시해', '기뻐하는', '짧지도', '힘들다', '악해', '같고', '안남았당', '신성한', '원하시면', '많았던', '섹시해요', '좋긴', '그만하라는', '섹시한', '조지는구나', '필요한가', '이럴까', '비슷한건', '많어', '아닌지', '없잖아요'}</t>
+          <t>['섹시함', '필요없는', '이런게', '섹시함', '필요없는', '이런게', '섹시함', '필요없는', '이런게', '섹시해', '차갑도록', '섹시하다', '잘생긴', '반해서', '뒤늦게', '섹시하다', '빨간', '좋네요', '좋은', '좋다', '섹시해서', '미치겠음', '좋다', '좋다', '좋다', '멋있어서', '세련된', '섹시함', '좋아요', '좋다', '빨간', '미쳤다고', '다양했던', '좋았음', '그래질', '좋아했는데', '새롭다', '이렇지', '좋음', '보석같은', '섹시하네', '야함', '없나요', '미친', '좋다', '미쳤어', '야함', '좋네요', '섹시한', '아련해서', '꾸준히', '좋다', '섹시하다고', '좋아했는데도', '빠르다', '멋진데', '섹시해', '섹시해', '많았지', '많았음', '많다는', '힘들', '싫어하는', '빨간', '미쳤어', '힘들었는데', '있겠다', '후회된다', '섹시하게', '섹시하고', '멋지고', '섹시한', '너무하게', '좋아서', '섹시하게', '좋아요', '두근거리게', '좋은', '섹시해', '좋은', '조아라', '짧았으면', '세련됨', '궁금해서요', '탄탄하게', '섹시함이', '좋아요', '좋아서', '좋아하는', '기대하고', '꾸준히', '좋아하는', '좋습니다', '있지만', '좋겠습니다', '좋아했어요', '좋아요', '높아요', '좋다', '좋아하는데', '아닌거', '같고', '예뻐', '좋아요', '굴려', '좋음', '완벽했음', '세련되고', '좋다', '추하다', '좋아서', '좋은', '좋음', '좋고', '좋으면서도', '희미하게', '좋음', '좋은', '섹시하고', '많죠', '특별히', '아닌데도', '좋아요', '좋네', '섹시한', '있었는가', '억울해', '억울하다고', '고마워', '멋있네요', '고맙습니다', '있지만', '노래는다', '좋음', '빠르고', '신속하게', '좋아했던', '짜릿해', '좋음', '짜릿한', '자랑스러우실듯', '아쉬웠던', '차가운', '좋아하는거냐', '잘생기고', '좋네요', '좋아서', '미쳐', '섹시해서', '추합니다', '좋다', '섹시한듯', '뒤늦게', '좋은데', '섹시하고', '짜증남', '좋고', '이쁨', '멋있고', '좋네요', '섹시해요', '반해', '반해', '새로워', '짜릿해', '노련함과', '섹시함', '좋아합니다', '섹시한데', '섹시한', '다르네요', '좋아서', '좋은', '좋던데', '좋아했지만', '미쳤어', '좋다', '섹시한', '좋아서', '있어용', '좋고', '좋고', '좋아서', '슬픈', '있었지만', '좋았던', '많았던', '좋은', '좋겠어', '자랑스럽다는', '고마워', '자랑스럽다는걸', '좋다', '노래였어', '좋당', '슬프다', '좋아요', '슬프다', '좋아요', '높네', '행복했다', '좋음', '섹시하고', '멋있고', '좋음', '좋네요', '좋겠다', '좋은가', '영원한', '영원한', '신나면서', '같네여', '섹시한거', '같고', '고마운데', '꾸준히', '불쌍하니까', '많어', '좋네요', '좋아요', '좋은데', '좋아요', '아쉽지만', '있을텐데', '좋아요', '좋다', '좋네요', '빨간', '섹시하더라고요', '필요없다', '심각하게', '좋은', '좋아하는', '심하다', '섹시하고', '멋있어서', '설렘', '재밌다', '짧아', '조아서', '좋아하는', '좋아하는건', '있으니까', '추하다', '강해요', '좋아하시는', '그러려니', '같으세요', '이상한', '좋네요', '안되지만', '멋져', '다름없지', '애매하니', '정당하게', '좋음', '우울할것', '부끄럽지', '자랑스럽다', '잘생겼고', '있더라고요', '망할', '후회됨', '붉은', '좋아요', '좋다', '좋네', '꾸준히', '좋겠습니다', '미천한', '이쁘길래', '놀랬', '섹시하나여', '싫어요', '좋네요', '좋아요', '좋다', '안됨', '신비하고', '좋아요', '많네요', '좋은', '심하', '미치겠다구', '멋있다면서', '불쌍해서', '좋음', '좋은', '나쁘진', '좋다', '비슷한건', '좋고', '섹시해', '좋고', '정신차리고', '좋잖아', '좋네', '짧게는', '빨간', '멋있죠', '빨간', '멋있어', '좋네요', '좋던데', '좋다', '부탁드리고', '좋으네요', '빨간', '놀래서', '좋네요', '조은', '섹시하네요', '미쳤다', '좋다', '좋다', '신성한', '미침', '미친거', '대단하다', '미쳤다', '섹시해', '설레는거지', '좋은', '이쁘고', '좋다', '뒤늦게', '미쳤다', '좋네요', '멋있어요', '좋다', '좋아하던데', '좋아서', '단단히', '좋아요', '있니', '행복해야', '그러지말고', '싫지만', '간드러져', '미칩니다', '없을까요', '멋있어서', '찌질하게', '성실함으로', '성공했을듯', '좋은', '좋은', '섹시해', '같은데서', '추해', '이상한', '없으신', '좋다', '좋다', '좋음', '섹시한', '좋음', '당했어요', '중요하지만', '좋네', '높게', '심각해요', '섹시해', '이쁜', '가까운', '싫테', '아무렇지도', '좋아서', '섹시한거', '아닙니까', '기쁜', '완벽한', '미쳤', '좋앗는데', '아쉽', '좋지는', '행복해요', '좋아요', '있으니까', '더하면', '행복하세요', '좋네', '좋은', '가득하시고', '좋은', '넘쳐', '좋음', '좋고', '멋진것', '중요합니다', '좋음', '좋은', '미쳤다아아아', '좋아여', '좋아안', '좋은', '노래더군요', '새로운', '힘들게', '당연히', '좋은', '좋지만', '좋네요', '좋아요', '새로운', '중요해서', '소중하고', '당연하다고', '어렵지', '좋네요', '충분히', '가능해요', '당연히', '새로운', '중요한', '좋습니다', '고맙고', '괜찮으니까', '좋음', '좋았잖아', '충분히', '많아서', '새로운', '싫네요', '없어서요', '간절함은', '어떡하냐', '아니래', '좋고', '좋아요', '반했음', '유치한', '완전히', '좋네요', '좋다', '좋아요', '좋아요', '이쁘잖아', '좋은데', '섹시한', '미쳤네', '예뻐', '좋을', '충분히', '좋은데', '완벽한', '좋은', '많아서', '좋고', '많아서', '불안하지만', '좋아하니까', '싫어하고', '좋아하는', '좋은데', '곤란해', '좋잖아', '섹시하네', '잘생기긴', '세련되고', '섹시해요', '조아요', '좋네요', '좋아서', '좋아여', '좋다', '좋은', '아니네요', '좋지만', '좋은', '좋고', '이쁘구', '섹시하고', '이뻐서', '무서운것', '좋아서', '좋은', '조은데', '심하고', '느려서', '많았을거에요', '안남았는데', '좋네요', '섹시함', '섹시해서', '반했습니다', '좋다', '그만하라는', '좋다고', '좋아하는데', '많네요', '귀엽네', '아름다웠던', '하얗게', '짜릿해', '좋다', '불공평해', '아니니까', '꾸준히가', '중요합니다', '꾸준히가', '좋아여', '조은데', '멋져용', '아니겠어요', '있구', '좋아서', '좋은', '좋음', '안되는거', '같아서요', '궁금한데', '좋아요', '싫어요', '이쁘다', '좋긴', '좋네', '좋아하는데', '없을까요', '좋다는', '싫어하는', '좋아하게', '그러더라', '아쉽다고', '좋지만', '좋네', '좋아하는', '좋은', '좋아하시는', '좋아용', '싫음', '원하는거', '같지도', '좋은', '공정한', '싫다고', '신성한', '예뻐', '새로운', '다양해서', '좋다', '싫어하는데', '좋게', '싫음', '대단합니다', '좋지', '중요하다고', '꾸준히', '꾸준히가', '중요합니다', '재밌었어요', '아니구요', '정당하게', '불편하시면', '수월해요', '있었음에도', '그런데도', '어렵지', '많아요', '충분히', '엄청나고', '충분히', '속상해요', '간절함은', '슬플', '슬퍼하지', '높은', '스러워요', '새로운', '필요해요', '차가', '조마조마했는데', '많구나', '허탈해서', '좋아요', '행복했어', '있어가', '행복한', '행복하고', '행복하고', '고운', '좋겠다', '멋지다', '반갑', '찌질하게', '싫어요', '옹졸하다', '행복하자', '싫어요', '찌질하노', '연연하지', '행복한', '없었고', '중요해요', '가능하니', '좋아요', '좋은', '좋고', '높은', '답답해', '귀찮고', '없나요', '꾸준히', '어렵다고', '차가', '원치않잖아요', '어떡하지', '신선해서', '좋다', '감미롭다', '강한', '좋은걸', '좋네', '좋다', '좋다면서', '좋네요', '세련됨', '좋은', '좋네요', '신선하고', '새로운', '좋다', '중요하다고', '꾸준히', '꾸준히가', '중요합니다', '아쉽', '좋으니까', '충분히', '좋은데', '싫고', '싫어요', '좋으니', '좋아요', '기뻐하는', '좋잖아요', '어려워요', '좋다고', '좋고', '좋아서', '멋있고', '좋지만', '쉬운', '슬퍼', '있을수있어요', '그래두', '신기해서', '높은듯', '좋아요', '망했다', '있으니까', '강하고', '까말까', '좋아해', '성공했다고', '성공하세요', '좋아하는', '소중한', '예쁘고', '섹시해서', '좋음', '좋은데', '짧아', '힘든거', '싫으면', '아쉽게', '좋아서', '미쳤', '미쳤음', '변함', '없내요', '높은', '안되지만', '비슷해지면', '불리할지도', '미쳤다고', '조아용', '아깝습니다', '좋은', '멋있다', '좋아요', '좋은데', '새로운', '좋고', '좋아하는', '좋긴', '좋다', '좋다', '대단하다', '미칠거', '좋고', '예쁘고', '고마워', '많으신', '많네요', '좋음', '빨간', '세련되고', '좋은', '완전히', '힘들어서', '다양해서', '미쳤다', '미쳤어', '좋은', '많은게', '대단하지만', '변함', '좋아하는', '대단한거에요', '대단한', '좋아하고', '있지만', '대단하단', '미쳤잖아', '귀엽긴', '꾸준히', '꾸준히가', '중요합니다', '좋아요', '좋겠어요', '좋았는데', '좋네', '당해', '많아서', '설치하거나', '기대하기', '어렵고', '씁쓸하네요', '궁금해요', '그러겠죠', '많아서', '있는거니까', '아슬아슬하게', '아쉽지', '있다는게', '좋을', '새로운', '좋음', '미치게', '좋은데', '길게여', '싫어요', '아깝다', '싫으면', '좋다구', '노래네요', '싫어요', '아닌데도', '같고', '있잖아용', '미개한', '조은', '차가', '작은', '좋으니', '비슷하게', '많아서', '억울해서', '좋은데', '싫으면', '싫으시면', '좋겠구요', '좋겠네요', '없이다', '좋으니까', '좋겠네요', '좋은', '어마어마해졌고', '답답해서', '불편하시면', '어때요', '좋네', '좋았나', '좋은', '같은거', '대단하네', '싫어가지고', '찌질해', '좋다', '좋은', '당할려고', '신성한', '아니잖와', '좋아요', '멍청한거', '적당히', '화하세요', '좋은', '좋습니다', '비슷한거는', '좋아서', '좋아여', '좋아여', '좋다', '섹시한', '좋다', '꾸준했는데', '안좋음', '좋은', '좋은', '노래네요', '짜증나서', '싫어한데요', '야할지', '좋고', '섹시한것', '잘났길래', '싫다고', '솔직할듯', '없으시면', '조용히', '궁금해요', '아니라는', '확실한', '없듯이', '확실한', '없습니다', '아니길', '확실한', '같네요', '좋은데', '아쉽네', '좋은', '좋당', '힘들어도', '좋음', '죄송하지만', '아니다라고', '명백히', '없기에', '아무런', '없는걸', '비슷하다고', '까말까', '피곤했는데', '따뜻해지네', '친해서', '좋다는', '강한', '정확하지도', '좋아서', '좋다', '아프겠다', '세련되고', '좋음', '악해', '좋음', '편하게잘', '이쁨', '충분히', '아까운', '많아요', '조급하지', '불안정할텐데', '가능할', '무섭다', '좋던데', '좋음', '낭비하지말고', '좋은데', '안쓰럽다', '좋은', '유사한거', '뒤늦게', '섹시한', '멋있다는', '좋아여', '미쳤어요', '좋다', '추한', '야하니', '섹시해', '추해서', '좀하세용', '한가하나', '괜찮은데', '멋있네', '이상한거아니죠', '나쁘시잖아요', '좋아서', '다르게', '좋다', '세련되고', '미쳤', '장난없네요', '아니냐', '좋네', '쿨하고', '멋있는', '섹시하다', '딱이지만', '좋겠다', '지루하지', '좋음', '좋네요', '좋아요', '있는거지만', '고마워', '좋아서', '좋은', '새롭냐', '고급스러워', '싫음', '찌질하게', '고마워', '고마워요', '잘생겼어요', '섹시한', '단순히', '깊은', '멋진', '마른', '좋다', '좋았는데', '좋아하는', '좋다는', '좋고', '좋아요', '행복하게', '없으신', '불쌍하당', '똑같나요', '어이없고', '불편하시면', '고상하신', '없으면서', '미쳤어', '좋다', '미쳐', '불안해서여', '좋아요', '못지않게', '많으면', '많으면', '좋아하는', '좋아하는', '꼬여서', '나뻐', '미쳐', '그래요', '비슷하네요', '좋았는데', '아쉽다', '좋다', '적당히', '귀찮게', '행복하시면', '싫으면', '좋아요', '좋잖아', '밤늦게', '불안정해서', '좋아요', '좋긴', '차가', '급하게', '불안정해', '많아요', '미쳤다', '거북해서', '비슷한데', '뿐이라구요', '충분히', '있으니까', '섹시한', '불타는', '신나게', '좋음', '좋아하는데', '좋게', '좋다', '좋네요', '좋고', '좋겠습니다', '미쳤다', '좋다', '좋음', '미쳤다', '더럽게', '신선함', '있지만', '꾸준히', '좋음', '좋다고', '세련되고', '넓은', '좋다', '좋은데', '많다', '미친다', '색다른', '힘든데', '미쳤다', '좋음', '미친듯', '좋고', '좋다', '다양하고', '좋게', '힘들다', '있으면서도', '완벽한', '딱하게만', '대단하다고', '야하고', '좋네요', '섹시해서', '같네요', '대단하네', '그럴', '그러세요', '붉히지', '좋네요', '좋다', '미쳤다', '많거나', '성공한거다', '그렇지라고', '단단하고', '좋으니깐', '신선하고', '좋네요', '싫으면', '안조아요', '좋아요', '어이없고', '좋다', '좋네요', '좋아서', '싫어서', '싫으면', '좋아요', '고맙고', '행복하다', '높은', '싫은', '좋아요', '좋아요', '좋네요', '있을수', '고마워', '미쳤네', '힘들겠다', '비슷하', '고마워요', '고마워', '좋네', '많은걸', '미침', '틀림없음', '좋다', '좋다', '멋있다', '미쳤음', '좋다', '좋다', '좋아서', '좋다', '행복하다', '좋은', '좋겠네요', '좋다', '야함', '좋은데', '행복하다', '새로운', '망했다', '바쁘신', '있어서요', '없는거', '좋아요', '좋다', '나쁘니', '미쳤다', '좋아요', '싫으면', '궁금하면', '좋아서', '정당하게', '있는건데', '좋겠고', '심한', '뿌듯하고', '미쳐', '미친', '미쳤다', '좋아하는', '좋고', '뿌듯해지고', '그런다', '이상한', '역겹구', '높은', '꼴사나워용', '그럴', '좋아하는', '높은', '새로운', '원하시면', '다양한', '충분히', '좋다', '자세히', '간단한', '간단한', '좋다', '좋다', '좋아용', '미친거', '중요하지만', '섬세하게', '섹시한지', '곤란한데', '편하게', '행복한', '부럽다', '재밌다고', '좋아여', '진한', '위험했어요', '같다고요', '아파요', '순수해서', '잘생긴', '조용히', '좋다', '좋다', '미친', '좋다', '미쳤네', '미쳤어', '좋다', '좋아요', '미친', '시급함', '멋있음', '섹시함이', '좋잖아', '대단해', '완벽해', '뿌듯하네용', '고마워', '따스한', '고마워', '섹시한', '굉장해요', '좋다고', '좋다구', '멋있다', '띵합시다', '좋고', '좋은데', '사랑스러워', '설레는', '이쁜', '그러는', '아닐', '속상하듯이', '그래요', '조아서', '행복해', '좋다', '좋다', '안남았당', '예쁜', '좋아요', '좋아서', '부었다', '좋네요', '좋고', '좋다', '아쉽다', '넘쳐서', '좋네', '미쳤지만', '미침', '좋다', '애잔하네', '좋을듯', '좋아요', '미쳤다', '아니나', '다를까', '좋고', '좋아요', '중요한건', '힘드니까', '소중해', '계신가요', '저조한', '불안정해', '많아요', '급하게', '그랬고', '미친', '섹시하고', '나른하고', '세련되고', '좋다', '넘칠', '필요없다', '좋다', '좋던데', '미쳤다', '미쳤다', '미쳤다', '비싸서', '좋지', '좋네요', '조아용', '미쳤다', '신나는거', '좋더라', '당연히', '좋다', '좋아요', '야함', '좋아요', '좋아서', '좋지만', '야한다구요', '좋으니까', '미쳤다', '완벽하다', '좋아서', '미쳤다는거', '미쳤', '딱이네', '좋네요', '신기함', '좋으어어어', '없으니까', '미쳤다', '멋있게', '섹시한', '짧지도', '강한', '좋아해줘서', '많으니까', '행복해', '좋음', '좋고', '몽글몽글해서', '잘생기고', '잘생겼다', '좋은', '같네요', '좋겠', '좋아요', '젊은', '부러워요', '건강하게', '좋구', '재밌고', '미쳤으니', '너무해요', '부러운', '부러워만', '좋지만', '있긴하지만', '좋았다', '노래네요', '망했다는', '좋다는', '그러냐', '좋다', '좋았지만', '아프지말고', '좋네요', '야할듯', '좋아하고', '좋은', '힘들어', '뛰어난', '힘들어', '불쌍하니까', '고마워', '미쳤다', '미쳤어', '미쳤다', '좋다', '고마워', '행복하게', '좋겠어요', '좋음', '좋아해서', '좋은데', '미쳤네요', '좋아요', '좋다고', '인하는', '섹시해', '귀엽게', '나쁜', '있을까', '좋아요', '좋은', '있나용', '미쳤어요', '싫어요', '좋아서', '행복하다', '미쳤어', '신선해서', '좋당', '같은거', '새로운', '아닐것', '좋다', '섹시해', '좋은', '멋진', '고마워요', '예민하고', '좋고', '우울한데', '신선한데', '섹시한게', '같아오', '새로운', '고마워', '자랑스럽다', '좋은데', '특이하다', '신선함', '섹시해', '좋다', '고마워', '섹시해', '미쳤는데', '미친듯', '좋아여', '조은', '좋다', '이쁨', '탄탄함', '같으면서도', '다르고', '좋다', '좋다', '알차고', '어떠', '좋은', '좋아했는데', '좋음', '아까워요', '그러세용', '미쳤어', '미쳤는데', '미친듯', '좋고', '좋아요', '행복하세요', '행복하세요', '좋음', '필요없음', '좋군', '미친거여', '좋은', '아녀', '가능해', '미친거라', '섹시해', '멋있어서', '좋아서', '좋다고', '성장하는구나', '높은', '미쳤다', '고마워요', '예뻐요', '좋다', '좋다', '좋아요', '고마워', '고마워', '멋있음', '좋고', '아니냐', '좋다', '노래였어', '고마워', '고마워', '뿌듯하고', '자랑스럽다', '조은', '미쳐', '미쳐', '미쳤나', '좋은', '미쳐', '미쳤어', '좋아하는데', '좋은데', '섹시함', '좋다', '좋아요', '좋아요', '대단해요', '고마워', '미쳤다', '알차고', '좋아요', '미쳤어', '미쳤어', '노래구만', '신비로워', '시끌벅적한', '불쾌함의', '잔잔하게', '좋은', '좋다', '행복하자', '미쳤잖아', '좋잖아', '조아서', '좋다', '중요하지만', '중요해요', '장난없어', '감미로우세요', '좋았어요', '좋당', '미쳤는데', '미치는', '필요한가', '가능하', '계신가요', '안되네요', '좋다', '멋지게', '예쁘다', '잘생기고', '완벽한게', '좋아하지', '가능하', '계신가요', '같다면', '좋다', '좋은', '이쁜거야', '섹시해여', '좋네', '세련되게', '새로운', '미쳤다', '미쳤다', '미쳤나', '좋지', '멋있어', '새로운', '좋다', '좋겠어요', '좋겠다', '미쳤는데', '가벼운거', '좋네', '미친', '좋고', '좋다', '미는거', '안남길', '좋잖아', '좋았다면', '미쳤다', '미쳤군', '안되겠죠', '미쳤어요', '그만한', '좋다', '좋을수가', '있죠', '좋네요', '완벽하네', '미칠거', '자리는', '좋다', '험한말', '조지는구나', '좋네요', '좋다', '미쳤', '미친', '미쳤어요', '좋고', '나른함', '좋음', '미침', '미쳤다', '미쳤다', '가득히', '나른하지가', '나른해서', '좋은', '싫다', '좋으니', '가뿐히', '행복해', '미쳤다', '좋아서', '미쳤', '미친', '미친', '미친', '좋은데', '독특하게', '섹시하게', '미침', '멋있을듯', '행복하다', '좋은', '고마워요', '세련됬어', '미쳤어', '섹시하고', '미쳤어', '좋당', '새로운', '어색하지도', '아까', '세련되게', '좋지만', '좋다', '존내리', '미친', '미쳤다', '미쳤다', '미쳤어', '섹시해', '좋아요', '좋잖아', '좋다', '아프신', '같던데', '행복하옵니다', '탄탄하고', '좋네요', '좋아서', '좋잖아', '미쳤어', '미쳤다', '좋은', '나른하니', '미쳤다', '좋고', '이쁘당', '좋다', '좋다', '좋아요', '좋음', '섹시해', '좋아서', '좋다', '섹시해', '장난없다', '좋아서', '아쉬웠는데', '미쳤네', '충분히', '미쳤다', '좋다', '섹시한거', '좋다', '던거보다', '좋아서', '고마워요', '좋고', '좋고', '무리가는', '성공한다', '미쳤다', '좋다', '미쳤다', '섹시한', '완벽한', '완벽하다', '대단해', '섹시하고', '멋지고', '미쳤다', '가능하기에', '섹시한거', '좋다구', '좋다', '미쳤어', '좋고', '좋다', '좋다고', '미쳤어', '미쳤네', '좋네요', '완벽해', '좋고', '조화롭다', '좋다', '섹시할', '새로운', '미쳤다', '미친', '미친거', '미쳤다', '섹시하고', '미친거', '미쳤다', '미쳤다', '좋다', '새로운', '고마워', '좋아해', '미쳤는데요', '미쳤네', '미쳤다', '옳구나']</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'빡치네', '좋은만큼', '무섭', '행복해졌으면', '잘생겨지는', '좋게', '필요한', '신나기도', '신나잖아', '행복해지는', '화했다가', '잘생긴', '똑같아요', '아닐지', '빡친다', '있는거고요', '있으려나', '성장한', '미치겠네', '그러지말구', '미치는줄', '정확한거', '있자나', '뛰어나다고', '아쉽게도', '흥겹네요', '열광하는지', '힘든시기', '가득하길', '우울해서', '이래라', '예쁘지', '가벼워', '답답한데', '그랬잖아', '좋았을텐데', '부족한거는', '좋아하지는', '대단했던', '영원할거야', '설렌다', '안남았구나', '지겹', '미쳐요', '유명하고', '미쳤고', '안남았습니다', '빠르네', '불가능하신', '당해', '조아요', '계시다면', '상관없이', '싫음', '많으시던데', '좋잖아요', '좋겠어요', '아련한', '추하다', '유용한', '예쁜거', '청량해진다', '귀여워요', '안됩니다', '어떨까', '신나구', '우울하신가요', '맑고', '어뜩해', '대단하구나', '아프겠노', '예뻐요', '중요하지', '수상했으면', '아플만큼', '좋으신', '찌질하게', '같나요', '잘맞아', '죄송해요', '장하네요', '아니게', '없었음', '위험해요', '야한다는', '필요없어', '깨끗해요', '많이줘요', '창피하네요', '맛있는', '답답하신가요', '성숙하고', '노래구나', '이래놓고', '청아하고', '어렵고', '웬만한', '행복할게', '고마워', '강력해', '성장했구나', '안된다는', '기쁜', '섭섭하고', '꼬이기', '성공하고', '졸렬한', '없던데', '아니꼬아서', '힘들지만', '아프네요', '있겠지요', '좋아서', '짙죠', '가능해용', '한심한', '예쁜데', '신날수있나', '안되니까', '힘들었는데', '아니냐며', '좋겟어', '멋있었', '세련될수가', '싫테하는', '많을텐데', '스러워', '무서워라', '높아서', '신난다아', '좋아하든', '없더니', '행복하게', '좋아하신다면', '던거죠', '그렇다구요', '즐거운', '미침', '재미있음', '쎘다', '안되는거죠', '대단하구만', '무식한', '경쾌한', '성숙하지', '변함이', '빠르네요', '있다고', '힘들더라도', '아니여', '좋을라', '싫었는데', '다양한거', '고맙게', '좋네요', '멋있어라', '지독하게', '상관없으니', '대단해지는거', '넓다', '힘들텐데', '아쉽', '신선한', '더럽게', '이쁘노', '안타깝게도', '기쁘네요', '좋다길래', '든든하고', '청량해', '대단하긴하니까', '싫은건', '뿐입니다', '침착한', '중요해', '아쉬워하고', '치열하네요', '찬란히', '성숙해지시길', '약함', '불안해서', '그래두', '분명히', '안좋고', '미쳤나요', '어떡하라는', '둥글', '잘생겼', '먼치', '실망한다고', '성공했나보다', '높은거', '능숙하게', '필요하다면', '좋을거', '섭섭한', '두드러지게', '힘들고', '없다는거', '안좋', '이렇게나', '애틋함이', '속상할건', '아니였으면', '같은거에', '좋아하진', '예뻤지만', '행복했고', '노래네요', '미쳤음', '아프게', '노래긴', '많으셨', '작은', '달랐던', '좋아요', '신기하구', '뻔히', '있나용', '좋네', '자랑스럽', '행복했어', '황홀하고', '헷갈려', '충분해요', '좋아하면', '따뜻해지니까', '그랬음', '아니려나', '청량한게', '괜찮네요', '안된다길래', '행복합니당', '아깝잖아요', '곧있음', '벙벙했다고', '만족합니다', '바쁘셔도', '억울한', '있다가', '선한', '아무런', '사이좋게', '있자구요', '짜증나', '아니라구요', '흥미롭다', '아쉬워', '나쁘', '자랑스런', '그럴거', '계신가요', '탄탄하다', '있는건데', '부탁드릴게요', '있구', '가능하니', '맛깔나게', '속상하네여', '좋수', '아니잖아요', '안될것', '좋아할듯', '고데기', '좋아하는듯', '좋잖아여', '넘치는', '조용한', '괜찮을거라', '좋아하는거다', '섬세한', '싫어하게', '많았냐', '어려웠는데', '벅차오름', '달랐을듯', '딱이네요', '시원하잖아', '유명하다고', '답답해서', '힘듦', '없다면', '굴려', '빵터졌으면', '싫으니', '많은것이', '심심하면', '나쁜말', '야하잖아요', '뚜렷해', '멋진데', '없었으나', '찬란하게', '자세한', '없으시나용', '싫은', '미친다는', '없는게', '안타깝게', '힘들거', '황홀하다', '시원해져', '가득하시길', '대단한', '대단하시네요', '싫어하면서', '행복했음', '새롭지', '대단하네', '세련된', '좋아하게', '느려서', '계실까', '완벽하게', '많노', '정확하게', '궁금하시다면', '섹시하고', '뿐이었습니다', '안되는거', '아니였는데', '휩쓸어야죠', '부탁드려용', '착하신것처럼', '좋구나', '있더라', '시원하고', '예쁘던데', '좋아한다고', '괜찮잖', '속상하네', '좋다니까', '힘나게', '좋겠고', '안되든', '싫어하는데', '중요할텐데', '좋다하시는', '좋을것', '아프다', '좋겠네요', '색달라', '어떡할까', '인해서', '시기하고', '서운할듯', '고마우', '없길', '그럴수는', '더잘', '어이없을', '위대한', '젊고', '좋잖아', '있는거에요', '행복해', '상쾌해', '암울한', '작것시도', '무례하다는', '중요하기도', '이쁘니', '추하노', '없으', '수많은', '없어서요', '귀여워아', '싫어서', '당연한', '좋다아', '딱이예요', '있네용', '중요할듯', '있는만큼만', '안남았다아', '죄송하고', '편히', '잘난', '편한', '짙게', '귀한', '행복하', '멀쩡한데', '성장할지', '상당히', '좋당', '신나신나', '안남음', '지겨운', '좋았던', '좋아하는가수는', '있을려나', '슬프네요', '조용히하고', '계시던데', '계신데', '아니구요', '부족해서요', '아니었으면', '그러시는지', '편하게', '실망하지', '아름답네요', '쉬웠어요', '뿌듯할거에요', '필요없고', '많으세요', '없을거다', '좋다구', '좋겠다', '깨끗하게', '좋았을것', '좋다로', '아니겠죠', '많이아니까', '아닌것', '복잡하고', '땡그래져서', '대단해요', '신기해서', '번하고', '원해', '힘들겠지만', '재밌냐', '답답하네', '안되지', '더러운게', '미치겠어요', '맛있게', '조용히', '괜찮아지는', '따뜻한', '색다르고', '당연해요', '그렇더라구요', '많다는', '없거든요', '그럴래', '좋니', '새침한', '좋아할거고', '슬프다는', '번해도', '찝찝한', '부탁드릴', '멋지네요', '계시는', '가뿐히', '설레고', '애매함', '좋다우', '위험했어요', '잘생겨', '좋아한지만', '계실거라', '미치겠다', '있거든', '어떤게', '안남았네요', '미쳤지용', '안좋긴', '그럴', '바쁜지', '벅차다', '같으니까', '같으니', '선명하게', '재밌다', '힘났어', '미쳤', '우울한', '아쉬음', '좋아합시다', '뻔함', '편하질', '미쳤냐고', '섭섭할거', '바쁜가', '망해서', '변해', '즐거웠잖아요', '청량해나', '드러진', '조진다', '화하면', '다른데', '있다는', '그런거겠죠', '청량하고', '심하네요', '기쁘', '우중충한데', '놀랬다', '변했습니다', '아니잖아', '더럽네', '위험할', '상관없음', '찰짐', '충분하다고', '성장해가는이', '드러네', '좋아한다', '어떰', '조용히하세요', '부실한', '안되냐', '이상한가요', '흔히', '이럴것', '힘듭니다', '심한거', '쓰리해', '짧아도', '어려운거', '달라셔', '거뜬하겠는데', '궁금하면', '부럽', '진솔한', '대견하네요', '아니었', '심한', '미쳤서', '아깝다', '힘든거', '스럽네요', '아름다', '없는거랑', '좋지', '바쁘실', '어색했을거', '힘들', '좋아해주는', '강한', '그러는데여', '행복해졌어', '있었지만', '자랑스럽다', '여려', '그러네', '미치기', '어떡해요', '좋아할', '없던것', '없으니까', '깨끗하고', '유쾌한', '좋다는거', '그만하면', '높아요', '흔하지', '뜨거울', '멋있어질', '애처로운', '어때요', '좋습니다만', '넓구나', '이쁘고', '완벽함', '죄송하네요', '힘들어서', '먼말이', '당연한게', '당연하게', '아픈', '아깝게', '이래니까', '상관없는', '들뜨지', '그렇구요', '우울했는데', '저래라', '괴롭다', '안된다고', '어렵다는거', '그랬듯', '없을까요', '같앗는데', '길어두', '어떡해용', '안되네요', '가능하답니다', '청량하냐고', '없을만큼', '좋군요', '유일해', '없을것', '상쾌하네요', '멀쩡한', '오래된', '허전할', '미안하구나', '안되더라도', '없오', '불편해요', '같으신', '없기', '필요하신', '있다라고', '좋긴', '작하시는', '귀엽질', '뿌듯해요', '부족한게', '짧아요', '안좋다고', '있지만', '새로운', '안좋길래', '자랑스러워', '높습니다', '나쁜게', '추해요', '잔망스러', '좋을', '자만하지', '행복해진다', '가득했으면', '있는건', '잘맞고', '자랑스러운', '청순해', '조아용', '아프지', '하찮다', '괜찮아져서', '야합니다', '아니였음', '대단한거에요', '추하다시길래', '좋아해주실지', '같기도', '좋겠다고', '좋았어요', '있으니까', '없는듯', '스러우면서도', '좋다한', '따끈따끈하니', '필요없었', '놀라워', '재밌어', '좋으다', '아쉽대', '안되지만', '좋겠어', '잘맞기', '좋아해서', '같은거', '있다는거', '기대해도', '안남았으니', '추잡한', '아니에요', '청량함과', '많으셨고', '연연하지말고', '많으실텐데', '하찮고', '신기하네요', '좋아도', '환하길', '자랑스러워요', '많았어요', '추해', '침울한', '조은데', '무섭다', '행복해져', '어떡해나', '어뜩하냐', '그러지', '부탁드려도', '어떡하지', '부은', '틈틈히', '빠른', '시원하네요', '멋있는거', '깔끔하게', '미쳤어요', '더러워', '단단해지기', '가능하', '노래인거고', '완벽하다', '다양함을', '새로운것에', '어려워요', '안좋았던것', '경쾌하게', '반하겠네', '속상하긴', '죄송해서', '많은거', '아찔한', '강해야', '괜찮았음', '안좋네요', '안좋을수가', '좋아해줄까', '미친', '같에요', '많죠', '가뿐하게', '미치지말고', '가능하고', '환하게', '불가능해서', '뒤늦게', '없었던걸', '미까지', '가능할거에요', '많은것', '행복하면', '신나고', '부들부들하지', '똑똑한', '있었잖', '대단하죠', '아니져', '짧다', '좋아하네', '기대하고', '괜찮은', '그럽니다', '단단한', '시원하다', '까다로워서', '있지', '멋있고', '힘차게', '빡쳐도', '신선하네', '계신다면', '궁금하네', '드럽게', '무거울', '아닌거야', '웬만해', '안될줄', '어떨지', '경쾌하고', '안남았네', '그런게', '있으니깐', '그러잖아요', '시급합니다', '기대하면', '기대함', '기대했는데', '시끄러운것이냐', '원하는게', '좋으', '좋아하셨다면', '넘쳐서', '애잔하네', '찰지다', '계셔서', '청량함', '좋노', '좋고요', '노래였구', '새로워', '눈부시', '다른것', '가능한가요', '궁금하시면', '추합니다', '이상하지', '즐겁고', '아니꼬운', '아쉬운데', '없었을', '좋은지', '많아도', '안되어서요', '좋아하겠네', '안남았는데', '좋아하는데', '안온한', '싫어하는', '있겠네요', '많으면', '좋아했었는데', '아쉬워하실', '미친거', '안되나', '행복하세용', '가득해서', '잘생겼어', '상쾌함', '이쁘다', '서운하네', '좋져', '행복했습니다', '이상한듯', '미하께여', '아쉬워서', '유리한', '이상하게', '더하세여', '좋다고', '흥겨워', '안되어요', '가득했던', '같네요', '더가자', '안되나요', '좋는', '아니면서', '한심하다', '간절히', '고귀한', '꿀꿀한', '같네', '세련되구', '좋겠당', '안남았더라고요', '행복했으면', '지루하지', '좋아했을', '새롭게', '용감한', '야하네', '안녕히', '아닌가싶다', '싫어했는데', '좋아한게', '신나지만', '중요하니', '귀찮더라도', '많으셔라', '추잡하노', '위험해', '노래라구요', '이럴수가', '깨끗해', '많은게', '아쉬웠는데', '연연한', '딱인', '좀있으면', '성장해서', '싫은거겠지', '쎄다', '있었던것', '노래내는', '아름다운', '고맙다', '치졸하게', '좋냐고', '신나', '없는거야', '같아여', '바빠질', '냉정하게', '심각하게', '심하게', '어떡함', '힘들었을듯', '연히', '청량해지는', '어두워', '좋내요', '초라해지게', '진지한', '싱그러운', '높을수록', '순수하게', '부탁드립니', '훈훈하네', '더하면', '야하냐', '아니겠지만', '나쁘지', '다르긴', '궁금한데', '이뻐요', '당당한가', '똑같', '고프다', '아쉽당', '신기해', '아닐테고', '미는', '귀여', '한심하기', '조용하다', '조하', '환하겟네', '더운데', '좋았는데', '대단했어', '같은데서', '작것시가', '좋았고', '잘맞는듯', '좋은데', '역겨울까', '좋아하는것만', '놀라운', '싫다고', '무거운', '없다고요', '미안한데', '멋있어요', '쉬운', '아쉬운건', '좋겠다는', '조으네', '좋을까요', '따뜻하고', '무더운', '있겠죠', '대단한건', '짧아', '좋아해서요', '많은이에게', '휩쓸', '뿐이니', '그리워지는', '야해서', '싫은걸', '없었는데다', '스럽고', '아니라는', '실망했다는', '아님요', '부러워하겠는데', '청량함으로', '아니였고', '고마워하지는', '단순하게', '심합니다', '기대하는', '정신차리고', '나른한', '많을거에요', '나란히', '그러시진', '아니고는', '있어야지', '낮디', '경쾌한데', '당당히', '알맞은', '얄팍하네', '좋냐구', '대단하다고', '가능할것', '힘들게', '안녕한', '계신가용', '그렇구나', '행복합니다', '필요하', '얇고', '있는것도', '심하지도', '좋자', '대단합니다', '즐거워', '뿌듯했지', '행복했던', '원하는것만', '유리한데', '들뜨고', '강해서', '입니다다마', '놀래서', '저래', '겸손한거였어', '야하', '있을것', '많을까요', '중요하지만', '좋을지', '시러', '필요해', '속상해', '좋아한지', '좀해', '아니아니', '멋있지만', '좋을수밖에', '흥겨', '싫은거잖아', '기대하겠습니다', '없답니다', '드라마틱해', '기대할게요', '좋기만', '같더라고요', '계시나요', '싫지만', '미쳤지', '미쳤나', '더운', '없죠', '힘나네요', '멋지다는', '끊임없이', '향기롭구나', '없으나', '안좋다거나', '가득한', '설레구', '너무하네', '미치게', '없지만', '아프지말고', '좋겠다던', '많은지', '좋다나나나나나다이나', '슬프네', '힘들어도', '없으니', '기쁘다', '힘든건데', '아니거든요', '잘생겼노', '대단하다는', '같은것', '행복하다면', '모질이', '있었나', '엄격하고', '작것시', '왠만해', '투명해서', '중요한데', '얕은지', '덜하진', '슬펐던', '추함', '즐겁게', '가득해요', '벅차지', '그러는데', '좋겠는', '번하는게', '좋다가', '낮게', '지루하게', '없습니다', '멍청한', '씬나', '미안해요', '노래라고요', '스러워서', '딱이야', '진부한', '괜찮을까요', '덥고', '좋다고하', '역겹다', '둥글게', '지겹지도', '기뻐하고', '좋아하는건', '이뻐서', '높았어야지', '아니예요', '이럴거냐고', '상관없고', '깔끔해지는', '오죽할까', '다를', '힘들단다', '귀여운거', '미친거아냐', '민감하게', '입니다우리', '딱좋다', '아녔던것', '있단', '딱히', '시원하게', '그래놓고', '있다지만', '안된다니', '잘생기면', '보석같은', '좋아하는가수', '있길래', '설렘', '작은시', '아깝지', '빠르다', '그러는거니까', '귀찮', '고소합니다', '느릴까', '아니꼬', '훌륭한', '좋아아', '귀엽고', '필요해요', '뿌듯해', '잔잔한', '싫어하냐고', '좋다는데', '계시는데', '잠잠해져서', '좋아하지', '아닌것도', '나쁨', '싫다더니', '작작해', '가까워서', '자랑스러', '조켔다', '높은데', '좋기에', '따뜻해서', '부러운', '단단해', '우울할', '망한', '없었다면', '아까까지', '마땅하지', '신나지지', '아파', '칠하는', '아닙니까', '없으면서', '슬퍼하지', '힘들었기에', '방심하긴', '좋냐', '미안하지만', '자랑스럽습니다', '아닐', '잘났음', '어설프게', '평범한', '다양한', '청량하냐구요', '예뻐', '거뜬할듯', '안남으셨습니다', '있겠지', '힘나는', '좋겠습니다', '쓸데없는', '행복하세요', '있음에도', '아쉬운', '많지만', '있을거라', '답답함', '있을줄은', '그리워', '좋은고', '좋고', '좋을텐데', '설레는', '미칠것', '찰지게', '어떡하죠', '높은지', '스럽습니다', '신나냐면', '아쉽잖아요', '난잡함', '신났을듯', '있었다', '유명한거만', '있는것', '좋다만', '없을까', '좋아하거나', '많이하던데', '미쳤자', '대단하네요', '이상하고', '가능하다니', '비슷함', '많지', '기뻐', '꼬인거', '청량함이다', '중요해요', '원하는', '좁은가', '건강하고', '신기하다', '시를', '진정한', '아쉽냐', '있다니', '귀엽니', '달라구', '가득해', '많더라', '같아도', '진하는', '안남았당', '많답니다', '기대하면서', '회복하길', '안남앗어요', '좋으니깐', '아쉬웠습니다', '어이없는게', '행복하고', '안되있지', '먼서', '예쁨', '미쳤다는', '있느라고', '완벽해서', '몽글몽글하지', '찬란해서', '좋구', '힘들까', '아파하지', '부었나', '흐뭇하기도', '더부룩하고', '좋다는거죠', '이렇기', '무서워서', '얇은', '좋다고하고', '궁금하다', '안되죠', '섹시해서', '그만해라', '짜릿함', '이뿌게', '부족할듯', '어떻게나', '가능한거', '아니었어도', '부탁드리겠습니다', '간절하다', '좋으니', '이상함', '멋져', '우울해있었는데', '좋아해요', '촌스럽고', '너무할', '부족하겠다', '좋은걸', '야할듯', '청량해요', '같당', '행복함', '해로', '순전히', '좋았기', '유치한', '많으셨어요', '번했는데', '있든', '있자', '좋아하는', '있은데', '미치겠다고', '행복하자', '행복했다', '깊고', '조은', '어떡하냐', '더해야지요', '고마웠다', '아파서', '궁금하다고', '좋더라고요', '친한', '먼가', '찌질한', '힘들겠구나', '노래다싶었는데', '그런데요', '없나요', '이쁘게', '지루한', '아쉽고', '휩쓸고', '단순하면서', '없을꺼고', '비슷한게', '뭉클해', '안전하게', '나쁜말로', '있었던건', '뭉클하고', '저조해서', '당했습니다', '훌륭하다', '아까운', '없겠져', '가득하실', '그지같은', '너무한', '이상한', '똑같고', '좋아하다', '애틋해', '성공하라고', '같지만', '한심해요', '대단해', '안좋아도', '딱좋노', '편안해', '예쁘게', '장하다', '노래내줘서', '자세히', '새롭다', '당했네', '의한', '그러는거', '행복합시다', '부질없어요', '나빠', '즐거운주말', '소중해요', '즐거워지', '간단하게', '속상함', '청량하네요', '강력하다', '허탈해서', '무력한', '그런건', '원하신', '좋군', '어려워', '대단하긴', '대단한거죠', '힘들어요', '시원시원하고', '반해서', '아녀', '아프는데', '필요합니다', '좋은', '반가운', '더해진', '있을수도', '그럴러', '아련하기도', '안되게', '당하겠지', '힘나시라', '재밌게', '삐뚤게', '미치겟음', '어려운', '확실하네요', '노래였구나', '좀마라', '시끄럽고', '싫다', '안타까', '기뻐하지', '아프니', '미치겟다내가', '불쌍함', '이뻐', '있을지', '좋다', '깔끔하니', '섹시하게', '미친것', '없었던거', '신기하겠다', '피곤하냐', '아닌가여', '짜릿하단', '없으니깐', '바쁘겠지만', '힘들어', '신나는데', '좋아하는거', '아닐수도', '아니어도', '필요한게', '아니어', '좋음', '번거롭지만', '화하는', '있을라', '싫고', '그러네요', '아니었던', '좋으실거에요', '소중한줄', '괜찮은데', '사랑스럽다', '자랑스럽다고', '더럽더라구요', '있을텐데', '풋풋하고', '있어주겠다고', '야할텐데', '가능하겠다', '그랬냐', '없었으면서', '익숙한', '좋겠죠', '신남과', '고마웠어', '뉘엿뉘엿해서', '아니꼬와', '좋다울', '가능하면', '행복하다', '빠르게', '가능합니', '포근해지고', '무의미한', '안남았어요', '그러세요', '더라구요', '높다', '그럴수있지', '안되네', '그래요', '좋구만', '없네요', '싫다는', '곧있으면', '한심해', '신나서', '속상해지기', '신난다고', '훈훈해지니까', '설렜다는', '신선하면서도', '아니다만', '미치겠어', '좋아해주니까', '사랑스러운', '원했는데', '특별하고', '좋대', '좋다를', '분명해서', '미다', '영원한', '싫어할', '어렵다는데', '많으셨습니다', '있는거랍니다', '많앗다', '성장한다', '신남', '속상한', '아닌데다가', '화하시고', '행복해졌다면', '있건', '계셔야', '좋아함', '좋아할수', '없었던것', '뿌듯합니다', '대단하지만', '불안하고', '미친게', '창피합니다', '차분히', '자랑스럽고', '행복하니까', '패배했다', '같은것도', '많던데', '많겠죠', '있으니내', '노래였군', '청량하잖아', '좋다보다', '지저분해지기', '세련되게', '넓고', '힘들었던', '좋아해', '고픈', '아닌거', '어려운데', '신나네', '없었으면', '조아여', '고마워요', '당하노', '힘들죠', '이쁜말만', '편함', '좋아하나', '귀여워', '미인데', '중요합니까', '위대하냐면', '이렇세', '이상해지네', '청량함도', '휩쓴거', '완벽해', '꾸준한', '같거든요', '대단한건데', '작게', '그렇던데', '신나는군', '좋았어', '어마어마하다', '가능해요', '우울했던', '미쳤네', '이상할', '예쁘네요', '찰져요', '힘든', '미쳤네요', '있겠다', '평화롭게', '싫어하더라고요', '무식하게', '속상하지만', '센치하고', '있는데도', '깊은', '아니시면', '그러는지', '많을것이다', '유명한거', '심해서', '사랑스러워', '향기로울수록', '괜찮으', '미안했다', '희안하다', '기대하는거', '힘들구나', '좋아하실듯', '힘든데', '그런거고', '수상하면', '있네요', '같잖은', '미치', '깨끗한거', '귀여운지', '신나네용', '멋짐', '없건', '엄청나다', '있죠이용', '힘들지언정', '살살하는', '수북하고', '실패했지만', '좋아하는거고', '현명한', '좋아해주셔서', '있었네요', '쎄용', '뿌듯할것', '있는거지', '무섭다는', '미쳤군', '망할', '다를건', '없다는게', '다를게', '놀라운데', '있는듯', '좋지면', '많았다고', '좋을줄', '괜찮아요', '즐거웠으면', '세련됨오리지', '엄청나게', '연연해야하니까', '행복해져요', '없던걸', '싫테', '벅차다는', '행복하길', '어때서', '좋지만', '너무한거', '미가오', '멋진', '따스하다', '미치도록', '없다네요', '싫은게', '어지간히', '그랬고', '적당히는', '뛰어난', '그러는데다', '잘생겼더라', '멋있음', '미치겠는데', '많이있는게', '더할듯', '힘들어질', '그럴게', '미와', '이런건데', '연연하지', '쎄게', '편해요', '좋아하던', '딱임', '비슷하네요', '머니', '싫어하면', '불공평해요', '경쾌해서', '색다른', '싫어하던가', '안좋을테니까', '재미없으니까', '특별히', '넓다는', '급합니다', '미쳤어', '예쁜것', '미쳤다고', '아닌데요', '중요한건', '가능할지도', '반하게', '편안하게', '철저히', '행복하세', '없으세요', '자랑스러우시겠다', '대단하지', '확실하게', '만족하잖아요', '꾸준하더니', '가득하답니다', '착해', '좋을수가', '없긴한데', '완벽하도', '같더니만', '뻔했는데', '많아서', '좋아했는데', '아까우니까', '미쳤냐', '뜨거워', '짧고', '뻔한가사', '즐거워지는', '미친듯', '행복했당', '시릅신', '간절해', '많다고', '대단하고', '잘생김', '불편했다면', '시원해지는', '미치겠다고오', '부럽다고', '유명할까', '평온한', '뛰어나다', '재미있게', '고맙습니다', '깨끗한데', '있었다고', '싫어요', '좋으네요', '뿌듯하고', '시원해', '즐거워요', '건강하게', '적당한건', '다릅니다', '많구나', '영원하자', '안타깝다', '좋아용', '민망하네요', '아쉽네요', '많더라구요', '필요하게', '작은것', '행복해진', '시원해서', '어렵습니다', '불쌍해', '멋져요', '청량하다', '미칠', '비슷한', '소멸할', '부끄럽네요', '힘나', '있던데', '그러는거야', '그러는거지', '상쾌한', '고마워하야지', '추하지', '좋길래', '위험한', '높은걸', '괜찮으실', '그러길래', '노래였을', '예쁘다', '많을수록', '무안할', '좀꺼줄래', '많아요', '가능할것도', '완전해서', '부탁드려여', '좋아했었고', '있고요', '고소했는데', '아니니까', '궁금해서요', '이뻤어', '간략해서', '가능할까', '유치하다', '안될거', '당연히', '귀찮아서', '신난다', '많았나', '야해요', '어떡할거야', '진지하게', '귀찮으니까', '행복해요', '신기한', '궁금했는데', '많은걸', '뻔한', '있는데여', '아름다워', '중요합니다', '멋지고', '청량함이', '꼬이는', '무섭게', '많냐', '쏠쏠함', '미쳤습니다', '휩쓸러', '재밌는', '실망했지만', '원한가고', '오래되서', '발광하길래', '잔인한', '가능했으면', '높네', '대단한듯', '추하고', '심하지', '서운하실', '아쉽다고', '친근함이다', '다르게', '완벽하네요', '지긋지긋한', '있거든요', '아니니깐', '미칠거', '같으면서도', '강해', '가능하겠는걸', '안좋을', '같았음', '필요하겠는가', '미쳤다', '좋아여', '묵묵히', '훈훈하고', '즐겁다', '소중하고', '미친듯이', '아파요', '역겹다고', '기대했다', '건강한', '있어서요', '좋습니다', '예쁘', '자랑스럽구요', '행복하다아아', '좋아하겠노', '장해진다', '다른거', '어색함', '같고', '더러운', '뿌듯하다', '신기한게', '쎄구나', '좋다하길래', '이럴까', '그러는듯', '부어주세요', '아니므로', '짜릿하네요', '행복해졌음', '사랑스러워서', '노래였음', '많은디', '망했어', '좋아하실', '기쁩니다', '많기에', '필요없으니깐', '싫던데', '저급한', '좀하셈', '자잘한', '사랑스럽고', '단단해지고', '가능한가', '잔잔하면서', '굳건', '고마울거', '낮은음', '신나여', '자랑스러워서', '이쁘네요', '성장하고', '서운하다니', '아니었기', '무서울', '다른데도', '신나는거', '젊은', '있다곤', '속상하다', '슬픈', '있는지', '괜찮아질', '아퍼', '그러거나', '아프지만', '망했다는', '야함', '복잡하다가도', '너무한듯', '있듯이', '귀찮다고', '이뿌고', '낮아서', '그럴까', '간지럽', '발랄하고', '있었음에도', '귀여워서', '망했다면서요', '미쳐', '어렵다', '깨끗했는데', '방심할', '노래안', '신난다구', '많았어', '올바른', '찰지구', '좋지요', '좋아했던', '없었지만', '신나지는데요', '대단함', '유일하게', '많은듯', '예쁘구', '찌질해', '아니냐', '귀엽', '자랑스럽겠어요', '가능하려나', '흐뭇하게', '자연스러운거에요', '그랬던', '좋다는걸', '단순히', '낮겠니', '높은', '있는걸', '배고플', '착잡할', '쌈박하게', '뿌듯하네', '대단한지', '당했당', '설레길', '당연한거죠', '아녀어', '소중합니다', '그런데도', '슬프다', '없었고', '있을께요', '각박한', '설레게', '힘들었어요', '위험한데', '많으', '없으시지요', '같거든', '높길래', '습하고', '조아서', '대단한거니까', '있으세요', '있었나요', '안좋고는', '없어라', '있자니', '부럽다', '안타까워서', '기대했던', '미친거아니야', '많네요', '좋으면서도', '있겠구나', '세련됨', '더럽다', '귀여운', '재밌고', '좋았을', '정확한', '실망하긴커녕', '있으', '무섭긴', '같다는데', '자리는', '좋나', '있으셔야', '미안하지두', '따뜻하게', '유일하다는', '있어줘서', '미쳤는데', '대단하신', '많이는', '좋다면', '두근거린', '멋있을거에요', '있어용', '딱이다', '힘들거라', '안되는건', '고플꺼야', '아팠어요', '다르면', '무례한', '흥미롭게', '아름다웠다', '안된줄', '멋있다', '시원함', '좋겠네', '아니구먼', '완벽한', '행복해야', '심했어', '유일하다', '원하는거라구요', '없었던', '벅차오른다', '같은말', '자랑스러운데', '불안해요', '추잡함을', '미치지', '계실까봐', '예쁜', '대단한것', '가능하시면', '좋겠음', '아니던', '없다는', '짜릿한', '잘났길래', '편안한', '행복했는지', '망해게', '미쳤구나', '필요없다', '그런다', '원하는걸', '미워하고', '없겠죠', '순수한', '유일한', '안됨', '여전하구나', '같으니깐', '행복할거', '안좋을수도', '구차한', '뿌듯하겠다', '성공하셨습니다', '힘든시기에', '대단한지라', '가능합니다', '그러는', '청량해서', '많으니까', '고마운', '더나을거', '재미있겠다', '부러워서', '휩쓴다', '넓은', '적절히', '흥겨운', '신기하네', '좋을거라고', '그러냐', '정당하다', '만족하실듯', '다정하게', '그만할', '불편함', '힘들어져서', '짜증나도', '아니겠지와', '똑같은걸', '새삼스럽지만', '우중충한', '신나는건데', '있어줘', '있도록', '좋았지만', '아니네요', '상관없는데', '더우면', '좋아하는게', '있을지도', '아쉽네', '당하면', '완전한', '귀엽네', '좋으니까', '좋다라는', '무서웠는데', '스러', '좋아했거든', '미치겠음', '많았을텐데', '시기하지', '그만하세요', '안좋아지고', '조용한데', '부탁드려', '고마웠고', '소중하지만', '노래였어요', '아까까진', '많았고', '우울한데', '많다는걸', '안쓰럽고', '우울하고', '충분히', '행복한것도', '예민하게', '가능하다고', '얼얼함', '있는데다가', '낮았었는데', '높게', '안되긴', '아깝고', '스러워요', '성공하는거', '변하지', '곱니다', '격렬히', '좋아해주세요', '눈부셔', '멍청한거', '없으신', '설레네', '좋아하고', '자랑스럽네요', '귀엽다', '좋아해주시는', '좋아한', '많았당', '그럴수록', '한심함', '예민하지', '편안하겠지만', '적당히', '좋겠는데', '칠하는거', '민망해서요', '행복하면서', '안좋아', '죄송한디', '더했지', '발랄함이', '다양해서', '없을거에요', '신나네요', '신나져요', '편안해지는', '변함', '나쁜', '급하게', '다정하고', '아쉽지만', '신날', '이럴수록', '행복해졌어요', '안될지', '좋다아아', '꾸준히', '가볍고', '많다', '투명하다', '어떤지', '좋다거', '행복하네', '신나졌음', '지겹다', '행복하네요', '설렜었는데', '박하게', '이쁜', '많치', '안타까울', '싫은거지', '노래말구', '확실해서', '쿨한', '야하구', '좋았는대', '바쁘게', '그만하세용', '재미있어요', '신기하고', '더러웠던', '아닌데도', '없다시피', '있을까', '추한', '소중한', '다르구나', '화려한', '많으니', '한심하', '같다구', '깊지', '어떡하면', '마를', '좋아할거라고', '자세한건', '역겨', '아름다웠던', '있을꺼라는', '잘생겼어용', '얌전히', '착한', '죄송하지만', '야한다구여', '좋다이나나나나나나나나나', '좋아하시면', '좋구요', '짜증나지만', '이쁘당', '미쳐서', '싫으면', '답답한', '재미있고', '쎈데', '안되서', '가능합니까', '세련되고', '정신차려', '있을게요', '활기차게', '신선하네요', '좋아하는지', '많겠다', '좋아하시는', '이상하네요', '씬나는', '청량한', '계십니다', '많겠지', '좋아하지만', '부족해', '있기를', '있기에', '느리니', '편하고', '뻔했어', '좋던데', '괜찮지만', '낮도', '중요한거', '그러고있어', '싫어하는지', '그러던디', '적응하는데', '하나같어', '가능할수도', '가볍게', '당당해졌어요', '아니잖음', '넘쳐', '설레', '소중하게', '흥분하신듯', '같았어', '있었다는건', '궁금해서', '뿐이었는데', '안좋으면', '찬란한', '없었다는', '무례하고', '같네여', '뜨겁고', '궁금하신', '대단한거', '좋다오', '없었다', '신기하긴', '슬퍼', '쉬워서', '예뻤는데', '변했다고', '아니여서', '확실해졌다', '많으실거', '가벼운', '신선하고', '미친거아니냐고', '부탁드림', '가능할', '피로함을', '좋으면', '계신가여', '강하게', '좋아하면서', '없을거', '다르니깐', '노래겠지', '시원한', '예쁘고', '멋있어', '신난', '미니까', '성공했으면', '의심스럽네', '같습니다', '없을텐데', '안타까워지기까지', '역지', '청량함은', '부끄러워요', '미안하다', '없는것', '불행하게', '자유롭게', '아니꼬워하네', '우승한', '많으니깐', '신나게요', '불가능해요', '원하시는', '바빠서', '미쳤고요', '그러거나말거나', '대단하시다다', '있을것만', '상관없어', '굉장히', '짠해', '죄송합니다', '원하는건데', '어색함이', '슬프고', '대단한거지', '없는지', '뜨거운', '분명하다', '부탁드리고', '힘든게', '너무하다', '궁금해', '그랬듯이', '신나게', '더해', '미친거야', '좋나요', '미친다', '이상한건', '짜릿하다', '조급해하지', '멍청해서', '묵직하니', '속상하고', '좋더라', '좋다는', '노래였고', '아까', '고맙구', '아니라고', '청량하면서', '멋지다', '좋잖아아아', '설레면서', '있었다는데', '확실한', '있죠', '어떻하냐', '많이하네요', '가능하신', '다르고', '많습니다', '어떡하니', '끼부리는것', '가능한거지', '그랬던거', '없는거', '좁은', '대단한거고', '궁금해용', '멋있네', '대단하다', '싫니', '가능합니당', '맛있는거', '역겹다하는', '조용히있어', '신나더라', '괜찮나용', '없는데나의', '무서웠니', '청량함을', '낭비할', '완전히', '꼬이는지', '있었다구', '덜한건', '가능해여', '고맙고', '짙다는', '많았다', '찌질하다', '힘들지는', '변한게', '이런게', '상쾌해지자', '신선해요', '아프다는', '기쁘게', '사랑스러워요', '좋겠지만', '있을까요', '이쁜말', '나쁘게', '괜찮아', '답답했는데', '필요없', '신나는', '확실한게', '뿐일듯', '어떻고', '안좋게', '힘들겠다', '있을거', '멋졌습니다', '세련될', '그리워진다', '뜨거워지는', '좋진', '정확해', '없게', '뿌듯하네요', '특유한', '대단하', '행복해지고', '좋을걸', '중요합니당', '같아용', '노래인듯', '아쉬울', '환장해서', '급격하게', '미치구', '안될수도', '힘들어하는', '새롭네요', '아까도', '가능하십니다', '이쁨', '불가능한', '있기', '고맙네', '그러는건데', '차근차근히', '높고', '짜릿해', '어색함은', '그러고', '사랑스런', '부담스럽고', '행복한', '좋았음', '어느샌가', '활기찬', '요란하게', '시원해진다', '대단한데', '가능한데', '기쁘고', '있는줄', '없나보다', '아쉽다', '수상하시길', '미친거라', '적절한', '이로구만', '섹시해', '환장하는건데', '더함', '미워하냐고', '아쉽다는', '힘들다', '유치할까', '아니야도', '기대할게', '찌질하고', '가득하기를', '신성한', '뜨겁나', '강력한', '행복하답니다', '미치겠지', '두근거리는', '궁금해서용', '필요한가', '많긴하지만', '아닌지'}</t>
+          <t>['좋아하네', '좋아요', '좋아한다', '좋다', '좋더라', '신나고', '작은것', '있을것', '좋아하네', '좋아요', '좋아한다', '좋다', '좋더라', '신나고', '작은것', '있을것', '좋아하네', '좋아요', '좋아한다', '좋다', '좋더라', '신나고', '작은것', '있을것', '작은것', '대단하다', '있을까', '좋음', '좋당', '위대한', '젊고', '뛰어난', '대단하다', '아파서', '좋은', '고마워', '있었던건', '신나게', '미친', '좋다', '있는것도', '대단하다', '좋은', '미쳤다', '대단한', '미친거야', '좋은데', '미쳤음', '좋다', '딱히', '대단하네요', '행복하자', '유일하게', '대단하다', '좋다고', '청량한', '대단해요', '좋아요', '좋음', '좋은', '좋다', '같았어', '행복해', '고마워요', '좋은', '신나는', '노래구나', '빠르네', '설렘', '좋다', '미쳤지', '좋다', '벅차오른다', '재미있고', '굉장히', '미쳤다', '곧있음', '좋네', '새롭다', '없지만', '넘쳐서', '작은것', '꾸준히', '좋은', '고마워', '상쾌함', '좋아요', '굳건', '있지만', '꾸준히', '새로운', '대단해', '새로운', '어려운', '좋으니까', '좋다', '좋다', '설렘', '신기하다', '좋을수가', '좋음', '좋음', '노래라구요', '청량하고', '오래된', '노래라구요', '청량하고', '오래된', '수많은', '오래된', '좋게', '애틋함이', '청량하면서', '싱그러운', '환하게', '새로워', '너무하네', '작은', '유일하게', '행복해져', '좋았을텐데', '아쉽다', '좋네', '꾸준히', '좋음', '많지만', '좋게', '좋을', '딱좋노', '좋니', '완벽하도', '멋지다', '좋네', '힘들거', '좋다', '확실한', '좋잖아', '좋음', '진하는', '좋다', '좋다', '좋은데', '좋다', '좋은데', '좋다', '좋은데', '야하냐', '신나고', '좋다', '그래두', '좋다', '좋고', '좋음', '좋음', '설렜었는데', '있다니', '자랑스럽습니다', '좋다', '좋다', '좋다', '딱좋다', '좋네', '가능한가', '좋음', '미쳤고', '세련됨', '아닐', '친하게', '있자', '달라네요', '신나고', '좋아요', '든든하다', '미쳐', '많다', '사이좋게', '뿌듯하다', '패배했다', '아니냐며', '아니냐며', '있는것', '좋네요', '좋아하셨다면', '좋게', '좋아요', '낮도', '싫어요', '상관없으니', '싫테', '기대하면', '실망한다고', '놀라운', '기대하는거', '기대했는데', '그러네요', '자랑스럽다', '설레네', '설레길', '미친거', '좋네', '아니어도', '빠르게', '작은', '대단하네요', '좋아요', '미친', '이쁘당', '좋다', '좋음', '좋음', '치열한데', '멀게', '없었다', '좋다', '신나고', '좋은', '다르긴', '높고', '있으려나', '좋다', '신나는', '이래니까', '색달라', '행복하다', '좋은', '좋다는', '좋을지', '조은데', '대단하다', '미친', '조은데', '대단하다', '미친', '부탁드림니다', '기대하겠습니다', '좋다는데', '망하지', '부탁드림니다', '기대하겠습니다', '좋다는데', '망하지', '부탁드림니다', '기대하겠습니다', '좋다는데', '망하지', '부탁드림니다', '기대하겠습니다', '좋다는데', '망하지', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '적당히', '귀엽지', '고마워', '좋다', '좋을', '좋음', '새로운', '좋은', '좋다', '좋다', '좋고', '좋은', '좋다', '좋다', '좋고', '좋은', '좋다', '좋다', '좋고', '아니었나', '상쾌하게', '상쾌하게', '싫을', '신나게', '좋네요', '이쁘다', '좋아요', '궁금하다', '설렘', '좋지', '고맙다', '좋다', '좋다', '좋은데', '힘들겠다', '좋아요', '좋겠당', '좋은', '아니게', '좋네', '노래였구나', '좋다', '유일하게', '좋음', '좋은', '좋잖아', '마땅하지', '높게', '좋은', '좋잖아', '마땅하지', '높게', '좋은', '좋잖아', '마땅하지', '높게', '많았어요', '좋은', '고마워요', '있도록', '자랑스럽다', '필요한', '확실해졌다', '멋졌습니다', '행복하면', '행복하다', '필요하게', '고마워요', '많이하네요', '아쉽', '있는건', '행복한', '신나', '대단한', '원하는', '뜨겁게', '충분히', '멋있어', '고맙습니다', '괜찮아', '행복해', '자랑스러워', '변함', '자랑스런', '자랑스러워', '설렜던', '생생한데', '있다니', '안남았다아', '좋은', '자랑스러운', '자랑스러운', '활기차게', '멋져', '우울한데', '좋겠다', '수상하면', '좋겠다', '신기하고', '좋다', '빠르네', '활기차게', '이상하고', '좋잖아', '대단하긴', '어떡할까', '좋아해주는', '성공하는거', '충분히', '있을텐데', '신나고', '좋네', '우울할', '무식한', '유일하게', '미쳤다', '미쳤어', '좋아서', '좋다', '따뜻해지니까', '좋다', '안남았어요', '노래다싶었는데', '좋은', '좋음', '자랑스럽다', '좋다', '신나서', '대단하고', '자랑스러워', '자랑스러워', '수상하시길', '설렌다', '좋다', '신나', '위대한', '좋은', '고마워요', '신난다', '좋음', '부탁드리고', '안남았어요', '부탁드릴게요', '없으니까', '좋은', '좋아요', '뛰어난', '우월한게', '없으니까', '찌질하게', '있는거에요', '불쌍히', '좋다', '이상하지', '자랑스러운', '아니겠니', '신나고', '청량하고', '좋아요', '좋다', '청량한게', '귀찮아서', '좋다', '좋지만', '좋은', '그럴', '좋아요', '좋다', '좋다', '대단하긴하다', '추함이', '재밌네', '이상한거', '끊임없이', '싫으면', '없으니까', '유치해', '없으니까', '조용히', '싫던데', '좋았고', '좋고', '좋을', '이런게', '드러진', '대단하', '대단하다', '상관없는', '있도록', '좋다', '가능합니다', '신성한', '많노', '궁금하면', '좋아요', '좋은', '딱임', '싫게', '대단하다는', '좋네요', '좋아하시겠어요', '좋겠는', '좋겠는', '좋아요', '좋아할거', '좋다', '드문데', '싫게', '대단하다는', '좋네요', '좋아하시겠어요', '좋겠는', '좋겠는', '좋아요', '좋아할거', '좋다', '드문데', '꼬이네', '좋다', '좋다', '좋아요', '좋았는데', '아닐테고', '망한', '망한', '싫어하는데', '미쳤다', '미쳤다는', '좋다', '잘생김', '자랑스러', '좋음', '센치하고', '미치겠다고', '좋음', '가능했을듯', '대단하다', '쎄고', '안된다는', '소중한', '망해서', '좋음', '좋음', '좋음', '좋음', '좋음', '좋은', '싫으면', '그럴', '없을거다', '미친다', '좋아하는', '많겠지', '한심함', '많아서', '망할', '행복하고', '싱그러운', '좀있으면', '미치기', '아무런', '없다는', '망한', '좋음', '싫어요', '싫어요', '멋있네', '좋다', '좋다', '좋아요', '설렘', '좋다', '신난다', '적당히', '수많은', '좋아서', '노래였구', '아니었기', '충분히', '그럴', '있다곤', '무안할', '좋은', '많은지', '좋다', '부운', '있어용', '좋다', '대단하다', '좋아용', '싫어요', '자랑스러', '대단하다', '신나', '축축한', '좋았지만', '신기함', '숨막히게', '좋은', '같은거만', '행복합니당', '신나는', '잔잔하게', '신나고', '싫어하는지', '좋아할', '있다고', '있으니까', '아닌것', '같고', '그러는거지', '좋은', '충분히', '꾸준하더니', '즐거운', '가능합니다', '좋아하면', '뻔한', '뻔한가사', '그럴수있지', '아플만큼', '대단하긴하니까', '안좋다고', '좋아하는가수는', '안좋고', '없다는', '좋아하는가수', '드러네', '없는지', '좋아하는가수', '많다', '많아도', '좋아하는', '비슷함', '역겨워요', '안되면서', '좋은', '많지만', '멋있는거', '신난다', '자랑스럽다', '완벽한', '답답하고', '좋겠네요', '좋아요', '즐거운', '완벽하게', '아니라는', '같고', '다르게', '화하는', '즐겁게', '딱이예요', '자랑스럽다', '무섭다', '미친', '없을만큼', '쎄다', '시원하네요', '좋아서', '좋겠는데', '좋음', '좋다', '좋은', '좋아요', '안되지', '좋겠음', '없었다', '똑똑한', '적당히', '없는거랑', '다릅니다', '좋은', '시원한', '강한', '좋은', '뜨겁고', '아름다웠던', '뜨거울', '있었다고', '행복했어', '고마워', '아름다웠다', '대단해', '좋네', '신나', '좋아요', '없겠져', '빠르게', '신나는', '고마워요', '좋아요', '반하게', '연연하지말고', '있든', '행복하게', '좋긴', '있질', '좋냐', '진정한', '좋아서', '좋았다고', '그래두', '놀라워', '놀라운', '대단하다', '새로워서', '신나', '아니면서', '안좋게', '많네요', '가볍게', '안타까워지기까지', '힘들', '좋던데', '있었지만', '완전히', '좋은', '흔히', '있던데', '아니냐', '없었다', '좋네요', '싫은', '싫음', '좋아하는', '신나는', '시원하고', '좋음', '같던데', '미쳐', '좋음', '좋다', '싫으면', '야하는거', '행복하게', '멋지다', '좋은', '싫을', '편해지는', '신나서', '좋다', '가능하냐', '좋다', '미쳤어요', '좋아요', '행복하네', '이렇게나', '좋다', '세련됨오리지', '새롭지', '힘들어도', '신나는', '지겹다', '야함', '청량해', '신나', '그러길래', '좋길래', '좋네요', '청량해진다', '좋당', '작은', '멋있어', '재미있어요', '좋다', '좋고', '신남', '행복합니당', '있구', '좋다', '대단하다', '작은시', '대단해', '좋음', '상쾌해', '좋은', '좋게', '좋았지만', '대단하다', '미쳤나', '좋네', '신난다', '신난다', '멋진', '좋다', '잘난', '대단하다', '좋긴', '좋네', '애잔하네', '좋다', '마를', '대단해', '좋음', '좋다', '좋다', '좋음', '먼치', '먼치', '먼치', '대단해', '대단하다', '잘생겼', '대단한', '조은', '싫지만', '좋겠네요', '많길래', '한심하다', '불쌍한거', '바쁜데', '정신차려', '싫어하는거', '궁금해', '아깝다', '평화로워진지', '짧아', '좋은데', '작은것', '완벽해서', '대단한', '시원함', '더가자', '좋네', '좋은', '편안해지네', '감미로운', '좋은', '있다고', '대단합니다', '시원하고', '좋음', '깊고', '신나게', '시원하고', '좋다', '재밌어용', '그러거나말거나', '평온한', '많아서', '먼치', '먼치', '먼치', '작은것', '좋은', '행복한', '가득했던', '행복하세용', '있었다', '좋겠다', '많았어요', '좋겠네요', '좋은', '건강한', '먼치', '먼치', '먼치', '신나', '미쳤다', '있는데도', '한심함', '가능하다니', '대단해', '좋고', '당연히', '고마워', '좋겠는데', '아쉬운', '짜증나네', '신났어', '신나', '좋아요', '먼치', '먼치', '먼치', '안남았네요', '행복하고', '좋은', '있을꺼라는', '있었던것', '같습니다', '넘치는', '행복했습니다', '행복한', '좋네', '먼치', '먼치', '먼치', '이상하네요', '원하는', '없다면', '좋아하는', '멋짐', '없습니다', '좋은', '멋짐', '신기한게', '당했습니다', '행복한', '맛있는거', '재미있게', '힘들', '먼치', '먼치', '먼치', '행복하기만', '좋다', '이상한', '피곤하게', '그렇네', '역겹다', '행복하기만', '좋다', '이상한', '피곤하게', '그렇네', '역겹다', '싫은', '아닌데요', '신나는', '있는지도', '좋음', '많은지', '행복합니당', '좋아요', '적당히', '좋은', '행복할게', '좋은', '좋긴', '좋네', '조용히', '무섭다', '그러는데', '많은지', '행복합니당', '좋아요', '적당히', '좋은', '행복할게', '좋은', '좋긴', '좋네', '조용히', '무섭다', '그러는데', '좋은', '가득하시길', '좋은', '좋지요', '시원시원하고', '좋당', '같습니다', '좋기', '좋아요', '많았고', '많으셨어요', '따뜻하고', '행복한', '좋음', '좋은', '즐거운', '좋아요', '많았고', '많으셨어요', '따뜻하고', '행복한', '좋음', '좋은', '즐거운', '좋음', '좋아함', '안좋고', '안좋을테니까', '아니였고', '많다', '한심해', '있으니까', '좋음', '작은', '작은', '대단한거', '자랑스러', '좋은', '없다는', '그랬음', '있었다고', '행복하세', '싫어서', '없었다면', '대단하다', '성장한', '좋다', '안되던', '노래라는데', '그러는', '좁은', '미친', '다르네', '빠른', '좋아요', '찌릿찌릿했었는데', '완벽하고', '신비한', '좋아요', '있으리라', '좋음', '신기해', '그만해라', '좋더냐', '아까', '좋아하는', '약하네', '약하다', '약해', '미쳤네', '많치', '꾸준히', '멋있당', '짱짱할', '편하게', '좋은', '좋당', '행복한', '살벌해', '좋은', '당연해요', '즐거운', '대단한데', '아쉽다', '대단한거지', '대단한거지', '그러냐', '좋은데', '부족한거는', '성공했나보다', '뿌듯하네', '힘든데', '성장해서', '자랑스럽다', '좋다', '좋아서', '대단한건데', '아님요', '좋음', '얌전히', '좋아요', '좋당', '잘난', '있을려나', '좋은', '좋은', '좋은', '높네', '놀랬다', '많네요', '있죠', '없으세요', '심하게', '좋은', '좋겠네요', '좋은', '싫습니다', '좋은', '없을텐데', '한심한', '추해요', '싫어하는', '좋은', '싫어함', '싫어하는거지', '심하구만', '환하기에', '좋은', '없는것도', '있더만', '특정한', '시려', '깨끗하던데', '좋당', '좋다', '좋아야', '순전히', '높겠지', '작작해', '궁금한', '있지도', '있겠죠', '싫어하는', '없어서요', '미쳤다', '좋음', '행복한', '좋네', '좋네요', '대단하긴하다', '신난다', '좋음', '안남았으니', '낮겠니', '굳건', '낮은거', '있는걸', '행복한', '똑같다는', '덜할줄', '미안하지만', '청량하고', '좋은', '얇은', '원하는', '없다면', '싫어하고', '안쓰럽다', '좋음', '더러운', '안타깝고', '불쌍해', '좋고', '넘치는', '안타깝다', '단순히', '무식한거', '추하지', '예쁘다', '대단한지', '여전하구나', '좋으니까', '좋은', '그만해라', '같잖은', '한심함', '있는건데', '좋다', '많으니깐', '부탁드릴게요', '가능하신', '미친', '입니다다마', '예쁜', '꼬이기', '없었던걸', '성숙하고', '즐겁게', '웬만해', '좋다', '신나고', '미쳤다', '좋고요', '틈틈히', '좋은', '미치', '대단하구나', '좋아요', '싫어요', '싫어하면', '대단해', '좋으', '좋아하는', '좋음', '자랑스럽다', '향기로울수록', '꼬이는', '향기롭구나', '가능하신', '자세한', '좋다', '좋아요', '자랑스럽다', '대단한거', '같은데서', '있으니내', '찬란히', '뜨거워지는', '신나', '신나', '좋다', '좋다', '꼬이는지', '좋다', '아니꼬아서', '좋고', '싫은거지', '싫은건', '행복하게', '소중해요', '즐겁게', '많아서', '이상한', '있는것', '고마워하지는', '좋아여', '좋당', '좋으니까', '신기한', '싫어요', '좋네', '아프지만', '작은것', '좋아서', '힘들당', '많네여', '좋당', '그만해주세요', '있거든', '죄송합니다', '부끄럽네요', '죄송합니다', '좋음', '좋아하는거', '좋아요', '뿐입니다', '추해요', '멋져', '좋음', '있어서요', '부끄러운', '추하다', '싫으면', '높은', '낮게', '높은', '작은것', '추하다', '쎄구나', '많아서', '싫어하게', '싫은걸', '좋아서', '미쳐', '싫다', '있을지', '먼치', '먼치', '먼치', '같네요', '많으셨습니다', '같이가요', '신나는거', '시끄러운', '자랑스럽다', '좋다', '미친', '좋다', '같당', '미친', '좋으니까', '좋긴', '확실함', '좋네', '즐거운', '싫으니', '애처로운', '조용히하고', '죄송하네요', '죄송합니다', '좋아하는', '그러고있어', '좋아하는', '싫다고', '그만하세용', '즐거운', '많았어요', '좋다', '다른거', '좋네', '좋은', '만족합시다', '그런다고', '있죠', '좋을듯', '좋다', '아니네요', '흔한', '대단한', '비슷함', '많은것이', '좋은걸', '좋다', '시끄러운것이냐', '맑고', '순수한', '행복한', '가득했던', '노래말구', '멍청한', '많았냐', '신기하겠다', '좋아하는', '귀한', '추한', '높은', '있다고', '이상한', '많아서', '그랬잖아', '좋아하는게', '좋아합시다', '재밌다', '고소해도', '좋다', '아까', '좋고', '좋고', '좋은데', '안되나', '뛰어나고', '충분히', '좋아서', '좋겠다', '좋진', '좋겠다', '색다른', '없었어도', '예민한', '좋네요', '좋아하는', '있는거지', '미친', '귀엽니', '귀여워서', '뻔했어', '간절히', '재밌게', '힘들게', '소중한', '젊은', '좋겠네요', '행복해졌음', '능숙하게', '신나', '미쳤다', '좋아요', '자랑스럽던데', '그렇긴', '심함', '한심하다', '불쌍함', '좋겠어요', '멋진', '좋은', '행복합시다', '그만하면', '안되나', '더럽네', '역겹다', '좋아하는', '포근해지고', '좋네요', '그러는듯', '대단해', '안된다는', '행복해진', '없으니깐', '그럴', '행복하게', '나쁜', '편히', '노래인듯', '아쉽네', '원하는', '없다면', '심하잖아요', '같냐고요', '무섭네요', '역지', '뿌듯한지', '더러운', '무식함', '좋으면', '신성한', '망했다면서요', '청량해서', '없는지', '좋다', '다른거', '가볍고', '행복해진다', '행복하면', '행복해지는', '지루한', '없는듯', '없던것', '미친', '심한', '의심스러우면', '좋은', '행복하면', '좋은', '좋게만', '좋은', '좋은', '좋게', '똑같아져야', '멍청한거', '똑같아지는', '멋진', '많았어', '역지', '시끄러운', '시끄러운', '다를거', '좋은', '추합니다', '좋아하는', '없을꺼고', '아닙니까', '화하는', '이상한거고', '원하는', '불안해서', '그런데요', '흔히', '힘들어하는', '똑같아요', '좋아하지', '민감하게', '좋겠습니다', '좋을', '같습니다', '망해서', '흥분하신듯', '나쁘게', '있는건데', '좋아하는', '계셔서', '좋아하는', '있으니까', '멀쩡한', '어려운데', '멍청한', '번했는데', '이상해야', '좋아하든', '없지만', '있기에', '좋은', '무거울', '있었다는데', '너무하다', '좋은', '깨끗하게', '원하는걸', '부질없어요', '새로운것에', '성숙하지', '좋은', '좋은', '아닐텐데', '속상하네요', '좋아하는', '무식한', '흥분해서', '한심합니다', '놀랬습니다', '대단하다', '싫어하기엔', '좋네', '좋네', '무서워서', '더러워서', '자랑스럽고', '좋다', '열광하는', '망하라고', '한심한', '싫고', '없다면서', '망하길', '열광하는', '나란히하는', '성공한거', '싫어서', '좋아하는거', '애잔함', '대단한건데', '딱히', '대단하네', '그러냐', '아니꼬와', '그러냐', '노래네요', '대단한거죠', '조용히', '대단하다', '있자', '신나게', '많네요', '잔인한', '잔인한', '좋네요', '아니게', '많았나', '아녔던것', '심하네요', '즐거웠잖아요', '좋은', '좋다는', '아니니까', '상관없음', '잘맞아', '부실한', '중요해', '상관없어', '좋지', '좋고', '우울해서', '우울해서', '더럽다', '싫어할', '싫어하냐고', '휩쓴거', '건강하고', '당연히', '좋아서', '싫어하는데', '많아요', '미워하냐고', '아프다는', '많더라구요', '싫었는데', '똑같고', '좋다고', '자세히', '어려운거', '가득해', '좋지만', '달라구', '거뜬할듯', '한심해', '대단함', '따뜻하고', '속상함', '안타까울', '한심한', '예쁜', '많아서', '높을수록', '그러거나', '그러거나말거나', '아닙니까', '좋아하는', '그러시는지', '창피하네요', '좋아서', '멋있었', '힘들겠구나', '신나고', '신기하다', '좋아하는데', '좋아서', '추함', '안되냐', '더럽다', '안되냐', '더럽게', '좋구만', '있다고', '당당한가', '멀쩡한', '싫테하는', '정당하다', '정신차리고', '성숙해지시길', '좋아하는', '좋아하는거', '대단한', '무식한', '이래라', '저래라', '너무한거', '좋아하거나', '좋아하는', '좋지', '좋긴', '유치하다', '좋아함', '좋아하는거', '안쓰럽고', '불쌍함', '당당히', '있는건데', '그러시는지요', '좋아하는', '좋아하는', '더해요', '좋은', '무식한', '싫지만', '싫음', '같겠지만', '노래인건', '저급한', '없더라', '낮게', '기특해', '기특해', '미치겠어요', '미침', '미쳐', '멋지다', '미쳤나', '멋짐', '장하다', '기쁘다', '좋아했는데', '적절한', '조용히', '추잡함을', '좋고', '싫고', '역겨울까', '멍청한거', '건강한', '좋다는', '뿐이었는데', '부끄럽네요', '좋아하는', '좁은', '좋아요', '불편했다면', '죄송합니다', '신남', '좋네', '아프다', '좋당', '꾸준히', '소중한', '많겠죠', '아니거든요', '있도록', '반가운', '좋음', '그러냐', '좋다만', '좋다우', '당하겠지', '좋네요', '좋다', '좋다', '추잡하노', '이상한', '좋은', '좋은데', '많다', '좋아해도', '없습니다', '좋으면', '행복한', '좋으니까', '아니냐', '싫어하는', '좋아하는', '아프겠노', '있다고', '대단한데', '무식하게', '좋아하는', '있었네요', '안좋으면', '좋겠네요', '신남', '좋다하길래', '좋네', '그러거나', '싫고', '아니꼬와', '딱히', '투명해서', '자랑스럽다고', '없는거', '망해게', '한심해', '조용히', '없으니', '좋네요', '좋은', '좋은', '자랑스러운', '자랑스러운데', '있더라', '의심스럽네', '다를', '없을까', '조용히', '아녀', '없을꺼고', '아닙니까', '좋으면', '신성한', '심각하게', '싫어서', '멍청해서', '좋다', '좋다', '미쳤나요', '미쳤네', '대단하다', '좋다', '신나', '짜릿해', '대단합니다', '있을까', '섭섭해', '같나요', '통쾌해', '행복해', '행복해요', '신남', '안되서', '무섭게', '많아서', '좋다', '많아서', '힘들', '헐거', '대단하다', '미쳤다', '미쳤다', '있자', '좋다', '대단해', '자랑스러워', '멋져요', '좋구', '무서운', '대단한', '멋있는', '행복하고', '자랑스럽고', '낮은데도', '당당히', '억울해서', '신나서', '뿐입니다', '낮게', '좋아서', '그러세요', '그만합시다', '좋고', '좋던데', '성장해서', '좋은', '비싼', '좋다', '행복해', '좋아했는데', '좋아하는', '없을것', '좋은데', '좋은데', '좋네', '좋네', '같은것', '좋네', '없으면서', '좋은', '선한', '얄팍하네', '없으면서', '신기한', '청량해서', '좋다고', '계셔요', '반가운', '힘들', '영원한', '행복할게', '꾸준히', '대단해', '더하지', '좋다', '좋은', '우울할', '넘쳐서', '좋음', '좋고', '좋은데', '있자', '속상하셨을', '높은', '많은건', '행복하시고', '좋네요', '이상한거', '좋아하는', '이상한', '가능할', '없다는', '행복하게', '좋은', '좋은', '아까운', '좋은', '좋음', '좋아하는것만', '있건', '없건', '좋아하는거', '좋수', '싫음', '달라셔', '나쁘', '귀찮아서', '재미있어요', '아파요', '불쌍해', '좋아요', '미친듯이', '좋아하는', '좋은', '좋다', '좋은', '고마워', '좋다', '좋다', '추함', '좋당', '좋네요', '좋은', '있지만', '많아서', '많아서', '그래요', '대단한', '안좋을', '편안해지는', '우울해서', '힘들어요', '힘들다', '더러워', '짧아도', '좋으니', '있으니까', '불행하게', '없습니다', '단단해지고', '당해야', '휩쓸고', '거대해서', '없는게', '고마워', '그러하여', '상당히', '좋아하는', '재밌으니깐', '소중한', '안남는데', '정신차려', '안됩니다', '똑같', '아니라는', '대단하신', '그러시는지', '좀해', '더해야지요', '엄격하고', '없다는', '흥분해서', '좋아하면', '재밌어서', '먼치', '먼치', '먼치', '좋은', '아니더라', '사이좋게', '좋죠', '높아서', '이쁘다', '추하다', '먼치', '먼치', '먼치', '수많은', '단단해진', '힘든데', '죄송하다', '현명한', '좋다', '죄송해서', '아니구요', '대단한건데', '좋을까요', '좋다', '맑고', '좋음', '죄송해서', '죄송해요', '죄송해요', '그래두', '좋아용', '멋있음', '좋아여', '좋아하는', '미쳤냐고', '다르게', '아깝지', '노래네요', '고마워', '기뻐', '저급한', '그럴', '높았어야지', '좋다', '작은', '필요하다면', '좋아하는', '없다는', '좋은', '좋게', '굉장히', '있을까', '즐겁게', '좋겠네요', '아무런', '불행하게', '단단해지기', '아파하지', '단단해', '멋있어질', '단단한', '아파서', '힘들어서', '행복해', '미치게', '미친게', '작작해', '귀여워서', '수북하고', '굉장히', '이상합니다', '착한', '자랑스럽습니다', '있는것', '같습니다', '부탁드릴게', '나빴어요', '힘들던', '좋아여', '멍청한', '같은거', '귀여워서', '깨끗하게', '이상한', '하찮고', '뿐입니다', '더럽더라구요', '좋은', '좋은', '좋은', '필요하다면', '어떨까', '뿐이니', '좋아하는', '무의미한', '작은', '좋은', '많지', '짧고', '깊고', '다양한', '있을텐데', '무례하고', '얕은지', '좋아서', '이래놓고', '좋지만', '좋아요', '좋고', '좋고', '좋고', '높다고', '그만했음', '좋겠습니다', '멋지다', '귀여워서', '순수하게', '좋아하는', '안되니까', '삐뚤게', '완벽한', '좋은데', '좋아서', '미친듯이', '잘생겼어', '빡쳐도', '나쁜말로', '없습니다', '좋은', '소중해', '대단하구', '멋있어', '성장할', '대견해', '시원하고', '행복하다', '귀엽다', '가소롭다', '자랑스럽다', '나쁠', '불쌍한', '많을텐데', '따가수', '솔직해', '고마워', '대단하고', '굉장히', '심한', '미친', '행복한', '행복하고', '자랑스러워', '있다니', '자랑스러운', '억울하지도', '싫지도', '중요한가요', '많은건', '많던데', '깊은', '좋은', '당연하고요', '연연하지', '멋지다', '예쁜', '이상한', '조져놨네', '있는데요', '대단한', '대단하네요', '계신가요', '미쳤어', '귀여워', '대단하다', '좋음', '행복한', '자랑스러운', '궁금해서', '자랑스럽고', '좋아하는', '좋다', '좋겠어요', '좋겠다', '멋진', '아니냐', '자랑스럽다', '미쳤', '자랑스럽다', '자랑스럽다', '장하네요', '깊은', '좋겠네요', '설렜다는', '좋은', '가득하길', '이럴것', '건강하고', '아프지', '행복하게', '고마워', '행복하다', '미쳤다', '미친거아냐', '아니겠지와', '좋으면', '땡그래져서', '조용하다', '시끄럽고', '귀여워아', '좋음', '계십니다', '짙다는', '없었다는', '있던데', '많지만', '수상했으면', '좋다', '좋네', '기뻐', '넘치지', '자랑스러워', '자랑스럽구', '뿌듯하구', '행복하다', '심하게', '대단하다', '좋은', '같네요', '미치도록', '있다는', '미치겠다', '대단해지는거', '넓은', '대단한', '대단하구나', '미친거라', '좋았다', '행복해', '미쳤다', '미쳤다', '대단하다', '자랑스러', '선한', '좋은', '좋은', '선한', '좋은', '좋은', '좋다', '소중한', '멋진', '고마워', '자랑스럽다', '드라마틱해', '자랑스러운', '자랑스러워서', '있든', '있을것', '안될것', '조용히', '많아서', '행복합니다', '궁금하다고', '궁금하다고', '궁금해', '미쳤다', '그래두', '행복해서', '아녀', '태연한', '쿨하게', '충분히', '좋아서', '미친', '고마워', '행복함', '좋은', '고마워', '있다는', '아까까지', '좋았는데', '아까', '싫었는데', '부럽', '미친', '좋아하게', '대단한', '행복한', '아까', '싫었는데', '부럽', '미친', '좋아하게', '대단한', '행복한', '아까', '싫었는데', '부럽', '미친', '좋아하게', '대단한', '행복한', '어설프게', '이상한', '높은', '어설프게', '이상한', '높은', '행복해', '좋네요', '소중한', '소중하니', '좋은', '좋은', '좋겠네요', '좋지', '예쁘지', '예쁘지', '없었네', '좋게', '아쉽네요', '좋겠네요', '대견한지', '좋은데', '좋다', '굳건', '행복해', '좋네요', '소중한', '소중하니', '좋은', '좋은', '좋겠네요', '좋지', '예쁘지', '예쁘지', '없었네', '좋게', '아쉽네요', '좋겠네요', '대견한지', '좋은데', '좋다', '굳건', '행복해', '좋네요', '소중한', '소중하니', '좋은', '좋은', '좋겠네요', '좋지', '예쁘지', '예쁘지', '없었네', '좋게', '아쉽네요', '좋겠네요', '대견한지', '좋은데', '좋다', '굳건', '행복해', '좋네요', '소중한', '소중하니', '좋은', '좋은', '좋겠네요', '좋지', '예쁘지', '예쁘지', '없었네', '좋게', '아쉽네요', '좋겠네요', '대견한지', '좋은데', '좋다', '굳건', '행복해', '좋네요', '소중한', '소중하니', '좋은', '좋은', '좋겠네요', '좋지', '예쁘지', '예쁘지', '없었네', '좋게', '아쉽네요', '좋겠네요', '대견한지', '좋은데', '좋다', '굳건', '여려', '뿐이었습니다', '없으나', '예뻤는데', '아니네요', '좋은', '변해', '심한', '있다고', '더러운', '좋아요', '많아요', '아니니까', '딱히', '여려', '뿐이었습니다', '없으나', '예뻤는데', '아니네요', '좋은', '변해', '심한', '있다고', '더러운', '좋아요', '많아요', '아니니까', '딱히', '즐겁', '신나', '기쁘네요', '좋지만', '좋은', '깨끗해야지요', '좋아하는', '좋은', '좋은', '좋은', '같지도', '속상한', '좋네', '먼치', '먼치', '먼치', '투명하다', '좋아하는', '즐겁게', '좋고', '좋습니다', '좋은', '같습니다', '좋겠습니다', '좋네요', '대단하네', '대단한거에요', '좋은', '당연히', '서운하실', '있지만', '있으니까', '있어줘', '있을까요', '꾸준히', '아닌거', '같고', '귀여워서', '좋고', '신나서', '행복함', '없을까', '기대하고', '같은거', '행복할거', '좋다', '좋아하는데', '넘치는', '좋은', '답답해서', '아니라구요', '소중한', '좋으면', '행복하게', '충분히', '아쉬워하실', '없긴한데', '흥겹네요', '많았당', '안됨요', '딱히', '당연히', '좋은', '대단한거에요', '어때서', '없었구만', '좋은', '좋아하는', '행복한', '높은걸', '좋아요', '완전히', '좋네요', '중요합니까', '놀랬던', '신기하다', '당연히', '자랑스러워', '좋은데', '좋고', '좋아요', '좋은데', '좋다', '높은', '좋아요', '좋은', '행복한', '있을까요', '좋아하는', '좋다', '좋다', '좋겠네요', '즐겁', '있던데', '좋게', '좋은', '예쁜', '가득해서', '좋았는데', '꼬여가지고', '괜찮아요', '잔잔한', '있는거에요', '괜찮아요', '아프지', '속상한게', '속상합니다', '행복해야죠', '같죠', '우울할', '노래였고', '신기한', '나쁜말', '깨끗하게', '싫고', '싫어하는', '좋아하는', '많다는', '많을까요', '많을까요', '좋은', '아니었으면', '있었겠지', '부럽다', '대단하다', '싫어하는데', '인하자', '예쁘고', '아쉬운', '없습니다', '추하네', '신나는', '성숙하게', '좋아하는', '슬프네', '연연하는것', '좋으면', '좋아용', '대단한거니까', '연연하지', '연연한', '같더라고요', '즐겁게', '역겹다', '역겹다하는', '역겨', '있었다는건', '좋다면', '당연히', '있다고', '고맙게', '같으니까', '좋은걸', '그만할', '어떡해요', '대단하다', '대단했던', '답답하네', '싫다', '좋은', '많으면', '좋은', '좋아하는', '좋은', '많이있는게', '좋겠다', '불쌍함', '좋아하는', '좋다고', '당연한게', '안타깝다', '불쌍해', '착한', '대단한거', '행복하게', '그래요', '상관없는데', '좋은', '그랬듯', '그런거고', '꾸준히', '죄송합니다', '좋으면', '좋은', '많았어', '좋음', '좋은데', '좋고', '좋고', '같고', '좋기에', '대단한', '대단하다', '많았어', '대단해', '있을지도', '엄청나게', '대단한거', '좋아하는', '조용한데', '좋은데', '역겹다', '멋진', '확실한게', '재미있음', '많았어', '많을거에요', '많았어', '소중한', '변하지', '소중하게', '꾸준히', '아쉬워하고', '좋으면', '좋은', '좋은', '조하', '슬프다', '많앗다', '행복해', '아니어도', '좋은', '슬퍼하지', '아니던', '좋더라', '좋아하는데', '많아서', '괜찮았음', '좋더라', '아니니까', '좋은', '좋다', '좋은', '고맙다', '꾸준히', '충분히', '좋고', '좋으면', '있으세요', '그러지말구', '아프다', '좋은', '부끄럽네요', '많았어', '좋게', '많았어', '충분히', '추잡한', '좋아하는', '추잡한', '칠하는거', '깨끗했는데', '좋은', '많은듯', '노래인듯', '대단하다', '대단해', '안되나', '좋겠지만', '좋겠고', '치열하네요', '나쁜말', '깨끗하게', '좋은', '재밌게', '좋은', '유일하다는', '좋다', '좋겠네', '있자', '충분히', '슬퍼하지', '충분히', '대단한거에요', '신나게', '대단한', '충분히', '좋겠다', '신기함', '많더라구요', '좋겠다', '미쳤다', '좋은데', '지겹', '좋은', '좋은', '먼말이', '대단하다', '가벼운', '잘맞는듯', '있었다고', '신나는', '좋고', '좋고', '좋아요', '따뜻한', '예쁘더라', '자리내줄', '없다면', '좋은데', '찝찝함', '좋은', '확실해서', '좋아할', '있을까', '높아요', '좋음', '있으세요', '싫어요', '없다면', '있자나', '많을것이다', '좋겠는데', '없는것이라고', '당연하지만', '나쁘지', '심한말은', '설레고', '흐뭇하게', '많은걸', '대단해', '좋은', '있는거지', '좋은', '좋은', '아니고는', '없으신', '심해서', '좋은', '만족하잖아요', '미쳤다', '편안한', '가능하겠다', '없으신', '좋을거', '같으면서도', '좋지만', '좋네요', '좋은', '슬프네', '소중한', '좋아요', '소중하고', '소중한', '좋겠어요', '가득했으면', '좋겠다는', '좋은', '좋겠다는', '작은', '가득했으면', '좋겠다는', '소중한', '설레는', '좋겠음', '좋음', '좋겠어', '좋겠는데', '좋겠고', '없으시지요', '시러', '귀여워', '어떻하냐', '좋겠는데', '좋겠어', '좋겠지만', '행복했으면', '좋겠다', '좋겠는데', '좋겟어', '상당히', '힘들단다', '강력해', '섭섭하고', '허전할', '힘들', '있으니까', '강력해', '강력하다', '옳고', '무식한', '자리줘야', '아니냐', '아니였음', '아쉽긴', '정당한', '좋아하는건', '나쁜', '좋겠다', '미안하지두', '더나을거', '좋음', '좋을', '가능합니까', '좋나요', '편하질', '좋아하지만', '좋은데', '안되나요', '흐뭇하게', '작은시', '재미있겠다', '이런게', '야하네', '미안하다', '아무런', '안되지', '유리한데', '재밌다', '좋겠는데', '서운할듯', '꾸준히', '좋겠고', '아깝고', '애매함', '좋겠지만', '섭섭할거', '좋겠는데', '서운할듯', '꾸준히', '좋겠고', '아깝고', '애매함', '좋겠지만', '섭섭할거', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '좋겠는데', '있겠구나', '힘들텐데', '건강하고', '행복해야', '좋은', '대단해', '힘들구나', '대단한', '없겠죠', '적당히', '원한가고', '싫어하는', '많아요', '좋아할거라고', '다를게', '없다고요', '안좋고', '좋아요', '좋긴', '새롭네요', '조켔다', '신날', '적당히', '원한가고', '싫어하는', '많아요', '좋아할거라고', '다를게', '없다고요', '안좋고', '좋아요', '좋긴', '새롭네요', '조켔다', '신날', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '좋다', '귀엽', '좋아하겠노', '좋겠네요', '고마웠다', '설렌다', '고마웠다', '설렌다', '고마웠다', '설렌다', '고마웠다', '설렌다', '미쳤네요', '많았다', '많았다', '신기해서', '고플꺼야', '미친', '미치겠다', '미쳤네요', '많았다', '많았다', '신기해서', '고플꺼야', '미친', '미치겠다', '미쳤네요', '많았다', '많았다', '신기해서', '고플꺼야', '미친', '미치겠다', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋네', '미안하지만', '미안하구나', '고마웠고', '야해요', '궁금했는데', '좋아한지만', '오래되서', '고맙다', '미안했다', '힘듭니다', '좋다', '많은거', '어떡하라는', '싫은건', '아니잖음', '나빠', '부탁드려용', '바쁘셔도', '심한', '많으셨습니다', '심한', '많으셨습니다', '자랑스러워', '재밌음', '좋게', '좋고', '좋고', '홀가분하기도', '벅차서', '좋고', '없게', '어때요', '괜찮아', '있도록', '미친', '틈틈히', '좋네요', '좋음', '좋은', '행복하게', '멋진', '많답니다', '확고한', '자린', '작은시', '확실한', '자리매', '같네', '기뻐', '신나는', '미쳤어', '안좋길래', '좋은데', '멋있다', '좋네', '부끄러워', '멋있는거지', '대단하다', '대단하네요', '바빠질', '좋게', '다른거', '좋다', '나쁜말은', '좋네요', '신남', '좋음', '있을지', '고마워', '다양한', '다양한', '있다니', '필요하겠는가', '나쁜', '가능해여', '좋은', '좋은', '화창한', '힘차고', '즐겁게', '좋은', '노래네요', '당연히', '그러는거', '좋겠습니다', '있었지만', '있을줄은', '멋있어요', '바쁘게', '이쁜', '간절하다', '아쉬운', '힘들', '대단한데', '아니냐', '기대하고', '소중하지만', '좋겠다', '좋은', '좋냐구', '좋다', '새로운', '멋있음', '좋게', '반하겠네', '멋있을거에요', '아픈', '속상한', '높다', '귀엽고', '좋고', '미쳤네', '좋아요', '미친', '익숙한', '미친', '있도록', '기대할게요', '아니므로', '싫어했는데', '유일하게', '대단해', '대단하네요', '신난다', '대단하긴', '같더니만', '좋아하는', '궁금하네', '장하다', '즐겁게', '신나게', '행복하길', '귀엽다', '유일하게', '대단하다', '많았어요', '당연히', '더해진', '같네요', '행복하게', '좋은', '신난다', '더하면', '멋진', '중요하니', '행복하고', '좋아요', '가볍게', '좋음', '미쳤다', '대단해', '뿌듯하고', '행복하', '좋으니까', '신기하다', '있다는', '대단하다', '대단해', '무섭다', '미쳤다', '기뻐요', '행복하소서', '이럴수가', '가능한거지', '장해진다', '가능하니', '미쳤다', '장하다', '대단합니다', '좋겠네요', '안됩니다', '높습니다', '대단한', '즐겁게', '자랑스럽다', '안남았어요', '좋으니', '가능한거', '안남았어요', '있도록', '충분히', '부탁드릴게요', '필요해요', '좋아하시면', '청아하고', '좋아요', '좋은', '그럴수는', '없지만', '망했다는', '필요합니다', '있도록', '필요합니다', '신나게', '작은시', '좋네요', '바쁜', '좋은', '좋은', '작은시', '새로운', '좋다', '작은', '작은것', '좋음', '작은시', '안남았네요', '환하겟네', '많구나', '다르구나', '작은시', '추하다', '부탁드릴게요', '안남았어요', '좋겠어요', '힘나시라', '좋아하는', '좋다', '새로운', '좋겠네요', '안되네요', '안되네요', '좋다', '좋으면', '좋아서', '좋지', '가능하신', '좋음', '좋네', '밋밋한', '잘생긴', '같고', '한심하다', '신기한게', '좋은', '그랬고', '신나는', '신나기도', '신나는', '달랐던', '슬펐던', '좋긴', '빵터졌으면', '좋아요', '좋은', '괜찮구먼', '좋을지', '편히', '좋은', '정확하게', '그러는데', '야하져', '좋아하고', '좋다', '이런게', '좋은', '진정한', '자랑스럽다', '새로워', '미쳤고', '좋은', '있도록', '좋아요', '좋다', '좋네요', '아니네요', '청량하냐구요', '선명하게', '좋은', '안남았네', '신남', '찌질하다', '싫다는', '좋지', '좋은', '자랑스럽다', '좋은데', '싫음', '있자구요', '장해진다', '찌질한', '모질이', '그럴수록', '고맙네', '좋은', '청량하고', '좋아서', '많아서', '쏠쏠함', '좋은데', '괜찮아져서', '행복한', '좋아요', '따뜻한', '좋은데', '좋을까', '좋네', '좋아요', '좋다', '좋다', '좋네', '좋다고', '좋은', '죄송해요', '신나게', '그러시진', '많습니다', '부탁드리고', '좋다', '편하고', '좋네요', '꾸준히', '꾸준한', '좋은', '소중한', '많으니', '새롭게', '대단한', '아쉽다', '대단해', '대단해', '고마운', '담하', '좀있으면', '좋은', '완벽한', '꾸준히', '충분히', '청량해', '좋네요', '뿌듯해요', '좋아하는', '있어용', '좋게', '있다니', '좋다', '좋네', '좋네', '있도록', '반해서', '좋네요', '계신가요', '불안해하지', '시급함', '궁금해서', '그러는데', '아니여서', '좋다', '안남았어요', '청량한', '즐겁게', '없으니', '미치게', '있구', '신나는', '좋겠네요', '뚜렷한거', '좋음', '미치도록', '좋아하네', '중요하지만', '가능한거', '좋으니', '청량한', '좋내요', '먼서', '좋았어요', '바쁘겠지만', '아닐', '신나게', '있도록', '어마어마해서', '있을까', '믿음직하고', '진실되다', '좋더니', '좋은', '좋네요', '뛰어난', '행복해진다', '좋아요', '좋은', '좋은', '좋아요', '안남았어요', '다른것', '빠르다', '있으니깐', '좋음', '높데요', '좋다', '아쉽당', '짜증나', '힘차게', '좋은', '어이없다', '좋음', '미치겠네', '있도록', '자랑스러워서', '멋진', '신나고', '즐거워요', '기쁘', '뿌듯하기도', '청량한', '작은시', '더할듯', '변하지', '있죠이용', '잘생겼어용', '좋은', '신나는', '없겠죠', '좋길래', '경쾌하고', '순수하고', '좋은데', '이런것', '쓸데없는것', '좋고', '잘생겼고', '미침', '좋아요', '이런것', '쓸데없는것', '좋고', '잘생겼고', '미침', '좋아요', '미와', '힘들었어요', '좋네', '좋다', '자랑스럽다', '높은', '행복하게', '진정한', '부족해', '유쾌해요', '진지하게', '꾸준히', '안타깝다', '진지하게', '꾸준히', '안타깝다', '좋아요', '좋은', '좋냐', '좋당', '계신가요', '계실', '신나고', '우울했던', '좋냐', '우울했던', '좋음', '고마워', '좋아한', '뿌듯하고', '행복해', '고마워', '좋은', '즐거운', '좋은', '좋은', '있겠죠', '좋아요', '작은', '추하다시길래', '있으세요', '조용히', '좋았을', '아쉽당', '좋았을텐데', '아쉬음', '놀라운', '즐겁게', '빠를거라', '좋는', '노래내주세요', '좋고', '좋고', '좋고', '좋아요', '좋은', '가득했기에', '신나는', '고마울', '미치겠네', '가능한가요', '있었었고', '싫어했었는데', '좋은', '싫어했었는데', '있겠죠', '좋네요', '나란히', '자랑스럽다', '시원한', '괜찮네요', '대단한게', '넘친다', '짜릿해', '새로워', '어려운', '멋지게', '멋있어', '꾸준히', '좋은', '사랑스러운', '대단한', '기대하겠습니다', '나란히', '좋아요', '좋은', '꾸준히', '좋아하는', '안좋아', '좋다고', '좋아했었는데', '낮았었는데', '나란히', '행복한', '가득하길', '바쁘네', '더하고', '나란히', '번하고', '새로운', '좋은', '행복한', '행복한', '대단하다', '없으니', '새로운', '고맙고', '찌질하고', '추하고', '창피합니다', '같은거', '조용히', '좋겠네요', '그럴수록', '자만하지', '자랑스러운', '대단해', '좋겠다', '아니냐', '유명하고', '대단한거고', '대단한건데', '나란히', '자랑스러워요', '기뻐서', '좋아서', '있다니', '자랑스럽고', '자랑스럽습니다', '기쁘겠다', '좋긴', '미쳤다', '자랑스럽다', '흔한거', '아니냐며', '멋진', '영원하자', '아니었나', '엄청나네', '넘쳐나', '나란히', '많았어요', '무서울', '나란히', '있는거야', '대단한', '무서워질', '아무렇지도', '확실한', '자랑스러운', '기쁜', '기쁘고', '행복해', '나란히', '미친', '없을텐데', '속상했다', '많으셨어요', '다양하고', '미칠수', '있다는', '즐거운', '좋고', '소중한', '건강하고', '행복해야', '멋있는', '행복한', '좋겠어', '좋은', '고맙고', '특별해진', '유명한거', '좋네요', '많으셨어요', '있는거고', '대단한', '없죠', '행복해요', '조용히', '빠르게', '건강한', '화합시다', '따뜻하고', '행복한', '번하고', '그래요', '그러세요', '충분히', '충분히', '좋당', '행복하게', '있나용', '힘드시겠지만', '좋은', '좋아요', '철저하게', '피곤하니까', '좋아요', '있다는', '예쁜', '대단한거예요', '당연해요', '좋다', '행복해졌다면', '충분하다고', '많아도', '예쁜', '가득했던', '안타까워서', '고맙고', '좋은', '이쁘고', '멋진', '고마워요', '멋진', '좋음', '추하다', '충분히', '있으니깐', '잘났길래', '바쁜지', '부럽다고', '필요한가', '신난다', '원하는게', '덜한건', '당연한거죠', '다르면', '좋고', '즐겁고', '행복하면', '좋겠다', '신나네', '깨끗하고', '예쁜', '소중한줄', '소중한', '적당히는', '이래라', '저래라', '충분히', '좋아요', '많아도', '귀여워요', '고마워요', '있는거에요', '소중하고', '사랑스러운', '소중하고', '사랑스러워요', '신나는', '유일하게', '재밌네요', '잘났다는', '심각하게', '필요한듯', '즐겁게', '행복하자구여', '죄송합니다', '행복한', '힘들고', '즐거워', '행복하게', '한심한', '좋아하는', '행복하고', '좋았네요', '많아요', '변함', '행복하게', '그러면서', '적당히', '어떡하라구요', '싫다', '그러세요', '심하세요', '미친것도', '많으', '많았다는', '성공할듯', '있었다', '멋져', '적당히하긴', '적당히', '적당히', '힘들게', '적당히', '아닌것', '없더라', '헷갈리니까', '당연한거거요', '아프잖아요', '중요한', '똑같잖아요', '싫으면', '많으니까', '씬난다', '씬나', '대단한', '노래였기', '있지만', '많았을', '소중하고', '좋은', '그만합시다', '징징대면서', '충분히', '적당히', '없습니다', '좋나요', '좋다', '힘나게', '좋아여', '대단한거죠', '힘나는', '아닙니까', '좋아서', '야하잖아요', '꾸준히', '즐거웠으면', '좋겠어요', '철저히', '그렇더라구요', '좋겠지만', '신기해', '새로워', '빨라진것', '같죠', '신나는', '좋네요', '아니거든', '좋지만', '좋다고', '발광해요', '좋죠', '좋긴', '신난당', '아까워요', '행복한', '없죠', '필요하다면', '어떨까', '자잘한', '뿐이니', '없다는', '좋습니다', '치열할거에요', '있을거에요', '좋아서', '같네여', '장해진다', '없던데', '많으셨습니다', '즐거우셨죠', '즐거웠는데', '있을거에요', '행복했당', '좋구나', '새로운', '훌륭한', '미친', '좋다', '행복했고', '속상해', '좋고', '좋은', '어때요', '즐거운', '있는건데', '싫어요', '충분히', '가능할테니까', '있으세요', '그러시는지', '충분히', '가능해요', '조아용', '좋은걸', '한심하네', '좋네', '예쁘고', '따뜻한', '가득했던', '즐거워', '많으셔라', '죄송하지만', '추해', '더하세여', '신나게', '한심함', '불편하네요', '없으니까', '좋아서', '있을것', '익숙함', '좋아요', '좋아요', '같은거', '추하다', '찌질해', '많았던', '멋있고', '대단한', '드럽게', '좋당', '재미있어', '없죠', '충분히', '충분히', '속상할건', '한심한', '좋은', '순수하게', '궁금해서', '그러는데다', '찌질해', '찌질하다고', '찌질해', '싫어요', '추해요', '싫어요', '바쁜가', '좋다고', '기대하면서', '충분히', '대단한거', '유일해', '좋아서', '많으셨', '조급해하지', '좋은', '대단한', '충분히', '당연할수도', '심하지', '있죠', '이쁜', '높을', '높은', '그래요', '좋은', '없기도', '실망하지는', '그러는', '한심해', '안되니까', '미가오', '대단하다는', '그러잖아요', '대단한거죠', '좋아하는', '즐거워요', '가능할거에요', '괜찮아요', '짠해', '계신가요', '분명히', '있으니까', '있을테니', '있는거니까', '있죠', '충분히', '있으니까', '조은', '신나고', '고맙던지', '씬나', '같네요', '많은데요', '궁금하네요', '속상해하지', '어떻게나', '궁금하네', '아쉽게도', '좋은', '속상하긴', '힘차게', '좋았어요', '좋음', '미쳤다', '좋은', '야합니다', '높은', '힘들죠', '미니까', '대단한거에요', '즐겁게', '좋아서', '좋고', '미친', '중요한건', '안되나요', '아니냐며', '있지만', '그렇구요', '없답니다', '좋은데', '섹시해', '설레네', '있으셔야', '적당한건', '계신가용', '중요합니당', '좋겠네', '좋아요', '번하고', '아쉽냐', '안되지만', '불안해요', '활기차게', '행복한', '조하', '좋아하는듯', '없지만', '좋겠죠', '사랑스런', '활기차게', '속상해지기', '괜찮을거라', '좋길래', '많네요', '많아도', '신나게', '아무런', '미치지', '힘든게', '빠르게', '당연히', '위험할', '있도록', '좋다', '좋아하시는', '좋았어', '다른거', '좋았어', '고마워', '좋다', '좋아하시는', '좋았어', '다른거', '좋았어', '고마워', '괜찮아', '미쳤는데', '부러워하겠는데', '미친', '확실하게', '없을거', '빠르게', '중요한건', '필요합니다', '대단한거에요', '아닌거', '좋겠다고', '행복해져', '고맙고', '급하게', '많지', '부탁드립니', '좋네요', '대단하시네요', '행복해', '좋아요', '즐겁게', '없겠죠', '번해도', '안됩니다', '많으실텐데', '미는', '강해', '좋아요', '가능하겠는걸', '찬란한', '충분히', '계신가요', '신나고', '꾸준히', '가능할것', '암울한', '좋다는', '신기하다', '기대해도', '벙벙했다고', '없으니', '멋지다는', '좋아요', '신나네', '좋아서', '아쉬워서', '원하는건데', '섹시해', '낮디', '섹시해', '있다는', '미친', '좋아서', '좋은', '좋아요', '힘차게', '신나고', '멋있다', '성장할까', '궁금한', '굉장히', '쎕니다', '빨간', '어려운', '고소하면', '망하는거', '좋구나', '좋겠네요', '단순히', '아니니까', '열광하는지', '대단하네', '행복한', '귀여', '어떡하지', '좋은', '강해서', '미치겠어요', '좋고', '더부룩하고', '뿌듯하네요', '예쁘던데', '같은것도', '좋고', '좋음', '예쁜것', '미쳐', '좋아요', '좋은', '계셔야', '수많은', '좋아해요', '좋은', '가볍게', '있을거에요', '굴거에요', '좋은', '조용히', '나른한', '좋다', '좋다', '대단해요', '좋은', '좋네', '힘차게', '활기차게', '미쳤', '예쁜', '행복하게', '대단하다', '싫어할', '없게', '불공평해요', '잘생기면', '좋으면', '귀엽질', '행복해', '좋고', '잘생긴데다', '좋아요', '드물게', '안되는거지', '대단하다', '그러는거니까', '좋다', '좋다', '좋기만', '신나게요', '행복함', '좋을거', '완벽한', '힘들게', '나빠', '좋음', '좋다나나나나나다이나', '유치한', '성공했다고', '아까워요', '필요없는', '피곤해하지', '필요없는', '그러던데', '많다는건', '높은', '같으니까', '나쁜', '좋은', '이쁘게', '신나', '좋음', '좋아하고', '신난다', '씬나는', '좋겠어요', '좋다', '새로워', '좋네요', '꾸준히', '좋다', '좋아요', '없지만', '부탁드릴게요', '좋아서', '자랑스럽습니다', '행복하다', '좋다', '안쓰러워', '좋다는데', '좋아요', '가능할까', '좋아하고', '다정하고', '좋아하게', '가득해요', '힘들었기에', '좋다', '좋다', '좋다', '좋다아', '좋겠다', '좋겠다', '맛있는', '좋아서', '나쁘게', '좋아요', '안좋아도', '알맞은', '아닌가싶다', '자유롭게', '안되있지', '즐겁게', '맛있게', '좋겠다', '실망하긴커녕', '멀쩡한데', '좋은', '좋겠네', '나른한', '같잖은', '좋다', '행복했던', '해로', '같당', '미침', '아쉽네', '많으셨고', '노래였구', '간략해서', '정확하게', '좋은', '신나게', '좋음', '좋아하는', '좋아한다고', '뿌듯했지</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'빡치네', '심각한데', '뿌듯할', '가능했을', '착하지', '좋아했던게', '좋게', '필요한', '부탁드렸는데', '기대합시다', '중요합니', '잘생긴', '똑같아요', '빡친다', '괜찮음', '미치겠네', '성공하나', '대단하시네', '깊을수록', '아프지말구', '좋답니다', '있자나', '우울해서', '중요하다구요', '그렇기', '안좁혀지고', '신기하당', '불타게', '아닙니당', '짜릿했네요', '조용해서', '빡침', '부족할', '설렌다', '잘생겼네요', '미쳐요', '정신차리게', '아쉽더라도', '싫었어요', '있다는걸', '반가워요', '정당한', '아까워서', '미쳤고', '귀찮으신', '안쓰러워서', '이런건', '험악해', '동그랗게', '조아요', '계시다면', '있었을텐데', '상관없이', '싫음', '급하다', '이런엔', '좋잖아요', '지겨워요', '짜증난다', '좋겠어요', '추하다', '유용한', '뻔했다니까', '귀여워요', '안되면', '안됩니다', '어떨까', '가득한데', '적합한', '충분하다', '어떡하려', '짜릿하네', '예뻐요', '서러워서', '중요하지', '아프죠', '행복해지세요', '좋으신', '같네용', '성공할줄', '많은거야', '쓰리가', '죄송해요', '똑같잖아요', '고맙다하고', '아니었을까', '아니게', '죄송할', '급하다고', '위험해요', '낮잖아요', '있을거예요', '있네여', '친절하게', '만족하면', '원하게', '비싸다', '약한', '대단하신것', '이래놓고', '어렵고', '성공했다', '고마워', '힘들었던거', '안된다는', '기쁜', '빡쳤는지는', '많았습니다', '없던데', '궁금해서라도', '힘들지만', '아프네요', '좋아서', '가능해용', '인한', '한심한', '귀엽다는', '정신차렸', '예쁜이', '마라보다', '간절하잖아요', '안되니까', '있고있던', '높음', '힘들었는데', '부탁드림니다', '아니냐며', '과격한', '있을거에요', '희로', '속상할거', '싫테하는', '많을텐데', '낮아요', '스러워', '없어여', '행복해하는거', '아까워', '있잖아용', '나쁘면', '유치해', '성공했나', '침울한거에', '행복하게', '좋을실것', '즐거운', '부족하단', '미침', '그만하고', '아찔하네요', '속상해서', '말라', '따뜻해지고', '괜찮습니다', '쉬워요', '힘들면', '어색해지고', '간절한데', '변함이', '뿌듯함에', '멋져여', '빡칠', '있다고', '쎄진듯', '힘들더라도', '자리수', '청순하게', '만족하지마', '싫었는데', '그러지말고울', '차가', '좋네요', '인하자', '당한다', '난잡한노', '고통스러운', '유연해졌네', '같을거다', '위험합니다', '이상해야', '힘들텐데', '아쉽', '불편해졌네', '더럽게', '예쁜것만', '기쁘네요', '급하거든요', '든든하고', '청량해', '만족함', '뿐입니다', '있으실거예요', '중요해', '있으면서', '기쁘네', '미워할', '만족하는', '좋아할것', '불안해서', '그래두', '분명히', '미쳤나요', '잘생겼', '높은거', '잘생겼었던', '힘들었을텐데', '아니었나여', '번하는거', '좋을거', '높혀야', '힘들고', '미치것네', '이렇게나', '이쁘지', '싫어하실려나', '가능하니깐', '익숙함에', '행복했고', '노래네요', '미쳤음', '넉넉히', '아프게', '노래내셨습니다', '있다구', '있아야해', '안타깝네', '있으시잖아요', '많으셨', '안쓰럽', '미쳤다리', '작은', '잔잔하게', '좋아요', '싫테도', '높지', '확실한건', '있나용', '아까부터', '강렬하게', '좋네', '자랑스럽', '위험하니까', '짜릿함을', '황홀하고', '많던', '충분해요', '좋아하면', '필요할것', '아닌거죠', '먼세', '귀여우시고', '바쁜거', '자자하길래', '기뻐요', '행복합니당', '아깝잖아요', '없다구요', '위험하다', '힘든것이다', '소중해', '행복해하는', '행복해야해', '칠하고', '있다가', '어이없다', '선한', '신기하면서', '안좋아서', '이상하다가', '없이는', '사이좋게', '짜증나', '아쉬워', '독특하다', '그랬어어', '계신가요', '기뻐하는거', '있는건데', '있었다면', '부탁드릴게요', '맛깔나게', '가능하니', '있구', '스럽다말', '아니잖아요', '낯설다', '마땅한', '행복하려', '좋아한다구', '있자나요', '딱이네요', '귀찮아하는', '답답해서', '없다면', '있다네요', '안되야', '좋을듯', '굴려', '게으르기까지', '너무해요', '미치셨나요', '야하잖아요', '부담스러운', '싫은', '아니였잖아요', '미친거아니야이야이야', '없는게', '빨라질', '힘들거', '죄송하다는', '가득하시길', '대단한', '대단하시네요', '신난당', '아니어여', '고마워서', '그랬던가요', '이쁘다고', '대단하네', '화하기', '이래야해', '좋아수록', '좋겟네요', '성공하', '완벽하게', '많앗서', '훈훈함을', '있는거겠어', '정확하게', '미쳤습니까', '안되는거', '힘들거에요', '불편한', '어이없어', '원히', '휩쓸어야죠', '부탁드려용', '좋구나', '있더라', '시원하고', '없당', '필요하니까', '사악하다', '없자나요', '힘나게', '추해지지', '좋겠고', '어떡할려는지', '심심해서', '딱딱하게', '뿐일테지만', '좋을것', '강렬한', '가능하겠니', '성공했다아아', '아프다', '좋겠네요', '인해서', '그럴거에요', '조그마한', '착하시다', '그러지말', '안되게끔', '젊고', '있는거에요', '상쾌해', '행복해', '성공했', '괜찮겠지하는', '없으', '건강해야', '좋다라고', '수많은', '있었는줄', '장난없다', '싫어서', '당연한', '좋다아', '있네용', '마라에', '심하지만', '그렇다면', '대견하고', '있지요', '죄송하고', '고맙다고', '편히', '좋아야지', '장난없는거', '좋아할거에요', '아니시군요', '성했어요', '실망한', '상당히', '좋당', '고픈거', '부진해서', '슬프네요', '당하는게', '잘맞았다니', '높으면', '중요하게', '충분하니', '기대하며', '많았어용', '아니구요', '아니었으면', '낮으니깐', '그랬다는데', '참담하다', '심심하게', '부워', '심해서용', '편하게', '실망하지', '만족해', '필요없고', '입니다여', '안되니', '좋다구', '좋겠다', '이럴거야', '아니겠죠', '중요합니답', '소중한데', '대단해요', '실망하지마', '원해', '힘들겠지만', '답답하네', '안되지', '벅차서', '안된다구요', '아니야지', '간절하게', '일정하게', '맛있게', '미치겠어요', '찡해요', '조용히', '따뜻한', '아쉽구먼', '당연해요', '없다가', '우아한', '월등히', '번해도', '멋지더라', '부탁드릴', '미쳤노', '계시는', '설레고', '좋다구요', '슬퍼요', '낮고', '계실거라', '미치겠다', '좋겠어어어', '낑겨서', '간단하는데', '많으십니다', '좋아하', '같아시', '힘들었겠어요', '그럴', '없는거지', '같으니까', '야하는거', '좋으시겠다', '재밌다', '나쁘고', '높네요', '미쳤', '뻔함', '헷갈리네요', '안남았던데', '미쳤냐고', '많으신', '멋있어서', '조진다', '있어야죠', '다른데', '있다는', '있으시다면', '심하네요', '아니잖아', '있잖아여', '희를', '있는거면', '유쾌하시네', '매워', '멋있더라', '좋겠', '좋더라구요', '좋아한다', '짜릿한지', '재밌어서', '안녕히계세여', '계셔셔', '낮구', '가능하겠', '안되냐', '흔히', '이럴것', '시러요', '다르네', '멋있구', '뿌듯한', '화끈하게', '그러진', '빡쳐', '부수는거죠', '어렵나요', '빡쳐서', '궁금하면', '장난없고', '난해하다는', '멋있더라구요', '소홀히', '환장하는데', '재밌다고', '연연하기로', '힘든거', '행복했잖아요', '좋지', '아니꼽게', '연연하기', '신나셨을듯', '힘들', '강한', '약한거', '휩쓸게', '있었지만', '안일한', '자랑스럽다', '이쁜지', '어떡해요', '행복하다고', '씁쓸해지는', '미쳤다는말밖에', '좋아할', '없으니까', '피곤하게', '강렬함이', '싫어용', '궁금하네여', '높아요', '필요할', '멀었다', '어때요', '괜찮더라구요', '이쁘고', '완벽함', '무섭네', '죄송하네요', '아니랍니다', '힘들어서', '행복하군', '실망하지말고', '당연하게', '아픈', '아깝게', '가득하다', '중요한거아시죠', '탄탄하니까', '길었으니까', '안된다니까', '같군', '정당하게', '안된다고', '없을까요', '대단한거다', '있데요', '이상한말', '없을것', '안타까웠는데', '있으면서도', '멀쩡한', '성장하는거', '높아', '기뻐하는', '오래된', '야함다', '높았다고', '필요하신', '좋긴', '미야', '투명해', '계시져', '칠한테는', '중요함', '그만하기', '필요한데', '게을러터짐', '있지만', '새로운', '자랑스러워', '높습니다', '없냐고', '즐거워서', '행복해여', '유용했습니다', '벅찼던', '좋을', '자만하지', '행복해진다', '침착하게', '없더라고요', '있는건', '자랑스러운', '조아용', '아프지', '좋아할게', '부족한거', '야합니다', '대단한거에요', '괜찮겠죠', '인했으니', '같은거야', '있니', '방심하면', '있으니까', '심했어요', '아니신', '시급해요', '재밌어', '있다고여', '속상하네요', '고맙다는', '좋겠어', '아니더라구요', '가능했구나', '야하지', '좋아해서', '같은거', '기대해도', '안남았으니', '조럽', '그리워하는', '애잔하다', '많나', '아니에요', '많으셨고', '넘치네요', '연연해', '미쳤거든요', '새로운거', '부탁드립니당', '연연하지말고', '있는거예요', '신기하네요', '바쁘니까', '좋아도', '어떡합니까', '괜찮', '그만하자', '자랑스러워요', '조졌다', '많았어요', '같은데요', '추해', '성공한다', '조은데', '무섭다', '없어용', '그러지', '어떡하지', '틈틈히', '빠른', '강하다', '옳지잘', '설레냐', '깔끔하게', '아니까', '미쳤어요', '재밌당', '경건하게', '슬펐어요', '있다아아', '낙담하지말고', '가능하', '처참하네', '잘생겨야지', '노래있어', '멋있겠지만', '아닐거라고', '그렇군요', '괜찮다', '어려워요', '행복합', '괜찮으니까', '계셨을지도', '착실하게', '심심해', '만족하는거', '수월하니까', '좌하시면서', '속상하긴', '많은거', '안되시는', '미친', '중요하니깐', '많죠', '다르니', '무섭네요', '야하는거에요', '있구용', '있당', '노래였', '중요할', '가능하고', '환하게', '그렇네요', '예뻐서', '뒤늦게', '친절하게도', '귀찮으면', '급해요', '속상한데', '괜찮겠지가', '신나고', '없어오', '필요하지', '아니냐면', '아니져', '좋아하네', '아프지마라', '많은거였군요', '기대하고', '괜찮은', '아닌디', '다름이아니라', '건강하기만', '슬프지만', '아픈데', '속상하잖아요', '뛰어나네', '힘들잖아', '있지', '정신차려마', '멋있고', '낑겨있냐', '기뻐하며', '힘차게', '먼수', '빡쳐도', '헷갈리니까', '고랍니다', '헷갈려하지', '죄송한', '많앗어용', '난해한', '뿌듯하길', '심하고', '부족한', '안남았네', '있으니깐', '그런게', '아쉽긴', '기대하면', '기대했는데', '원하는게', '인하면', '고맙', '기특하다', '계셔서', '뿌듯함', '망했다', '알차게', '벅차요', '좋노', '속상해하지말고', '상관없습니다', '조졌죠', '미를', '가능한가요', '궁금하시면', '이상하지', '즐겁고', '높아야', '아쉬운데', '그랬잖아요', '어이없음', '좋은지', '좋으실', '느려졌다가', '같아서는', '안남았는데', '좋아하는데', '방심해서', '대견하다', '변했고', '싫으신', '같으니라고', '높지도', '흥분하는', '많으면', '좋아했었는데', '미친거', '안되나', '헷갈리는거나', '재밌어용', '잘생겼어', '안된다면', '이쁘다', '계시는건', '없잖니', '헷갈리시는', '어마어마하네요', '원해여', '위험했지만', '낯설게', '뻔했어요', '무서', '그러죠', '행복하려고', '좋다고', '약해요', '방심하지말고', '안되어요', '같네요', '없더라', '번했음', '뿌듯해서', '안되나요', '안타깝네요', '한심하다', '고마워우리', '간절히', '예쁘데', '같네', '가상하다', '좋겠당', '고마울', '든든하구', '원하라고', '괜찮겠지', '환장할', '새롭게', '안녕히', '있어라', '있는거죠', '멋있네여', '빨라졌다가', '중요하니', '싫어하던', '아니래도', '부진한데', '완벽히', '귀찮더라도', '위험해', '지겹죠', '착하시네요', '야하는거냐고', '소용없나요', '더퍼져야해', '난잡하게', '복잡하면', '그만하구', '조마조마하면서', '아니라고요', '딱인', '뚜렷해서', '짜릿한데', '노래였던', '안좋잖아요', '성장해서', '쎄다', '원하던', '노래내는', '아름다운', '고맙다', '가능하구요', '있을까봐', '미쳐있으니까', '중요하다', '신나', '없는거야', '조져야지', '없었습니다', '같아여', '괜찮다고', '잘생겨서', '길은', '많을테니', '냉정하게', '낑겨', '어떡함', '심하게', '연히', '게을러', '좋내요', '높을수록', '슬프다구', '미안하네', '인하는', '살벌하네요', '순수하게', '더하면', '계시는거예요', '궁금한데', '그러시지', '있는거는', '부족했나', '심할', '부족하다', '그렇죠', '부지런하시네', '조하', '예쁘다고', '당하는데', '좋았고', '심쿵한다는', '연연하는', '아닐수가', '좋은데', '짠하다', '기특하게', '놀라운', '방심하지마', '없는거죠', '안쓰럽다', '상관없나용', '멀었어요', '화끈한', '열광하고', '미안한데', '멋있어요', '쉬운', '아쉬운건', '낮아용', '그만해요', '간단할수가', '심했는데', '허탈해', '조으네', '좋을까요', '따뜻하고', '있다니깐', '있겠죠', '망하는거예요', '당당하게', '빡치게', '드물었던', '휩쓸', '야해서', '쓰려요', '방심하지말자', '스럽고', '아니라는', '아님요', '싫으니까', '만족합니까', '기대하는', '속상했을것', '정신차리고', '나란히', '귀엽죠', '좋겠어여', '짜릿하', '기쁠까', '속상했지요', '있어야지', '싫잖아요', '넘친다', '당당히', '싫거든요', '대단하다고', '높으니까', '슬픈지', '강함', '힘들게', '있었잖아요', '귀찮을텐데', '계신가용', '정신차리는', '행복합니다', '필요하', '빡치는', '만족할', '있는것도', '상관없다네요', '좋자', '대단합니다', '슬플', '즐거워', '칠하는건', '행복했던', '높은대로', '아니되', '놀래서', '있을것', '예뻐라', '중요하지만', '좋을지', '필요해', '속상해', '망했어요', '황당함', '멋있지만', '정확할것', '야할까', '위험함', '행복하구', '휩쓰는', '잔잔하고', '입니다용', '반해', '촌스러울', '기대할게요', '억울하네요', '맛깔나냐고', '있답니다', '계시나요', '귀엽게', '미치려고', '고소해야', '말랐다', '안되여', '미쳤나', '소용없어요', '없죠', '힘나네요', '끊임없이', '괜찮은가요', '가득한', '마라란', '쓰리도', '미치게', '없지만', '어떡해하는거죠', '착한거', '어떤가', '아프지말고', '계시군요', '그러시길래', '힘들어도', '없으니', '급해', '기쁘다', '신선하게', '힘든건데', '쉬운게', '아니며', '아닐거', '불안하네용', '강했어요', '좋아할만', '있긴한데', '마라아아', '자연스럽고', '강렬히', '있었나', '그럴것', '조야대', '중요한데', '순하면', '가능하잖아', '좋겠어서', '짜릿하게요', '무서어', '즐겁게', '인합시다', '그러는데', '좋겠는', '만족하고', '속상하셨겠네요', '없습니다', '귀찮을', '계실꺼라', '미안해요', '스러워서', '같더라구요', '힘들어지겠구만', '괜찮을까요', '지겹지도', '기뻐하고', '힘들다고', '행복한데요', '무서워', '아니예요', '아쉽지', '거뜬히', '헷갈릴', '다를', '가능한거에요', '고맙다고하고', '시원하게', '성공했다는', '단순한', '잘생기면', '번거롭더라도', '있길래', '치열해서', '설렘', '귀찮니', '빠르다', '행복해서', '귀찮', '궁금해요', '입니다만', '귀엽고', '이런거인것', '필요해요', '뿌듯해', '잘생기셨습니다', '뿌듯해하잖아요', '재미있니', '좋았다는', '잔잔한', '이럴듯', '빨간', '그랬어요', '연연하자', '힘든데요', '좋잖아용', '좋겟음', '높은데', '단단해', '너무했', '새로오신', '망한', '없는거라고', '나쁘진', '아닙니까', '더오진다', '용하시면', '아파도', '피곤하면', '좋냐', '나쁘실까봐', '미안하지만', '자랑스럽습니다', '같다하니까', '아닐', '평범한', '다양한', '좋기', '예뻐', '대견해요', '있겠지', '조용해졌어', '많으시네요', '좋겠습니다', '간절합니다', '행복하세요', '비슷하네여', '아쉬운', '많지만', '짱짱해', '높혀', '느슨해지지', '허무해서', '옳지', '재밌어요', '낮은것', '많아야', '중요하다는', '그리워', '낮은걸', '있는다로', '신난다길', '정신차리세요', '좋고', '미칠것', '설레는', '좋을텐데', '어떡하죠', '스럽습니다', '아쉽잖아요', '낮다고', '좋아하면다에요', '당하겠다고요', '있었다', '있는것', '섹시해질', '느려져요', '꾸준한게', '어려워도', '멋있게', '대단하네요', '비슷함', '많지', '기뻐', '좋앗잖아', '괜찮아용', '중요해요', '원하는', '건강하고', '신기하다', '그럴지도', '아닐텐데', '진정한', '안타깝', '힘들내라', '아까우면', '좋아하더라구요', '성공했어요', '좋아하셔', '있다니', '귀엽니', '간절한', '미안해서', '아프로', '험악하겠지만', '같아도', '귀찮다하시는', '그렇다는', '뻔해요', '상관없는거에요', '간절해서', '행복하고', '따끈따끈한', '기뻐용', '예쁨', '좋아야', '괜찮어', '당하자', '좋구', '맛깔나는', '자랑스러워내', '엄청나요', '굳세', '부족하잖아요', '기대했을텐데', '아니아니아니아니아니야', '굵게', '궁금하다', '안되죠', '기뻐서', '짜릿함', '마라마라', '유치하', '뻔했서요', '미친고', '너무했음', '있을테니', '성공해라', '아파오지만', '남다르다', '심히', '애매합니당', '훈훈했잖', '간절하다', '좋으니', '그런다고', '이상함', '야하는건', '멋져', '높았기', '힘겹다고', '좋아해요', '힘들어진다', '당하는', '아니진이', '조심스러워서', '잘생기고', '심심해졌다', '좋은걸', '야할듯', '독특한', '많으셨어용', '행복함', '계실지', '낮아여', '만족해야', '많으셨어요', '좋아하는', '뿐임', '있더라도', '행복하자', '행복했다', '낮아', '힘들겠네요', '좋더라도', '계실꺼고요', '뿌듯함이', '조은', '재밌는지', '아파서', '먼가', '좋더라고요', '없나용', '아팠지만', '잘생겼기', '없나요', '이쁘게', '짜릿짜릿해서', '그러더라구요', '시급한', '뭉클하고', '아니었어요', '많았잖아요', '궁금했었는데', '어마어마한데', '아까운', '너무한', '이상한', '계셨어서', '인함', '같지만', '대단해', '힘드시죠', '허무하고', '예쁘게', '장하다', '두렵다', '자세히', '흥분해서', '뿌듯했', '좋을까', '꾸준히하면', '수상하는거', '새롭다', '그러는거', '성할', '소중해요', '속상함', '예쁘십니까', '어렵다고어서', '재밌음', '실망하지말기', '그런건', '어려워', '대단하긴', '나쁘잖아요', '힘들어요', '앙한다', '길고', '낮았을', '꾸준하게만', '좌하면서', '세련되긴', '아녀', '필요합니다', '좋은', '엄청납니다', '있을수도', '속상해요', '재밌게', '높나요', '어려운', '괜찮아졌어요', '심쿵한', '싫다', '안타까', '더할', '높은데요', '좋다', '계실테니까', '섹시하게', '번한거랑', '잔망스러울', '좋았잖아', '원했던거', '없으니깐', '힘들어', '성장했고', '신나는데', '먼세까지는', '계신데도', '있냐며', '시리이기', '아니어도', '그랬잖아여', '뿌듯하구만', '아니어', '실망하는', '좋음', '들뜨네요', '그러네요', '친절히', '아쉬워라', '따끔하게', '장난없으면', '괜찮은데', '사랑스럽다', '자랑스럽다고', '있을텐데', '있었을', '빨라요', '있는데요', '익숙한', '좋겠죠', '힘들꺼예요', '자랑스럽구', '있었겠죠', '편하니까', '당했어요', '가능하면', '자랑스럽구나', '행복하다', '빠르게', '더라구요', '안남았어요', '가능하다', '그러세요', '있는대로', '미쳐계세요', '억울하다고', '마라의', '같이하는데', '높다', '당연하니까', '쎄고', '인하구', '속상하실까봐', '같이가요', '있는거였자', '있기는', '저렴하게', '조급해', '안되네', '힘드니까', '친하게', '그래요', '필요할것으로', '좋구만', '없네요', '있는거니까', '가능하다구요', '곧있으면', '한심해', '신나서', '볼록해져', '중요하구요', '힘나는듯', '미치겠어', '아슬하게', '사랑스러운', '원했는데', '하찮은데', '미다', '어이없는데', '아니겠지', '영원한', '못지않은', '많으셨습니다', '중요하답니당', '그렇다고요', '동일한', '있었단다', '탄탄했던거', '신남', '속상한', '허탈하다', '시끄러운', '좋아함', '뿌듯합니다', '불안하고', '정신차린', '어렵다고', '익숙해서', '멋졌어', '당하네', '솔직하게', '그랬나', '슬프잖아요', '자랑스러웠던', '원망하고', '낮던데요', '자랑스럽고', '있다는것을', '야무지게', '많던데', '같은것도', '어색하게', '없거든', '부족하고', '좋아해', '아닌거', '고픈', '싫으시면', '애매하긴한데', '신나네', '없었으면', '조아여', '미치겠습니다', '잔잔하니', '고마워요', '있잖아잘', '귀여워', '실망할', '반가워용', '정신차리자', '완벽해', '같거든요', '없는거예요', '어떠신', '짜증나서', '귀엽더라구요', '행복할', '괜찮았다고요', '찡하고', '미안한', '가능해요', '미안했네', '미쳤네', '괜찮나요', '없다니까', '힘든', '어이없지만', '미쳤네요', '있겠다', '아쉽게', '속상하지만', '무식하게', '즐거웠던', '부족하', '깊은', '기대해', '그러는지', '힘겨운', '심해서', '어떡해야하죠', '필요없지', '재밌네', '아깝', '있구나엔', '중요하니까', '특이한게', '그런거고', '좋을테지만', '그러는거예요', '있네요', '미치', '편해질', '있대', '같고요', '멋짐', '아쉽다아', '쎔은', '정신차려요', '노래람', '쎄한', '바쁘구', '있으십니다', '있는거지', '힘나고', '망할', '헷갈리시면', '좋겠는데에', '던거', '없다는게', '멋지셔요', '있는듯', '미치고', '좋을줄', '번하는', '소중하잖아요', '아니었어', '괜찮아요', '짜릿했던', '우울하네', '엄청나게', '아니라니', '성공했어', '행복해져요', '젊을', '싫테', '부족한데', '행복하길', '힘드신', '좋지만', '조용하고', '짜릿했', '너무한거', '좋아해야', '투명함', '쿠리', '멋진', '높았음', '있어어', '이렇게라도', '미치도록', '그랬고', '미치겟다', '대단한거예요', '잘생겼더라', '멋있음', '억울해', '스럽고요', '좋아했다', '쎄게', '편해요', '많아여', '좋아하던', '성공하십시오', '연연하지', '신기함', '신선해', '딱임', '안되겠어요', '미안하더라고요', '적응해서', '아쉬워하게', '높다고', '중요하기', '좋겠단', '위험하네요', '예쁜말', '기대한다', '귀여운데', '아니라면서', '특별히', '급합니다', '미쳤어', '미쳤다고', '쎄진다구', '조켔어서', '중요한건', '찌질한거', '가능할지도', '높겠죠', '야합니당', '진하게', '철저히', '우수할', '스럽네', '상관없다고', '당할수록', '없었어요', '확실하게', '부족하니까', '좋을수가', '많아서', '행복하시다면', '좋아했는데', '아까우니까', '간절해하는데', '미친듯', '아니시고요', '잘생김', '미친거아니예요', '그렇더라', '고맙습니다', '찡했고', '아니란', '간절한거', '있고오우리', '계시는게', '안될', '싫어요', '은은하게', '좋으네요', '중요하고', '뿌듯하지', '뿌듯하고', '같어서요', '속상하게', '많구나', '없도록', '영원하자', '좋아용', '아쉽네요', '야한다구요', '많더라구요', '부족했는데', '시원해서', '멋져요', '노래였나', '좋겟져', '시끄럽지', '미칠', '특이한데', '비슷한', '필요없을것', '높다는거에', '이렇지', '있던데', '그러셨잖아요', '상쾌한', '급하지', '좋길래', '많이하고', '꾸준하게도', '격렬하게', '불안하네요', '간절한게', '비슷한데', '대견해', '예쁘다', '계셔', '어떠냐', '어땠는지', '그리워서', '많아요', '냉정해져라', '연연해야', '부탁드려여', '아쉬워요', '아니니까', '가능할까', '있으시구', '있잖', '미에서', '당연히', '귀찮아서', '야해요', '안쓰럽잖아', '신난다', '진지하게', '아슬아슬할', '피곤하지', '낮은데', '행복해요', '신기한', '미쳤어진', '성공합니다', '많은걸', '안된거', '뻔한', '중요합니다', '차분하게', '그렇단다', '멋지고', '잘생긴게', '건전한데', '당연하신', '넘칩니다', '미안하고', '정직하게', '높네', '너무하잖아요', '심하지', '아쉽다고', '다르게', '상관없나요', '찰져', '있거든요', '안되다가', '미칠거', '고마워용', '가능해서', '성실한', '성공한거', '짜증나네여', '높을', '행복했어요', '있을지는', '있던거', '미안해하는', '중요하다고요', '성공한', '미쳤다', '좋아여', '없으시면', '묵묵히', '성공할', '같아선', '즐겁다', '불편하실수도', '소중하고', '미친듯이', '유리해요', '아파요', '떳떳하게', '건강한', '계시는거', '좋습니다', '예쁘', '있어서요', '정신차리셈', '낮아도', '없다니', '야한다구', '없던거', '다른거', '만족하지', '슬프다고', '안되는게', '같고', '뿌듯하다', '시급하다', '안녕히주', '없다아', '계시는거에요', '이럴까', '짜릿하네요', '기쁘다아', '귀찮고', '아슬아슬하게', '만족할수', '사납잖아', '궁금합니다', '좋으시다면', '뿌듯했던', '아픈거', '좀하셈', '방심하지', '짜릿하죠', '좋아라', '자랑스러워서', '중요하다고', '이상하다', '조자', '멋있으신', '다른데도', '속상하다', '피곤해서', '슬픈', '있는지', '기특해서', '불안하다고', '울적했는데', '아프지만', '망했다는', '실망하고', '당하는거', '야함', '안되겠다', '귀찮다고', '좋아해여', '알차', '멀어', '그리워요', '낮아서', '독한안', '부끄러운', '빡치는게', '계신거죠', '변할', '안되어서', '짜릿하구나', '미쳐', '있더라구요', '안될거라', '많았어', '엄청날줄은', '부탁드릴께여', '많은거로', '필요하고', '훈훈해지는', '좋아했던', '소심하냐면', '심각해', '많은듯', '속상한지', '찌질해', '아니냐', '번해야죠', '귀엽', '성공했네', '친절한', '중요한', '환장하잖아', '높은', '좌하셔요', '당연한거', '뿌듯하네', '심하다', '편하길', '슬프다', '있을께요', '각박한', '편해서', '원해요', '조아서', '있으세요', '같잖어', '있으므로', '많았서', '부럽다', '만족하지말자', '짧지', '구린', '안타까워서', '재미없', '미친거아니야', '많네요', '세련됨', '귀여운', '재밌고', '입니다엔', '대단하세요', '진지해', '들쭉날쭉하는', '아까워진', '정확한', '성장한거야', '있으', '자리는', '좋나', '멋있는', '대단하신', '시끄럽', '자랑스런우리', '음침하게', '중요한게', '있어용', '딱이다', '가능하고요', '어렵지', '안되는건', '힘들던', '즐거웠', '아팠어요', '낮으면', '멋있다', '다양하고', '강하네요', '불안한', '행복해라', '완벽한', '있겠어요', '없었던', '불안해요', '없으셨으면', '높아도', '계실까봐', '예쁜', '딱이네', '있다는게', '이래놓곤', '그만하는', '없다는', '짜릿한', '성장해', '재밌네여', '필요없다', '부담스럽더라구요', '없겠죠', '유일한', '안됨', '같으니깐', '짜증나고', '가능합니다', '아찔하고', '야하죠', '그러는', '괜찮으시다면', '고마워해', '많으니까', '이렇게만', '고마운', '그런대', '부러워서', '싫더라구요', '많구요', '부족하답니다', '당하면서', '아프고', '그만할', '재밌는거였냐', '불안해', '환장함', '고픔', '있어줘', '있도록', '같았으면', '자연스러워졌다', '미안하냐', '아니네요', '찰지네', '멋지신', '만족하지도', '탁월한', '더한', '안된다고요', '그렇잖아요', '신기해요', '좋으니까', '없나여', '희의', '스러', '미치겠음', '딱이겠다', '미치겟', '많았을텐데', '부탁드려', '가능합니다용', '많았고', '다름이', '필요해여', '충분히', '연연합시다', '갑작스럽게', '높게', '속상할까', '반가워', '스러워요', '귀엽당', '많으셨구', '없었구', '원하셨던', '같이해', '야할거아니야', '부족해요', '왠만한', '처참하네요', '기대한답니다', '속상하시잖아요', '부들부들하면서', '없으신', '좋아하고', '심각하잖아요', '충분하고', '아닙', '귀엽다', '놀랬어요', '강하고', '대단해진', '인하면서', '좋아한', '많았당', '성장하는게', '있다구요', '그럴수록', '가능해', '없었다는것을', '적당히', '궁금한', '좋겠는데', '슬프게', '이뿌지', '안되는거가요', '신나네요', '심각해요', '성공하자', '부족하다고', '중요함다', '변함', '꾸준하게', '나쁜', '아쉽지만', '망해요', '좋아하셨던', '기대하게', '이럴수록', '희야아아아', '흥겹고', '뿐이냐고', '싫은데', '꾸준히', '독한', '값질까', '많다', '안되니깐', '행복하네요', '그랬어여', '이쁜', '망하니', '쿨한', '짜증나기', '귀엽네요', '훈훈한', '신기하고', '있을까', '똑똑히', '야하니', '많으니', '아팠잖아', '마를', '중요합니다아', '확실해', '자세한건', '있을꺼예요', '간절해요', '좋겠다아', '가능함', '미쳤다진', '착한', '죄송하지만', '힘들만', '좋아하고있겠지', '좋구요', '슬플꺼', '미쳐서', '중요한가', '싫으면', '쎈데', '안되서', '계신거', '중요하구', '정신차려', '세련되고', '간절해야하다니', '다름없음', '있을게요', '소용없음', '좋아하는지', '좋아하시는', '인하길', '부었는데', '같던데', '방심하는건', '역시네요', '계십니다', '청량한', '먼세에', '있다가는', '놀래라', '편하고', '속상하겠지만', '중요한거', '있어서는', '값진', '씁쓸하게', '그렇잖아', '대단하시고', '가볍게', '행복하겠죠', '넘쳐', '설레', '궁금해서', '억울해서', '안좋으면', '같네여', '대단한거', '많은데에', '없었다', '슬퍼', '계셔요', '궁금해지네', '신선하고', '좋겠어용', '좋아하잖아요', '가능할', '좋으면', '험악해졌어', '좋을게', '계신가여', '든든했으면', '같은데에는', '좋아하면서', '좋았', '잘생겼어요', '많으셔서', '배부름', '명확하지가', '멋있어', '고마워하고', '신난', '같습니다', '높다니', '역지', '거지같은', '가능할거', '낭비하다니', '미안하다', '잘생겼는데', '좋다이건', '난해하고', '많으니깐', '미쳤고요', '원하시는', '바빠서', '없이도', '같아서요', '야할지', '굉장히', '괜찮네', '아쉬워하는', '단단히', '넘친다고', '죄송합니다', '있을게', '슬프고', '좋았잖아요', '대단한거지', '뜨거운', '계시겠지만', '다른데가서', '부탁드리고', '그랬듯이', '궁금해', '신나게', '더해', '좋나요', '미친다', '짜릿하다', '팔팔하네요', '어렵겠지만', '나빴어', '있느라', '속상하고', '좋더라', '아니었네', '벅차오르겠다', '좋다는', '아까', '고맙구', '심각한', '아니라고', '불완전해', '멋지다', '잘생겼다', '없재', '힘나요', '확실한', '기특해', '있죠', '망하면', '발칙하게', '인하게', '저렴합니다', '가능하신', '많습니다', '투명하니까', '많으실꺼예요', '머냐', '망해용', '없는거', '부탁드릴께요', '초조해', '같을것이다', '대단하다', '중요하', '좋아합니다', '힘드시지만', '입니답', '스러웠는데', '연연해라', '당당해지는', '완전히', '이상하다고', '가능해여', '성장해가는', '고맙고', '당연하죠', '기대하고있는데', '많았다', '바쁘고', '많을거', '이런게', '기쁘게', '실망하지말구', '좋거든요', '좋겠지만', '있을까요', '이쁜말', '괜찮아', '신나는', '중요하다고하니까', '아닌듯', '그러다간', '꾸준하', '있을거', '멋졌습니다', '매운', '신나는만큼', '좋아해야하나', '급해주세요', '세련되서', '상관없으니까', '야할거', '억울하고', '없게', '뿌듯하네요', '안되려면', '행복해지고', '얼얼한', '계시겠져', '중요합니당', '같아용', '많았지만', '안될수도', '자세하게', '멋졌어요', '높게요', '벅차져서', '착하는것', '조심스러운', '야한다고', '있기', '망해', '부운', '난해함', '구릴수가', '짜릿해', '그러고', '행복한', '좋았음', '더하다', '어느샌가', '즐거웠고', '있었거든요', '기쁘고', '귀찮으시다구요', '같은데도', '심한것', '하얗게', '아니냐고요', '벅차고', '없는거잖아요', '아쉽다', '그렇담', '섹시해', '없기를', '부끄럽다', '있어여', '힘들다', '힘드네', '독특하고', '기대할게', '짱짱한', '쓸데없는거', '멀말말', '가득하기를', '많았던', '억울하잖아요', '바쁠것', '있구요', '뛰어나서', '안될꺼라고', '계시기', '미쳐있는', '아닌지', '부우우우', '없잖아요'}</t>
+          <t>['그리워서', '야합니다', '그리워서', '야합니다', '그리워서', '야합니다', '따끈따끈한', '신선하게', '잔잔하게', '짜릿짜릿해서', '멀쩡한', '있죠', '좋네요', '신나는', '경건하게', '확실한', '뒤늦게', '좋은', '새로운', '아니었을까', '좋아요', '좋은', '있으면서도', '자연스럽고', '그리워', '재밌음', '영원한', '좋다', '조아서', '부내나는', '있단', '던거', '던거', '좋네요', '좋아할', '상쾌해', '신기함', '이렇지', '잔잔한', '노래였던', '시끄러운', '간절히', '미칠', '서러워서', '짜증나서', '미칠것', '좋겠어', '미침', '없더라', '부족해졌다', '좋음', '성공했', '심심해서', '좋아요', '시끄러운', '이상하다고', '시원해서', '완벽함', '길었으니까', '좋아해', '좋다', '미쳐', '좋긴', '연히', '좋아용', '좋다는', '시끄러운', '좋아요', '놀래서', '이렇게만', '신기한', '좋은', '완벽한', '귀여운', '아니냐', '빠르다', '고맙습니다', '그런건', '유용했습니다', '아니네요', '어떡하죠', '좋다', '좋아하더라구요', '좋네', '좋은', '좋음', '기쁜', '힘들게', '칠하고', '성장해', '뿌듯한', '고마워', '성장해서', '행복했던', '좋다', '없었다', '좋음', '상쾌한', '좋은', '좋네', '없으니까', '아쉬운데', '좋다', '아쉬워', '확실해', '어렵고', '힘들어', '대단합니다', '미침', '좋다', '야함', '같은거', '자랑스럽', '설렌다', '대단한', '좋다는', '충분하다', '미친', '충분하다', '미친', '부탁드릴께여', '좋아요', '미쳤다', '미친', '고픔', '미쳤다', '좋아요', '장하다', '좋음', '좋겠어여', '즐겁게', '있겠다', '자랑스럽다고', '소중하고', '있더라', '있어용', '미쳤음', '미친다', '좋음', '좋아요', '좋아하네', '미치겠네', '뒤늦게', '좋음', '좋아요', '흥겹고', '좋음', '있다고', '없다는게', '아쉬운', '있을거에요', '미쳐', '소심하냐면', '나쁘실까봐', '잔잔하고', '부족할', '안남았네', '안남았던데', '원하는', '이상하다고', '고맙다고', '좋아하는', '좋아하는', '좋다', '아니어도', '미치겠네', '고마워요', '당연히', '뒤늦게', '좋아요', '멋있게', '신나는데', '부탁드려', '그러시길래', '아슬하게', '가능할지도', '좋아했다', '신기하다', '가능할', '좋아서', '바쁠것', '신나서', '좋은', '괜찮네', '신선하고', '좋고', '좋아서', '있을까', '멋있어', '맛깔나는', '충분히', '아쉽다', '좋겠다', '부우우우', '부우우우', '아프로', '야함', '시급하다', '미쳤다', '쎄다', '좋아요', '무섭다', '좋겠다', '좋음', '적당히', '좋긴', '좋고', '미친', '짜릿해', '희의', '미쳤네', '수많은', '좋다', '꾸준히', '좋고', '미쳤냐고', '미치', '좋은', '싫어요', '가상하다', '짜릿함', '좋겠고', '좋아서', '좋네요', '좋아하는데', '자연스러워졌다', '유연해졌네', '익숙해서', '뒤늦게', '아니라는', '없었던', '좋아요', '많다', '재밌다', '좋아요', '좋겠다', '잔잔한', '있을까요', '좋다', '미치겠다', '미친', '먼세', '어느샌가', '좋당', '같으니라고', '좋겠다', '착한', '어이없지만', '좋다', '미친듯이', '좋네요', '장하다', '사악하다', '장하다', '미친', '좋아요', '멋있고', '좋은데', '재밌음', '새롭다', '가득한', '멋있어', '싫어요', '싫어요', '귀찮니', '스러웠는데', '좋음', '좋은', '미친', '미쳤다', '같은거', '궁금해지네', '좋음', '좋더라', '자랑스럽다', '좋아요', '있네용', '신나', '뒤늦게', '슬플', '좋다', '좋은', '좋다', '좋겠다', '아니어도', '강함', '좋음', '잘생겼어요', '잘생겼어요', '신나네', '넘친다', '좋다', '신나서', '미칠', '성공해라', '좋다', '좋다', '미쳤어진', '좋아서', '미쳐서', '그만하고', '좋겠어요', '좋겠다', '좋음', '좋아요', '예쁨', '좋아서', '좋으면', '시리이기', '높다', '슬퍼', '재밌게', '반가워용', '예쁘게', '다양한', '세련되긴', '좋다는', '궁금해', '다르게', '뚜렷해서', '좋음', '좋으니까', '좋아요', '재밌다', '자랑스럽다', '자랑스럽다', '자랑스럽다', '같네요', '뿌듯하다', '아쉽다', '좋아서', '미쳐', '자랑스러워', '좋아요', '은은하게', '좋아서', '미치겠다', '뛰어나서', '많은듯', '좋다', '열광하고', '야함', '강한', '기특하다', '좋은데', '좋았음', '좋다', '높은거', '신기하당', '이런게', '높아', '쎔은', '높다는거에', '궁금하다', '그러는지', '높은', '기대하는', '그랬어요', '궁금해서', '좋다고', '많은거야', '좋아해야하나', '좋을까', '좋지만', '강하고', '좋은데', '기대하면', '장하다', '아녀', '대단하다', '행복해', '미칠', '있는듯', '좋다', '성장해서', '좋네요', '기대할게요', '있더라구요', '못지않은', '있으니까', '쓰리가', '높다니', '높네', '야할지', '야할지', '높네요', '높아', '좋아해야', '느려졌다가', '빨라졌다가', '신나서', '미쳤나', '좋다', '좋다', '좋아하시는', '좋으실', '많은걸', '좋아해야', '좋긴', '좋긴', '좋네', '영원한', '궁금해서라도', '스러웠는데', '사랑스러운', '자랑스럽구나', '꾸준히', '새로운', '좋겠다', '미쳤다', '신나는데', '행복하군', '미친', '좋아서', '기특해', '이쁜말', '맛깔나게', '신난다길', '없지만', '심심해졌다', '새로운', '좋고', '좋은', '좋아하셨던', '좋네', '좋은데', '굉장히', '부담스럽더라구요', '미침', '새롭게', '부수는거죠', '자리는', '미쳤다', '자랑스럽구나', '조졌죠', '미쳤다', '좋다', '좋네요', '슬프고', '미안하다', '행복하세요', '심심해졌다', '기대할게', '행복한데요', '행복하려고', '괜찮아요', '좋더라도', '따뜻하고', '좋은', '힘들어도', '야해요', '속상해서', '낮으면', '아깝잖아요', '좋아야지', '아쉽잖아요', '안됩니다', '낮으면', '뻔해요', '좋잖아요', '재밌네', '재밌다', '좋네요', '있죠', '가능할까', '같아서요', '예쁜', '미쳤음', '바빠서', '대단한거에요', '안남았으니까', '미친', '아니냐며', '많았어요', '좋은', '많아요', '멋져', '많으셨어용', '대단해', '멋져', '미쳐', '있다는', '미쳐', '기대해도', '좋다', '있으시다면', '부탁드릴게요', '인하길', '좋아하고', '있어용', '자랑스러워', '멋져', '고마워요', '비싸다', '스러워요', '어때요', '미쳤다', '아니냐며', '멋있어', '있어용', '멋있는', '진정한', '좋아요', '안쓰럽', '넘쳐', '멋있어', '좋겠당', '이상한', '잘맞았다니', '멋지다', '있다는', '같아용', '멋있다', '멋있어', '멋있는데', '인합시다', '다르니', '귀찮으신', '안되니까', '인하는', '높을수록', '좋구요', '그래요', '힘들겠지만', '많습니다', '있도록', '멋있겠지만', '좋은', '미쳐', '잘생겼어', '잘생겼어', '기대한답니다', '연연합시다', '좋은', '야해요', '인하길', '대단하세요', '자랑스럽다', '같네용', '노래였', '좋은데', '좋아요', '싫어요', '그러디', '새로운', '자랑스럽다', '먼세', '좋음', '기대한다', '대단한', '없나요', '편해서', '미쳤다', '있는것도', '좋아하면서', '신기해요', '맛있게', '대견하고', '좋네요', '심심하게', '있어용', '좋네요', '난해한', '좋은', '없었다', '아니었으면', '대견하다', '난잡한노', '그런건', '아니구요', '안녕히', '계신가요', '같네', '괜찮을까요', '좋을', '있지만', '행복합니다', '미치겠다', '귀찮을텐데', '친절히', '있다고', '좋은', '야해요', '안됩니다', '좋은', '있으므로', '안된거', '좋다', '험악하겠지만', '좋아요', '속상해', '좋아서', '있다는게', '행복하다', '충분히', '있는건', '좋다', '투명하니까', '그만하고', '그러는데', '강한', '당연히', '궁금해서', '꾸준히', '좋다', '충분히', '좋다', '좋겠다', '고마워요', '있는것', '행복합니당', '좋아요', '나란히', '인하구', '있어야죠', '매운', '좋은', '미친', '나쁜', '있니', '좋아서', '좋네요', '좋다', '좋고', '좋음', '아파도', '괜찮아', '아파도', '괜찮', '급하거든요', '없지만', '힘드시지만', '당하는', '안됩니다', '좋겠네요', '안녕히', '야해요', '장하다', '아까', '야합니다', '빡쳐도', '있다는', '가능하', '각박한', '빡쳐서', '야합니다', '미쳤다리', '미쳤다', '자랑스러워요', '대단해요', '많을테니', '있다는', '있다는', '든든하고', '장하다', '많으셨구', '좋은', '뿌듯합니다', '그러는지', '있는거지', '좋아하는', '꾸준히', '좋아함', '야함', '미침', '힘들어', '대단한', '대단한', '부족하', '괜찮아요', '좋네', '좋겠어요', '멋있더라', '없으셨으면', '좋겠네요', '계셔셔', '아픈거', '있을꺼예요', '다행하게도', '가능하리라', '괜찮으니', '가능하', '힘들어요', '부족하다', '있을꺼', '방심하시면', '없으신', '좋네요', '대단한', '많으셨어', '좋은', '좋은', '아름다워요', '아프게', '어떨까', '계시는거에요', '기특하게', '기특하게', '있었던거', '멋져요', '귀여운', '위험해요', '꾸준히', '많네요', '좋노', '높겠죠', '기쁘고', '좋은', '미쳤다', '많잖아요', '많더라구요', '슬퍼하지말기', '좋아요', '좋은', '많으신', '좋은', '불안하네요', '계셔요', '안됩니다', '가능해요', '신나는', '좋아서', '필요없고', '있다는', '있다는', '좋은', '좋아요', '좋다', '좌하시면서', '사랑스러운', '중요하지만', '착하는것', '대단해', '사랑스러운', '있는거니까', '낙담하지말고', '좌하시면서', '좋겠어요', '야해서', '멋져요', '아름다운거였다니', '아름다워요', '계셔요', '무리하지', '좋겠어요', '예뻐요', '좋던지', '있는거예요', '좋겠네요', '있다는', '있다는', '있는거예요', '좋겠네요', '있다는', '있다는', '먼가', '고마워우리', '고마워하고', '수많은', '있었지만', '자랑스러워', '스러워요', '고마워용', '먼가', '고마워우리', '고마워하고', '수많은', '있었지만', '자랑스러워', '스러워요', '고마워용', '짜증나서', '좌하면서', '계시는거예요', '없었습니다', '아슬아슬하게', '좋은데', '안남았는데', '안되죠', '깔끔하게', '깔끔하게', '좌하시면서', '인하면서', '야해요', '계셔요', '싫어요', '꾸준히', '싫어요', '귀찮을', '부지런하시네', '한심한', '그럴', '좋은', '좋을듯', '번하는', '좋아요', '좋아서', '꾸준히', '행복하게', '상관없이', '가능함', '좋지', '좋아요', '좋아요', '좋아요', '안됩니다', '계시군요', '귀엽니', '좋아서', '예뻐라', '뿌듯합니다', '예뻐서', '아름다운', '있을것', '사랑스러운', '좋아요', '잘생겨서', '사랑스러운', '재밌네여', '많은거', '있었지만', '대단한', '좋습니다', '예뻐서', '신남', '가능해요', '좋아해서', '귀여우시고', '좋은', '좋겠네요', '계시는', '좋겠어요', '좋잖아요', '심하시지', '있지는', '계셨는데', '있었고요', '힘들었다고', '슬픈', '심하시지', '좋은', '꾸준히', '격렬하게', '멋있어요', '많아서', '나쁜', '야하죠오', '계시는', '야해요', '노래더군', '좋다', '있다고', '그랬어요', '정확할것', '싫어하는데', '좋다', '아파요', '좋아요', '가능해요', '좋아요', '좋아요', '예쁜', '있다는', '있다는', '있다는', '그러는거예요', '싫어요', '있다는것을', '있다는', '있다는', '편해요', '싫어요', '같습니다', '많지', '가능해요', '말랐다', '섹시해질', '안되네', '있다는', '있다는', '행복한', '있을것', '같네요', '가능해요', '좋아서', '귀엽네요', '중요해요', '꾸준히', '있어용', '있다는', '있다는', '신나게', '가능해요', '인했았는데', '계셨던', '기쁘게', '계시구요', '있다는', '있다는', '안됩니다', '가능해요', '인해용', '어려운거', '가능해요', '난잡하게', '좋아요', '없지만', '좋아해요', '가능해요', '있다는', '있다는', '슬프다', '많으신', '가능해요', '잘생기셨습니다', '아니시군요', '가능해요', '특이한데', '좋네요', '좋아서', '가능해요', '미친', '이럴듯', '기대하고', '아닐수가', '계셔요', '대단한', '가능해요', '좋겠어요', '야해요', '많아서', '딱딱하게', '많으실꺼예요', '좋을꺼예요', '야해요', '좋은데', '야해요', '성장해가고', '있으니까', '좋을꺼예요', '야해요', '좋은데', '야해요', '성장해가고', '있으니까', '높았음', '좋겠다', '슬퍼요', '안됩니다', '많아요', '불안하네용', '없지만', '있을까요', '기대하고', '멀었다', '많은거', '좋겠습니다', '가능해요', '많으니까', '방심하면', '좋겠어요', '야해요', '있을꺼예요', '좋겠다', '없다니', '가능해요', '기특하게', '있고오우리', '아프지', '계시는', '계셔요', '같고요', '슬프지만', '있으세요', '많던데', '좋은', '비슷한데', '좋네요', '기대해도', '좋을거', '같으니까', '안되면', '괜찮아졌어요', '아프죠', '같아선', '있다는', '있다는게', '가능해요', '속상하셨겠네요', '같은데에는', '좋을실것', '있지만', '가능해요', '계시는', '있는거예요', '궁금하시면', '좋다', '좋음', '중요하지만', '중요해요', '좋길래', '많은거', '같고', '있는건', '편해요', '좋냐', '귀여운', '계시겠죠', '힘찬', '미치겠음', '미치겠어요', '좋나요', '미치겠어요', '계시는', '계셔요', '계시는', '있는거예요', '궁금해서', '좋겠단', '있는거예요', '그랬어여', '계실꺼고요', '좋았잖아요', '있으시잖아요', '어떠냐', '있었겠죠', '좋으면', '좋겠는데에', '어떡하려', '있다는걸', '싫다', '있겠죠', '있다아아', '예쁜', '많아서', '그럴', '좋고', '싫어하던', '이상해야', '중요해', '그럴', '좋아하지를', '그랬다', '그랬어요', '낙담하지말아요', '자랑스러운', '아파요', '어떡해요', '속상해요', '좋겠다', '있다는걸', '있다고', '있다는', '그래요', '아니시고요', '싫거든요', '중요하지만', '강렬한', '어이없는데', '어이없음', '뻔한', '안됩니다', '좋은데', '어떨까', '철저히', '좋겠다', '이래야해', '아니었어요', '안될꺼라고', '기뻐서', '좋았잖아', '안되는거', '없는거죠', '없죠', '망해', '분명히', '원하는게', '아닐텐데', '정신차리고', '좋네요', '싫어요', '꾸준히', '쉬워요', '나쁜', '계시는건', '그만하고', '좋아하는', '쉬운', '좋아요', '중요한', '좋은지', '친절한', '있죠', '불안해요', '어렵지', '계신거', '많았잖아요', '있지요', '있다는거', '있다는거', '필요없어요', '야해요', '있도록', '예쁘다고', '심쿵한다는', '없다는', '어렵지', '야하죠', '있어용', '아녀', '중요한', '높게요', '좋게', '미쳤습니까', '그만하고', '세련되서', '좋다', '있으니까', '가득한데', '그러는데', '그러셨잖아요', '당연히', '아니냐', '다른거', '힘들겠지만', '유용한', '있다구요', '멋있다', '좋겠네요', '행복한', '차분하게', '힘들꺼예요', '계시겠져', '심해서', '시급해요', '좋아요', '부탁드립니당', '간절해야하다니', '미쳐', '좋아합니다', '있지만', '나란히', '뿌듯함에', '좋아서', '좋더라고요', '조하', '짜릿한지', '좋아요', '심하지만', '중요한', '중요해요', '심각해', '심각한데', '그만하고', '안되어요', '그러지말고울', '중요한', '중요해요', '심각해', '심각한데', '그만하고', '안되어요', '그러지말고울', '좋았잖아요', '높으면', '있을수도', '아닙', '강했어요', '계신거죠', '좋은데', '솔직하게', '높은', '계시는게', '당연하신', '어떨까', '정신차리고', '야할거아니야', '중요하게', '조심스러워서', '이쁘다고', '그랬잖아여', '뿌듯해하잖아요', '있다고여', '위험해', '인했으니', '당하겠다고요', '있으니까', '안됩니다', '싫어요', '그래요', '당당히', '너무해요', '있죠', '다른데도', '있다아아', '쎄한', '입니다여', '신나', '있지요', '좋아요', '같아시', '좋은', '휩쓸게', '마를', '좋을거', '미쳤다', '고통스러운', '아니어여', '행복했잖아요', '중요하지만', '확실한건', '어떡해요', '이상한', '많았고', '많았지만', '쉬워요', '좋겠네요', '많았고', '많으셨', '아쉽더라도', '즐거웠', '좋겠네요', '깔끔하게', '수월하니까', '아깝잖아요', '같다하니까', '부탁드려용', '잘생겼는데', '있아야해', '처참하네요', '부끄럽다', '행복했어요', '아니니까', '야함다', '부족한거', '아니까', '속상해', '미치겠네', '그러네요', '없죠', '어렵겠지만', '대단한', '많았어요', '좋네요', '그만해요', '많네요', '답답해서', '구릴수가', '만족하면', '고맙다는', '좋겠어요', '사랑스럽다', '짜릿해', '좋아서', '다양하고', '아쉽지만', '뿌듯하구만', '번거롭더라도', '좋지만', '예쁘십니까', '계시나요', '좋은', '조아여', '재밌고', '싫어요', '즐거웠고', '미안하고', '아프네요', '안되는거', '속상하지만', '불안해요', '미친고', '짜릿해', '있지요', '좋겠어요', '안되야', '낮아요', '변함', '변함', '변함', '좋아요', '중요해요', '미안하고', '속상하네요', '없다면', '높은', '낮아요', '높고', '있었네요', '중요한데', '있는거에요', '힘들게', '작아요', '있는건', '많았어요', '만족하는', '아니네요', '만족하는거', '어떡하죠', '없는거라고', '없게', '부족하잖아요', '만족하는', '속상하다', '낮아요', '다른거', '있었다', '다른데', '귀여워', '억울해서', '좋다라고', '희야아아아', '싫어요', '찌질해', '만족할수', '있으니까', '자랑스러운', '중요해요', '간단하는데', '중요하지만', '중요해요', '좋은', '좋겠네요', '안되여', '중요한게', '야해요', '있다고', '좋아하는', '행복하게', '행복해', '행복하고', '행복하고', '행복해', '좋아라', '야합니다', '높은데', '충분히', '있다는', '높은', '있으니까', '싫어요', '아니니까', '피곤하게', '그래요', '그랬나', '좋은', '아닌거', '기뻐하는거', '행복하네요', '많았어요', '미쳤나', '행복했고', '찡했고', '벅찼던', '좋다', '예쁘다', '부담스러운', '좋다고', '힘나네요', '예뻐', '힘나게', '좋은', '행복하시다면', '부탁드려용', '신나', '좋고', '좋아서', '있으니까', '장하다', '장하다', '많았어요', '기대해도', '묵묵히', '고마워요', '예쁘', '심쿵한', '좋은', '정신차리자', '많으셨어요', '많으셨습니다', '많으셨습니다', '많으셨어요', '휩쓸어야죠', '많았어요', '좋겠어요', '소중하잖아요', '같은것도', '아니니까', '좋은', '신기하고', '예뻐', '좋아서', '이쁘다고', '신기하고', '예뻐', '예뻐', '이렇게나', '좋아하는데', '미안했네', '예뻐', '이쁘게', '있도록', '좋으면', '많아서', '많아요', '신나는만큼', '행복한', '기뻐서', '같이해', '짜릿했던', '짜릿함', '야해요', '좋은', '애매합니당', '신나서', '짜증나기', '뿌듯할', '느려져요', '슬프네요', '안되구요', '많아서', '슬프네요', '많았어요', '중요합니다', '미치겠다', '짜릿해', '만족하는', '행복한', '가득하기를', '많았당', '없어여', '만족하는', '없죠', '힘들었을텐데', '고마워요', '그만하는', '너무했', '많았어요', '짜릿해', '행복해', '많았어요', '많았어요', '행복하게', '많았어', '있는듯', '아프고', '미치겠습니다', '많았어요', '행복해서', '행복하다', '고마워요', '많앗어용', '많았어요', '좋다', '좋겠어', '많으셨어요', '행복해서', '미친거', '아니냐', '있죠', '미쳤다', '불안해', '미치겠다', '기대하고', '불안해요', '아프게', '좋으시다면', '미쳤나요', '없는거예요', '있을까요', '중요한', '바쁜거', '좋아하면다에요', '좋아하면', '기쁘게', '안되어요', '있다고', '그만해요', '게을러터짐', '불안한', '높게', '없겠죠', '미치겠다', '중요해', '야해요', '충분히', '있으니까', '두렵다', '중요해', '죄송해요', '중요해요', '높아요', '높아', '이쁜', '난해한', '좋다', '넘친다고', '좋은', '기대합시다', '계신가여', '좋아한다구', '속상해서', '미치겠어요', '중요해요', '중요합니다', '급해요', '속상하잖아요', '성할', '좋은', '싫더라구요', '미친', '좋겠네요', '중요해요', '좋아요', '야해요', '미치게', '솔직하게', '속상해', '아쉽고', '속상하고', '그럴', '싫은', '당연한거구요', '중요한게', '소용없어요', '중요한', '많아서', '위험함', '많으십니다', '계시겠지만', '좋아야', '낮아요', '귀찮으면', '많을텐데', '간절하게', '힘들다고', '좋지만', '가능해요', '높다고', '중요해', '중요해', '미안해서', '어떡하죠', '정신차려', '간절한', '없죠', '낮은데', '없죠', '쉬운', '계셔요', '좋으면', '좋을', '낮아요', '낮아요', '중요하다구요', '낮아요', '중요합니다', '고마워요', '소중해요', '중요하니', '중요해요', '낮아요', '중요하다구요', '낮아요', '중요합니다', '고마워요', '소중해요', '중요하니', '중요해요', '무섭네요', '있어용', '있을까요', '중요합니다', '낮아요', '있죠', '너무하잖아요', '아니란', '중요해요', '좋아요', '중요해요', '있잖아잘', '없습니다', '바쁘구', '힘들텐데', '좋아야', '중요해요', '좋아요', '좋겠어요', '심각하잖아요', '중요해요', '중요한거', '중요하기', '순수하게', '궁금해서', '그런대', '좋다고', '참담하다', '좋아용', '나쁘잖아요', '안좋잖아요', '아쉽', '낮아서', '불안해', '좋아요', '좋겠어요', '있긴한데', '낮고', '힘들어', '입니답', '고맙다고', '미안해서', '없나요', '속상해서', '야해요', '힘들더라도', '중요한건', '안좁혀지고', '슬프잖아요', '없게', '많이하고', '아니까', '낮아', '우수할', '좋을것', '기뻐', '있다가는', '좋았다는', '억울하잖아요', '입니다용', '어마어마한데', '어떡해요', '안되면', '어떡합니까', '야해요', '만족해야', '좋아야', '좋다', '좋겠다', '완벽한', '좋다', '좋은데', '좋은', '있지만', '낮은것', '많지만', '멋져요', '뜨거운', '마라의', '좋은', '많았습니다', '좋다', '좋겠다', '많았어용', '많았고', '고마운', '있도록', '원하는', '행복할', '없재', '좋지만', '안될거라', '어떡하죠', '힘드니', '힘들다', '괜찮은', '행복한', '좋겠지만', '행복해서', '있을거예요', '행복한', '멋있어', '심할', '야해요', '중요하니까', '부족하니까', '좋아할', '아쉽지만', '행복한', '좋게', '좋게', '낮잖아요', '안됩니다', '중요합니다', '아쉽지', '있으니까', '높지도', '중요하지만', '중요합니다', '어떡해요', '중요합니다', '낮아요', '낮으면', '어렵다고', '같아서요', '있죠', '중요하지만', '중요한건', '힘들어도', '있어용', '속상하실까봐', '속상하고', '짜증나고', '너무해요', '대단하신', '미칠', '잘생기고', '귀여워요', '미치겠어', '중요하니까', '좋을', '좋겠네요', '자랑스러운', '좋은', '고맙고', '독특하고', '신기한', '기대하게', '없겠죠', '중요해요', '중요하지', '낮아용', '안남았어요', '없겠죠', '있을까봐', '좋아용', '좋고', '있으니까', '좋은', '많았어요', '아닐거', '같아여', '없으니깐', '있지만', '행복하게', '다르게', '간절한거', '기뻐', '기뻐', '좋을', '좋겠네요', '말라', '죄송해요', '좋았잖아요', '있지만', '행복하게', '다르게', '간절한거', '기뻐', '기뻐', '좋을', '좋겠네요', '말라', '죄송해요', '좋았잖아요', '중요한데', '중요한데', '높은', '안된다고', '많더라구요', '틈틈히', '안남았으니', '정신차리세요', '있으시다면', '아니라는', '있다는', '힘들어도', '그러죠', '높다고', '불안하고', '좋습니다', '미안해서', '속상하게', '아까우니까', '같네요', '어마어마하네요', '야해요', '가능하잖아', '야하잖아요', '행복해지고', '아프다', '중요하지만', '중요하다고요', '낮아요', '높다고', '낮던데요', '높아요', '자랑스러워요', '낮아요', '있으시구', '있으니깐', '야해요', '중요한건', '넘칩니다', '아쉽다', '안남았어요', '있으니깐', '꾸준히', '고마워요', '미쳤다', '낮아', '중요하', '중요해', '낮구', '위험해', '야해요', '많으십니다', '망해요', '중요합니다', '중요하고', '중요해요', '낮아요', '중요해요', '좋다', '중요해요', '있는것', '고마워요', '중요해요', '좋은', '힘나는듯', '좋은', '있으면서도', '신나', '좋은데', '미쳤다는말밖에', '충분히', '괜찮으니까', '아쉽잖아요', '슬픈지', '슬프네요', '행복한', '뻔했다니까', '많아서', '꾸준히', '찡해요', '많으셨어요', '미치도록', '그러는', '미안해서', '부족하고', '많았어요', '행복한', '높은', '좋겠다', '아팠잖아', '행복하자', '좋다', '성장해가는', '좋아요', '멋있구', '멋있는', '아쉽지만', '속상하겠지만', '실망하지', '좋더라도', '심하지', '중요해요', '아니게', '있으니깐', '훈훈한', '뭉클하고', '필요할', '좋다', '힘나고', '엄청나게', '아닙니당', '변했고', '꾸준히', '좋아서', '좋겠어서', '좋겠어요', '아쉽지만', '부족하다', '좋은', '좋은', '속상하긴', '조용히', '수많은', '뿐일테지만', '고맙고', '예뻐요', '힘든거', '좋겠어요', '있으니까', '고맙', '든든하구', '좋게', '같아용', '든든했으면', '좋겠어용', '헷갈릴', '야해요', '아니아니', '계신가요', '그런거겠죠', '간절해요', '좋은', '틈틈히', '좋잖아요', '좋아서', '좋아하는', '좋아요', '낮아요', '기뻐하는', '좋잖아용', '낮아', '중요해요', '소중합니다', '아깝다고', '안됩니다', '야해요', '위급합니다', '좋아요', '좋아서', '높다고', '중요해요', '속상하고', '속상할까', '빡치는', '낮아요', '지겹지도', '있어용', '넉넉히', '속상한데', '아쉬울까', '안되서', '속상합니다', '야하는거잖아요', '미안하고', '속상하면', '당연히', '아쉬워요', '가능하신', '같고', '안된다면', '없다는', '충분해요', '기뻐서', '야해서', '아까우면', '정신차리자', '안된다면', '귀찮으시다구요', '짜릿함을', '예쁜', '독한안', '있게말', '침착하고', '중요해요', '가능하신', '상관없이', '좋다', '부족해요', '작은', '작작하자', '미안하다', '아쉽다', '가볍게', '이상하지', '슬픈', '노래였나', '가능해서', '가능합니다', '미쳤네', '정신차려요', '중요해요', '계실지', '좋다고', '빡쳐서', '미침', '정신차리라고', '그러는', '있으니까', '거뜬히', '있을텐데', '간절한게', '정신차리고', '높아야', '높아', '없다는', '좋지만', '좋겠다', '우울해서', '같아도', '대단한거', '다른거', '기대하고있는데', '속상하다', '있으니까', '속상해', '속상해', '쓰리도', '부족해요', '미안하냐', '중요합니다', '중요하지만', '심하다', '속상해요', '중요하다고', '정신차리고', '중요함', '어려운', '쉬운', '미안하고', '미안하고', '고맙고', '그러네요', '단단해', '어려워요', '당연하게', '있으니까', '낮으니깐', '어렵나요', '미안해서', '어떡함', '어떡해요', '정신차리자', '슬프다고', '야해요', '가능할까', '정신차려', '좋아요', '좋아요', '어렵다고', '안타까', '안된다고', '좋음', '중요한게', '중요해요', '중요하지만', '중요해요', '소홀히', '높을', '있지만', '속상하다', '독한', '있도록', '낮아요', '대단합니다', '느려져요', '좋을거', '속상해하지말고', '중요한게', '안됩니다', '시급한', '있으면서', '그랬어어', '좋다', '좋다', '있자나', '좋음', '가득한', '먼가', '필요하고', '조심스러운', '좋겠습니다', '있구요', '중요합니다', '중요합니다', '높습니다', '많아야', '칠한테는', '이렇게만', '심각해요', '중요합니다', '부족한거', '좋습니다', '아닙니당', '없다면', '있어서는', '안되지만', '없다면', '아닌데도', '그래두', '같네요', '중요하다구', '속상했지요', '속상했을것', '고맙고', '안될수도', '있지만', '고맙다고하고', '어려운', '고마워해', '야해요', '그랬던', '아니구요', '친근하게', '줄기차게', '싫다구요', '솔직하게', '싫어요', '있는데요', '싫어요', '가볍게', '싫어요', '안되는거', '체념하고', '있다는말하고', '좋네요', '같네요', '많다', '아니게', '독한', '있도록', '중요해요', '중요하지만', '중요하다는', '쎄게', '괜찮아', '그랬다는데', '좋아하는', '중요합니다', '낮아요', '중요하게', '중요합니다', '지겹죠', '지겨워요', '망하는거예요', '있겠죠', '없나요', '속상하지만', '속상하고', '귀찮아서', '아니라는', '다를', '없는거', '속상하다', '행복해', '미안해서', '연연하자', '심했는데', '진지해', '작은', '아니라고요', '싫으면', '쉬운', '속상하다', '작은', '그러는지', '중요합니다', '없죠', '안되서', '있으니까', '허무해서', '어땠는지', '있어서는', '속상한', '유리해요', '당연히', '속상한데', '속상할까', '속상하지만', '있는건', '쎈데', '더럽게', '기뻐하는거', '싫으면', '힘들었겠어요', '허무하고', '미안하고', '정신차리자', '속상해', '번해도', '답답하네', '기뻐', '중요해요', '안좋아서', '정신차리고', '중요합니다', '속상한지', '꾸준히', '속상하다', '번했음', '망하니', '같아도', '같네요', '중요하니까', '허탈하다', '허탈해', '미안하다', '중요한게', '높았다고', '싫은', '야해요', '없자나요', '좋은', '있다고', '좋게', '중요해요', '아니니까', '없죠', '미안해서', '중요하다고요', '미친', '미안하다', '없어여', '없습니다', '조하', '좋고', '귀찮다하시는', '좋아요', '중요하니까', '쓰려요', '어렵다고어서', '미안해서', '이럴것', '이래놓고', '쉬운', '필요하신', '쉬워요', '있지요', '충분히', '있다고', '급하다', '급해', '있었나', '있지만', '용하시면', '행복한', '피곤하지', '이상하다', '애매하긴한데', '안되나요', '당했어요', '인함', '좋겠다아', '중요해', '있는거죠', '좋겠지만', '중요합니다', '중요합니다', '중요하고', '야합니다', '자랑스러워요', '싫어요', '고맙다', '좋다', '좋아요', '자랑스러운', '싫어요', '미쳤어요', '중요해요', '뿌듯하다', '뿌듯했던', '부족하', '중요해요', '좋을테지만', '같으니까', '좋아할게', '멀었어요', '중요합니다', '가능해요', '기쁘네', '새로오신', '반가워요', '귀엽더라구요', '낮아', '아파서', '기뻐하는', '없는게', '슬펐어요', '있겠지', '없다는게', '아파서', '미안하더라고요', '있었는줄', '그러다간', '그렇잖아', '어렵다고', '원해', '같더라구요', '미안해서', '망할', '아니랍니다', '미를', '야합니다', '야함', '좋겠어요', '중요합니다', '부족해요', '중요해요', '중요한거', '가능하면', '미안해서', '미어지고', '어이없는', '강한', '어때요', '편하게', '좋은', '예쁜', '독한', '없나요', '괜찮을까', '입니다해', '험해졌지만', '신기하다고', '있네여', '비슷하지', '무섭네요', '싫잖아요', '좋아서', '싫다', '아니잖', '불안해서', '무섭고', '계시는', '계실거라', '빡치는게', '귀찮아서', '필요하신', '미안해서', '정신차리는', '그만하자', '많네요', '완벽해요', '좋겠어요', '같네요', '없을까', '아니니까', '없더라', '속상하다', '연연해', '속상함', '필요하신', '가능해요', '중요한', '미안해서', '계신가요', '있었던건', '좋았잖아요', '좋네', '고맙다고', '빡침', '기뻐하는', '대단하네', '좋게', '가능해요', '미안해서', '억울해서라도', '미안하고', '부족하다고', '있겠죠', '같네요', '조마조마하면서', '빡칠', '괜찮다고', '없다니까', '가능할까', '미안해서', '있다네요', '속상해', '짜증난다', '미안해서', '가능하고요', '슬프다', '높은데', '가능해요', '좋은데', '속상하다', '미안하다', '부족했나', '속상하네요', '미안해서', '어떡함', '안된다고요', '당연히', '속상할거', '미안해서', '없게', '솔직하게', '힘들어요', '같고', '당연히', '속상할거', '미안해서', '없게', '솔직하게', '힘들어요', '같고', '짜증나', '야함', '중요한거', '슬플', '불안해서', '높아', '낮고', '높게', '미안해서', '안남았는데', '불안해요', '야무지게', '불안하네요', '중요합니당', '중요해요', '좋다', '고마워요', '힘차게', '착한', '있을까', '안되나요', '기쁜', '당할수', '행복한', '안된다니까', '그런건', '좋으니까', '있을텐데', '간단하게', '좋아한다', '없는거로', '귀찮은', '높아용', '중요합니다', '가능하니깐', '높습니다', '많으셨습니다', '중요하니', '좋아하는', '안되니깐', '미안하네', '중요합니다', '중요한', '힘들거', '힘차게', '안남았으니', '위험해요', '편하게', '좋아서', '소중한데', '기뻐하는', '아쉽지만', '좋고', '재밌어서', '안됩니다', '하얗게', '있으니까', '있다구요', '안남았어요', '있다고', '당했어요', '심각해요', '괜찮겠지가', '많아요', '그럴것', '미안해서', '가능하니', '아까워', '중요하', '야하자나요', '어떻겠어요', '당하던', '좋네요', '야해요', '미안해서', '좋겠는데', '좋아서', '강하고', '멋있더라구요', '좋겠습니다', '있죠', '좋아서', '재밌어서', '안됨', '중요해요', '어떡하죠', '안되용', '야해요', '신남', '미치겟', '가능하고', '있어용', '많으셨습니다', '좋아서', '계실꺼라', '중요합니당', '소용없음', '있을거예요', '가능하니', '친절하게', '어려워요', '꾸준히', '괜찮습니다', '그래두', '꾸준하게', '분명히', '있으니까', '꾸준히', '그런다고', '없는거잖아요', '약한거', '방심하지말고', '속상하고', '작은', '좋은', '좋네요', '같아용', '속상하겠지만', '작은', '있도록', '계시나요', '계시는거', '간절합니다', '짜증남', '좋겠는데', '아까', '당하는', '미쳤고요', '미치겠네', '미치겠네', '같아도', '고마워요', '멋짐', '없다면', '아찔하네요', '잔망스러울', '있죠', '넘치네요', '있구', '있을테니', '아쉬워라', '우울하네', '원망하고', '있다는', '정신차려', '같고', '벅차져서', '있다고', '고마워요', '있으니까', '충분히', '가능합니다', '가능해요', '좋아서', '좋네요', '따뜻해지고', '부탁드려용', '귀찮고', '가능하구요', '가능할까', '망했다', '부탁드려용', '가능해요', '좋겠어요', '많아서', '미쳤나', '있더라구요', '있겠어요', '좋게', '맛있게', '빠른', '높은대로', '차가', '없나요', '조아서', '좋겠습니다', '많으시네요', '있길래', '좋겠습니다', '좋겠어요', '좋지', '가능합니다', '소용없어요', '소홀히', '가능하니', '좋구', '야해요', '안되네요', '빡치게', '높은', '중요한거', '좋아요', '중요한데', '그리워요', '궁금하다', '귀찮', '기대하는', '조아여', '좋아요', '심각한', '있어용', '많으니', '좋아요', '야해요', '미쳤어요', '중요해요', '간절해서', '귀찮아서', '불안해서', '심히', '힘든시기에', '있어줘서', '고맙고', '높은', '좋겠어', '꾸준히', '가능하게', '있자나', '뻔했어요', '행복해서', '예쁜', '행복하게', '없다는', '좋겠다', '똑같잖아요', '아까', '안되다가', '너무한', '아니었네', '무섭다', '안됨', '괜찮다고', '행복한', '좋을거', '있죠', '많구요', '있지만', '고마워요', '많네요', '낑겨서', '좋아요', '영원하자', '있어용', '많지만', '고마워요', '아니어도', '편하게', '소용없어요', '친절하게도', '중요해요', '중요합니다', '짧지', '간절합니다', '안되나요', '있도록', '다양한', '가능하지만', '안된다는', '차가', '심합니다', '있죠', '힘차게', '안됨', '같어서요', '헷갈려하지', '소용없나요', '정확하게', '맛있는', '소용없음', '중요해요', '좋아요', '좋은', '힘차게', '씁쓸해지는', '좋다', '없는거지', '잘생기고', '미쳐', '신나서', '있으니까', '있지만', '좋았던건', '좋아해', '딱히', '없는것', '중요하니까', '좋아용', '좋아하게', '많지만', '초조해', '힘차게', '안남았어요', '조아요', '가능해요', '필요해요', '계시는', '중요해요', '원할듯', '높고', '너무한거', '아닐', '싫으신', '정신차려', '좋게', '안된다는', '필요하신', '중요해요', '좋겠네요', '좋을', '말라', '아닌디', '있는건데', '야해요', '위험하네요', '과격한', '필요해요', '높게', '안됩니다', '멀쩡한', '야합니다', '안됩니다', '낮은걸', '중요해요', '중요하니까', '중요합니다아', '어떡할려는지', '심각해요', '상당히', '낮아요', '중요합니다', '곧있으면', '충분히', '있으니까', '확실하게', '가능하고', '확실하게', '힘드신', '작은', '야할거', '좋은데', '심하게', '있지만', '좋아요', '중요해요', '좋아서', '중요하지만', '중요해요', '좋네', '행복해', '같으니', '중요하지만', '중요하지만', '중요해요', '높게', '있어용', '높아요', '안일해야', '있을거예요', '높을', '그래두', '귀엽네요', '좋은', '정확하게', '중요하지만', '중요해요', '중요해요', '아프다', '우울하다', '좋겠다고', '중요하다는', '방심하면', '없도록', '높아도', '어떨까', '가능하겠', '방심하면', '있죠', '멋있고', '멋있다', '적합한', '없다아', '좋은', '있어용', '필요합니다', '높게', '중요한', '끊임없이', '있어용', '꾸준히', '있죠', '당연히', '꾸준히', '당연해요', '없으니', '험악해졌어', '아쉬운건', '험악해', '조켓네', '부끄럽지', '필요하신', '중요하다는', '중요하다는', '죄송한', '없나요', '대단하긴', '더라구요', '괜찮은데', '낮아', '좋게', '좋게', '없습니다', '꾸준히', '있으니까', '어렵지', '안되시는', '없다는', '괜찮겠지하는', '안되는게', '아니래도', '힘들어요', '정신차리세요', '좋겟음', '낮아요', '야할지', '짜증나네여', '싫으시면', '미칠거', '힘들다', '있다고', '답답하네', '안됩니다', '중요해요', '야합니다', '아니신', '원하시는', '좋겠네요', '편하게', '어려운', '있으니까', '낮았을', '싫음', '게으르기까지', '미치셨나요', '뻔함', '높아', '중요한', '안되지', '야하는거', '게을러', '많아서', '그래요', '약한', '가능하고', '계신데도', '좋아하는', '좋기', '나쁘면', '무섭다', '싫어요', '꾸준히', '싫으면', '피곤하게', '힘들다고', '쉬운게', '좋은', '기대하며', '미안해하는', '쉬운게', '있어라', '위험해', '훈훈했잖', '좋은', '정신차려요', '꾸준히', '대단하다', '나빴어', '어려운', '너무했음', '귀찮다고', '중요한', '행복해하는', '그렇잖아요', '예쁜', '독한', '정신차리고', '좋은데', '그만하고', '괜찮았다고요', '가능해요', '적당히', '좋아하는', '정신차려', '정신차리고', '떳떳하게', '힘들다고', '정당하게', '없나요', '높은데', '좋은데', '싫음', '계시겠지만', '다른데가서', '좋겠다', '좋게', '좋게', '있다는게', '빡침', '같은거', '안되나', '중요해요', '없으', '미치게', '속상해요', '있자나요', '속상하시잖아요', '그만할', '계시는거', '속상해', '이럴수록', '낮아요', '힘들어요', '좋으면', '정신차리고', '싫어서', '괜찮다고', '많죠', '아깝잖아요', '있죠', '있죠', '높아요', '있다구요', '싫은데', '답답해서', '그래요', '안일한', '아니겠죠', '슬플꺼', '없습니다', '있는거는', '꾸준히', '충분히', '그래요', '좋아할', '좋은', '실망하지', '쉬워요', '좋다', '황당함', '야해요', '꾸준히', '필요하', '음침하게', '많다니', '싫어요', '있지만', '있어용', '있는거에요', '억울하고', '헷갈리니까', '안되려면', '좋아요', '야합니당', '필요합니다', '그렇군요', '반해', '좋아하는데', '쉬운', '중요하구', '힘들어요', '충분히', '만족하는', '없겠죠', '예쁘네요', '안되서', '슬퍼요', '방심하지', '필요하신', '계신가용', '착실하게', '좋을거', '중요하구요', '불완전해', '대단하다', '슬프게', '방심하지마', '좋지만', '좋아요', '가능했었잖아요', '필요하신', '싫어요', '필요하', '있겠죠', '좋지', '다른거', '괜찮은', '조용히', '높았어도', '중요하고', '귀찮아서', '계신가요', '싫죠', '아프다', '행복한', '속상해서', '쉬워요', '중요해요', '기뻐서', '아파서', '쉬워요', '중요해요', '중요합니다', '대단한거에요', '계시기', '중요해요', '중요하다고', '있으니까', '있죠', '장하다', '괜찮겠죠', '좋게', '뿌듯하네요', '같네여', '정직하게', '괜찮은가요', '헷갈리시면', '불안하니까', '있죠', '착합시다', '야해요', '안된다고', '충분히', '같아서요', '이렇는데음', '안좋지만', '좋게', '좀해', '그럴', '아쉽지만', '소중해', '계신가요', '아쉽지만', '괜찮아요', '꾸준히', '좋게', '빡치게', '좋게', '있지만', '들쭉날쭉하는', '짜릿함을', '힘들어도', '낮아여', '힘들', '속상함', '속상해', '짜증나네', '그렇죠', '좋다', '있지만', '속상해', '싫잖아요', '성장하는거', '신기하면서', '힘들어요', '당연하다는', '중요해요', '대단해', '상관없이', '상관없나용', '있다는', '힘차게', '조은데', '안타깝네', '충분히', '가능했을', '잘생겼었던', '충분히', '좋아요', '좋은', '좋아했지만', '있으니까', '이렇게만', '좋겠어요', '오묘함', '낮아', '어렵겠지만', '많으셨구', '힘차게', '빡쳐하던', '익숙한', '반가워', '그러기', '아깝다', '장하다', '좋은', '그러기', '아깝다', '장하다', '좋은', '좋겠다', '아까', '아니어', '좋아요', '힘들어도', '세련됨', '있지요', '안되나요', '속상해요', '이쁘게', '중요하지만', '싫잖아요', '중요해요', '편히', '좋았', '좋아한다', '높으면', '있어용', '기쁘게', '좋아요', '중요해요', '필요하', '필요하', '필요하신', '따끔하게', '원했는데', '좋나요', '있을까요', '중요해요', '낮아서', '아팠어요', '높게', '있으니까', '있으니까', '같이가요', '있는건', '뿐입니다', '중요해요', '대단한거에요', '높다', '싫은데', '필요한', '대단한', '좋나요', '같아서요', '아쉽다', '그렇담', '미친듯이', '화끈하게', '있잖아용', '그렇담', '그렇죠', '속상해', '야함', '있는것두', '가능해', '엄청나게', '좋아하는', '속상해', '싫어요', '힘든거', '기뻐하는', '있더라도', '장하다', '실망하지말고', '대단한거', '중요하니까', '침울한거에', '기대했는데', '좋은', '실망하지말고', '있으니까', '실망하지', '안쓰러워서', '아파서', '힘들었던거', '있도록', '기쁘고', '뿌듯해서', '실망할', '당연하니까', '꾸준히', '있다니깐', '심하고', '있나용', '힘들겠지만', '좋아요', '짜릿하다', '힘들겠지만', '좋아요', '짜릿하다', '사납잖아', '힘들거에요', '분명히', '높은데', '있겠죠', '짜릿하게요', '좋네요', '중요한', '냉정하게', '힘들', '같네요', '행복합니다', '꾸준히가', '멋있다', '높다', '고마워요', '진부한', '아니어서', '좋음', '좋음', '바쁜', '중요하지', '재밌고', '잘생겼어요', '귀찮더라도', '엄청나게', '중요함다', '다른데', '있으니까', '없지만', '미쳤어', '행복해', '좋지만', '있으니까', '아쉽다', '좋겠다', '안녕히', '힘나요', '야해여', '있지말고', '중요합니다', '음침하게', '엄청나요', '꾸준히', '중요한데', '귀찮으시겠지만', '한심하', '똑똑히', '연연하자', '대단해', '아쉬워요', '안되죠', '미친', '있었냐고', '어떡하죠', '좋아요', '필요한', '신나는', '좋네요', '좋겠어요', '간절하잖아요', '중요해요', '야해요', '좋을줄', '안좋으면', '망해요', '답답한거', '있을까', '간절한거', '좋아서', '있는것', '같습니다', '아깝잖아요', '좋았잖아', '없길', '침착하게', '빨개지고', '예쁘게', '연연해', '힘들어요', '실망하지', '빨간', '예쁜', '부탁드릴게요', '이상한', '미친듯이', '중요하지만', '높았기', '계실테니까', '정신차려', '곧있으면', '안됩니다', '굉장히', '중요합니답', '높아요', '편하고', '쉬워요', '불안한', '대단해요', '신선하게', '계신가요', '계신가요', '계시다면', '장하다', '좋아요', '야해요', '자랑스런우리', '미친듯이', '멋져', '멋져', '행복하게', '중요한거', '고마운', '안녕하세용', '좋아요', '미친듯이', '힘들어도', '신나고', '좋은데', '많나요', '있으니까', '강함', '귀여운데', '화합시다', '고맙겠', '어려운', '좋겠다', '있다니', '자세히', '신나고', '설레는', '귀여워', '이쁘다', '좋다', '이쁠', '착실히', '많다는', '좋아요', '미쳤다', '좋다', '좋아용', '좋아요', '예뻐', '미친', '따뜻한', '계신가요', '있었을텐데', '많았던', '좋은데', '그럴', '없답니다', '중요한', '미쳤어요', '꾸준히', '필요하신', '멋지다', '값진', '좋네요', '있구용', '좋겠고', '좋겠', '좋은', '싫어요', '좋아요', '필요하', '필요하', '그럴거에요', '실망하지', '없어오', '장하다', '예뻐요', '있잖아여', '예뻐', '아까', '위험했지만', '먼세', '없었어요', '있는건', '예뻐', '야하는거냐고', '없이도', '있으니까', '꾸준히', '귀엽다는', '대단하네요', '좋은데', '그랬어요', '갑작스럽게', '충분히', '있어용', '아까', '간절하다', '그러는거', '그렇네요', '좋았', '미친듯이', '죄송합니다', '미친', '힘들면', '그랬고', '그랬잖아요', '꾸준히', '실망하지', '급한', '정신차려', '정신차리십시오', '힘들어진다', '위험하네요', '행복하게', '위험해요', '망한다는듯이', '뒤늦게', '높은', '장하다', '위험하네요', '위험하네요', '싫어요', '재미있니', '미치겠네', '더오진다', '많던', '안되어서', '꾸준히', '나쁘고', '안됨', '없는거야', '그러는데', '있겠지', '짱짱한', '좋다', '좋아하는', '있다는', '뿌듯하고', '있으니까', '똑똑히', '어려워도', '가능해요', '필요하신', '있죠오', '재밌어서', '궁금해서', '그러는', '이상한', '그러는', '궁금해서', '좋고', '대견해', '부족하답니다', '굉장히', '중요하답니당', '좋을', '왠만한', '중요합니다', '희로', '좋을수가', '있죠', '미쳤어요', '행복하세용', '좋다', '적응할', '있도록', '아닐', '없으니까', '같죠', '기쁘당', '안되나요', '괜찮아지구', '값질까', '많았어', '강한', '좋다', '미친', '아닌데도', '조은데', '잔잔해서', '좋았을', '좋은', '대견하다', '장하다', '예쁘다', '부럽다', '어떡하지', '스럽고', '고맙', '뿌듯하다', '꾸준하게', '장하다', '없으니까', '많아서', '장하다', '행복하게', '예쁘게', '없이도', '짜증나', '아픈데', '좋겟져', '죄송할', '다름이', '계십니다', '있으십니다', '아니구요', '없죠', '아니라는', '심심한가', '많아요', '새로운', '강해서', '싫어요', '미치겠음', '귀여운데', '좋아해요', '계신가요', '장하다', '흐뭇함을', '가능하게', '엄청나요', '저렴하게', '엄청나요', '없었구', '고랍니다', '미친다', '길은', '좋아하는', '있거든요', '좋잖아요', '편하지', '안됨', '기쁘게', '재밌다', '편히', '힘들어요', '없죠', '빡치지만', '시끄럽겠죠', '좋은', '행복해진다', '계신가요', '망해용', '같고', '있을거에요', '안된다구요', '아픈건', '좋았을텐데', '좋네요', '좋아요', '그래요', '그러는거', '있죠', '낮다고', '다름없음', '건강한', '중요합니다', '저렴합니다', '있으시다면', '귀여운', '원히', '볼록해져', '원했던거', '좋아서', '꾸준히', '좋아서', '있다구', '꾸준한게', '중요해요', '야합니다', '이럴거야', '망할', '짜릿한', '쉬워', '비싼거잖아요', '당연히', '힘들죠', '비싸게', '쉬워요', '어떠신', '상당히', '중요하니', '좋다', '중요한거', '중요하니까', '좋다', '계시져', '상관없이', '행복한', '편해질', '없을까요', '미쳤어요', '중요해요', '편하게', '아닐', '없으니까', '연연하는건', '좋지만', '없을거', '멋져', '중요한', '가능해요', '원하는', '편해요', '가능해요', '편하니까', '좋을', '가능하고', '궁금한', '중요해요', '미치도록', '이쁩니다', '가능했다고', '가능해서', '중요해요', '높아요', '꾸준히', '많은거로', '정신차려', '어려운', '중요해요', '없었고', '가능해요', '필요해요', '아닐', '없으니까', '높혀야', '있으니까', '이뿌지', '중요해요', '짜증나', '놀라운', '좋네요', '대견해', '멋있어', '고마워', '소중하게', '귀여워', '꾸준히', '좋은', '좋은', '멋지신', '궁금해서', '있다는', '죄송합', '죄송함다', '죄송함다', '아프지', '맛있는', '있다는', '놀라운', '완전히', '놀래라', '즐겁게', '멋져여', '미쳤음', '즐거운', '행복한', '좋겠다', '장하다', '강해지는', '더해', '좋아할것만', '싫어요', '좋은', '좋아요', '추하게', '행복해', '대단한거에요', '굉장히', '한심하다', '한심해', '싫테', '싫테', '넘쳐나', '미안하다', '싫테', '싫어요', '대단해', '싫테', '찌질한거', '좋은', '기대할게요', '싫테도', '있었나', '싫테', '재미없', '싫테하는', '안쓰럽다', '유치하', '싫어요', '같아서요', '싫어요', '재밌어요', '좋아서', '대단해', '미쳤음', '좋다', '소중해', '새로운', '좋음', '좋아서', '심심해서', '좋을게', '있다고', '아까', '좋아요', '행복하구', '행복하자', '재밌당', '많았어요', '좋다', '있어용', '음침하게', '대단하다', '신난', '예쁜', '예쁘게', '이상하다가', '대단하다', '좋네요', '앙한다', '어떨까', '있거든요', '넉넉히', '좋아함', '없죠', '많으셨어요', '좋아서', '좋겠', '많았어용', '좋은', '성공했어요', '행복하게', '많았어요', '귀찮아하는', '재밌고', '좋은', '바쁘니까', '무서워서', '더러워서', '짱짱해', '중요함', '찰지네', '높아요', '귀여워요', '좋은', '좋음', '좋은데', '고맙다하고', '행복했다', '바쁘고', '행복하다고', '청순하게', '재밌는', '장하다', '좋겠다', '고마워서', '멋있으신', '장하다', '재밌어요', '설레고', '좋아해서', '행복해요', '예쁜말', '아쉽지만', '이렇게만', '없을것', '중요해', '장하다', '좋다고', '좋아요', '착하세요', '힘들어도', '좋은', '멋지다', '스럽고', '신선하고', '힘든것이다', '먼수', '좋은', '좋고', '좋아요', '꾸준히', '좋겟는', '찌질한거', '무서워', '좋은데', '무서어', '힘들어', '지겨워용', '신기해', '중요한', '편하게', '미안하', '많구', '안될텐데', '좋아요', '자리수', '사랑스러', '자랑스러워요', '멋진거', '재밌어요', '미친', '장하다', '속상해', '아파오지만', '미쳤다', '마른', '속상해요', '소용없이', '원하는', '원하는', '야함', '쿠리', '중요해요', '속상해서', '행복하고', '기뻐서', '꾸준히하면', '중요해져요', '부운', '약하지', '좋다', '미친', '쎄요', '좋아요', '있는건', '있으니까', '힘들잖아', '야하지', '어색했는데', '불편한', '신나', '야해요', '많은것', '같당', '필요하', '있으세요', '가능해요', '힘든거', '필요하신', '성장했다는게', '많이는', '좋을것', '좋을것', '좋아요', '좋아야', '간절해하는데', '부운', '좋은', '필요하신', '중요해요', '기쁘게', '강한', '있을꺼야', '없는게', '높은', '꼬여서', '귀엽다', '귀엽지', '좋아요', '좋겠습니다', '지겨', '위험할수도', '높은', '무서워', '높은', '좋아할거에요', '있어용', '장하다', '힘들어져요', '불안해져요', '가능한거에요', '높나요', '있죠', '치열해서', '그래요', '꾸준히', '있지도', '연연하자', '죄송합니당', '좋고', '높은', '가능해', '궁금해서용', '어떨까', '건강하고', '행복한', '착하게', '좋아해', '굉장히', '활발한', '진정하고', '중요해요', '행복한', '연연하자', '정신차리고', '아까', '그만하자', '쉬운', '안됩니다', '괜찮다', '높으니까', '강한', '당할지', '있으니깐', '기쁘게', '다르게', '불안해하지말고', '꾸준히', '있어용', '왠만한', '많으시', '좋잖아요', '좋은', '많으니까', '꾸준히', '꾸준히', '있으니까', '꾸준히', '꾸준히하면', '좋아요', '필요하니까', '연연하자', '힘든데요', '꾸준히', '정신차려', '있으니까', '같아도', '야해요', '싫어요', '좋아요', '가능해요', '가능합니다용', '똑같아요', '가능해', '놀라운', '놀라운', '중요해', '가능하신', '쉬워요', '계신가요', '같거든요', '편하게', '힘들어', '가능합니다', '치열해서', '있으시다면', '미친', '중요해요', '편하게', '없으신', '좋네요', '있자나요', '편하게', '없으신', '없습니다', '중요해요', '안되나요', '안되는거가요', '조자', '좋을', '짜릿함', '야해요', '해로운', '짜릿한지', '없으셔도', '있으시겠죠', '즐겁게', '힘들게', '많아서', '괜찮겠지', '힘들어요', '야해요', '대단한', '중요한', '왠만한', '힘들어서', '좋아요', '좋은', '좋은', '좋은', '없으시면', '없나요', '계신가요', '대단하지', '심각한데', '새로운', '좋네요', '가능할거', '대단한', '같네용', '좋당', '좋다시', '미쳤네요', '좋다', '미쳤다', '안되잖아요', '좋다', '연연하자', '좋다', '곧있으면', '야하는건', '좋아서', '괜찮습니다', '있으니까', '좋다', '부탁드리고', '중요하다고', '있으니까', '잘맞을것', '있는거예요', '만족하지', '가능하다고', '싫어요', '힘드시겠어용', '편하게', '죄송해요', '궁금한', '있을까요', '편하게', '부탁드리고', '중요하다고', '중요하니까', '같습니다', '편하게', '없으신', '중요해요', '신나서', '있죠', '좋다', '가능해요', '가능해요', '있기는', '빨라요', '좋아서', '좋다', '예뻐', '좋을', '좋아용', '연연하자', '좋겠는', '같거든요', '가능합니다', '계시는', '신나네요', '높아요', '많구', '안되나요', '좋을까요', '중요한', '있어어', '좋은', '좋다', '추하다', '좋은', '아련했는데', '정신차리라고', '당하는', '부탁드리고', '중요하다고', '좋겠습니다', '당하자', '행복한', '귀엽게', '좋다', '아파하는', '좋은', '좋은', '심각해서', '야합니당', '좋다', '아파하는', '좋은', '좋은', '심각해서', '야합니당', '좋다', '아파하는', '좋은', '좋은', '심각해서', '야합니당', '좋은', '행복해', '존전', '좋은', '월등히', '많다', '중요한', '같고', '귀엽다', '힘겹다고', '역지', '재밌어', '좋아서', '좋다', '좋겠당', '좋아요', '같이하니까', '알쏭달쏭한', '완벽히', '확실하게', '충분히', '많았어요', '좋으네요', '행복할', '가득할', '좋은', '많았어요', '대단해', '있다는', '궁금해서', '더한', '대단하다', '있거든요', '없죠', '죄송합니다', '편하게', '불안해서', '많았어요', '괜찮', '괜찮지만', '괜찮은', '같아용', '진지하게', '많았고', '많았어용', '많았어요', '고마워요', '아닙', '많으셨어요', '중요하답니당', '많으셨어요', '많았고', '가능하고', '심하자', '힘드셨을수도', '즐거우셨을수도', '안남았는데', '아니라도', '고마워요', '많았어용', '좋아해서', '심해서', '귀찮다고', '알차', '좋아요', '아까', '이상한', '짠하고', '안쓰럽고', '안타깝다', '적당히', '필요한', '힘들다', '가능하면', '가능합니다', '아프지만', '정신차려요', '괜찮은', '필요합니다', '정신차려', '좋겠어요', '조용히', '좋아해요', '적당히하자', '편하게', '아쉬워서', '불안하면', '중요해용', '좋겟어용', '심하지', '계신가요', '속상해', '살벌하네요', '자랑스러워내', '뿌듯해', '멋있어', '고마워요', '좋아수록', '야해요', '있으니까', '정신차리고', '괜찮겠지', '실망하지말구', '길고', '굵게', '장하다', '괜찮아', '실망하지', '이상한', '싫어요', '괜찮아요', '실망하지말고', '굵게', '부들부들하면서', '쿨한', '괜찮아요', '실망하지', '좋았잖아', '실망하고', '중요한건', '아프다', '실망하지', '괜찮아', '괜찮음', '아까', '좋았잖아', '실망하지말고', '없으니까', '실망하지말고', '실망하지말기', '야해요', '실망하지말고', '좋냐', '힘들어', '중요하고', '야해용', '실망하지말고', '꾸준히', '대단한', '아닙니까', '안됩니다', '쓰리안에', '야하는가오의', '실망해서', '괜찮은', '당연한', '당연해', '있니', '미치는', '꾸준히', '미쳐계세요', '바빠서', '좋은', '아니까', '좋겠죠', '좋은', '좋아요', '힘들어', '중요한건', '정신차리셈', '처참하네', '아님요', '많앗서', '야하니', '만족해', '많지만', '장하다우리', '불안하면', '많지만', '중요하지만', '같단', '쎄게', '불안해서', '없잖니', '좋아요', '방심하지', '불안하다고', '계셔서', '좋다', '예뻐요', '예뻐요', '있으니까', '가능해요', '예쁘게', '멋져요', '실망하지말고', '중요해요', '만족하지', '기뻐', '좋네요', '장하다', '뿌듯함이', '없죠', '실망하지말고', '꾸준히', '예쁘다', '어려워요', '좋아해', '좋아하라고', '좋아하라니까', '좋아하는데', '가능합니다', '있다아', '있을까봐', '좋아요', '좋아야지', '조은', '좋아해서', '그렇단다', '높음', '조야대', '많아야', '좋은', '중요해요', '망함', '연연해', '부탁드려도', '좋아요', '어색하게', '좋습니다', '짜릿하다', '행복하다', '대단한', '안됩니다', '미친듯이', '좋음', '장하다', '영롱한', '좋아요', '장하다', '중요하다', '신나게', '예쁜', '중요합니다', '미치겟다', '있자나요', '멋져', '부탁드려용', '짜릿해', '부족하다', '짜릿해', '더줘', '장해서', '예뻐', '좋아용', '장하다', '장하다', '자랑스럽구', '장하다', '소중한', '가능하신', '부탁드릴게', '무섭', '무섭', '자랑스럽다', '계셔', '같아서는', '장하다', '안됩니다', '가능하신', '미친', '좋은', '자랑스럽구나', '장하다', '미친', '미친', '미친', '미친', '미쳤습니까', '충분히', '가능하다', '미친', '찌질함', '편하게', '높아요', '가능하다', '가능하겠니', '충분하니', '있어줘', '장하다', '예쁘다', '안되지', '미쳤다', '편하게', '옳지', '싫어요', '성공했나', '그러진', '좋아요', '낭비하다니', '고맙', '조용하고', '싫어요', '연연하자', '자랑스럽다', '좋아요', '중요해요', '좋아요', '많으니깐', '같으니깐', '있을테니', '야하는거', '중요한', '장하다', '꾸준히', '있어용', '없당', '부러워서', '대단하다', '없습니다', '좋다', '자랑스럽다', '가능해요', '신나', '짜릿해', '미친', '중요해요', '중요한'</t>
         </is>
       </c>
     </row>
